--- a/summaries/variantSummary2.xlsx
+++ b/summaries/variantSummary2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">12513|orf1ab</t>
   </si>
   <si>
+    <t xml:space="preserve">13344|orf1ab</t>
+  </si>
+  <si>
     <t xml:space="preserve">13459|orf1ab</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t xml:space="preserve">18255|orf1ab</t>
   </si>
   <si>
+    <t xml:space="preserve">18404|orf1ab</t>
+  </si>
+  <si>
     <t xml:space="preserve">18486|orf1ab</t>
   </si>
   <si>
@@ -176,6 +182,9 @@
     <t xml:space="preserve">23230|S</t>
   </si>
   <si>
+    <t xml:space="preserve">2334|orf1ab</t>
+  </si>
+  <si>
     <t xml:space="preserve">23403|S</t>
   </si>
   <si>
@@ -317,12 +326,12 @@
     <t xml:space="preserve">6388|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">7170|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">7386|orf1ab</t>
   </si>
   <si>
+    <t xml:space="preserve">7649|orf1ab</t>
+  </si>
+  <si>
     <t xml:space="preserve">7834|orf1ab</t>
   </si>
   <si>
@@ -428,6 +437,9 @@
     <t xml:space="preserve">228|NP|20200422</t>
   </si>
   <si>
+    <t xml:space="preserve">228|OP|20200422</t>
+  </si>
+  <si>
     <t xml:space="preserve">228|Saliva|20200529</t>
   </si>
   <si>
@@ -549,6 +561,9 @@
   </si>
   <si>
     <t xml:space="preserve">266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266||20200520</t>
   </si>
   <si>
     <t xml:space="preserve">266|NP-OP|20200520</t>
@@ -1259,13 +1274,22 @@
       <c r="DE1" t="s">
         <v>108</v>
       </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1280,10 +1304,10 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2"/>
+      <c r="N2"/>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1295,14 +1319,14 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-      <c r="AA2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2"/>
-      <c r="AC2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2"/>
+      <c r="AA2"/>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2"/>
+      <c r="AD2" t="s">
+        <v>29</v>
+      </c>
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
@@ -1321,17 +1345,15 @@
       <c r="AT2"/>
       <c r="AU2"/>
       <c r="AV2"/>
-      <c r="AW2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW2"/>
       <c r="AX2"/>
-      <c r="AY2"/>
+      <c r="AY2" t="s">
+        <v>50</v>
+      </c>
       <c r="AZ2"/>
       <c r="BA2"/>
       <c r="BB2"/>
-      <c r="BC2" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC2"/>
       <c r="BD2"/>
       <c r="BE2"/>
       <c r="BF2" t="s">
@@ -1339,27 +1361,29 @@
       </c>
       <c r="BG2"/>
       <c r="BH2"/>
-      <c r="BI2"/>
+      <c r="BI2" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ2"/>
       <c r="BK2"/>
-      <c r="BL2" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL2"/>
       <c r="BM2"/>
       <c r="BN2"/>
-      <c r="BO2"/>
+      <c r="BO2" t="s">
+        <v>66</v>
+      </c>
       <c r="BP2"/>
       <c r="BQ2"/>
       <c r="BR2"/>
       <c r="BS2"/>
       <c r="BT2"/>
       <c r="BU2"/>
-      <c r="BV2" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV2"/>
       <c r="BW2"/>
       <c r="BX2"/>
-      <c r="BY2"/>
+      <c r="BY2" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ2"/>
       <c r="CA2"/>
       <c r="CB2"/>
@@ -1371,12 +1395,12 @@
       <c r="CH2"/>
       <c r="CI2"/>
       <c r="CJ2"/>
-      <c r="CK2" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK2"/>
       <c r="CL2"/>
       <c r="CM2"/>
-      <c r="CN2"/>
+      <c r="CN2" t="s">
+        <v>91</v>
+      </c>
       <c r="CO2"/>
       <c r="CP2"/>
       <c r="CQ2"/>
@@ -1392,17 +1416,20 @@
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2"/>
-      <c r="DD2" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD2"/>
       <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1416,13 +1443,13 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
+      <c r="M3"/>
       <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="O3"/>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1434,14 +1461,14 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-      <c r="AA3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3"/>
-      <c r="AC3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3"/>
+      <c r="AA3"/>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3"/>
+      <c r="AD3" t="s">
+        <v>29</v>
+      </c>
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
@@ -1460,17 +1487,15 @@
       <c r="AT3"/>
       <c r="AU3"/>
       <c r="AV3"/>
-      <c r="AW3" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW3"/>
       <c r="AX3"/>
-      <c r="AY3"/>
+      <c r="AY3" t="s">
+        <v>50</v>
+      </c>
       <c r="AZ3"/>
       <c r="BA3"/>
       <c r="BB3"/>
-      <c r="BC3" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC3"/>
       <c r="BD3"/>
       <c r="BE3"/>
       <c r="BF3" t="s">
@@ -1478,27 +1503,29 @@
       </c>
       <c r="BG3"/>
       <c r="BH3"/>
-      <c r="BI3"/>
+      <c r="BI3" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ3"/>
       <c r="BK3"/>
-      <c r="BL3" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL3"/>
       <c r="BM3"/>
       <c r="BN3"/>
-      <c r="BO3"/>
+      <c r="BO3" t="s">
+        <v>66</v>
+      </c>
       <c r="BP3"/>
       <c r="BQ3"/>
       <c r="BR3"/>
       <c r="BS3"/>
       <c r="BT3"/>
       <c r="BU3"/>
-      <c r="BV3" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV3"/>
       <c r="BW3"/>
       <c r="BX3"/>
-      <c r="BY3"/>
+      <c r="BY3" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ3"/>
       <c r="CA3"/>
       <c r="CB3"/>
@@ -1510,12 +1537,12 @@
       <c r="CH3"/>
       <c r="CI3"/>
       <c r="CJ3"/>
-      <c r="CK3" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK3"/>
       <c r="CL3"/>
       <c r="CM3"/>
-      <c r="CN3"/>
+      <c r="CN3" t="s">
+        <v>91</v>
+      </c>
       <c r="CO3"/>
       <c r="CP3"/>
       <c r="CQ3"/>
@@ -1531,17 +1558,20 @@
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3"/>
-      <c r="DD3" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD3"/>
       <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1556,10 +1586,10 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4"/>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -1571,10 +1601,10 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-      <c r="AA4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4"/>
+      <c r="AA4"/>
+      <c r="AB4" t="s">
+        <v>27</v>
+      </c>
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
@@ -1601,9 +1631,7 @@
       <c r="AZ4"/>
       <c r="BA4"/>
       <c r="BB4"/>
-      <c r="BC4" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC4"/>
       <c r="BD4"/>
       <c r="BE4"/>
       <c r="BF4" t="s">
@@ -1611,27 +1639,29 @@
       </c>
       <c r="BG4"/>
       <c r="BH4"/>
-      <c r="BI4"/>
+      <c r="BI4" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ4"/>
       <c r="BK4"/>
-      <c r="BL4" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL4"/>
       <c r="BM4"/>
       <c r="BN4"/>
-      <c r="BO4"/>
+      <c r="BO4" t="s">
+        <v>66</v>
+      </c>
       <c r="BP4"/>
       <c r="BQ4"/>
       <c r="BR4"/>
       <c r="BS4"/>
       <c r="BT4"/>
       <c r="BU4"/>
-      <c r="BV4" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV4"/>
       <c r="BW4"/>
       <c r="BX4"/>
-      <c r="BY4"/>
+      <c r="BY4" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
@@ -1643,16 +1673,16 @@
       <c r="CH4"/>
       <c r="CI4"/>
       <c r="CJ4"/>
-      <c r="CK4" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK4"/>
       <c r="CL4"/>
-      <c r="CM4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN4"/>
+      <c r="CM4"/>
+      <c r="CN4" t="s">
+        <v>91</v>
+      </c>
       <c r="CO4"/>
-      <c r="CP4"/>
+      <c r="CP4" t="s">
+        <v>93</v>
+      </c>
       <c r="CQ4"/>
       <c r="CR4"/>
       <c r="CS4"/>
@@ -1666,17 +1696,20 @@
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4"/>
-      <c r="DD4" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD4"/>
       <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1691,10 +1724,10 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5"/>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1706,14 +1739,14 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
-      <c r="AA5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB5"/>
-      <c r="AC5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD5"/>
+      <c r="AA5"/>
+      <c r="AB5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5"/>
+      <c r="AD5" t="s">
+        <v>29</v>
+      </c>
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5"/>
@@ -1725,26 +1758,24 @@
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5"/>
-      <c r="AP5" t="s">
-        <v>41</v>
-      </c>
+      <c r="AP5"/>
       <c r="AQ5"/>
-      <c r="AR5"/>
+      <c r="AR5" t="s">
+        <v>43</v>
+      </c>
       <c r="AS5"/>
       <c r="AT5"/>
       <c r="AU5"/>
       <c r="AV5"/>
-      <c r="AW5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW5"/>
       <c r="AX5"/>
-      <c r="AY5"/>
+      <c r="AY5" t="s">
+        <v>50</v>
+      </c>
       <c r="AZ5"/>
       <c r="BA5"/>
       <c r="BB5"/>
-      <c r="BC5" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC5"/>
       <c r="BD5"/>
       <c r="BE5"/>
       <c r="BF5" t="s">
@@ -1752,33 +1783,35 @@
       </c>
       <c r="BG5"/>
       <c r="BH5"/>
-      <c r="BI5"/>
+      <c r="BI5" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ5"/>
       <c r="BK5"/>
-      <c r="BL5" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL5"/>
       <c r="BM5"/>
       <c r="BN5"/>
-      <c r="BO5"/>
+      <c r="BO5" t="s">
+        <v>66</v>
+      </c>
       <c r="BP5"/>
       <c r="BQ5"/>
       <c r="BR5"/>
       <c r="BS5"/>
       <c r="BT5"/>
       <c r="BU5"/>
-      <c r="BV5" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV5"/>
       <c r="BW5"/>
       <c r="BX5"/>
-      <c r="BY5"/>
-      <c r="BZ5" t="s">
-        <v>77</v>
-      </c>
+      <c r="BY5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ5"/>
       <c r="CA5"/>
       <c r="CB5"/>
-      <c r="CC5"/>
+      <c r="CC5" t="s">
+        <v>80</v>
+      </c>
       <c r="CD5"/>
       <c r="CE5"/>
       <c r="CF5"/>
@@ -1786,12 +1819,12 @@
       <c r="CH5"/>
       <c r="CI5"/>
       <c r="CJ5"/>
-      <c r="CK5" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK5"/>
       <c r="CL5"/>
       <c r="CM5"/>
-      <c r="CN5"/>
+      <c r="CN5" t="s">
+        <v>91</v>
+      </c>
       <c r="CO5"/>
       <c r="CP5"/>
       <c r="CQ5"/>
@@ -1807,17 +1840,20 @@
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5"/>
-      <c r="DD5" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD5"/>
       <c r="DE5"/>
+      <c r="DF5"/>
+      <c r="DG5" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1834,10 +1870,10 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6"/>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
@@ -1849,10 +1885,10 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
-      <c r="AA6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB6"/>
+      <c r="AA6"/>
+      <c r="AB6" t="s">
+        <v>27</v>
+      </c>
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
@@ -1861,11 +1897,11 @@
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
-      <c r="AK6" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK6"/>
       <c r="AL6"/>
-      <c r="AM6"/>
+      <c r="AM6" t="s">
+        <v>38</v>
+      </c>
       <c r="AN6"/>
       <c r="AO6"/>
       <c r="AP6"/>
@@ -1881,39 +1917,39 @@
       <c r="AZ6"/>
       <c r="BA6"/>
       <c r="BB6"/>
-      <c r="BC6" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC6"/>
       <c r="BD6"/>
       <c r="BE6"/>
       <c r="BF6" t="s">
         <v>57</v>
       </c>
       <c r="BG6"/>
-      <c r="BH6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI6"/>
+      <c r="BH6"/>
+      <c r="BI6" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ6"/>
-      <c r="BK6"/>
-      <c r="BL6" t="s">
-        <v>63</v>
-      </c>
+      <c r="BK6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL6"/>
       <c r="BM6"/>
       <c r="BN6"/>
-      <c r="BO6"/>
+      <c r="BO6" t="s">
+        <v>66</v>
+      </c>
       <c r="BP6"/>
       <c r="BQ6"/>
       <c r="BR6"/>
       <c r="BS6"/>
       <c r="BT6"/>
       <c r="BU6"/>
-      <c r="BV6" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV6"/>
       <c r="BW6"/>
       <c r="BX6"/>
-      <c r="BY6"/>
+      <c r="BY6" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ6"/>
       <c r="CA6"/>
       <c r="CB6"/>
@@ -1921,25 +1957,25 @@
       <c r="CD6"/>
       <c r="CE6"/>
       <c r="CF6"/>
-      <c r="CG6" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG6"/>
       <c r="CH6"/>
       <c r="CI6"/>
-      <c r="CJ6"/>
-      <c r="CK6" t="s">
-        <v>88</v>
-      </c>
+      <c r="CJ6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK6"/>
       <c r="CL6"/>
       <c r="CM6"/>
-      <c r="CN6"/>
+      <c r="CN6" t="s">
+        <v>91</v>
+      </c>
       <c r="CO6"/>
-      <c r="CP6" t="s">
-        <v>93</v>
-      </c>
+      <c r="CP6"/>
       <c r="CQ6"/>
       <c r="CR6"/>
-      <c r="CS6"/>
+      <c r="CS6" t="s">
+        <v>96</v>
+      </c>
       <c r="CT6"/>
       <c r="CU6"/>
       <c r="CV6"/>
@@ -1950,17 +1986,20 @@
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6"/>
-      <c r="DD6" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD6"/>
       <c r="DE6"/>
+      <c r="DF6"/>
+      <c r="DG6" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1977,10 +2016,10 @@
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7"/>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -1991,13 +2030,13 @@
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7" t="s">
-        <v>25</v>
-      </c>
+      <c r="Z7"/>
       <c r="AA7" t="s">
         <v>26</v>
       </c>
-      <c r="AB7"/>
+      <c r="AB7" t="s">
+        <v>27</v>
+      </c>
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
@@ -2006,63 +2045,63 @@
       <c r="AH7"/>
       <c r="AI7"/>
       <c r="AJ7"/>
-      <c r="AK7" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK7"/>
       <c r="AL7"/>
-      <c r="AM7"/>
+      <c r="AM7" t="s">
+        <v>38</v>
+      </c>
       <c r="AN7"/>
       <c r="AO7"/>
       <c r="AP7"/>
       <c r="AQ7"/>
       <c r="AR7"/>
       <c r="AS7"/>
-      <c r="AT7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV7"/>
-      <c r="AW7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>48</v>
+      </c>
       <c r="AX7"/>
       <c r="AY7"/>
       <c r="AZ7"/>
       <c r="BA7"/>
       <c r="BB7"/>
-      <c r="BC7" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC7"/>
       <c r="BD7"/>
       <c r="BE7"/>
       <c r="BF7" t="s">
         <v>57</v>
       </c>
       <c r="BG7"/>
-      <c r="BH7" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI7"/>
+      <c r="BH7"/>
+      <c r="BI7" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ7"/>
-      <c r="BK7"/>
-      <c r="BL7" t="s">
-        <v>63</v>
-      </c>
+      <c r="BK7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL7"/>
       <c r="BM7"/>
       <c r="BN7"/>
-      <c r="BO7"/>
+      <c r="BO7" t="s">
+        <v>66</v>
+      </c>
       <c r="BP7"/>
       <c r="BQ7"/>
       <c r="BR7"/>
       <c r="BS7"/>
       <c r="BT7"/>
       <c r="BU7"/>
-      <c r="BV7" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV7"/>
       <c r="BW7"/>
       <c r="BX7"/>
-      <c r="BY7"/>
+      <c r="BY7" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ7"/>
       <c r="CA7"/>
       <c r="CB7"/>
@@ -2070,25 +2109,25 @@
       <c r="CD7"/>
       <c r="CE7"/>
       <c r="CF7"/>
-      <c r="CG7" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG7"/>
       <c r="CH7"/>
       <c r="CI7"/>
-      <c r="CJ7"/>
-      <c r="CK7" t="s">
-        <v>88</v>
-      </c>
+      <c r="CJ7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK7"/>
       <c r="CL7"/>
       <c r="CM7"/>
-      <c r="CN7"/>
+      <c r="CN7" t="s">
+        <v>91</v>
+      </c>
       <c r="CO7"/>
-      <c r="CP7" t="s">
-        <v>93</v>
-      </c>
+      <c r="CP7"/>
       <c r="CQ7"/>
       <c r="CR7"/>
-      <c r="CS7"/>
+      <c r="CS7" t="s">
+        <v>96</v>
+      </c>
       <c r="CT7"/>
       <c r="CU7"/>
       <c r="CV7"/>
@@ -2099,17 +2138,20 @@
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7"/>
-      <c r="DD7" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD7"/>
       <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -2126,10 +2168,10 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8"/>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
@@ -2141,10 +2183,10 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
-      <c r="AA8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB8"/>
+      <c r="AA8"/>
+      <c r="AB8" t="s">
+        <v>27</v>
+      </c>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -2153,11 +2195,11 @@
       <c r="AH8"/>
       <c r="AI8"/>
       <c r="AJ8"/>
-      <c r="AK8" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK8"/>
       <c r="AL8"/>
-      <c r="AM8"/>
+      <c r="AM8" t="s">
+        <v>38</v>
+      </c>
       <c r="AN8"/>
       <c r="AO8"/>
       <c r="AP8"/>
@@ -2173,39 +2215,39 @@
       <c r="AZ8"/>
       <c r="BA8"/>
       <c r="BB8"/>
-      <c r="BC8" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC8"/>
       <c r="BD8"/>
       <c r="BE8"/>
       <c r="BF8" t="s">
         <v>57</v>
       </c>
       <c r="BG8"/>
-      <c r="BH8" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI8"/>
+      <c r="BH8"/>
+      <c r="BI8" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ8"/>
-      <c r="BK8"/>
-      <c r="BL8" t="s">
-        <v>63</v>
-      </c>
+      <c r="BK8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL8"/>
       <c r="BM8"/>
       <c r="BN8"/>
-      <c r="BO8"/>
+      <c r="BO8" t="s">
+        <v>66</v>
+      </c>
       <c r="BP8"/>
       <c r="BQ8"/>
       <c r="BR8"/>
       <c r="BS8"/>
       <c r="BT8"/>
       <c r="BU8"/>
-      <c r="BV8" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV8"/>
       <c r="BW8"/>
       <c r="BX8"/>
-      <c r="BY8"/>
+      <c r="BY8" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ8"/>
       <c r="CA8"/>
       <c r="CB8"/>
@@ -2213,25 +2255,25 @@
       <c r="CD8"/>
       <c r="CE8"/>
       <c r="CF8"/>
-      <c r="CG8" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG8"/>
       <c r="CH8"/>
       <c r="CI8"/>
-      <c r="CJ8"/>
-      <c r="CK8" t="s">
-        <v>88</v>
-      </c>
+      <c r="CJ8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK8"/>
       <c r="CL8"/>
       <c r="CM8"/>
-      <c r="CN8"/>
+      <c r="CN8" t="s">
+        <v>91</v>
+      </c>
       <c r="CO8"/>
-      <c r="CP8" t="s">
-        <v>93</v>
-      </c>
+      <c r="CP8"/>
       <c r="CQ8"/>
       <c r="CR8"/>
-      <c r="CS8"/>
+      <c r="CS8" t="s">
+        <v>96</v>
+      </c>
       <c r="CT8"/>
       <c r="CU8"/>
       <c r="CV8"/>
@@ -2242,17 +2284,20 @@
       <c r="DA8"/>
       <c r="DB8"/>
       <c r="DC8"/>
-      <c r="DD8" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD8"/>
       <c r="DE8"/>
+      <c r="DF8"/>
+      <c r="DG8" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -2269,10 +2314,10 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-      <c r="N9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9"/>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -2284,10 +2329,10 @@
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
-      <c r="AA9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB9"/>
+      <c r="AA9"/>
+      <c r="AB9" t="s">
+        <v>27</v>
+      </c>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
@@ -2296,11 +2341,11 @@
       <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
-      <c r="AK9" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK9"/>
       <c r="AL9"/>
-      <c r="AM9"/>
+      <c r="AM9" t="s">
+        <v>38</v>
+      </c>
       <c r="AN9"/>
       <c r="AO9"/>
       <c r="AP9"/>
@@ -2316,39 +2361,39 @@
       <c r="AZ9"/>
       <c r="BA9"/>
       <c r="BB9"/>
-      <c r="BC9" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC9"/>
       <c r="BD9"/>
       <c r="BE9"/>
       <c r="BF9" t="s">
         <v>57</v>
       </c>
       <c r="BG9"/>
-      <c r="BH9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI9"/>
+      <c r="BH9"/>
+      <c r="BI9" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ9"/>
-      <c r="BK9"/>
-      <c r="BL9" t="s">
-        <v>63</v>
-      </c>
+      <c r="BK9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL9"/>
       <c r="BM9"/>
       <c r="BN9"/>
-      <c r="BO9"/>
+      <c r="BO9" t="s">
+        <v>66</v>
+      </c>
       <c r="BP9"/>
       <c r="BQ9"/>
       <c r="BR9"/>
       <c r="BS9"/>
       <c r="BT9"/>
       <c r="BU9"/>
-      <c r="BV9" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV9"/>
       <c r="BW9"/>
       <c r="BX9"/>
-      <c r="BY9"/>
+      <c r="BY9" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ9"/>
       <c r="CA9"/>
       <c r="CB9"/>
@@ -2356,50 +2401,53 @@
       <c r="CD9"/>
       <c r="CE9"/>
       <c r="CF9"/>
-      <c r="CG9" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG9"/>
       <c r="CH9"/>
       <c r="CI9"/>
-      <c r="CJ9"/>
-      <c r="CK9" t="s">
-        <v>88</v>
-      </c>
+      <c r="CJ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK9"/>
       <c r="CL9"/>
       <c r="CM9"/>
-      <c r="CN9"/>
+      <c r="CN9" t="s">
+        <v>91</v>
+      </c>
       <c r="CO9"/>
-      <c r="CP9" t="s">
-        <v>93</v>
-      </c>
+      <c r="CP9"/>
       <c r="CQ9"/>
       <c r="CR9"/>
-      <c r="CS9"/>
+      <c r="CS9" t="s">
+        <v>96</v>
+      </c>
       <c r="CT9"/>
       <c r="CU9"/>
-      <c r="CV9" t="s">
-        <v>99</v>
-      </c>
+      <c r="CV9"/>
       <c r="CW9"/>
       <c r="CX9"/>
-      <c r="CY9"/>
+      <c r="CY9" t="s">
+        <v>102</v>
+      </c>
       <c r="CZ9"/>
       <c r="DA9"/>
       <c r="DB9"/>
       <c r="DC9"/>
-      <c r="DD9" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE9" t="s">
-        <v>108</v>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
+      <c r="DG9" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2414,27 +2462,27 @@
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-      <c r="N10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10"/>
+      <c r="N10"/>
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
-      <c r="U10" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10"/>
+      <c r="U10"/>
+      <c r="V10" t="s">
+        <v>21</v>
+      </c>
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
-      <c r="AA10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB10"/>
+      <c r="AA10"/>
+      <c r="AB10" t="s">
+        <v>27</v>
+      </c>
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -2461,9 +2509,7 @@
       <c r="AZ10"/>
       <c r="BA10"/>
       <c r="BB10"/>
-      <c r="BC10" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC10"/>
       <c r="BD10"/>
       <c r="BE10"/>
       <c r="BF10" t="s">
@@ -2471,31 +2517,33 @@
       </c>
       <c r="BG10"/>
       <c r="BH10"/>
-      <c r="BI10"/>
+      <c r="BI10" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ10"/>
       <c r="BK10"/>
-      <c r="BL10" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL10"/>
       <c r="BM10"/>
       <c r="BN10"/>
-      <c r="BO10"/>
+      <c r="BO10" t="s">
+        <v>66</v>
+      </c>
       <c r="BP10"/>
       <c r="BQ10"/>
       <c r="BR10"/>
       <c r="BS10"/>
       <c r="BT10"/>
       <c r="BU10"/>
-      <c r="BV10" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV10"/>
       <c r="BW10"/>
-      <c r="BX10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY10"/>
+      <c r="BX10"/>
+      <c r="BY10" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ10"/>
-      <c r="CA10"/>
+      <c r="CA10" t="s">
+        <v>78</v>
+      </c>
       <c r="CB10"/>
       <c r="CC10"/>
       <c r="CD10"/>
@@ -2505,12 +2553,12 @@
       <c r="CH10"/>
       <c r="CI10"/>
       <c r="CJ10"/>
-      <c r="CK10" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK10"/>
       <c r="CL10"/>
       <c r="CM10"/>
-      <c r="CN10"/>
+      <c r="CN10" t="s">
+        <v>91</v>
+      </c>
       <c r="CO10"/>
       <c r="CP10"/>
       <c r="CQ10"/>
@@ -2523,22 +2571,25 @@
       <c r="CX10"/>
       <c r="CY10"/>
       <c r="CZ10"/>
-      <c r="DA10" t="s">
-        <v>104</v>
-      </c>
+      <c r="DA10"/>
       <c r="DB10"/>
       <c r="DC10"/>
       <c r="DD10" t="s">
         <v>107</v>
       </c>
       <c r="DE10"/>
+      <c r="DF10"/>
+      <c r="DG10" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -2551,33 +2602,33 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11" t="s">
-        <v>13</v>
-      </c>
+      <c r="N11"/>
       <c r="O11" t="s">
         <v>14</v>
       </c>
       <c r="P11" t="s">
         <v>15</v>
       </c>
-      <c r="Q11"/>
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11"/>
-      <c r="X11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y11"/>
+      <c r="V11"/>
+      <c r="W11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11"/>
+      <c r="Y11" t="s">
+        <v>24</v>
+      </c>
       <c r="Z11"/>
-      <c r="AA11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB11"/>
+      <c r="AA11"/>
+      <c r="AB11" t="s">
+        <v>27</v>
+      </c>
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
@@ -2604,41 +2655,41 @@
       <c r="AZ11"/>
       <c r="BA11"/>
       <c r="BB11"/>
-      <c r="BC11" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC11"/>
       <c r="BD11"/>
       <c r="BE11"/>
       <c r="BF11" t="s">
         <v>57</v>
       </c>
-      <c r="BG11" t="s">
-        <v>58</v>
-      </c>
+      <c r="BG11"/>
       <c r="BH11"/>
-      <c r="BI11"/>
-      <c r="BJ11"/>
+      <c r="BI11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>61</v>
+      </c>
       <c r="BK11"/>
-      <c r="BL11" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>64</v>
-      </c>
+      <c r="BL11"/>
+      <c r="BM11"/>
       <c r="BN11"/>
-      <c r="BO11"/>
-      <c r="BP11"/>
+      <c r="BO11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>67</v>
+      </c>
       <c r="BQ11"/>
       <c r="BR11"/>
       <c r="BS11"/>
       <c r="BT11"/>
       <c r="BU11"/>
-      <c r="BV11" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV11"/>
       <c r="BW11"/>
       <c r="BX11"/>
-      <c r="BY11"/>
+      <c r="BY11" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ11"/>
       <c r="CA11"/>
       <c r="CB11"/>
@@ -2650,9 +2701,7 @@
       <c r="CH11"/>
       <c r="CI11"/>
       <c r="CJ11"/>
-      <c r="CK11" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK11"/>
       <c r="CL11"/>
       <c r="CM11"/>
       <c r="CN11" t="s">
@@ -2660,7 +2709,9 @@
       </c>
       <c r="CO11"/>
       <c r="CP11"/>
-      <c r="CQ11"/>
+      <c r="CQ11" t="s">
+        <v>94</v>
+      </c>
       <c r="CR11"/>
       <c r="CS11"/>
       <c r="CT11"/>
@@ -2671,21 +2722,24 @@
       <c r="CY11"/>
       <c r="CZ11"/>
       <c r="DA11"/>
-      <c r="DB11" t="s">
-        <v>105</v>
-      </c>
+      <c r="DB11"/>
       <c r="DC11"/>
-      <c r="DD11" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE11"/>
+      <c r="DD11"/>
+      <c r="DE11" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF11"/>
+      <c r="DG11" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2702,10 +2756,10 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-      <c r="N12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12"/>
+      <c r="N12"/>
+      <c r="O12" t="s">
+        <v>14</v>
+      </c>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
@@ -2717,10 +2771,10 @@
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
-      <c r="AA12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB12"/>
+      <c r="AA12"/>
+      <c r="AB12" t="s">
+        <v>27</v>
+      </c>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -2729,11 +2783,11 @@
       <c r="AH12"/>
       <c r="AI12"/>
       <c r="AJ12"/>
-      <c r="AK12" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK12"/>
       <c r="AL12"/>
-      <c r="AM12"/>
+      <c r="AM12" t="s">
+        <v>38</v>
+      </c>
       <c r="AN12"/>
       <c r="AO12"/>
       <c r="AP12"/>
@@ -2749,9 +2803,7 @@
       <c r="AZ12"/>
       <c r="BA12"/>
       <c r="BB12"/>
-      <c r="BC12" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC12"/>
       <c r="BD12"/>
       <c r="BE12"/>
       <c r="BF12" t="s">
@@ -2759,27 +2811,29 @@
       </c>
       <c r="BG12"/>
       <c r="BH12"/>
-      <c r="BI12"/>
+      <c r="BI12" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ12"/>
       <c r="BK12"/>
-      <c r="BL12" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL12"/>
       <c r="BM12"/>
       <c r="BN12"/>
-      <c r="BO12"/>
+      <c r="BO12" t="s">
+        <v>66</v>
+      </c>
       <c r="BP12"/>
       <c r="BQ12"/>
       <c r="BR12"/>
       <c r="BS12"/>
       <c r="BT12"/>
       <c r="BU12"/>
-      <c r="BV12" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV12"/>
       <c r="BW12"/>
       <c r="BX12"/>
-      <c r="BY12"/>
+      <c r="BY12" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ12"/>
       <c r="CA12"/>
       <c r="CB12"/>
@@ -2787,18 +2841,18 @@
       <c r="CD12"/>
       <c r="CE12"/>
       <c r="CF12"/>
-      <c r="CG12" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG12"/>
       <c r="CH12"/>
       <c r="CI12"/>
-      <c r="CJ12"/>
-      <c r="CK12" t="s">
-        <v>88</v>
-      </c>
+      <c r="CJ12" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK12"/>
       <c r="CL12"/>
       <c r="CM12"/>
-      <c r="CN12"/>
+      <c r="CN12" t="s">
+        <v>91</v>
+      </c>
       <c r="CO12"/>
       <c r="CP12"/>
       <c r="CQ12"/>
@@ -2814,17 +2868,20 @@
       <c r="DA12"/>
       <c r="DB12"/>
       <c r="DC12"/>
-      <c r="DD12" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD12"/>
       <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2841,10 +2898,10 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13"/>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>14</v>
+      </c>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
@@ -2856,10 +2913,10 @@
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
-      <c r="AA13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB13"/>
+      <c r="AA13"/>
+      <c r="AB13" t="s">
+        <v>27</v>
+      </c>
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
@@ -2868,11 +2925,11 @@
       <c r="AH13"/>
       <c r="AI13"/>
       <c r="AJ13"/>
-      <c r="AK13" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK13"/>
       <c r="AL13"/>
-      <c r="AM13"/>
+      <c r="AM13" t="s">
+        <v>38</v>
+      </c>
       <c r="AN13"/>
       <c r="AO13"/>
       <c r="AP13"/>
@@ -2888,9 +2945,7 @@
       <c r="AZ13"/>
       <c r="BA13"/>
       <c r="BB13"/>
-      <c r="BC13" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC13"/>
       <c r="BD13"/>
       <c r="BE13"/>
       <c r="BF13" t="s">
@@ -2898,27 +2953,29 @@
       </c>
       <c r="BG13"/>
       <c r="BH13"/>
-      <c r="BI13"/>
+      <c r="BI13" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ13"/>
       <c r="BK13"/>
-      <c r="BL13" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL13"/>
       <c r="BM13"/>
       <c r="BN13"/>
-      <c r="BO13"/>
+      <c r="BO13" t="s">
+        <v>66</v>
+      </c>
       <c r="BP13"/>
       <c r="BQ13"/>
       <c r="BR13"/>
       <c r="BS13"/>
       <c r="BT13"/>
       <c r="BU13"/>
-      <c r="BV13" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV13"/>
       <c r="BW13"/>
       <c r="BX13"/>
-      <c r="BY13"/>
+      <c r="BY13" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ13"/>
       <c r="CA13"/>
       <c r="CB13"/>
@@ -2926,18 +2983,18 @@
       <c r="CD13"/>
       <c r="CE13"/>
       <c r="CF13"/>
-      <c r="CG13" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG13"/>
       <c r="CH13"/>
       <c r="CI13"/>
-      <c r="CJ13"/>
-      <c r="CK13" t="s">
-        <v>88</v>
-      </c>
+      <c r="CJ13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK13"/>
       <c r="CL13"/>
       <c r="CM13"/>
-      <c r="CN13"/>
+      <c r="CN13" t="s">
+        <v>91</v>
+      </c>
       <c r="CO13"/>
       <c r="CP13"/>
       <c r="CQ13"/>
@@ -2953,17 +3010,20 @@
       <c r="DA13"/>
       <c r="DB13"/>
       <c r="DC13"/>
-      <c r="DD13" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD13"/>
       <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2980,10 +3040,10 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14"/>
+      <c r="N14"/>
+      <c r="O14" t="s">
+        <v>14</v>
+      </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -2995,10 +3055,10 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
-      <c r="AA14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB14"/>
+      <c r="AA14"/>
+      <c r="AB14" t="s">
+        <v>27</v>
+      </c>
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
@@ -3007,19 +3067,19 @@
       <c r="AH14"/>
       <c r="AI14"/>
       <c r="AJ14"/>
-      <c r="AK14" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK14"/>
       <c r="AL14"/>
-      <c r="AM14"/>
+      <c r="AM14" t="s">
+        <v>38</v>
+      </c>
       <c r="AN14"/>
       <c r="AO14"/>
       <c r="AP14"/>
-      <c r="AQ14" t="s">
-        <v>42</v>
-      </c>
+      <c r="AQ14"/>
       <c r="AR14"/>
-      <c r="AS14"/>
+      <c r="AS14" t="s">
+        <v>44</v>
+      </c>
       <c r="AT14"/>
       <c r="AU14"/>
       <c r="AV14"/>
@@ -3029,9 +3089,7 @@
       <c r="AZ14"/>
       <c r="BA14"/>
       <c r="BB14"/>
-      <c r="BC14" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC14"/>
       <c r="BD14"/>
       <c r="BE14"/>
       <c r="BF14" t="s">
@@ -3039,27 +3097,29 @@
       </c>
       <c r="BG14"/>
       <c r="BH14"/>
-      <c r="BI14"/>
+      <c r="BI14" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ14"/>
       <c r="BK14"/>
-      <c r="BL14" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL14"/>
       <c r="BM14"/>
       <c r="BN14"/>
-      <c r="BO14"/>
+      <c r="BO14" t="s">
+        <v>66</v>
+      </c>
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
       <c r="BS14"/>
       <c r="BT14"/>
       <c r="BU14"/>
-      <c r="BV14" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV14"/>
       <c r="BW14"/>
       <c r="BX14"/>
-      <c r="BY14"/>
+      <c r="BY14" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ14"/>
       <c r="CA14"/>
       <c r="CB14"/>
@@ -3067,18 +3127,18 @@
       <c r="CD14"/>
       <c r="CE14"/>
       <c r="CF14"/>
-      <c r="CG14" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG14"/>
       <c r="CH14"/>
       <c r="CI14"/>
-      <c r="CJ14"/>
-      <c r="CK14" t="s">
-        <v>88</v>
-      </c>
+      <c r="CJ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK14"/>
       <c r="CL14"/>
       <c r="CM14"/>
-      <c r="CN14"/>
+      <c r="CN14" t="s">
+        <v>91</v>
+      </c>
       <c r="CO14"/>
       <c r="CP14"/>
       <c r="CQ14"/>
@@ -3094,17 +3154,20 @@
       <c r="DA14"/>
       <c r="DB14"/>
       <c r="DC14"/>
-      <c r="DD14" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD14"/>
       <c r="DE14"/>
+      <c r="DF14"/>
+      <c r="DG14" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -3115,16 +3178,16 @@
         <v>7</v>
       </c>
       <c r="I15"/>
-      <c r="J15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15"/>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -3136,10 +3199,10 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
-      <c r="AA15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB15"/>
+      <c r="AA15"/>
+      <c r="AB15" t="s">
+        <v>27</v>
+      </c>
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
@@ -3159,52 +3222,52 @@
       <c r="AS15"/>
       <c r="AT15"/>
       <c r="AU15"/>
-      <c r="AV15" t="s">
-        <v>47</v>
-      </c>
+      <c r="AV15"/>
       <c r="AW15"/>
-      <c r="AX15"/>
+      <c r="AX15" t="s">
+        <v>49</v>
+      </c>
       <c r="AY15"/>
       <c r="AZ15"/>
       <c r="BA15"/>
       <c r="BB15"/>
-      <c r="BC15" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC15"/>
       <c r="BD15"/>
       <c r="BE15"/>
       <c r="BF15" t="s">
         <v>57</v>
       </c>
-      <c r="BG15" t="s">
-        <v>58</v>
-      </c>
+      <c r="BG15"/>
       <c r="BH15"/>
-      <c r="BI15"/>
+      <c r="BI15" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ15" t="s">
         <v>61</v>
       </c>
       <c r="BK15"/>
-      <c r="BL15" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM15"/>
-      <c r="BN15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO15"/>
+      <c r="BL15"/>
+      <c r="BM15" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN15"/>
+      <c r="BO15" t="s">
+        <v>66</v>
+      </c>
       <c r="BP15"/>
-      <c r="BQ15"/>
+      <c r="BQ15" t="s">
+        <v>68</v>
+      </c>
       <c r="BR15"/>
       <c r="BS15"/>
       <c r="BT15"/>
       <c r="BU15"/>
-      <c r="BV15" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV15"/>
       <c r="BW15"/>
       <c r="BX15"/>
-      <c r="BY15"/>
+      <c r="BY15" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ15"/>
       <c r="CA15"/>
       <c r="CB15"/>
@@ -3216,12 +3279,12 @@
       <c r="CH15"/>
       <c r="CI15"/>
       <c r="CJ15"/>
-      <c r="CK15" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK15"/>
       <c r="CL15"/>
       <c r="CM15"/>
-      <c r="CN15"/>
+      <c r="CN15" t="s">
+        <v>91</v>
+      </c>
       <c r="CO15"/>
       <c r="CP15"/>
       <c r="CQ15"/>
@@ -3237,17 +3300,20 @@
       <c r="DA15"/>
       <c r="DB15"/>
       <c r="DC15"/>
-      <c r="DD15" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD15"/>
       <c r="DE15"/>
+      <c r="DF15"/>
+      <c r="DG15" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -3262,10 +3328,10 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-      <c r="N16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16"/>
+      <c r="N16"/>
+      <c r="O16" t="s">
+        <v>14</v>
+      </c>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
@@ -3277,10 +3343,10 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
-      <c r="AA16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB16"/>
+      <c r="AA16"/>
+      <c r="AB16" t="s">
+        <v>27</v>
+      </c>
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
@@ -3293,11 +3359,11 @@
       <c r="AL16"/>
       <c r="AM16"/>
       <c r="AN16"/>
-      <c r="AO16" t="s">
-        <v>40</v>
-      </c>
+      <c r="AO16"/>
       <c r="AP16"/>
-      <c r="AQ16"/>
+      <c r="AQ16" t="s">
+        <v>42</v>
+      </c>
       <c r="AR16"/>
       <c r="AS16"/>
       <c r="AT16"/>
@@ -3309,9 +3375,7 @@
       <c r="AZ16"/>
       <c r="BA16"/>
       <c r="BB16"/>
-      <c r="BC16" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC16"/>
       <c r="BD16"/>
       <c r="BE16"/>
       <c r="BF16" t="s">
@@ -3319,29 +3383,31 @@
       </c>
       <c r="BG16"/>
       <c r="BH16"/>
-      <c r="BI16"/>
+      <c r="BI16" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ16"/>
       <c r="BK16"/>
-      <c r="BL16" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL16"/>
       <c r="BM16"/>
       <c r="BN16"/>
-      <c r="BO16"/>
+      <c r="BO16" t="s">
+        <v>66</v>
+      </c>
       <c r="BP16"/>
       <c r="BQ16"/>
       <c r="BR16"/>
       <c r="BS16"/>
       <c r="BT16"/>
-      <c r="BU16" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU16"/>
+      <c r="BV16"/>
       <c r="BW16"/>
-      <c r="BX16"/>
-      <c r="BY16"/>
+      <c r="BX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ16"/>
       <c r="CA16"/>
       <c r="CB16"/>
@@ -3353,12 +3419,12 @@
       <c r="CH16"/>
       <c r="CI16"/>
       <c r="CJ16"/>
-      <c r="CK16" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK16"/>
       <c r="CL16"/>
       <c r="CM16"/>
-      <c r="CN16"/>
+      <c r="CN16" t="s">
+        <v>91</v>
+      </c>
       <c r="CO16"/>
       <c r="CP16"/>
       <c r="CQ16"/>
@@ -3374,17 +3440,20 @@
       <c r="DA16"/>
       <c r="DB16"/>
       <c r="DC16"/>
-      <c r="DD16" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD16"/>
       <c r="DE16"/>
+      <c r="DF16"/>
+      <c r="DG16" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3399,10 +3468,10 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17"/>
+      <c r="N17"/>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
@@ -3414,24 +3483,26 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17"/>
-      <c r="AA17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17"/>
-      <c r="AC17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD17"/>
-      <c r="AE17"/>
+      <c r="AA17"/>
+      <c r="AB17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC17"/>
+      <c r="AD17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>30</v>
+      </c>
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
-      <c r="AJ17" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ17"/>
       <c r="AK17"/>
-      <c r="AL17"/>
+      <c r="AL17" t="s">
+        <v>37</v>
+      </c>
       <c r="AM17"/>
       <c r="AN17"/>
       <c r="AO17"/>
@@ -3448,9 +3519,7 @@
       <c r="AZ17"/>
       <c r="BA17"/>
       <c r="BB17"/>
-      <c r="BC17" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC17"/>
       <c r="BD17"/>
       <c r="BE17" t="s">
         <v>56</v>
@@ -3459,28 +3528,32 @@
         <v>57</v>
       </c>
       <c r="BG17"/>
-      <c r="BH17"/>
-      <c r="BI17"/>
+      <c r="BH17" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ17"/>
       <c r="BK17"/>
-      <c r="BL17" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL17"/>
       <c r="BM17"/>
       <c r="BN17"/>
-      <c r="BO17"/>
+      <c r="BO17" t="s">
+        <v>66</v>
+      </c>
       <c r="BP17"/>
       <c r="BQ17"/>
       <c r="BR17"/>
       <c r="BS17"/>
       <c r="BT17"/>
       <c r="BU17"/>
-      <c r="BV17" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV17"/>
       <c r="BW17"/>
       <c r="BX17"/>
-      <c r="BY17"/>
+      <c r="BY17" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ17"/>
       <c r="CA17"/>
       <c r="CB17"/>
@@ -3492,12 +3565,12 @@
       <c r="CH17"/>
       <c r="CI17"/>
       <c r="CJ17"/>
-      <c r="CK17" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK17"/>
       <c r="CL17"/>
       <c r="CM17"/>
-      <c r="CN17"/>
+      <c r="CN17" t="s">
+        <v>91</v>
+      </c>
       <c r="CO17"/>
       <c r="CP17"/>
       <c r="CQ17"/>
@@ -3508,24 +3581,27 @@
       <c r="CV17"/>
       <c r="CW17"/>
       <c r="CX17"/>
-      <c r="CY17" t="s">
-        <v>102</v>
-      </c>
+      <c r="CY17"/>
       <c r="CZ17"/>
-      <c r="DA17"/>
+      <c r="DA17" t="s">
+        <v>104</v>
+      </c>
       <c r="DB17"/>
       <c r="DC17"/>
-      <c r="DD17" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD17"/>
       <c r="DE17"/>
+      <c r="DF17"/>
+      <c r="DG17" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -3540,10 +3616,10 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18"/>
+      <c r="N18"/>
+      <c r="O18" t="s">
+        <v>14</v>
+      </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
@@ -3555,14 +3631,14 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
-      <c r="AA18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB18"/>
-      <c r="AC18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD18"/>
+      <c r="AA18"/>
+      <c r="AB18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18"/>
+      <c r="AD18" t="s">
+        <v>29</v>
+      </c>
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18"/>
@@ -3581,47 +3657,47 @@
       <c r="AT18"/>
       <c r="AU18"/>
       <c r="AV18"/>
-      <c r="AW18" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW18"/>
       <c r="AX18"/>
-      <c r="AY18"/>
+      <c r="AY18" t="s">
+        <v>50</v>
+      </c>
       <c r="AZ18"/>
       <c r="BA18"/>
       <c r="BB18"/>
-      <c r="BC18" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC18"/>
       <c r="BD18"/>
-      <c r="BE18" t="s">
-        <v>56</v>
-      </c>
+      <c r="BE18"/>
       <c r="BF18" t="s">
         <v>57</v>
       </c>
       <c r="BG18"/>
-      <c r="BH18"/>
-      <c r="BI18"/>
+      <c r="BH18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ18"/>
       <c r="BK18"/>
-      <c r="BL18" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL18"/>
       <c r="BM18"/>
       <c r="BN18"/>
-      <c r="BO18"/>
+      <c r="BO18" t="s">
+        <v>66</v>
+      </c>
       <c r="BP18"/>
       <c r="BQ18"/>
       <c r="BR18"/>
       <c r="BS18"/>
       <c r="BT18"/>
       <c r="BU18"/>
-      <c r="BV18" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV18"/>
       <c r="BW18"/>
       <c r="BX18"/>
-      <c r="BY18"/>
+      <c r="BY18" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ18"/>
       <c r="CA18"/>
       <c r="CB18"/>
@@ -3633,12 +3709,12 @@
       <c r="CH18"/>
       <c r="CI18"/>
       <c r="CJ18"/>
-      <c r="CK18" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK18"/>
       <c r="CL18"/>
       <c r="CM18"/>
-      <c r="CN18"/>
+      <c r="CN18" t="s">
+        <v>91</v>
+      </c>
       <c r="CO18"/>
       <c r="CP18"/>
       <c r="CQ18"/>
@@ -3648,27 +3724,28 @@
       <c r="CU18"/>
       <c r="CV18"/>
       <c r="CW18"/>
-      <c r="CX18" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY18" t="s">
-        <v>102</v>
-      </c>
+      <c r="CX18"/>
+      <c r="CY18"/>
       <c r="CZ18"/>
-      <c r="DA18"/>
+      <c r="DA18" t="s">
+        <v>104</v>
+      </c>
       <c r="DB18"/>
       <c r="DC18"/>
-      <c r="DD18" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD18"/>
       <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -3683,10 +3760,10 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19"/>
+      <c r="N19"/>
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
@@ -3698,14 +3775,14 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
-      <c r="AA19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB19"/>
-      <c r="AC19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD19"/>
+      <c r="AA19"/>
+      <c r="AB19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC19"/>
+      <c r="AD19" t="s">
+        <v>29</v>
+      </c>
       <c r="AE19"/>
       <c r="AF19"/>
       <c r="AG19"/>
@@ -3724,47 +3801,47 @@
       <c r="AT19"/>
       <c r="AU19"/>
       <c r="AV19"/>
-      <c r="AW19" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW19"/>
       <c r="AX19"/>
-      <c r="AY19"/>
+      <c r="AY19" t="s">
+        <v>50</v>
+      </c>
       <c r="AZ19"/>
       <c r="BA19"/>
       <c r="BB19"/>
-      <c r="BC19" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC19"/>
       <c r="BD19"/>
-      <c r="BE19" t="s">
-        <v>56</v>
-      </c>
+      <c r="BE19"/>
       <c r="BF19" t="s">
         <v>57</v>
       </c>
       <c r="BG19"/>
-      <c r="BH19"/>
-      <c r="BI19"/>
+      <c r="BH19" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ19"/>
       <c r="BK19"/>
-      <c r="BL19" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL19"/>
       <c r="BM19"/>
       <c r="BN19"/>
-      <c r="BO19"/>
+      <c r="BO19" t="s">
+        <v>66</v>
+      </c>
       <c r="BP19"/>
       <c r="BQ19"/>
       <c r="BR19"/>
       <c r="BS19"/>
       <c r="BT19"/>
       <c r="BU19"/>
-      <c r="BV19" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV19"/>
       <c r="BW19"/>
       <c r="BX19"/>
-      <c r="BY19"/>
+      <c r="BY19" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ19"/>
       <c r="CA19"/>
       <c r="CB19"/>
@@ -3776,12 +3853,12 @@
       <c r="CH19"/>
       <c r="CI19"/>
       <c r="CJ19"/>
-      <c r="CK19" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK19"/>
       <c r="CL19"/>
       <c r="CM19"/>
-      <c r="CN19"/>
+      <c r="CN19" t="s">
+        <v>91</v>
+      </c>
       <c r="CO19"/>
       <c r="CP19"/>
       <c r="CQ19"/>
@@ -3792,24 +3869,27 @@
       <c r="CV19"/>
       <c r="CW19"/>
       <c r="CX19"/>
-      <c r="CY19" t="s">
-        <v>102</v>
-      </c>
+      <c r="CY19"/>
       <c r="CZ19"/>
-      <c r="DA19"/>
+      <c r="DA19" t="s">
+        <v>104</v>
+      </c>
       <c r="DB19"/>
       <c r="DC19"/>
-      <c r="DD19" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD19"/>
       <c r="DE19"/>
+      <c r="DF19"/>
+      <c r="DG19" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -3824,10 +3904,10 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20"/>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
@@ -3839,14 +3919,14 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
-      <c r="AA20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB20"/>
-      <c r="AC20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD20"/>
+      <c r="AA20"/>
+      <c r="AB20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC20"/>
+      <c r="AD20" t="s">
+        <v>29</v>
+      </c>
       <c r="AE20"/>
       <c r="AF20"/>
       <c r="AG20"/>
@@ -3865,47 +3945,47 @@
       <c r="AT20"/>
       <c r="AU20"/>
       <c r="AV20"/>
-      <c r="AW20" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW20"/>
       <c r="AX20"/>
-      <c r="AY20"/>
+      <c r="AY20" t="s">
+        <v>50</v>
+      </c>
       <c r="AZ20"/>
       <c r="BA20"/>
       <c r="BB20"/>
-      <c r="BC20" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC20"/>
       <c r="BD20"/>
-      <c r="BE20" t="s">
-        <v>56</v>
-      </c>
+      <c r="BE20"/>
       <c r="BF20" t="s">
         <v>57</v>
       </c>
       <c r="BG20"/>
-      <c r="BH20"/>
-      <c r="BI20"/>
+      <c r="BH20" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ20"/>
       <c r="BK20"/>
-      <c r="BL20" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL20"/>
       <c r="BM20"/>
       <c r="BN20"/>
-      <c r="BO20"/>
+      <c r="BO20" t="s">
+        <v>66</v>
+      </c>
       <c r="BP20"/>
       <c r="BQ20"/>
       <c r="BR20"/>
       <c r="BS20"/>
       <c r="BT20"/>
       <c r="BU20"/>
-      <c r="BV20" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV20"/>
       <c r="BW20"/>
       <c r="BX20"/>
-      <c r="BY20"/>
+      <c r="BY20" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ20"/>
       <c r="CA20"/>
       <c r="CB20"/>
@@ -3917,12 +3997,12 @@
       <c r="CH20"/>
       <c r="CI20"/>
       <c r="CJ20"/>
-      <c r="CK20" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK20"/>
       <c r="CL20"/>
       <c r="CM20"/>
-      <c r="CN20"/>
+      <c r="CN20" t="s">
+        <v>91</v>
+      </c>
       <c r="CO20"/>
       <c r="CP20"/>
       <c r="CQ20"/>
@@ -3933,26 +4013,31 @@
       <c r="CV20"/>
       <c r="CW20"/>
       <c r="CX20"/>
-      <c r="CY20" t="s">
-        <v>102</v>
-      </c>
+      <c r="CY20"/>
       <c r="CZ20"/>
-      <c r="DA20"/>
+      <c r="DA20" t="s">
+        <v>104</v>
+      </c>
       <c r="DB20"/>
       <c r="DC20"/>
-      <c r="DD20" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD20"/>
       <c r="DE20"/>
+      <c r="DF20"/>
+      <c r="DG20" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21"/>
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -3964,7 +4049,9 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21"/>
+      <c r="O21" t="s">
+        <v>14</v>
+      </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
@@ -3976,20 +4063,18 @@
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
-      <c r="AA21" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA21"/>
       <c r="AB21" t="s">
         <v>27</v>
       </c>
       <c r="AC21"/>
-      <c r="AD21"/>
+      <c r="AD21" t="s">
+        <v>29</v>
+      </c>
       <c r="AE21"/>
       <c r="AF21"/>
       <c r="AG21"/>
-      <c r="AH21" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
       <c r="AK21"/>
@@ -4006,54 +4091,50 @@
       <c r="AV21"/>
       <c r="AW21"/>
       <c r="AX21"/>
-      <c r="AY21"/>
+      <c r="AY21" t="s">
+        <v>50</v>
+      </c>
       <c r="AZ21"/>
       <c r="BA21"/>
       <c r="BB21"/>
-      <c r="BC21" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC21"/>
       <c r="BD21"/>
       <c r="BE21"/>
       <c r="BF21" t="s">
         <v>57</v>
       </c>
       <c r="BG21"/>
-      <c r="BH21"/>
-      <c r="BI21"/>
+      <c r="BH21" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ21"/>
       <c r="BK21"/>
       <c r="BL21"/>
       <c r="BM21"/>
       <c r="BN21"/>
-      <c r="BO21"/>
+      <c r="BO21" t="s">
+        <v>66</v>
+      </c>
       <c r="BP21"/>
-      <c r="BQ21" t="s">
-        <v>68</v>
-      </c>
+      <c r="BQ21"/>
       <c r="BR21"/>
       <c r="BS21"/>
       <c r="BT21"/>
       <c r="BU21"/>
-      <c r="BV21" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV21"/>
       <c r="BW21"/>
       <c r="BX21"/>
-      <c r="BY21"/>
+      <c r="BY21" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ21"/>
-      <c r="CA21" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>81</v>
-      </c>
+      <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
       <c r="CE21"/>
       <c r="CF21"/>
       <c r="CG21"/>
@@ -4063,43 +4144,42 @@
       <c r="CK21"/>
       <c r="CL21"/>
       <c r="CM21"/>
-      <c r="CN21"/>
+      <c r="CN21" t="s">
+        <v>91</v>
+      </c>
       <c r="CO21"/>
       <c r="CP21"/>
-      <c r="CQ21" t="s">
-        <v>94</v>
-      </c>
+      <c r="CQ21"/>
       <c r="CR21"/>
       <c r="CS21"/>
-      <c r="CT21" t="s">
-        <v>97</v>
-      </c>
+      <c r="CT21"/>
       <c r="CU21"/>
       <c r="CV21"/>
       <c r="CW21"/>
       <c r="CX21"/>
       <c r="CY21"/>
-      <c r="CZ21" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA21"/>
+      <c r="CZ21"/>
+      <c r="DA21" t="s">
+        <v>104</v>
+      </c>
       <c r="DB21"/>
       <c r="DC21"/>
-      <c r="DD21" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD21"/>
       <c r="DE21"/>
+      <c r="DF21"/>
+      <c r="DG21" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4110,9 +4190,7 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" t="s">
-        <v>13</v>
-      </c>
+      <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
@@ -4125,18 +4203,22 @@
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
-      <c r="AA22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB22"/>
-      <c r="AC22"/>
+      <c r="AA22"/>
+      <c r="AB22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>28</v>
+      </c>
       <c r="AD22"/>
       <c r="AE22"/>
       <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
-      <c r="AJ22"/>
+      <c r="AJ22" t="s">
+        <v>35</v>
+      </c>
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
@@ -4155,24 +4237,20 @@
       <c r="AZ22"/>
       <c r="BA22"/>
       <c r="BB22"/>
-      <c r="BC22" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>55</v>
-      </c>
+      <c r="BC22"/>
+      <c r="BD22"/>
       <c r="BE22"/>
       <c r="BF22" t="s">
         <v>57</v>
       </c>
       <c r="BG22"/>
       <c r="BH22"/>
-      <c r="BI22"/>
+      <c r="BI22" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ22"/>
       <c r="BK22"/>
-      <c r="BL22" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL22"/>
       <c r="BM22"/>
       <c r="BN22"/>
       <c r="BO22"/>
@@ -4180,28 +4258,36 @@
       <c r="BQ22"/>
       <c r="BR22"/>
       <c r="BS22"/>
-      <c r="BT22"/>
+      <c r="BT22" t="s">
+        <v>71</v>
+      </c>
       <c r="BU22"/>
-      <c r="BV22" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV22"/>
       <c r="BW22"/>
       <c r="BX22"/>
-      <c r="BY22"/>
+      <c r="BY22" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ22"/>
       <c r="CA22"/>
       <c r="CB22"/>
       <c r="CC22"/>
-      <c r="CD22"/>
-      <c r="CE22"/>
-      <c r="CF22"/>
-      <c r="CG22"/>
+      <c r="CD22" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>84</v>
+      </c>
       <c r="CH22"/>
       <c r="CI22"/>
       <c r="CJ22"/>
-      <c r="CK22" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK22"/>
       <c r="CL22"/>
       <c r="CM22"/>
       <c r="CN22"/>
@@ -4210,27 +4296,36 @@
       <c r="CQ22"/>
       <c r="CR22"/>
       <c r="CS22"/>
-      <c r="CT22"/>
+      <c r="CT22" t="s">
+        <v>97</v>
+      </c>
       <c r="CU22"/>
       <c r="CV22"/>
-      <c r="CW22"/>
+      <c r="CW22" t="s">
+        <v>100</v>
+      </c>
       <c r="CX22"/>
       <c r="CY22"/>
       <c r="CZ22"/>
       <c r="DA22"/>
       <c r="DB22"/>
-      <c r="DC22"/>
-      <c r="DD22" t="s">
-        <v>107</v>
-      </c>
+      <c r="DC22" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD22"/>
       <c r="DE22"/>
+      <c r="DF22"/>
+      <c r="DG22" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -4245,29 +4340,25 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23"/>
+      <c r="N23"/>
+      <c r="O23" t="s">
+        <v>14</v>
+      </c>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23" t="s">
-        <v>17</v>
-      </c>
+      <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
-      <c r="U23" t="s">
-        <v>20</v>
-      </c>
+      <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
-      <c r="AA23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB23"/>
+      <c r="AA23"/>
+      <c r="AB23" t="s">
+        <v>27</v>
+      </c>
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
@@ -4294,39 +4385,39 @@
       <c r="AZ23"/>
       <c r="BA23"/>
       <c r="BB23"/>
-      <c r="BC23" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC23"/>
       <c r="BD23"/>
       <c r="BE23"/>
       <c r="BF23" t="s">
         <v>57</v>
       </c>
-      <c r="BG23"/>
+      <c r="BG23" t="s">
+        <v>58</v>
+      </c>
       <c r="BH23"/>
-      <c r="BI23"/>
+      <c r="BI23" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ23"/>
       <c r="BK23"/>
-      <c r="BL23" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL23"/>
       <c r="BM23"/>
       <c r="BN23"/>
-      <c r="BO23"/>
+      <c r="BO23" t="s">
+        <v>66</v>
+      </c>
       <c r="BP23"/>
       <c r="BQ23"/>
       <c r="BR23"/>
       <c r="BS23"/>
       <c r="BT23"/>
       <c r="BU23"/>
-      <c r="BV23" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV23"/>
       <c r="BW23"/>
-      <c r="BX23" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY23"/>
+      <c r="BX23"/>
+      <c r="BY23" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ23"/>
       <c r="CA23"/>
       <c r="CB23"/>
@@ -4338,12 +4429,12 @@
       <c r="CH23"/>
       <c r="CI23"/>
       <c r="CJ23"/>
-      <c r="CK23" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK23"/>
       <c r="CL23"/>
       <c r="CM23"/>
-      <c r="CN23"/>
+      <c r="CN23" t="s">
+        <v>91</v>
+      </c>
       <c r="CO23"/>
       <c r="CP23"/>
       <c r="CQ23"/>
@@ -4359,17 +4450,20 @@
       <c r="DA23"/>
       <c r="DB23"/>
       <c r="DC23"/>
-      <c r="DD23" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD23"/>
       <c r="DE23"/>
+      <c r="DF23"/>
+      <c r="DG23" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -4384,31 +4478,29 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24"/>
+      <c r="N24"/>
+      <c r="O24" t="s">
+        <v>14</v>
+      </c>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24" t="s">
-        <v>17</v>
-      </c>
-      <c r="S24"/>
+      <c r="R24"/>
+      <c r="S24" t="s">
+        <v>18</v>
+      </c>
       <c r="T24"/>
-      <c r="U24" t="s">
-        <v>20</v>
-      </c>
-      <c r="V24"/>
-      <c r="W24" t="s">
-        <v>22</v>
-      </c>
+      <c r="U24"/>
+      <c r="V24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24"/>
       <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
-      <c r="AA24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB24"/>
+      <c r="AA24"/>
+      <c r="AB24" t="s">
+        <v>27</v>
+      </c>
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
@@ -4425,9 +4517,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
       <c r="AR24"/>
-      <c r="AS24" t="s">
-        <v>44</v>
-      </c>
+      <c r="AS24"/>
       <c r="AT24"/>
       <c r="AU24"/>
       <c r="AV24"/>
@@ -4437,9 +4527,7 @@
       <c r="AZ24"/>
       <c r="BA24"/>
       <c r="BB24"/>
-      <c r="BC24" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC24"/>
       <c r="BD24"/>
       <c r="BE24"/>
       <c r="BF24" t="s">
@@ -4447,31 +4535,33 @@
       </c>
       <c r="BG24"/>
       <c r="BH24"/>
-      <c r="BI24"/>
+      <c r="BI24" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ24"/>
       <c r="BK24"/>
-      <c r="BL24" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL24"/>
       <c r="BM24"/>
       <c r="BN24"/>
-      <c r="BO24"/>
+      <c r="BO24" t="s">
+        <v>66</v>
+      </c>
       <c r="BP24"/>
       <c r="BQ24"/>
       <c r="BR24"/>
       <c r="BS24"/>
       <c r="BT24"/>
       <c r="BU24"/>
-      <c r="BV24" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV24"/>
       <c r="BW24"/>
-      <c r="BX24" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY24"/>
+      <c r="BX24"/>
+      <c r="BY24" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ24"/>
-      <c r="CA24"/>
+      <c r="CA24" t="s">
+        <v>78</v>
+      </c>
       <c r="CB24"/>
       <c r="CC24"/>
       <c r="CD24"/>
@@ -4481,12 +4571,12 @@
       <c r="CH24"/>
       <c r="CI24"/>
       <c r="CJ24"/>
-      <c r="CK24" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK24"/>
       <c r="CL24"/>
       <c r="CM24"/>
-      <c r="CN24"/>
+      <c r="CN24" t="s">
+        <v>91</v>
+      </c>
       <c r="CO24"/>
       <c r="CP24"/>
       <c r="CQ24"/>
@@ -4501,20 +4591,21 @@
       <c r="CZ24"/>
       <c r="DA24"/>
       <c r="DB24"/>
-      <c r="DC24" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD24" t="s">
-        <v>107</v>
-      </c>
+      <c r="DC24"/>
+      <c r="DD24"/>
       <c r="DE24"/>
+      <c r="DF24"/>
+      <c r="DG24" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -4529,25 +4620,31 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25"/>
+      <c r="N25"/>
+      <c r="O25" t="s">
+        <v>14</v>
+      </c>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
-      <c r="S25"/>
+      <c r="S25" t="s">
+        <v>18</v>
+      </c>
       <c r="T25"/>
       <c r="U25"/>
-      <c r="V25"/>
+      <c r="V25" t="s">
+        <v>21</v>
+      </c>
       <c r="W25"/>
-      <c r="X25"/>
+      <c r="X25" t="s">
+        <v>23</v>
+      </c>
       <c r="Y25"/>
       <c r="Z25"/>
-      <c r="AA25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB25"/>
+      <c r="AA25"/>
+      <c r="AB25" t="s">
+        <v>27</v>
+      </c>
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
@@ -4566,7 +4663,9 @@
       <c r="AR25"/>
       <c r="AS25"/>
       <c r="AT25"/>
-      <c r="AU25"/>
+      <c r="AU25" t="s">
+        <v>46</v>
+      </c>
       <c r="AV25"/>
       <c r="AW25"/>
       <c r="AX25"/>
@@ -4574,9 +4673,7 @@
       <c r="AZ25"/>
       <c r="BA25"/>
       <c r="BB25"/>
-      <c r="BC25" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC25"/>
       <c r="BD25"/>
       <c r="BE25"/>
       <c r="BF25" t="s">
@@ -4584,29 +4681,33 @@
       </c>
       <c r="BG25"/>
       <c r="BH25"/>
-      <c r="BI25"/>
+      <c r="BI25" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ25"/>
       <c r="BK25"/>
-      <c r="BL25" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL25"/>
       <c r="BM25"/>
       <c r="BN25"/>
-      <c r="BO25"/>
+      <c r="BO25" t="s">
+        <v>66</v>
+      </c>
       <c r="BP25"/>
       <c r="BQ25"/>
       <c r="BR25"/>
       <c r="BS25"/>
       <c r="BT25"/>
       <c r="BU25"/>
-      <c r="BV25" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV25"/>
       <c r="BW25"/>
       <c r="BX25"/>
-      <c r="BY25"/>
+      <c r="BY25" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ25"/>
-      <c r="CA25"/>
+      <c r="CA25" t="s">
+        <v>78</v>
+      </c>
       <c r="CB25"/>
       <c r="CC25"/>
       <c r="CD25"/>
@@ -4616,12 +4717,12 @@
       <c r="CH25"/>
       <c r="CI25"/>
       <c r="CJ25"/>
-      <c r="CK25" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK25"/>
       <c r="CL25"/>
       <c r="CM25"/>
-      <c r="CN25"/>
+      <c r="CN25" t="s">
+        <v>91</v>
+      </c>
       <c r="CO25"/>
       <c r="CP25"/>
       <c r="CQ25"/>
@@ -4637,17 +4738,22 @@
       <c r="DA25"/>
       <c r="DB25"/>
       <c r="DC25"/>
-      <c r="DD25" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD25"/>
       <c r="DE25"/>
+      <c r="DF25" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG25" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -4662,29 +4768,25 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26"/>
+      <c r="N26"/>
+      <c r="O26" t="s">
+        <v>14</v>
+      </c>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26" t="s">
-        <v>17</v>
-      </c>
+      <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
-      <c r="U26" t="s">
-        <v>20</v>
-      </c>
+      <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
       <c r="X26"/>
       <c r="Y26"/>
       <c r="Z26"/>
-      <c r="AA26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB26"/>
+      <c r="AA26"/>
+      <c r="AB26" t="s">
+        <v>27</v>
+      </c>
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26"/>
@@ -4711,9 +4813,7 @@
       <c r="AZ26"/>
       <c r="BA26"/>
       <c r="BB26"/>
-      <c r="BC26" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC26"/>
       <c r="BD26"/>
       <c r="BE26"/>
       <c r="BF26" t="s">
@@ -4721,29 +4821,29 @@
       </c>
       <c r="BG26"/>
       <c r="BH26"/>
-      <c r="BI26"/>
+      <c r="BI26" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ26"/>
       <c r="BK26"/>
-      <c r="BL26" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL26"/>
       <c r="BM26"/>
       <c r="BN26"/>
-      <c r="BO26"/>
+      <c r="BO26" t="s">
+        <v>66</v>
+      </c>
       <c r="BP26"/>
       <c r="BQ26"/>
       <c r="BR26"/>
       <c r="BS26"/>
       <c r="BT26"/>
       <c r="BU26"/>
-      <c r="BV26" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV26"/>
       <c r="BW26"/>
-      <c r="BX26" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY26"/>
+      <c r="BX26"/>
+      <c r="BY26" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ26"/>
       <c r="CA26"/>
       <c r="CB26"/>
@@ -4755,12 +4855,12 @@
       <c r="CH26"/>
       <c r="CI26"/>
       <c r="CJ26"/>
-      <c r="CK26" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK26"/>
       <c r="CL26"/>
       <c r="CM26"/>
-      <c r="CN26"/>
+      <c r="CN26" t="s">
+        <v>91</v>
+      </c>
       <c r="CO26"/>
       <c r="CP26"/>
       <c r="CQ26"/>
@@ -4776,17 +4876,20 @@
       <c r="DA26"/>
       <c r="DB26"/>
       <c r="DC26"/>
-      <c r="DD26" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD26"/>
       <c r="DE26"/>
+      <c r="DF26"/>
+      <c r="DG26" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -4801,27 +4904,29 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="N27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27"/>
+      <c r="N27"/>
+      <c r="O27" t="s">
+        <v>14</v>
+      </c>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
-      <c r="S27"/>
+      <c r="S27" t="s">
+        <v>18</v>
+      </c>
       <c r="T27"/>
-      <c r="U27" t="s">
-        <v>20</v>
-      </c>
-      <c r="V27"/>
+      <c r="U27"/>
+      <c r="V27" t="s">
+        <v>21</v>
+      </c>
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
-      <c r="AA27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB27"/>
+      <c r="AA27"/>
+      <c r="AB27" t="s">
+        <v>27</v>
+      </c>
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27"/>
@@ -4848,9 +4953,7 @@
       <c r="AZ27"/>
       <c r="BA27"/>
       <c r="BB27"/>
-      <c r="BC27" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC27"/>
       <c r="BD27"/>
       <c r="BE27"/>
       <c r="BF27" t="s">
@@ -4858,31 +4961,33 @@
       </c>
       <c r="BG27"/>
       <c r="BH27"/>
-      <c r="BI27"/>
+      <c r="BI27" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ27"/>
       <c r="BK27"/>
-      <c r="BL27" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL27"/>
       <c r="BM27"/>
       <c r="BN27"/>
-      <c r="BO27"/>
+      <c r="BO27" t="s">
+        <v>66</v>
+      </c>
       <c r="BP27"/>
       <c r="BQ27"/>
       <c r="BR27"/>
       <c r="BS27"/>
       <c r="BT27"/>
       <c r="BU27"/>
-      <c r="BV27" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV27"/>
       <c r="BW27"/>
-      <c r="BX27" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY27"/>
+      <c r="BX27"/>
+      <c r="BY27" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ27"/>
-      <c r="CA27"/>
+      <c r="CA27" t="s">
+        <v>78</v>
+      </c>
       <c r="CB27"/>
       <c r="CC27"/>
       <c r="CD27"/>
@@ -4892,12 +4997,12 @@
       <c r="CH27"/>
       <c r="CI27"/>
       <c r="CJ27"/>
-      <c r="CK27" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK27"/>
       <c r="CL27"/>
       <c r="CM27"/>
-      <c r="CN27"/>
+      <c r="CN27" t="s">
+        <v>91</v>
+      </c>
       <c r="CO27"/>
       <c r="CP27"/>
       <c r="CQ27"/>
@@ -4913,17 +5018,20 @@
       <c r="DA27"/>
       <c r="DB27"/>
       <c r="DC27"/>
-      <c r="DD27" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD27"/>
       <c r="DE27"/>
+      <c r="DF27"/>
+      <c r="DG27" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -4938,27 +5046,27 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28"/>
+      <c r="N28"/>
+      <c r="O28" t="s">
+        <v>14</v>
+      </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
-      <c r="U28" t="s">
-        <v>20</v>
-      </c>
-      <c r="V28"/>
+      <c r="U28"/>
+      <c r="V28" t="s">
+        <v>21</v>
+      </c>
       <c r="W28"/>
       <c r="X28"/>
       <c r="Y28"/>
       <c r="Z28"/>
-      <c r="AA28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB28"/>
+      <c r="AA28"/>
+      <c r="AB28" t="s">
+        <v>27</v>
+      </c>
       <c r="AC28"/>
       <c r="AD28"/>
       <c r="AE28"/>
@@ -4985,9 +5093,7 @@
       <c r="AZ28"/>
       <c r="BA28"/>
       <c r="BB28"/>
-      <c r="BC28" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC28"/>
       <c r="BD28"/>
       <c r="BE28"/>
       <c r="BF28" t="s">
@@ -4995,31 +5101,33 @@
       </c>
       <c r="BG28"/>
       <c r="BH28"/>
-      <c r="BI28"/>
+      <c r="BI28" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ28"/>
       <c r="BK28"/>
-      <c r="BL28" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL28"/>
       <c r="BM28"/>
       <c r="BN28"/>
-      <c r="BO28"/>
+      <c r="BO28" t="s">
+        <v>66</v>
+      </c>
       <c r="BP28"/>
       <c r="BQ28"/>
       <c r="BR28"/>
       <c r="BS28"/>
       <c r="BT28"/>
       <c r="BU28"/>
-      <c r="BV28" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV28"/>
       <c r="BW28"/>
-      <c r="BX28" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY28"/>
+      <c r="BX28"/>
+      <c r="BY28" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ28"/>
-      <c r="CA28"/>
+      <c r="CA28" t="s">
+        <v>78</v>
+      </c>
       <c r="CB28"/>
       <c r="CC28"/>
       <c r="CD28"/>
@@ -5029,12 +5137,12 @@
       <c r="CH28"/>
       <c r="CI28"/>
       <c r="CJ28"/>
-      <c r="CK28" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK28"/>
       <c r="CL28"/>
       <c r="CM28"/>
-      <c r="CN28"/>
+      <c r="CN28" t="s">
+        <v>91</v>
+      </c>
       <c r="CO28"/>
       <c r="CP28"/>
       <c r="CQ28"/>
@@ -5050,17 +5158,20 @@
       <c r="DA28"/>
       <c r="DB28"/>
       <c r="DC28"/>
-      <c r="DD28" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD28"/>
       <c r="DE28"/>
+      <c r="DF28"/>
+      <c r="DG28" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -5075,25 +5186,27 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29"/>
+      <c r="N29"/>
+      <c r="O29" t="s">
+        <v>14</v>
+      </c>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
-      <c r="V29"/>
+      <c r="V29" t="s">
+        <v>21</v>
+      </c>
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
-      <c r="AA29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB29"/>
+      <c r="AA29"/>
+      <c r="AB29" t="s">
+        <v>27</v>
+      </c>
       <c r="AC29"/>
       <c r="AD29"/>
       <c r="AE29"/>
@@ -5120,9 +5233,7 @@
       <c r="AZ29"/>
       <c r="BA29"/>
       <c r="BB29"/>
-      <c r="BC29" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC29"/>
       <c r="BD29"/>
       <c r="BE29"/>
       <c r="BF29" t="s">
@@ -5130,29 +5241,33 @@
       </c>
       <c r="BG29"/>
       <c r="BH29"/>
-      <c r="BI29"/>
+      <c r="BI29" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ29"/>
       <c r="BK29"/>
-      <c r="BL29" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL29"/>
       <c r="BM29"/>
       <c r="BN29"/>
-      <c r="BO29"/>
+      <c r="BO29" t="s">
+        <v>66</v>
+      </c>
       <c r="BP29"/>
       <c r="BQ29"/>
       <c r="BR29"/>
       <c r="BS29"/>
       <c r="BT29"/>
       <c r="BU29"/>
-      <c r="BV29" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV29"/>
       <c r="BW29"/>
       <c r="BX29"/>
-      <c r="BY29"/>
+      <c r="BY29" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ29"/>
-      <c r="CA29"/>
+      <c r="CA29" t="s">
+        <v>78</v>
+      </c>
       <c r="CB29"/>
       <c r="CC29"/>
       <c r="CD29"/>
@@ -5162,12 +5277,12 @@
       <c r="CH29"/>
       <c r="CI29"/>
       <c r="CJ29"/>
-      <c r="CK29" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK29"/>
       <c r="CL29"/>
       <c r="CM29"/>
-      <c r="CN29"/>
+      <c r="CN29" t="s">
+        <v>91</v>
+      </c>
       <c r="CO29"/>
       <c r="CP29"/>
       <c r="CQ29"/>
@@ -5183,19 +5298,24 @@
       <c r="DA29"/>
       <c r="DB29"/>
       <c r="DC29"/>
-      <c r="DD29" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD29"/>
       <c r="DE29"/>
+      <c r="DF29"/>
+      <c r="DG29" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30"/>
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -5206,10 +5326,10 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30"/>
+      <c r="N30"/>
+      <c r="O30" t="s">
+        <v>14</v>
+      </c>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
@@ -5221,10 +5341,10 @@
       <c r="X30"/>
       <c r="Y30"/>
       <c r="Z30"/>
-      <c r="AA30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB30"/>
+      <c r="AA30"/>
+      <c r="AB30" t="s">
+        <v>27</v>
+      </c>
       <c r="AC30"/>
       <c r="AD30"/>
       <c r="AE30"/>
@@ -5251,9 +5371,7 @@
       <c r="AZ30"/>
       <c r="BA30"/>
       <c r="BB30"/>
-      <c r="BC30" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC30"/>
       <c r="BD30"/>
       <c r="BE30"/>
       <c r="BF30" t="s">
@@ -5261,25 +5379,29 @@
       </c>
       <c r="BG30"/>
       <c r="BH30"/>
-      <c r="BI30"/>
+      <c r="BI30" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ30"/>
       <c r="BK30"/>
       <c r="BL30"/>
       <c r="BM30"/>
       <c r="BN30"/>
-      <c r="BO30"/>
+      <c r="BO30" t="s">
+        <v>66</v>
+      </c>
       <c r="BP30"/>
       <c r="BQ30"/>
       <c r="BR30"/>
       <c r="BS30"/>
       <c r="BT30"/>
       <c r="BU30"/>
-      <c r="BV30" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV30"/>
       <c r="BW30"/>
       <c r="BX30"/>
-      <c r="BY30"/>
+      <c r="BY30" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ30"/>
       <c r="CA30"/>
       <c r="CB30"/>
@@ -5291,12 +5413,12 @@
       <c r="CH30"/>
       <c r="CI30"/>
       <c r="CJ30"/>
-      <c r="CK30" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK30"/>
       <c r="CL30"/>
       <c r="CM30"/>
-      <c r="CN30"/>
+      <c r="CN30" t="s">
+        <v>91</v>
+      </c>
       <c r="CO30"/>
       <c r="CP30"/>
       <c r="CQ30"/>
@@ -5312,17 +5434,20 @@
       <c r="DA30"/>
       <c r="DB30"/>
       <c r="DC30"/>
-      <c r="DD30" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD30"/>
       <c r="DE30"/>
+      <c r="DF30"/>
+      <c r="DG30" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -5335,10 +5460,10 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31"/>
+      <c r="N31"/>
+      <c r="O31" t="s">
+        <v>14</v>
+      </c>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
@@ -5350,10 +5475,10 @@
       <c r="X31"/>
       <c r="Y31"/>
       <c r="Z31"/>
-      <c r="AA31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB31"/>
+      <c r="AA31"/>
+      <c r="AB31" t="s">
+        <v>27</v>
+      </c>
       <c r="AC31"/>
       <c r="AD31"/>
       <c r="AE31"/>
@@ -5380,9 +5505,7 @@
       <c r="AZ31"/>
       <c r="BA31"/>
       <c r="BB31"/>
-      <c r="BC31" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC31"/>
       <c r="BD31"/>
       <c r="BE31"/>
       <c r="BF31" t="s">
@@ -5390,7 +5513,9 @@
       </c>
       <c r="BG31"/>
       <c r="BH31"/>
-      <c r="BI31"/>
+      <c r="BI31" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ31"/>
       <c r="BK31"/>
       <c r="BL31"/>
@@ -5403,12 +5528,12 @@
       <c r="BS31"/>
       <c r="BT31"/>
       <c r="BU31"/>
-      <c r="BV31" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV31"/>
       <c r="BW31"/>
       <c r="BX31"/>
-      <c r="BY31"/>
+      <c r="BY31" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ31"/>
       <c r="CA31"/>
       <c r="CB31"/>
@@ -5420,12 +5545,12 @@
       <c r="CH31"/>
       <c r="CI31"/>
       <c r="CJ31"/>
-      <c r="CK31" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK31"/>
       <c r="CL31"/>
       <c r="CM31"/>
-      <c r="CN31"/>
+      <c r="CN31" t="s">
+        <v>91</v>
+      </c>
       <c r="CO31"/>
       <c r="CP31"/>
       <c r="CQ31"/>
@@ -5441,17 +5566,20 @@
       <c r="DA31"/>
       <c r="DB31"/>
       <c r="DC31"/>
-      <c r="DD31" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD31"/>
       <c r="DE31"/>
+      <c r="DF31"/>
+      <c r="DG31" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -5464,10 +5592,10 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O32"/>
+      <c r="N32"/>
+      <c r="O32" t="s">
+        <v>14</v>
+      </c>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
@@ -5479,10 +5607,10 @@
       <c r="X32"/>
       <c r="Y32"/>
       <c r="Z32"/>
-      <c r="AA32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB32"/>
+      <c r="AA32"/>
+      <c r="AB32" t="s">
+        <v>27</v>
+      </c>
       <c r="AC32"/>
       <c r="AD32"/>
       <c r="AE32"/>
@@ -5509,9 +5637,7 @@
       <c r="AZ32"/>
       <c r="BA32"/>
       <c r="BB32"/>
-      <c r="BC32" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC32"/>
       <c r="BD32"/>
       <c r="BE32"/>
       <c r="BF32" t="s">
@@ -5519,7 +5645,9 @@
       </c>
       <c r="BG32"/>
       <c r="BH32"/>
-      <c r="BI32"/>
+      <c r="BI32" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ32"/>
       <c r="BK32"/>
       <c r="BL32"/>
@@ -5532,12 +5660,12 @@
       <c r="BS32"/>
       <c r="BT32"/>
       <c r="BU32"/>
-      <c r="BV32" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV32"/>
       <c r="BW32"/>
       <c r="BX32"/>
-      <c r="BY32"/>
+      <c r="BY32" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ32"/>
       <c r="CA32"/>
       <c r="CB32"/>
@@ -5549,12 +5677,12 @@
       <c r="CH32"/>
       <c r="CI32"/>
       <c r="CJ32"/>
-      <c r="CK32" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK32"/>
       <c r="CL32"/>
       <c r="CM32"/>
-      <c r="CN32"/>
+      <c r="CN32" t="s">
+        <v>91</v>
+      </c>
       <c r="CO32"/>
       <c r="CP32"/>
       <c r="CQ32"/>
@@ -5570,17 +5698,20 @@
       <c r="DA32"/>
       <c r="DB32"/>
       <c r="DC32"/>
-      <c r="DD32" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD32"/>
       <c r="DE32"/>
+      <c r="DF32"/>
+      <c r="DG32" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -5593,10 +5724,10 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33"/>
+      <c r="N33"/>
+      <c r="O33" t="s">
+        <v>14</v>
+      </c>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
@@ -5608,10 +5739,10 @@
       <c r="X33"/>
       <c r="Y33"/>
       <c r="Z33"/>
-      <c r="AA33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB33"/>
+      <c r="AA33"/>
+      <c r="AB33" t="s">
+        <v>27</v>
+      </c>
       <c r="AC33"/>
       <c r="AD33"/>
       <c r="AE33"/>
@@ -5638,9 +5769,7 @@
       <c r="AZ33"/>
       <c r="BA33"/>
       <c r="BB33"/>
-      <c r="BC33" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC33"/>
       <c r="BD33"/>
       <c r="BE33"/>
       <c r="BF33" t="s">
@@ -5648,7 +5777,9 @@
       </c>
       <c r="BG33"/>
       <c r="BH33"/>
-      <c r="BI33"/>
+      <c r="BI33" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ33"/>
       <c r="BK33"/>
       <c r="BL33"/>
@@ -5661,12 +5792,12 @@
       <c r="BS33"/>
       <c r="BT33"/>
       <c r="BU33"/>
-      <c r="BV33" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV33"/>
       <c r="BW33"/>
       <c r="BX33"/>
-      <c r="BY33"/>
+      <c r="BY33" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ33"/>
       <c r="CA33"/>
       <c r="CB33"/>
@@ -5678,12 +5809,12 @@
       <c r="CH33"/>
       <c r="CI33"/>
       <c r="CJ33"/>
-      <c r="CK33" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK33"/>
       <c r="CL33"/>
       <c r="CM33"/>
-      <c r="CN33"/>
+      <c r="CN33" t="s">
+        <v>91</v>
+      </c>
       <c r="CO33"/>
       <c r="CP33"/>
       <c r="CQ33"/>
@@ -5699,21 +5830,22 @@
       <c r="DA33"/>
       <c r="DB33"/>
       <c r="DC33"/>
-      <c r="DD33" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD33"/>
       <c r="DE33"/>
+      <c r="DF33"/>
+      <c r="DG33" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -5724,10 +5856,10 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34"/>
+      <c r="N34"/>
+      <c r="O34" t="s">
+        <v>14</v>
+      </c>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
@@ -5739,19 +5871,17 @@
       <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34"/>
-      <c r="AA34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB34"/>
+      <c r="AA34"/>
+      <c r="AB34" t="s">
+        <v>27</v>
+      </c>
       <c r="AC34"/>
       <c r="AD34"/>
       <c r="AE34"/>
       <c r="AF34"/>
       <c r="AG34"/>
       <c r="AH34"/>
-      <c r="AI34" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI34"/>
       <c r="AJ34"/>
       <c r="AK34"/>
       <c r="AL34"/>
@@ -5771,9 +5901,7 @@
       <c r="AZ34"/>
       <c r="BA34"/>
       <c r="BB34"/>
-      <c r="BC34" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC34"/>
       <c r="BD34"/>
       <c r="BE34"/>
       <c r="BF34" t="s">
@@ -5781,31 +5909,27 @@
       </c>
       <c r="BG34"/>
       <c r="BH34"/>
-      <c r="BI34"/>
+      <c r="BI34" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ34"/>
       <c r="BK34"/>
-      <c r="BL34" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL34"/>
       <c r="BM34"/>
       <c r="BN34"/>
       <c r="BO34"/>
-      <c r="BP34" t="s">
-        <v>67</v>
-      </c>
+      <c r="BP34"/>
       <c r="BQ34"/>
-      <c r="BR34" t="s">
-        <v>69</v>
-      </c>
+      <c r="BR34"/>
       <c r="BS34"/>
       <c r="BT34"/>
       <c r="BU34"/>
-      <c r="BV34" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV34"/>
       <c r="BW34"/>
       <c r="BX34"/>
-      <c r="BY34"/>
+      <c r="BY34" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ34"/>
       <c r="CA34"/>
       <c r="CB34"/>
@@ -5817,12 +5941,12 @@
       <c r="CH34"/>
       <c r="CI34"/>
       <c r="CJ34"/>
-      <c r="CK34" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK34"/>
       <c r="CL34"/>
       <c r="CM34"/>
-      <c r="CN34"/>
+      <c r="CN34" t="s">
+        <v>91</v>
+      </c>
       <c r="CO34"/>
       <c r="CP34"/>
       <c r="CQ34"/>
@@ -5838,19 +5962,24 @@
       <c r="DA34"/>
       <c r="DB34"/>
       <c r="DC34"/>
-      <c r="DD34" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD34"/>
       <c r="DE34"/>
+      <c r="DF34"/>
+      <c r="DG34" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35"/>
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -5861,10 +5990,10 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" t="s">
-        <v>13</v>
-      </c>
-      <c r="O35"/>
+      <c r="N35"/>
+      <c r="O35" t="s">
+        <v>14</v>
+      </c>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
@@ -5876,24 +6005,22 @@
       <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
-      <c r="AA35" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB35"/>
+      <c r="AA35"/>
+      <c r="AB35" t="s">
+        <v>27</v>
+      </c>
       <c r="AC35"/>
       <c r="AD35"/>
       <c r="AE35"/>
       <c r="AF35"/>
-      <c r="AG35" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
       <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35" t="s">
-        <v>37</v>
-      </c>
+      <c r="AK35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL35"/>
       <c r="AM35"/>
       <c r="AN35"/>
       <c r="AO35"/>
@@ -5909,12 +6036,8 @@
       <c r="AY35"/>
       <c r="AZ35"/>
       <c r="BA35"/>
-      <c r="BB35" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB35"/>
+      <c r="BC35"/>
       <c r="BD35"/>
       <c r="BE35"/>
       <c r="BF35" t="s">
@@ -5922,12 +6045,12 @@
       </c>
       <c r="BG35"/>
       <c r="BH35"/>
-      <c r="BI35"/>
+      <c r="BI35" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ35"/>
       <c r="BK35"/>
-      <c r="BL35" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL35"/>
       <c r="BM35"/>
       <c r="BN35"/>
       <c r="BO35" t="s">
@@ -5936,15 +6059,19 @@
       <c r="BP35"/>
       <c r="BQ35"/>
       <c r="BR35"/>
-      <c r="BS35"/>
+      <c r="BS35" t="s">
+        <v>70</v>
+      </c>
       <c r="BT35"/>
-      <c r="BU35"/>
-      <c r="BV35" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU35" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV35"/>
       <c r="BW35"/>
       <c r="BX35"/>
-      <c r="BY35"/>
+      <c r="BY35" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ35"/>
       <c r="CA35"/>
       <c r="CB35"/>
@@ -5956,12 +6083,12 @@
       <c r="CH35"/>
       <c r="CI35"/>
       <c r="CJ35"/>
-      <c r="CK35" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK35"/>
       <c r="CL35"/>
       <c r="CM35"/>
-      <c r="CN35"/>
+      <c r="CN35" t="s">
+        <v>91</v>
+      </c>
       <c r="CO35"/>
       <c r="CP35"/>
       <c r="CQ35"/>
@@ -5977,17 +6104,20 @@
       <c r="DA35"/>
       <c r="DB35"/>
       <c r="DC35"/>
-      <c r="DD35" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD35"/>
       <c r="DE35"/>
+      <c r="DF35"/>
+      <c r="DG35" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -6000,10 +6130,10 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36" t="s">
-        <v>13</v>
-      </c>
-      <c r="O36"/>
+      <c r="N36"/>
+      <c r="O36" t="s">
+        <v>14</v>
+      </c>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
@@ -6015,26 +6145,26 @@
       <c r="X36"/>
       <c r="Y36"/>
       <c r="Z36"/>
-      <c r="AA36" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB36"/>
+      <c r="AA36"/>
+      <c r="AB36" t="s">
+        <v>27</v>
+      </c>
       <c r="AC36"/>
       <c r="AD36"/>
       <c r="AE36"/>
       <c r="AF36"/>
-      <c r="AG36" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG36"/>
       <c r="AH36"/>
-      <c r="AI36"/>
+      <c r="AI36" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ36"/>
       <c r="AK36"/>
-      <c r="AL36" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL36"/>
       <c r="AM36"/>
-      <c r="AN36"/>
+      <c r="AN36" t="s">
+        <v>39</v>
+      </c>
       <c r="AO36"/>
       <c r="AP36"/>
       <c r="AQ36"/>
@@ -6048,40 +6178,42 @@
       <c r="AY36"/>
       <c r="AZ36"/>
       <c r="BA36"/>
-      <c r="BB36" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36" t="s">
+        <v>55</v>
+      </c>
       <c r="BE36"/>
       <c r="BF36" t="s">
         <v>57</v>
       </c>
       <c r="BG36"/>
       <c r="BH36"/>
-      <c r="BI36"/>
+      <c r="BI36" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ36"/>
       <c r="BK36"/>
-      <c r="BL36" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL36"/>
       <c r="BM36"/>
       <c r="BN36"/>
-      <c r="BO36"/>
+      <c r="BO36" t="s">
+        <v>66</v>
+      </c>
       <c r="BP36"/>
       <c r="BQ36"/>
-      <c r="BR36"/>
+      <c r="BR36" t="s">
+        <v>69</v>
+      </c>
       <c r="BS36"/>
       <c r="BT36"/>
       <c r="BU36"/>
-      <c r="BV36" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV36"/>
       <c r="BW36"/>
       <c r="BX36"/>
-      <c r="BY36"/>
+      <c r="BY36" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ36"/>
       <c r="CA36"/>
       <c r="CB36"/>
@@ -6093,12 +6225,12 @@
       <c r="CH36"/>
       <c r="CI36"/>
       <c r="CJ36"/>
-      <c r="CK36" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK36"/>
       <c r="CL36"/>
       <c r="CM36"/>
-      <c r="CN36"/>
+      <c r="CN36" t="s">
+        <v>91</v>
+      </c>
       <c r="CO36"/>
       <c r="CP36"/>
       <c r="CQ36"/>
@@ -6114,17 +6246,20 @@
       <c r="DA36"/>
       <c r="DB36"/>
       <c r="DC36"/>
-      <c r="DD36" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD36"/>
       <c r="DE36"/>
+      <c r="DF36"/>
+      <c r="DG36" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -6137,10 +6272,10 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-      <c r="N37" t="s">
-        <v>13</v>
-      </c>
-      <c r="O37"/>
+      <c r="N37"/>
+      <c r="O37" t="s">
+        <v>14</v>
+      </c>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
@@ -6152,32 +6287,30 @@
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
-      <c r="AA37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB37"/>
+      <c r="AA37"/>
+      <c r="AB37" t="s">
+        <v>27</v>
+      </c>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37"/>
-      <c r="AG37" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG37"/>
       <c r="AH37"/>
-      <c r="AI37"/>
+      <c r="AI37" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ37"/>
       <c r="AK37"/>
-      <c r="AL37" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL37"/>
       <c r="AM37"/>
-      <c r="AN37"/>
+      <c r="AN37" t="s">
+        <v>39</v>
+      </c>
       <c r="AO37"/>
       <c r="AP37"/>
       <c r="AQ37"/>
-      <c r="AR37" t="s">
-        <v>43</v>
-      </c>
+      <c r="AR37"/>
       <c r="AS37"/>
       <c r="AT37"/>
       <c r="AU37"/>
@@ -6187,40 +6320,40 @@
       <c r="AY37"/>
       <c r="AZ37"/>
       <c r="BA37"/>
-      <c r="BB37" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37" t="s">
+        <v>55</v>
+      </c>
       <c r="BE37"/>
       <c r="BF37" t="s">
         <v>57</v>
       </c>
       <c r="BG37"/>
       <c r="BH37"/>
-      <c r="BI37"/>
+      <c r="BI37" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ37"/>
       <c r="BK37"/>
-      <c r="BL37" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL37"/>
       <c r="BM37"/>
       <c r="BN37"/>
-      <c r="BO37"/>
+      <c r="BO37" t="s">
+        <v>66</v>
+      </c>
       <c r="BP37"/>
       <c r="BQ37"/>
       <c r="BR37"/>
       <c r="BS37"/>
       <c r="BT37"/>
       <c r="BU37"/>
-      <c r="BV37" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV37"/>
       <c r="BW37"/>
       <c r="BX37"/>
-      <c r="BY37"/>
+      <c r="BY37" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ37"/>
       <c r="CA37"/>
       <c r="CB37"/>
@@ -6232,12 +6365,12 @@
       <c r="CH37"/>
       <c r="CI37"/>
       <c r="CJ37"/>
-      <c r="CK37" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK37"/>
       <c r="CL37"/>
       <c r="CM37"/>
-      <c r="CN37"/>
+      <c r="CN37" t="s">
+        <v>91</v>
+      </c>
       <c r="CO37"/>
       <c r="CP37"/>
       <c r="CQ37"/>
@@ -6253,21 +6386,22 @@
       <c r="DA37"/>
       <c r="DB37"/>
       <c r="DC37"/>
-      <c r="DD37" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD37"/>
       <c r="DE37"/>
+      <c r="DF37"/>
+      <c r="DG37" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -6278,10 +6412,10 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" t="s">
-        <v>13</v>
-      </c>
-      <c r="O38"/>
+      <c r="N38"/>
+      <c r="O38" t="s">
+        <v>14</v>
+      </c>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
@@ -6293,30 +6427,34 @@
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
-      <c r="AA38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB38"/>
+      <c r="AA38"/>
+      <c r="AB38" t="s">
+        <v>27</v>
+      </c>
       <c r="AC38"/>
       <c r="AD38"/>
       <c r="AE38"/>
       <c r="AF38"/>
       <c r="AG38"/>
       <c r="AH38"/>
-      <c r="AI38"/>
+      <c r="AI38" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ38"/>
       <c r="AK38"/>
       <c r="AL38"/>
       <c r="AM38"/>
-      <c r="AN38"/>
-      <c r="AO38" t="s">
-        <v>40</v>
-      </c>
+      <c r="AN38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO38"/>
       <c r="AP38"/>
       <c r="AQ38"/>
       <c r="AR38"/>
       <c r="AS38"/>
-      <c r="AT38"/>
+      <c r="AT38" t="s">
+        <v>45</v>
+      </c>
       <c r="AU38"/>
       <c r="AV38"/>
       <c r="AW38"/>
@@ -6325,39 +6463,39 @@
       <c r="AZ38"/>
       <c r="BA38"/>
       <c r="BB38"/>
-      <c r="BC38" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD38"/>
+      <c r="BC38"/>
+      <c r="BD38" t="s">
+        <v>55</v>
+      </c>
       <c r="BE38"/>
       <c r="BF38" t="s">
         <v>57</v>
       </c>
       <c r="BG38"/>
       <c r="BH38"/>
-      <c r="BI38"/>
+      <c r="BI38" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ38"/>
       <c r="BK38"/>
-      <c r="BL38" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL38"/>
       <c r="BM38"/>
       <c r="BN38"/>
-      <c r="BO38"/>
+      <c r="BO38" t="s">
+        <v>66</v>
+      </c>
       <c r="BP38"/>
       <c r="BQ38"/>
       <c r="BR38"/>
       <c r="BS38"/>
       <c r="BT38"/>
-      <c r="BU38" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV38" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU38"/>
+      <c r="BV38"/>
       <c r="BW38"/>
       <c r="BX38"/>
-      <c r="BY38"/>
+      <c r="BY38" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ38"/>
       <c r="CA38"/>
       <c r="CB38"/>
@@ -6369,12 +6507,12 @@
       <c r="CH38"/>
       <c r="CI38"/>
       <c r="CJ38"/>
-      <c r="CK38" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK38"/>
       <c r="CL38"/>
       <c r="CM38"/>
-      <c r="CN38"/>
+      <c r="CN38" t="s">
+        <v>91</v>
+      </c>
       <c r="CO38"/>
       <c r="CP38"/>
       <c r="CQ38"/>
@@ -6390,17 +6528,20 @@
       <c r="DA38"/>
       <c r="DB38"/>
       <c r="DC38"/>
-      <c r="DD38" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD38"/>
       <c r="DE38"/>
+      <c r="DF38"/>
+      <c r="DG38" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -6415,10 +6556,10 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39"/>
+      <c r="N39"/>
+      <c r="O39" t="s">
+        <v>14</v>
+      </c>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
@@ -6430,10 +6571,10 @@
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
-      <c r="AA39" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB39"/>
+      <c r="AA39"/>
+      <c r="AB39" t="s">
+        <v>27</v>
+      </c>
       <c r="AC39"/>
       <c r="AD39"/>
       <c r="AE39"/>
@@ -6446,11 +6587,11 @@
       <c r="AL39"/>
       <c r="AM39"/>
       <c r="AN39"/>
-      <c r="AO39" t="s">
-        <v>40</v>
-      </c>
+      <c r="AO39"/>
       <c r="AP39"/>
-      <c r="AQ39"/>
+      <c r="AQ39" t="s">
+        <v>42</v>
+      </c>
       <c r="AR39"/>
       <c r="AS39"/>
       <c r="AT39"/>
@@ -6462,9 +6603,7 @@
       <c r="AZ39"/>
       <c r="BA39"/>
       <c r="BB39"/>
-      <c r="BC39" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC39"/>
       <c r="BD39"/>
       <c r="BE39"/>
       <c r="BF39" t="s">
@@ -6472,29 +6611,31 @@
       </c>
       <c r="BG39"/>
       <c r="BH39"/>
-      <c r="BI39"/>
+      <c r="BI39" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ39"/>
       <c r="BK39"/>
-      <c r="BL39" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL39"/>
       <c r="BM39"/>
       <c r="BN39"/>
-      <c r="BO39"/>
+      <c r="BO39" t="s">
+        <v>66</v>
+      </c>
       <c r="BP39"/>
       <c r="BQ39"/>
       <c r="BR39"/>
       <c r="BS39"/>
       <c r="BT39"/>
-      <c r="BU39" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV39" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU39"/>
+      <c r="BV39"/>
       <c r="BW39"/>
-      <c r="BX39"/>
-      <c r="BY39"/>
+      <c r="BX39" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ39"/>
       <c r="CA39"/>
       <c r="CB39"/>
@@ -6506,12 +6647,12 @@
       <c r="CH39"/>
       <c r="CI39"/>
       <c r="CJ39"/>
-      <c r="CK39" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK39"/>
       <c r="CL39"/>
       <c r="CM39"/>
-      <c r="CN39"/>
+      <c r="CN39" t="s">
+        <v>91</v>
+      </c>
       <c r="CO39"/>
       <c r="CP39"/>
       <c r="CQ39"/>
@@ -6527,17 +6668,20 @@
       <c r="DA39"/>
       <c r="DB39"/>
       <c r="DC39"/>
-      <c r="DD39" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD39"/>
       <c r="DE39"/>
+      <c r="DF39"/>
+      <c r="DG39" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -6552,10 +6696,10 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" t="s">
-        <v>13</v>
-      </c>
-      <c r="O40"/>
+      <c r="N40"/>
+      <c r="O40" t="s">
+        <v>14</v>
+      </c>
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
@@ -6567,10 +6711,10 @@
       <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
-      <c r="AA40" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB40"/>
+      <c r="AA40"/>
+      <c r="AB40" t="s">
+        <v>27</v>
+      </c>
       <c r="AC40"/>
       <c r="AD40"/>
       <c r="AE40"/>
@@ -6583,11 +6727,11 @@
       <c r="AL40"/>
       <c r="AM40"/>
       <c r="AN40"/>
-      <c r="AO40" t="s">
-        <v>40</v>
-      </c>
+      <c r="AO40"/>
       <c r="AP40"/>
-      <c r="AQ40"/>
+      <c r="AQ40" t="s">
+        <v>42</v>
+      </c>
       <c r="AR40"/>
       <c r="AS40"/>
       <c r="AT40"/>
@@ -6599,9 +6743,7 @@
       <c r="AZ40"/>
       <c r="BA40"/>
       <c r="BB40"/>
-      <c r="BC40" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC40"/>
       <c r="BD40"/>
       <c r="BE40"/>
       <c r="BF40" t="s">
@@ -6609,29 +6751,31 @@
       </c>
       <c r="BG40"/>
       <c r="BH40"/>
-      <c r="BI40"/>
+      <c r="BI40" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ40"/>
       <c r="BK40"/>
-      <c r="BL40" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL40"/>
       <c r="BM40"/>
       <c r="BN40"/>
-      <c r="BO40"/>
+      <c r="BO40" t="s">
+        <v>66</v>
+      </c>
       <c r="BP40"/>
       <c r="BQ40"/>
       <c r="BR40"/>
       <c r="BS40"/>
       <c r="BT40"/>
-      <c r="BU40" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV40" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU40"/>
+      <c r="BV40"/>
       <c r="BW40"/>
-      <c r="BX40"/>
-      <c r="BY40"/>
+      <c r="BX40" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ40"/>
       <c r="CA40"/>
       <c r="CB40"/>
@@ -6643,12 +6787,12 @@
       <c r="CH40"/>
       <c r="CI40"/>
       <c r="CJ40"/>
-      <c r="CK40" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK40"/>
       <c r="CL40"/>
       <c r="CM40"/>
-      <c r="CN40"/>
+      <c r="CN40" t="s">
+        <v>91</v>
+      </c>
       <c r="CO40"/>
       <c r="CP40"/>
       <c r="CQ40"/>
@@ -6664,26 +6808,27 @@
       <c r="DA40"/>
       <c r="DB40"/>
       <c r="DC40"/>
-      <c r="DD40" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD40"/>
       <c r="DE40"/>
+      <c r="DF40"/>
+      <c r="DG40" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>169</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41" t="s">
-        <v>5</v>
-      </c>
+      <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
@@ -6691,10 +6836,10 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-      <c r="N41" t="s">
-        <v>13</v>
-      </c>
-      <c r="O41"/>
+      <c r="N41"/>
+      <c r="O41" t="s">
+        <v>14</v>
+      </c>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41"/>
@@ -6706,10 +6851,10 @@
       <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
-      <c r="AA41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB41"/>
+      <c r="AA41"/>
+      <c r="AB41" t="s">
+        <v>27</v>
+      </c>
       <c r="AC41"/>
       <c r="AD41"/>
       <c r="AE41"/>
@@ -6724,7 +6869,9 @@
       <c r="AN41"/>
       <c r="AO41"/>
       <c r="AP41"/>
-      <c r="AQ41"/>
+      <c r="AQ41" t="s">
+        <v>42</v>
+      </c>
       <c r="AR41"/>
       <c r="AS41"/>
       <c r="AT41"/>
@@ -6736,9 +6883,7 @@
       <c r="AZ41"/>
       <c r="BA41"/>
       <c r="BB41"/>
-      <c r="BC41" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC41"/>
       <c r="BD41"/>
       <c r="BE41"/>
       <c r="BF41" t="s">
@@ -6746,27 +6891,31 @@
       </c>
       <c r="BG41"/>
       <c r="BH41"/>
-      <c r="BI41"/>
+      <c r="BI41" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ41"/>
       <c r="BK41"/>
-      <c r="BL41" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL41"/>
       <c r="BM41"/>
       <c r="BN41"/>
-      <c r="BO41"/>
+      <c r="BO41" t="s">
+        <v>66</v>
+      </c>
       <c r="BP41"/>
       <c r="BQ41"/>
       <c r="BR41"/>
       <c r="BS41"/>
       <c r="BT41"/>
       <c r="BU41"/>
-      <c r="BV41" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV41"/>
       <c r="BW41"/>
-      <c r="BX41"/>
-      <c r="BY41"/>
+      <c r="BX41" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ41"/>
       <c r="CA41"/>
       <c r="CB41"/>
@@ -6778,12 +6927,12 @@
       <c r="CH41"/>
       <c r="CI41"/>
       <c r="CJ41"/>
-      <c r="CK41" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK41"/>
       <c r="CL41"/>
       <c r="CM41"/>
-      <c r="CN41"/>
+      <c r="CN41" t="s">
+        <v>91</v>
+      </c>
       <c r="CO41"/>
       <c r="CP41"/>
       <c r="CQ41"/>
@@ -6799,24 +6948,29 @@
       <c r="DA41"/>
       <c r="DB41"/>
       <c r="DC41"/>
-      <c r="DD41" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD41"/>
       <c r="DE41"/>
+      <c r="DF41"/>
+      <c r="DG41" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42"/>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
@@ -6824,27 +6978,25 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42" t="s">
-        <v>13</v>
-      </c>
-      <c r="O42"/>
+      <c r="N42"/>
+      <c r="O42" t="s">
+        <v>14</v>
+      </c>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
-      <c r="U42" t="s">
-        <v>20</v>
-      </c>
+      <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
-      <c r="AA42" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB42"/>
+      <c r="AA42"/>
+      <c r="AB42" t="s">
+        <v>27</v>
+      </c>
       <c r="AC42"/>
       <c r="AD42"/>
       <c r="AE42"/>
@@ -6871,9 +7023,7 @@
       <c r="AZ42"/>
       <c r="BA42"/>
       <c r="BB42"/>
-      <c r="BC42" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC42"/>
       <c r="BD42"/>
       <c r="BE42"/>
       <c r="BF42" t="s">
@@ -6881,31 +7031,29 @@
       </c>
       <c r="BG42"/>
       <c r="BH42"/>
-      <c r="BI42"/>
+      <c r="BI42" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ42"/>
       <c r="BK42"/>
-      <c r="BL42" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL42"/>
       <c r="BM42"/>
       <c r="BN42"/>
-      <c r="BO42"/>
+      <c r="BO42" t="s">
+        <v>66</v>
+      </c>
       <c r="BP42"/>
       <c r="BQ42"/>
       <c r="BR42"/>
-      <c r="BS42" t="s">
-        <v>70</v>
-      </c>
+      <c r="BS42"/>
       <c r="BT42"/>
       <c r="BU42"/>
-      <c r="BV42" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV42"/>
       <c r="BW42"/>
-      <c r="BX42" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY42"/>
+      <c r="BX42"/>
+      <c r="BY42" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ42"/>
       <c r="CA42"/>
       <c r="CB42"/>
@@ -6917,12 +7065,12 @@
       <c r="CH42"/>
       <c r="CI42"/>
       <c r="CJ42"/>
-      <c r="CK42" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK42"/>
       <c r="CL42"/>
       <c r="CM42"/>
-      <c r="CN42"/>
+      <c r="CN42" t="s">
+        <v>91</v>
+      </c>
       <c r="CO42"/>
       <c r="CP42"/>
       <c r="CQ42"/>
@@ -6938,17 +7086,20 @@
       <c r="DA42"/>
       <c r="DB42"/>
       <c r="DC42"/>
-      <c r="DD42" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD42"/>
       <c r="DE42"/>
+      <c r="DF42"/>
+      <c r="DG42" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -6963,27 +7114,27 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" t="s">
-        <v>13</v>
-      </c>
-      <c r="O43"/>
+      <c r="N43"/>
+      <c r="O43" t="s">
+        <v>14</v>
+      </c>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
-      <c r="U43" t="s">
-        <v>20</v>
-      </c>
-      <c r="V43"/>
+      <c r="U43"/>
+      <c r="V43" t="s">
+        <v>21</v>
+      </c>
       <c r="W43"/>
       <c r="X43"/>
       <c r="Y43"/>
       <c r="Z43"/>
-      <c r="AA43" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB43"/>
+      <c r="AA43"/>
+      <c r="AB43" t="s">
+        <v>27</v>
+      </c>
       <c r="AC43"/>
       <c r="AD43"/>
       <c r="AE43"/>
@@ -7010,9 +7161,7 @@
       <c r="AZ43"/>
       <c r="BA43"/>
       <c r="BB43"/>
-      <c r="BC43" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC43"/>
       <c r="BD43"/>
       <c r="BE43"/>
       <c r="BF43" t="s">
@@ -7020,15 +7169,17 @@
       </c>
       <c r="BG43"/>
       <c r="BH43"/>
-      <c r="BI43"/>
+      <c r="BI43" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ43"/>
       <c r="BK43"/>
-      <c r="BL43" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL43"/>
       <c r="BM43"/>
       <c r="BN43"/>
-      <c r="BO43"/>
+      <c r="BO43" t="s">
+        <v>66</v>
+      </c>
       <c r="BP43"/>
       <c r="BQ43"/>
       <c r="BR43"/>
@@ -7039,29 +7190,29 @@
         <v>73</v>
       </c>
       <c r="BW43"/>
-      <c r="BX43" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY43"/>
+      <c r="BX43"/>
+      <c r="BY43" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ43"/>
-      <c r="CA43"/>
+      <c r="CA43" t="s">
+        <v>78</v>
+      </c>
       <c r="CB43"/>
       <c r="CC43"/>
       <c r="CD43"/>
       <c r="CE43"/>
-      <c r="CF43" t="s">
-        <v>83</v>
-      </c>
+      <c r="CF43"/>
       <c r="CG43"/>
       <c r="CH43"/>
       <c r="CI43"/>
       <c r="CJ43"/>
-      <c r="CK43" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK43"/>
       <c r="CL43"/>
       <c r="CM43"/>
-      <c r="CN43"/>
+      <c r="CN43" t="s">
+        <v>91</v>
+      </c>
       <c r="CO43"/>
       <c r="CP43"/>
       <c r="CQ43"/>
@@ -7077,17 +7228,20 @@
       <c r="DA43"/>
       <c r="DB43"/>
       <c r="DC43"/>
-      <c r="DD43" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD43"/>
       <c r="DE43"/>
+      <c r="DF43"/>
+      <c r="DG43" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -7097,39 +7251,33 @@
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
+      <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-      <c r="N44" t="s">
-        <v>13</v>
-      </c>
-      <c r="O44"/>
+      <c r="N44"/>
+      <c r="O44" t="s">
+        <v>14</v>
+      </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44"/>
-      <c r="S44" t="s">
-        <v>18</v>
-      </c>
-      <c r="T44" t="s">
-        <v>19</v>
-      </c>
+      <c r="S44"/>
+      <c r="T44"/>
       <c r="U44"/>
-      <c r="V44"/>
+      <c r="V44" t="s">
+        <v>21</v>
+      </c>
       <c r="W44"/>
       <c r="X44"/>
       <c r="Y44"/>
       <c r="Z44"/>
-      <c r="AA44" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB44"/>
-      <c r="AC44" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA44"/>
+      <c r="AB44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC44"/>
       <c r="AD44"/>
       <c r="AE44"/>
       <c r="AF44"/>
@@ -7149,19 +7297,13 @@
       <c r="AT44"/>
       <c r="AU44"/>
       <c r="AV44"/>
-      <c r="AW44" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW44"/>
       <c r="AX44"/>
       <c r="AY44"/>
-      <c r="AZ44" t="s">
-        <v>51</v>
-      </c>
+      <c r="AZ44"/>
       <c r="BA44"/>
       <c r="BB44"/>
-      <c r="BC44" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC44"/>
       <c r="BD44"/>
       <c r="BE44"/>
       <c r="BF44" t="s">
@@ -7174,46 +7316,46 @@
       </c>
       <c r="BJ44"/>
       <c r="BK44"/>
-      <c r="BL44" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL44"/>
       <c r="BM44"/>
       <c r="BN44"/>
-      <c r="BO44"/>
+      <c r="BO44" t="s">
+        <v>66</v>
+      </c>
       <c r="BP44"/>
       <c r="BQ44"/>
       <c r="BR44"/>
       <c r="BS44"/>
       <c r="BT44"/>
       <c r="BU44"/>
-      <c r="BV44" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV44"/>
       <c r="BW44"/>
       <c r="BX44"/>
-      <c r="BY44"/>
+      <c r="BY44" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ44"/>
-      <c r="CA44"/>
+      <c r="CA44" t="s">
+        <v>78</v>
+      </c>
       <c r="CB44"/>
       <c r="CC44"/>
       <c r="CD44"/>
       <c r="CE44"/>
       <c r="CF44"/>
       <c r="CG44"/>
-      <c r="CH44" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI44"/>
+      <c r="CH44"/>
+      <c r="CI44" t="s">
+        <v>86</v>
+      </c>
       <c r="CJ44"/>
-      <c r="CK44" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK44"/>
       <c r="CL44"/>
       <c r="CM44"/>
-      <c r="CN44"/>
-      <c r="CO44" t="s">
-        <v>92</v>
-      </c>
+      <c r="CN44" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO44"/>
       <c r="CP44"/>
       <c r="CQ44"/>
       <c r="CR44"/>
@@ -7228,17 +7370,20 @@
       <c r="DA44"/>
       <c r="DB44"/>
       <c r="DC44"/>
-      <c r="DD44" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD44"/>
       <c r="DE44"/>
+      <c r="DF44"/>
+      <c r="DG44" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -7255,33 +7400,33 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="N45" t="s">
-        <v>13</v>
-      </c>
-      <c r="O45"/>
+      <c r="N45"/>
+      <c r="O45" t="s">
+        <v>14</v>
+      </c>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45"/>
-      <c r="S45" t="s">
-        <v>18</v>
-      </c>
+      <c r="S45"/>
       <c r="T45" t="s">
         <v>19</v>
       </c>
-      <c r="U45"/>
+      <c r="U45" t="s">
+        <v>20</v>
+      </c>
       <c r="V45"/>
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45"/>
       <c r="Z45"/>
-      <c r="AA45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB45"/>
-      <c r="AC45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD45"/>
+      <c r="AA45"/>
+      <c r="AB45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC45"/>
+      <c r="AD45" t="s">
+        <v>29</v>
+      </c>
       <c r="AE45"/>
       <c r="AF45"/>
       <c r="AG45"/>
@@ -7290,9 +7435,7 @@
       <c r="AJ45"/>
       <c r="AK45"/>
       <c r="AL45"/>
-      <c r="AM45" t="s">
-        <v>38</v>
-      </c>
+      <c r="AM45"/>
       <c r="AN45"/>
       <c r="AO45"/>
       <c r="AP45"/>
@@ -7302,19 +7445,17 @@
       <c r="AT45"/>
       <c r="AU45"/>
       <c r="AV45"/>
-      <c r="AW45" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW45"/>
       <c r="AX45"/>
-      <c r="AY45"/>
-      <c r="AZ45" t="s">
-        <v>51</v>
-      </c>
+      <c r="AY45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ45"/>
       <c r="BA45"/>
-      <c r="BB45"/>
-      <c r="BC45" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB45" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC45"/>
       <c r="BD45"/>
       <c r="BE45"/>
       <c r="BF45" t="s">
@@ -7332,19 +7473,21 @@
       </c>
       <c r="BM45"/>
       <c r="BN45"/>
-      <c r="BO45"/>
+      <c r="BO45" t="s">
+        <v>66</v>
+      </c>
       <c r="BP45"/>
       <c r="BQ45"/>
       <c r="BR45"/>
       <c r="BS45"/>
       <c r="BT45"/>
       <c r="BU45"/>
-      <c r="BV45" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV45"/>
       <c r="BW45"/>
       <c r="BX45"/>
-      <c r="BY45"/>
+      <c r="BY45" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ45"/>
       <c r="CA45"/>
       <c r="CB45"/>
@@ -7353,25 +7496,23 @@
       <c r="CE45"/>
       <c r="CF45"/>
       <c r="CG45"/>
-      <c r="CH45" t="s">
-        <v>85</v>
-      </c>
+      <c r="CH45"/>
       <c r="CI45"/>
-      <c r="CJ45" t="s">
-        <v>87</v>
-      </c>
+      <c r="CJ45"/>
       <c r="CK45" t="s">
         <v>88</v>
       </c>
       <c r="CL45"/>
       <c r="CM45"/>
-      <c r="CN45"/>
-      <c r="CO45" t="s">
-        <v>92</v>
-      </c>
+      <c r="CN45" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO45"/>
       <c r="CP45"/>
       <c r="CQ45"/>
-      <c r="CR45"/>
+      <c r="CR45" t="s">
+        <v>95</v>
+      </c>
       <c r="CS45"/>
       <c r="CT45"/>
       <c r="CU45"/>
@@ -7383,63 +7524,66 @@
       <c r="DA45"/>
       <c r="DB45"/>
       <c r="DC45"/>
-      <c r="DD45" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD45"/>
       <c r="DE45"/>
+      <c r="DF45"/>
+      <c r="DG45" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46"/>
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
       <c r="D46"/>
       <c r="E46"/>
-      <c r="F46" t="s">
-        <v>5</v>
-      </c>
+      <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
       <c r="J46"/>
-      <c r="K46" t="s">
-        <v>10</v>
-      </c>
+      <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" t="s">
-        <v>13</v>
-      </c>
-      <c r="O46"/>
+      <c r="N46"/>
+      <c r="O46" t="s">
+        <v>14</v>
+      </c>
       <c r="P46"/>
-      <c r="Q46" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
+      <c r="T46" t="s">
+        <v>19</v>
+      </c>
+      <c r="U46" t="s">
+        <v>20</v>
+      </c>
       <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
       <c r="Z46"/>
-      <c r="AA46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB46"/>
+      <c r="AA46"/>
+      <c r="AB46" t="s">
+        <v>27</v>
+      </c>
       <c r="AC46"/>
-      <c r="AD46"/>
-      <c r="AE46" t="s">
-        <v>30</v>
-      </c>
+      <c r="AD46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE46"/>
       <c r="AF46"/>
-      <c r="AG46" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
       <c r="AJ46"/>
@@ -7447,7 +7591,9 @@
       <c r="AL46"/>
       <c r="AM46"/>
       <c r="AN46"/>
-      <c r="AO46"/>
+      <c r="AO46" t="s">
+        <v>40</v>
+      </c>
       <c r="AP46"/>
       <c r="AQ46"/>
       <c r="AR46"/>
@@ -7457,13 +7603,15 @@
       <c r="AV46"/>
       <c r="AW46"/>
       <c r="AX46"/>
-      <c r="AY46"/>
+      <c r="AY46" t="s">
+        <v>50</v>
+      </c>
       <c r="AZ46"/>
       <c r="BA46"/>
-      <c r="BB46"/>
-      <c r="BC46" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB46" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC46"/>
       <c r="BD46"/>
       <c r="BE46"/>
       <c r="BF46" t="s">
@@ -7471,7 +7619,9 @@
       </c>
       <c r="BG46"/>
       <c r="BH46"/>
-      <c r="BI46"/>
+      <c r="BI46" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ46"/>
       <c r="BK46"/>
       <c r="BL46" t="s">
@@ -7479,19 +7629,21 @@
       </c>
       <c r="BM46"/>
       <c r="BN46"/>
-      <c r="BO46"/>
+      <c r="BO46" t="s">
+        <v>66</v>
+      </c>
       <c r="BP46"/>
       <c r="BQ46"/>
       <c r="BR46"/>
       <c r="BS46"/>
       <c r="BT46"/>
       <c r="BU46"/>
-      <c r="BV46" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV46"/>
       <c r="BW46"/>
       <c r="BX46"/>
-      <c r="BY46"/>
+      <c r="BY46" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ46"/>
       <c r="CA46"/>
       <c r="CB46"/>
@@ -7506,15 +7658,19 @@
       <c r="CK46" t="s">
         <v>88</v>
       </c>
-      <c r="CL46" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM46"/>
-      <c r="CN46"/>
+      <c r="CL46"/>
+      <c r="CM46" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>91</v>
+      </c>
       <c r="CO46"/>
       <c r="CP46"/>
       <c r="CQ46"/>
-      <c r="CR46"/>
+      <c r="CR46" t="s">
+        <v>95</v>
+      </c>
       <c r="CS46"/>
       <c r="CT46"/>
       <c r="CU46"/>
@@ -7526,17 +7682,20 @@
       <c r="DA46"/>
       <c r="DB46"/>
       <c r="DC46"/>
-      <c r="DD46" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD46"/>
       <c r="DE46"/>
+      <c r="DF46"/>
+      <c r="DG46" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -7548,20 +7707,20 @@
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
-      <c r="K47" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47"/>
+      <c r="K47"/>
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
       <c r="M47"/>
-      <c r="N47" t="s">
-        <v>13</v>
-      </c>
-      <c r="O47"/>
+      <c r="N47"/>
+      <c r="O47" t="s">
+        <v>14</v>
+      </c>
       <c r="P47"/>
-      <c r="Q47" t="s">
-        <v>16</v>
-      </c>
-      <c r="R47"/>
+      <c r="Q47"/>
+      <c r="R47" t="s">
+        <v>17</v>
+      </c>
       <c r="S47"/>
       <c r="T47"/>
       <c r="U47"/>
@@ -7570,10 +7729,10 @@
       <c r="X47"/>
       <c r="Y47"/>
       <c r="Z47"/>
-      <c r="AA47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB47"/>
+      <c r="AA47"/>
+      <c r="AB47" t="s">
+        <v>27</v>
+      </c>
       <c r="AC47"/>
       <c r="AD47"/>
       <c r="AE47"/>
@@ -7582,7 +7741,9 @@
         <v>32</v>
       </c>
       <c r="AH47"/>
-      <c r="AI47"/>
+      <c r="AI47" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ47"/>
       <c r="AK47"/>
       <c r="AL47"/>
@@ -7602,9 +7763,7 @@
       <c r="AZ47"/>
       <c r="BA47"/>
       <c r="BB47"/>
-      <c r="BC47" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC47"/>
       <c r="BD47"/>
       <c r="BE47"/>
       <c r="BF47" t="s">
@@ -7612,27 +7771,29 @@
       </c>
       <c r="BG47"/>
       <c r="BH47"/>
-      <c r="BI47"/>
+      <c r="BI47" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ47"/>
       <c r="BK47"/>
-      <c r="BL47" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL47"/>
       <c r="BM47"/>
       <c r="BN47"/>
-      <c r="BO47"/>
+      <c r="BO47" t="s">
+        <v>66</v>
+      </c>
       <c r="BP47"/>
       <c r="BQ47"/>
       <c r="BR47"/>
       <c r="BS47"/>
       <c r="BT47"/>
       <c r="BU47"/>
-      <c r="BV47" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV47"/>
       <c r="BW47"/>
       <c r="BX47"/>
-      <c r="BY47"/>
+      <c r="BY47" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ47"/>
       <c r="CA47"/>
       <c r="CB47"/>
@@ -7644,21 +7805,19 @@
       <c r="CH47"/>
       <c r="CI47"/>
       <c r="CJ47"/>
-      <c r="CK47" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL47" t="s">
-        <v>89</v>
-      </c>
+      <c r="CK47"/>
+      <c r="CL47"/>
       <c r="CM47"/>
-      <c r="CN47"/>
-      <c r="CO47"/>
+      <c r="CN47" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO47" t="s">
+        <v>92</v>
+      </c>
       <c r="CP47"/>
       <c r="CQ47"/>
       <c r="CR47"/>
-      <c r="CS47" t="s">
-        <v>96</v>
-      </c>
+      <c r="CS47"/>
       <c r="CT47"/>
       <c r="CU47"/>
       <c r="CV47"/>
@@ -7669,59 +7828,68 @@
       <c r="DA47"/>
       <c r="DB47"/>
       <c r="DC47"/>
-      <c r="DD47" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD47"/>
       <c r="DE47"/>
+      <c r="DF47"/>
+      <c r="DG47" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="F48"/>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
-      <c r="L48"/>
+      <c r="L48" t="s">
+        <v>11</v>
+      </c>
       <c r="M48"/>
-      <c r="N48" t="s">
-        <v>13</v>
-      </c>
-      <c r="O48"/>
+      <c r="N48"/>
+      <c r="O48" t="s">
+        <v>14</v>
+      </c>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
+      <c r="R48" t="s">
+        <v>17</v>
+      </c>
       <c r="S48"/>
       <c r="T48"/>
-      <c r="U48" t="s">
-        <v>20</v>
-      </c>
+      <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
-      <c r="AA48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB48"/>
+      <c r="AA48"/>
+      <c r="AB48" t="s">
+        <v>27</v>
+      </c>
       <c r="AC48"/>
       <c r="AD48"/>
       <c r="AE48"/>
       <c r="AF48"/>
-      <c r="AG48"/>
+      <c r="AG48" t="s">
+        <v>32</v>
+      </c>
       <c r="AH48"/>
-      <c r="AI48"/>
+      <c r="AI48" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ48"/>
       <c r="AK48"/>
       <c r="AL48"/>
@@ -7741,9 +7909,7 @@
       <c r="AZ48"/>
       <c r="BA48"/>
       <c r="BB48"/>
-      <c r="BC48" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC48"/>
       <c r="BD48"/>
       <c r="BE48"/>
       <c r="BF48" t="s">
@@ -7751,51 +7917,49 @@
       </c>
       <c r="BG48"/>
       <c r="BH48"/>
-      <c r="BI48"/>
+      <c r="BI48" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ48"/>
       <c r="BK48"/>
-      <c r="BL48" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL48"/>
       <c r="BM48"/>
       <c r="BN48"/>
-      <c r="BO48"/>
+      <c r="BO48" t="s">
+        <v>66</v>
+      </c>
       <c r="BP48"/>
       <c r="BQ48"/>
       <c r="BR48"/>
       <c r="BS48"/>
       <c r="BT48"/>
       <c r="BU48"/>
-      <c r="BV48" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV48"/>
       <c r="BW48"/>
-      <c r="BX48" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY48"/>
+      <c r="BX48"/>
+      <c r="BY48" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ48"/>
       <c r="CA48"/>
       <c r="CB48"/>
       <c r="CC48"/>
       <c r="CD48"/>
-      <c r="CE48" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF48" t="s">
-        <v>83</v>
-      </c>
+      <c r="CE48"/>
+      <c r="CF48"/>
       <c r="CG48"/>
       <c r="CH48"/>
       <c r="CI48"/>
       <c r="CJ48"/>
-      <c r="CK48" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK48"/>
       <c r="CL48"/>
       <c r="CM48"/>
-      <c r="CN48"/>
-      <c r="CO48"/>
+      <c r="CN48" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>92</v>
+      </c>
       <c r="CP48"/>
       <c r="CQ48"/>
       <c r="CR48"/>
@@ -7810,59 +7974,66 @@
       <c r="DA48"/>
       <c r="DB48"/>
       <c r="DC48"/>
-      <c r="DD48" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD48"/>
       <c r="DE48"/>
+      <c r="DF48"/>
+      <c r="DG48" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49"/>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
-      <c r="L49"/>
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
       <c r="M49"/>
-      <c r="N49" t="s">
-        <v>13</v>
-      </c>
-      <c r="O49"/>
+      <c r="N49"/>
+      <c r="O49" t="s">
+        <v>14</v>
+      </c>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
+      <c r="R49" t="s">
+        <v>17</v>
+      </c>
       <c r="S49"/>
       <c r="T49"/>
-      <c r="U49" t="s">
-        <v>20</v>
-      </c>
+      <c r="U49"/>
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
       <c r="Y49"/>
       <c r="Z49"/>
-      <c r="AA49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB49"/>
+      <c r="AA49"/>
+      <c r="AB49" t="s">
+        <v>27</v>
+      </c>
       <c r="AC49"/>
       <c r="AD49"/>
       <c r="AE49"/>
       <c r="AF49"/>
       <c r="AG49"/>
       <c r="AH49"/>
-      <c r="AI49"/>
+      <c r="AI49" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ49"/>
       <c r="AK49"/>
       <c r="AL49"/>
@@ -7882,9 +8053,7 @@
       <c r="AZ49"/>
       <c r="BA49"/>
       <c r="BB49"/>
-      <c r="BC49" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC49"/>
       <c r="BD49"/>
       <c r="BE49"/>
       <c r="BF49" t="s">
@@ -7892,58 +8061,58 @@
       </c>
       <c r="BG49"/>
       <c r="BH49"/>
-      <c r="BI49"/>
+      <c r="BI49" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ49"/>
       <c r="BK49"/>
-      <c r="BL49" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL49"/>
       <c r="BM49"/>
       <c r="BN49"/>
-      <c r="BO49"/>
+      <c r="BO49" t="s">
+        <v>66</v>
+      </c>
       <c r="BP49"/>
       <c r="BQ49"/>
       <c r="BR49"/>
       <c r="BS49"/>
       <c r="BT49"/>
       <c r="BU49"/>
-      <c r="BV49" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV49"/>
       <c r="BW49"/>
-      <c r="BX49" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY49"/>
+      <c r="BX49"/>
+      <c r="BY49" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ49"/>
       <c r="CA49"/>
       <c r="CB49"/>
       <c r="CC49"/>
       <c r="CD49"/>
-      <c r="CE49" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF49" t="s">
-        <v>83</v>
-      </c>
+      <c r="CE49"/>
+      <c r="CF49"/>
       <c r="CG49"/>
       <c r="CH49"/>
       <c r="CI49"/>
       <c r="CJ49"/>
-      <c r="CK49" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK49"/>
       <c r="CL49"/>
       <c r="CM49"/>
-      <c r="CN49"/>
-      <c r="CO49"/>
+      <c r="CN49" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO49" t="s">
+        <v>92</v>
+      </c>
       <c r="CP49"/>
       <c r="CQ49"/>
       <c r="CR49"/>
       <c r="CS49"/>
       <c r="CT49"/>
       <c r="CU49"/>
-      <c r="CV49"/>
+      <c r="CV49" t="s">
+        <v>99</v>
+      </c>
       <c r="CW49"/>
       <c r="CX49"/>
       <c r="CY49"/>
@@ -7951,17 +8120,20 @@
       <c r="DA49"/>
       <c r="DB49"/>
       <c r="DC49"/>
-      <c r="DD49" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD49"/>
       <c r="DE49"/>
+      <c r="DF49"/>
+      <c r="DG49" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -7976,27 +8148,27 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" t="s">
-        <v>13</v>
-      </c>
-      <c r="O50"/>
+      <c r="N50"/>
+      <c r="O50" t="s">
+        <v>14</v>
+      </c>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
-      <c r="U50" t="s">
-        <v>20</v>
-      </c>
-      <c r="V50"/>
+      <c r="U50"/>
+      <c r="V50" t="s">
+        <v>21</v>
+      </c>
       <c r="W50"/>
       <c r="X50"/>
       <c r="Y50"/>
       <c r="Z50"/>
-      <c r="AA50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB50"/>
+      <c r="AA50"/>
+      <c r="AB50" t="s">
+        <v>27</v>
+      </c>
       <c r="AC50"/>
       <c r="AD50"/>
       <c r="AE50"/>
@@ -8023,9 +8195,7 @@
       <c r="AZ50"/>
       <c r="BA50"/>
       <c r="BB50"/>
-      <c r="BC50" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC50"/>
       <c r="BD50"/>
       <c r="BE50"/>
       <c r="BF50" t="s">
@@ -8033,50 +8203,52 @@
       </c>
       <c r="BG50"/>
       <c r="BH50"/>
-      <c r="BI50"/>
+      <c r="BI50" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ50"/>
       <c r="BK50"/>
-      <c r="BL50" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL50"/>
       <c r="BM50"/>
       <c r="BN50"/>
-      <c r="BO50"/>
+      <c r="BO50" t="s">
+        <v>66</v>
+      </c>
       <c r="BP50"/>
       <c r="BQ50"/>
       <c r="BR50"/>
       <c r="BS50"/>
       <c r="BT50"/>
       <c r="BU50"/>
-      <c r="BV50" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV50"/>
       <c r="BW50"/>
-      <c r="BX50" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY50"/>
+      <c r="BX50"/>
+      <c r="BY50" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ50"/>
-      <c r="CA50"/>
+      <c r="CA50" t="s">
+        <v>78</v>
+      </c>
       <c r="CB50"/>
       <c r="CC50"/>
       <c r="CD50"/>
-      <c r="CE50" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF50" t="s">
-        <v>83</v>
-      </c>
+      <c r="CE50"/>
+      <c r="CF50"/>
       <c r="CG50"/>
-      <c r="CH50"/>
-      <c r="CI50"/>
+      <c r="CH50" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI50" t="s">
+        <v>86</v>
+      </c>
       <c r="CJ50"/>
-      <c r="CK50" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK50"/>
       <c r="CL50"/>
       <c r="CM50"/>
-      <c r="CN50"/>
+      <c r="CN50" t="s">
+        <v>91</v>
+      </c>
       <c r="CO50"/>
       <c r="CP50"/>
       <c r="CQ50"/>
@@ -8092,19 +8264,24 @@
       <c r="DA50"/>
       <c r="DB50"/>
       <c r="DC50"/>
-      <c r="DD50" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD50"/>
       <c r="DE50"/>
+      <c r="DF50"/>
+      <c r="DG50" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51"/>
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
@@ -8115,39 +8292,37 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" t="s">
-        <v>13</v>
-      </c>
-      <c r="O51"/>
+      <c r="N51"/>
+      <c r="O51" t="s">
+        <v>14</v>
+      </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
       <c r="U51"/>
-      <c r="V51"/>
+      <c r="V51" t="s">
+        <v>21</v>
+      </c>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
       <c r="Z51"/>
-      <c r="AA51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB51"/>
+      <c r="AA51"/>
+      <c r="AB51" t="s">
+        <v>27</v>
+      </c>
       <c r="AC51"/>
       <c r="AD51"/>
       <c r="AE51"/>
       <c r="AF51"/>
-      <c r="AG51" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG51"/>
       <c r="AH51"/>
       <c r="AI51"/>
       <c r="AJ51"/>
       <c r="AK51"/>
-      <c r="AL51" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL51"/>
       <c r="AM51"/>
       <c r="AN51"/>
       <c r="AO51"/>
@@ -8163,12 +8338,8 @@
       <c r="AY51"/>
       <c r="AZ51"/>
       <c r="BA51"/>
-      <c r="BB51" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC51" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB51"/>
+      <c r="BC51"/>
       <c r="BD51"/>
       <c r="BE51"/>
       <c r="BF51" t="s">
@@ -8176,46 +8347,52 @@
       </c>
       <c r="BG51"/>
       <c r="BH51"/>
-      <c r="BI51"/>
+      <c r="BI51" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ51"/>
       <c r="BK51"/>
-      <c r="BL51" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL51"/>
       <c r="BM51"/>
       <c r="BN51"/>
-      <c r="BO51"/>
+      <c r="BO51" t="s">
+        <v>66</v>
+      </c>
       <c r="BP51"/>
       <c r="BQ51"/>
       <c r="BR51"/>
       <c r="BS51"/>
       <c r="BT51"/>
       <c r="BU51"/>
-      <c r="BV51" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW51" t="s">
-        <v>74</v>
-      </c>
+      <c r="BV51"/>
+      <c r="BW51"/>
       <c r="BX51"/>
-      <c r="BY51"/>
+      <c r="BY51" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ51"/>
-      <c r="CA51"/>
+      <c r="CA51" t="s">
+        <v>78</v>
+      </c>
       <c r="CB51"/>
       <c r="CC51"/>
       <c r="CD51"/>
       <c r="CE51"/>
       <c r="CF51"/>
       <c r="CG51"/>
-      <c r="CH51"/>
-      <c r="CI51"/>
+      <c r="CH51" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>86</v>
+      </c>
       <c r="CJ51"/>
-      <c r="CK51" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK51"/>
       <c r="CL51"/>
       <c r="CM51"/>
-      <c r="CN51"/>
+      <c r="CN51" t="s">
+        <v>91</v>
+      </c>
       <c r="CO51"/>
       <c r="CP51"/>
       <c r="CQ51"/>
@@ -8224,28 +8401,31 @@
       <c r="CT51"/>
       <c r="CU51"/>
       <c r="CV51"/>
-      <c r="CW51" t="s">
-        <v>100</v>
-      </c>
+      <c r="CW51"/>
       <c r="CX51"/>
       <c r="CY51"/>
       <c r="CZ51"/>
       <c r="DA51"/>
       <c r="DB51"/>
       <c r="DC51"/>
-      <c r="DD51" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD51"/>
       <c r="DE51"/>
+      <c r="DF51"/>
+      <c r="DG51" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52"/>
+        <v>189</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
@@ -8256,39 +8436,37 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
-      <c r="N52" t="s">
-        <v>13</v>
-      </c>
-      <c r="O52"/>
+      <c r="N52"/>
+      <c r="O52" t="s">
+        <v>14</v>
+      </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52"/>
-      <c r="V52"/>
+      <c r="V52" t="s">
+        <v>21</v>
+      </c>
       <c r="W52"/>
       <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AA52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB52"/>
+      <c r="AA52"/>
+      <c r="AB52" t="s">
+        <v>27</v>
+      </c>
       <c r="AC52"/>
       <c r="AD52"/>
       <c r="AE52"/>
       <c r="AF52"/>
-      <c r="AG52" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG52"/>
       <c r="AH52"/>
       <c r="AI52"/>
       <c r="AJ52"/>
       <c r="AK52"/>
-      <c r="AL52" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL52"/>
       <c r="AM52"/>
       <c r="AN52"/>
       <c r="AO52"/>
@@ -8304,12 +8482,8 @@
       <c r="AY52"/>
       <c r="AZ52"/>
       <c r="BA52"/>
-      <c r="BB52" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC52" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB52"/>
+      <c r="BC52"/>
       <c r="BD52"/>
       <c r="BE52"/>
       <c r="BF52" t="s">
@@ -8317,46 +8491,52 @@
       </c>
       <c r="BG52"/>
       <c r="BH52"/>
-      <c r="BI52"/>
+      <c r="BI52" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ52"/>
       <c r="BK52"/>
-      <c r="BL52" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL52"/>
       <c r="BM52"/>
       <c r="BN52"/>
-      <c r="BO52"/>
+      <c r="BO52" t="s">
+        <v>66</v>
+      </c>
       <c r="BP52"/>
       <c r="BQ52"/>
       <c r="BR52"/>
       <c r="BS52"/>
       <c r="BT52"/>
       <c r="BU52"/>
-      <c r="BV52" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW52" t="s">
-        <v>74</v>
-      </c>
+      <c r="BV52"/>
+      <c r="BW52"/>
       <c r="BX52"/>
-      <c r="BY52"/>
+      <c r="BY52" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ52"/>
-      <c r="CA52"/>
+      <c r="CA52" t="s">
+        <v>78</v>
+      </c>
       <c r="CB52"/>
       <c r="CC52"/>
       <c r="CD52"/>
       <c r="CE52"/>
       <c r="CF52"/>
       <c r="CG52"/>
-      <c r="CH52"/>
-      <c r="CI52"/>
+      <c r="CH52" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI52" t="s">
+        <v>86</v>
+      </c>
       <c r="CJ52"/>
-      <c r="CK52" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK52"/>
       <c r="CL52"/>
       <c r="CM52"/>
-      <c r="CN52"/>
+      <c r="CN52" t="s">
+        <v>91</v>
+      </c>
       <c r="CO52"/>
       <c r="CP52"/>
       <c r="CQ52"/>
@@ -8365,26 +8545,27 @@
       <c r="CT52"/>
       <c r="CU52"/>
       <c r="CV52"/>
-      <c r="CW52" t="s">
-        <v>100</v>
-      </c>
+      <c r="CW52"/>
       <c r="CX52"/>
       <c r="CY52"/>
       <c r="CZ52"/>
       <c r="DA52"/>
       <c r="DB52"/>
       <c r="DC52"/>
-      <c r="DD52" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD52"/>
       <c r="DE52"/>
+      <c r="DF52"/>
+      <c r="DG52" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -8397,10 +8578,10 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
-      <c r="N53" t="s">
-        <v>13</v>
-      </c>
-      <c r="O53"/>
+      <c r="N53"/>
+      <c r="O53" t="s">
+        <v>14</v>
+      </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
@@ -8412,26 +8593,26 @@
       <c r="X53"/>
       <c r="Y53"/>
       <c r="Z53"/>
-      <c r="AA53" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB53"/>
+      <c r="AA53"/>
+      <c r="AB53" t="s">
+        <v>27</v>
+      </c>
       <c r="AC53"/>
       <c r="AD53"/>
       <c r="AE53"/>
       <c r="AF53"/>
-      <c r="AG53" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG53"/>
       <c r="AH53"/>
-      <c r="AI53"/>
+      <c r="AI53" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ53"/>
       <c r="AK53"/>
-      <c r="AL53" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL53"/>
       <c r="AM53"/>
-      <c r="AN53"/>
+      <c r="AN53" t="s">
+        <v>39</v>
+      </c>
       <c r="AO53"/>
       <c r="AP53"/>
       <c r="AQ53"/>
@@ -8445,43 +8626,43 @@
       <c r="AY53"/>
       <c r="AZ53"/>
       <c r="BA53"/>
-      <c r="BB53" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC53" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD53"/>
+      <c r="BB53"/>
+      <c r="BC53"/>
+      <c r="BD53" t="s">
+        <v>55</v>
+      </c>
       <c r="BE53"/>
       <c r="BF53" t="s">
         <v>57</v>
       </c>
       <c r="BG53"/>
       <c r="BH53"/>
-      <c r="BI53"/>
+      <c r="BI53" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ53"/>
       <c r="BK53"/>
-      <c r="BL53" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL53"/>
       <c r="BM53"/>
       <c r="BN53"/>
-      <c r="BO53"/>
+      <c r="BO53" t="s">
+        <v>66</v>
+      </c>
       <c r="BP53"/>
       <c r="BQ53"/>
       <c r="BR53"/>
       <c r="BS53"/>
       <c r="BT53"/>
       <c r="BU53"/>
-      <c r="BV53" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW53" t="s">
-        <v>74</v>
-      </c>
+      <c r="BV53"/>
+      <c r="BW53"/>
       <c r="BX53"/>
-      <c r="BY53"/>
-      <c r="BZ53"/>
+      <c r="BY53" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>77</v>
+      </c>
       <c r="CA53"/>
       <c r="CB53"/>
       <c r="CC53"/>
@@ -8492,12 +8673,12 @@
       <c r="CH53"/>
       <c r="CI53"/>
       <c r="CJ53"/>
-      <c r="CK53" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK53"/>
       <c r="CL53"/>
       <c r="CM53"/>
-      <c r="CN53"/>
+      <c r="CN53" t="s">
+        <v>91</v>
+      </c>
       <c r="CO53"/>
       <c r="CP53"/>
       <c r="CQ53"/>
@@ -8506,48 +8687,45 @@
       <c r="CT53"/>
       <c r="CU53"/>
       <c r="CV53"/>
-      <c r="CW53" t="s">
-        <v>100</v>
-      </c>
+      <c r="CW53"/>
       <c r="CX53"/>
       <c r="CY53"/>
-      <c r="CZ53"/>
+      <c r="CZ53" t="s">
+        <v>103</v>
+      </c>
       <c r="DA53"/>
       <c r="DB53"/>
       <c r="DC53"/>
-      <c r="DD53" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD53"/>
       <c r="DE53"/>
+      <c r="DF53"/>
+      <c r="DG53" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
-      <c r="G54" t="s">
-        <v>6</v>
-      </c>
+      <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
-      <c r="L54" t="s">
-        <v>11</v>
-      </c>
+      <c r="L54"/>
       <c r="M54"/>
-      <c r="N54" t="s">
-        <v>13</v>
-      </c>
-      <c r="O54"/>
+      <c r="N54"/>
+      <c r="O54" t="s">
+        <v>14</v>
+      </c>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
@@ -8557,28 +8735,28 @@
       <c r="V54"/>
       <c r="W54"/>
       <c r="X54"/>
-      <c r="Y54" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y54"/>
       <c r="Z54"/>
-      <c r="AA54" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB54"/>
+      <c r="AA54"/>
+      <c r="AB54" t="s">
+        <v>27</v>
+      </c>
       <c r="AC54"/>
       <c r="AD54"/>
       <c r="AE54"/>
-      <c r="AF54" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF54"/>
       <c r="AG54"/>
       <c r="AH54"/>
-      <c r="AI54"/>
+      <c r="AI54" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ54"/>
       <c r="AK54"/>
       <c r="AL54"/>
       <c r="AM54"/>
-      <c r="AN54"/>
+      <c r="AN54" t="s">
+        <v>39</v>
+      </c>
       <c r="AO54"/>
       <c r="AP54"/>
       <c r="AQ54"/>
@@ -8589,48 +8767,46 @@
       <c r="AV54"/>
       <c r="AW54"/>
       <c r="AX54"/>
-      <c r="AY54" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY54"/>
       <c r="AZ54"/>
-      <c r="BA54" t="s">
-        <v>52</v>
-      </c>
+      <c r="BA54"/>
       <c r="BB54"/>
-      <c r="BC54" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD54"/>
+      <c r="BC54"/>
+      <c r="BD54" t="s">
+        <v>55</v>
+      </c>
       <c r="BE54"/>
       <c r="BF54" t="s">
         <v>57</v>
       </c>
       <c r="BG54"/>
       <c r="BH54"/>
-      <c r="BI54"/>
+      <c r="BI54" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ54"/>
       <c r="BK54"/>
-      <c r="BL54" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL54"/>
       <c r="BM54"/>
       <c r="BN54"/>
-      <c r="BO54"/>
+      <c r="BO54" t="s">
+        <v>66</v>
+      </c>
       <c r="BP54"/>
       <c r="BQ54"/>
       <c r="BR54"/>
       <c r="BS54"/>
-      <c r="BT54" t="s">
-        <v>71</v>
-      </c>
+      <c r="BT54"/>
       <c r="BU54"/>
-      <c r="BV54" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV54"/>
       <c r="BW54"/>
       <c r="BX54"/>
-      <c r="BY54"/>
-      <c r="BZ54"/>
+      <c r="BY54" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ54" t="s">
+        <v>77</v>
+      </c>
       <c r="CA54"/>
       <c r="CB54"/>
       <c r="CC54"/>
@@ -8641,62 +8817,59 @@
       <c r="CH54"/>
       <c r="CI54"/>
       <c r="CJ54"/>
-      <c r="CK54" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK54"/>
       <c r="CL54"/>
       <c r="CM54"/>
-      <c r="CN54"/>
+      <c r="CN54" t="s">
+        <v>91</v>
+      </c>
       <c r="CO54"/>
       <c r="CP54"/>
       <c r="CQ54"/>
       <c r="CR54"/>
       <c r="CS54"/>
       <c r="CT54"/>
-      <c r="CU54" t="s">
-        <v>98</v>
-      </c>
+      <c r="CU54"/>
       <c r="CV54"/>
       <c r="CW54"/>
       <c r="CX54"/>
       <c r="CY54"/>
-      <c r="CZ54"/>
+      <c r="CZ54" t="s">
+        <v>103</v>
+      </c>
       <c r="DA54"/>
       <c r="DB54"/>
       <c r="DC54"/>
-      <c r="DD54" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD54"/>
       <c r="DE54"/>
+      <c r="DF54"/>
+      <c r="DG54" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
+      <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
-      <c r="L55" t="s">
-        <v>11</v>
-      </c>
+      <c r="L55"/>
       <c r="M55"/>
-      <c r="N55" t="s">
-        <v>13</v>
-      </c>
-      <c r="O55"/>
+      <c r="N55"/>
+      <c r="O55" t="s">
+        <v>14</v>
+      </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
@@ -8706,28 +8879,28 @@
       <c r="V55"/>
       <c r="W55"/>
       <c r="X55"/>
-      <c r="Y55" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y55"/>
       <c r="Z55"/>
-      <c r="AA55" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB55"/>
+      <c r="AA55"/>
+      <c r="AB55" t="s">
+        <v>27</v>
+      </c>
       <c r="AC55"/>
       <c r="AD55"/>
       <c r="AE55"/>
-      <c r="AF55" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF55"/>
       <c r="AG55"/>
       <c r="AH55"/>
-      <c r="AI55"/>
+      <c r="AI55" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ55"/>
       <c r="AK55"/>
       <c r="AL55"/>
       <c r="AM55"/>
-      <c r="AN55"/>
+      <c r="AN55" t="s">
+        <v>39</v>
+      </c>
       <c r="AO55"/>
       <c r="AP55"/>
       <c r="AQ55"/>
@@ -8738,46 +8911,46 @@
       <c r="AV55"/>
       <c r="AW55"/>
       <c r="AX55"/>
-      <c r="AY55" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY55"/>
       <c r="AZ55"/>
       <c r="BA55"/>
       <c r="BB55"/>
-      <c r="BC55" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD55"/>
+      <c r="BC55"/>
+      <c r="BD55" t="s">
+        <v>55</v>
+      </c>
       <c r="BE55"/>
       <c r="BF55" t="s">
         <v>57</v>
       </c>
       <c r="BG55"/>
       <c r="BH55"/>
-      <c r="BI55"/>
+      <c r="BI55" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ55"/>
       <c r="BK55"/>
-      <c r="BL55" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL55"/>
       <c r="BM55"/>
       <c r="BN55"/>
-      <c r="BO55"/>
+      <c r="BO55" t="s">
+        <v>66</v>
+      </c>
       <c r="BP55"/>
       <c r="BQ55"/>
       <c r="BR55"/>
       <c r="BS55"/>
-      <c r="BT55" t="s">
-        <v>71</v>
-      </c>
+      <c r="BT55"/>
       <c r="BU55"/>
-      <c r="BV55" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV55"/>
       <c r="BW55"/>
       <c r="BX55"/>
-      <c r="BY55"/>
-      <c r="BZ55"/>
+      <c r="BY55" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ55" t="s">
+        <v>77</v>
+      </c>
       <c r="CA55"/>
       <c r="CB55"/>
       <c r="CC55"/>
@@ -8788,12 +8961,12 @@
       <c r="CH55"/>
       <c r="CI55"/>
       <c r="CJ55"/>
-      <c r="CK55" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK55"/>
       <c r="CL55"/>
       <c r="CM55"/>
-      <c r="CN55"/>
+      <c r="CN55" t="s">
+        <v>91</v>
+      </c>
       <c r="CO55"/>
       <c r="CP55"/>
       <c r="CQ55"/>
@@ -8805,31 +8978,32 @@
       <c r="CW55"/>
       <c r="CX55"/>
       <c r="CY55"/>
-      <c r="CZ55"/>
+      <c r="CZ55" t="s">
+        <v>103</v>
+      </c>
       <c r="DA55"/>
       <c r="DB55"/>
       <c r="DC55"/>
-      <c r="DD55" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD55"/>
       <c r="DE55"/>
+      <c r="DF55"/>
+      <c r="DG55" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
+      <c r="D56"/>
+      <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="s">
         <v>6</v>
@@ -8838,14 +9012,14 @@
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
-      <c r="L56" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56"/>
-      <c r="N56" t="s">
-        <v>13</v>
-      </c>
-      <c r="O56"/>
+      <c r="L56"/>
+      <c r="M56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56" t="s">
+        <v>14</v>
+      </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
@@ -8855,22 +9029,22 @@
       <c r="V56"/>
       <c r="W56"/>
       <c r="X56"/>
-      <c r="Y56" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z56"/>
-      <c r="AA56" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB56"/>
+      <c r="Y56"/>
+      <c r="Z56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA56"/>
+      <c r="AB56" t="s">
+        <v>27</v>
+      </c>
       <c r="AC56"/>
       <c r="AD56"/>
       <c r="AE56"/>
-      <c r="AF56" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF56"/>
       <c r="AG56"/>
-      <c r="AH56"/>
+      <c r="AH56" t="s">
+        <v>33</v>
+      </c>
       <c r="AI56"/>
       <c r="AJ56"/>
       <c r="AK56"/>
@@ -8887,9 +9061,7 @@
       <c r="AV56"/>
       <c r="AW56"/>
       <c r="AX56"/>
-      <c r="AY56" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY56"/>
       <c r="AZ56"/>
       <c r="BA56" t="s">
         <v>52</v>
@@ -8905,96 +9077,101 @@
       </c>
       <c r="BG56"/>
       <c r="BH56"/>
-      <c r="BI56"/>
+      <c r="BI56" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ56"/>
       <c r="BK56"/>
-      <c r="BL56" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL56"/>
       <c r="BM56"/>
       <c r="BN56"/>
-      <c r="BO56"/>
+      <c r="BO56" t="s">
+        <v>66</v>
+      </c>
       <c r="BP56"/>
       <c r="BQ56"/>
       <c r="BR56"/>
       <c r="BS56"/>
-      <c r="BT56" t="s">
-        <v>71</v>
-      </c>
+      <c r="BT56"/>
       <c r="BU56"/>
-      <c r="BV56" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW56"/>
+      <c r="BV56"/>
+      <c r="BW56" t="s">
+        <v>74</v>
+      </c>
       <c r="BX56"/>
-      <c r="BY56"/>
+      <c r="BY56" t="s">
+        <v>76</v>
+      </c>
       <c r="BZ56"/>
       <c r="CA56"/>
       <c r="CB56"/>
       <c r="CC56"/>
-      <c r="CD56" t="s">
-        <v>81</v>
-      </c>
+      <c r="CD56"/>
       <c r="CE56"/>
       <c r="CF56"/>
       <c r="CG56"/>
       <c r="CH56"/>
-      <c r="CI56" t="s">
-        <v>86</v>
-      </c>
+      <c r="CI56"/>
       <c r="CJ56"/>
-      <c r="CK56" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK56"/>
       <c r="CL56"/>
       <c r="CM56"/>
-      <c r="CN56"/>
+      <c r="CN56" t="s">
+        <v>91</v>
+      </c>
       <c r="CO56"/>
       <c r="CP56"/>
       <c r="CQ56"/>
-      <c r="CR56" t="s">
-        <v>95</v>
-      </c>
+      <c r="CR56"/>
       <c r="CS56"/>
       <c r="CT56"/>
-      <c r="CU56" t="s">
-        <v>98</v>
-      </c>
+      <c r="CU56"/>
       <c r="CV56"/>
       <c r="CW56"/>
-      <c r="CX56"/>
+      <c r="CX56" t="s">
+        <v>101</v>
+      </c>
       <c r="CY56"/>
       <c r="CZ56"/>
       <c r="DA56"/>
       <c r="DB56"/>
       <c r="DC56"/>
-      <c r="DD56" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD56"/>
       <c r="DE56"/>
+      <c r="DF56"/>
+      <c r="DG56" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57"/>
+        <v>196</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57"/>
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57" t="s">
-        <v>13</v>
-      </c>
-      <c r="O57"/>
+      <c r="M57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57" t="s">
+        <v>14</v>
+      </c>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
@@ -9005,27 +9182,27 @@
       <c r="W57"/>
       <c r="X57"/>
       <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB57"/>
+      <c r="Z57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA57"/>
+      <c r="AB57" t="s">
+        <v>27</v>
+      </c>
       <c r="AC57"/>
-      <c r="AD57" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD57"/>
       <c r="AE57"/>
       <c r="AF57"/>
       <c r="AG57"/>
-      <c r="AH57"/>
+      <c r="AH57" t="s">
+        <v>33</v>
+      </c>
       <c r="AI57"/>
       <c r="AJ57"/>
       <c r="AK57"/>
       <c r="AL57"/>
       <c r="AM57"/>
-      <c r="AN57" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN57"/>
       <c r="AO57"/>
       <c r="AP57"/>
       <c r="AQ57"/>
@@ -9035,16 +9212,14 @@
       <c r="AU57"/>
       <c r="AV57"/>
       <c r="AW57"/>
-      <c r="AX57" t="s">
-        <v>49</v>
-      </c>
+      <c r="AX57"/>
       <c r="AY57"/>
       <c r="AZ57"/>
-      <c r="BA57"/>
+      <c r="BA57" t="s">
+        <v>52</v>
+      </c>
       <c r="BB57"/>
-      <c r="BC57" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC57"/>
       <c r="BD57"/>
       <c r="BE57"/>
       <c r="BF57" t="s">
@@ -9052,25 +9227,27 @@
       </c>
       <c r="BG57"/>
       <c r="BH57"/>
-      <c r="BI57"/>
+      <c r="BI57" t="s">
+        <v>60</v>
+      </c>
       <c r="BJ57"/>
-      <c r="BK57" t="s">
-        <v>62</v>
-      </c>
+      <c r="BK57"/>
       <c r="BL57"/>
       <c r="BM57"/>
       <c r="BN57"/>
-      <c r="BO57"/>
+      <c r="BO57" t="s">
+        <v>66</v>
+      </c>
       <c r="BP57"/>
       <c r="BQ57"/>
       <c r="BR57"/>
       <c r="BS57"/>
       <c r="BT57"/>
       <c r="BU57"/>
-      <c r="BV57" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW57"/>
+      <c r="BV57"/>
+      <c r="BW57" t="s">
+        <v>74</v>
+      </c>
       <c r="BX57"/>
       <c r="BY57" t="s">
         <v>76</v>
@@ -9086,12 +9263,12 @@
       <c r="CH57"/>
       <c r="CI57"/>
       <c r="CJ57"/>
-      <c r="CK57" t="s">
-        <v>88</v>
-      </c>
+      <c r="CK57"/>
       <c r="CL57"/>
       <c r="CM57"/>
-      <c r="CN57"/>
+      <c r="CN57" t="s">
+        <v>91</v>
+      </c>
       <c r="CO57"/>
       <c r="CP57"/>
       <c r="CQ57"/>
@@ -9107,10 +9284,321 @@
       <c r="DA57"/>
       <c r="DB57"/>
       <c r="DC57"/>
-      <c r="DD57" t="s">
-        <v>107</v>
-      </c>
+      <c r="DD57"/>
       <c r="DE57"/>
+      <c r="DF57"/>
+      <c r="DG57" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58" t="s">
+        <v>14</v>
+      </c>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA58"/>
+      <c r="AB58" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+      <c r="AQ58"/>
+      <c r="AR58"/>
+      <c r="AS58"/>
+      <c r="AT58"/>
+      <c r="AU58"/>
+      <c r="AV58"/>
+      <c r="AW58"/>
+      <c r="AX58"/>
+      <c r="AY58"/>
+      <c r="AZ58"/>
+      <c r="BA58" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB58"/>
+      <c r="BC58" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD58"/>
+      <c r="BE58"/>
+      <c r="BF58" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG58"/>
+      <c r="BH58"/>
+      <c r="BI58" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ58"/>
+      <c r="BK58"/>
+      <c r="BL58"/>
+      <c r="BM58"/>
+      <c r="BN58"/>
+      <c r="BO58" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP58"/>
+      <c r="BQ58"/>
+      <c r="BR58"/>
+      <c r="BS58"/>
+      <c r="BT58"/>
+      <c r="BU58"/>
+      <c r="BV58"/>
+      <c r="BW58" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX58"/>
+      <c r="BY58" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ58"/>
+      <c r="CA58"/>
+      <c r="CB58"/>
+      <c r="CC58"/>
+      <c r="CD58"/>
+      <c r="CE58"/>
+      <c r="CF58"/>
+      <c r="CG58" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH58"/>
+      <c r="CI58"/>
+      <c r="CJ58"/>
+      <c r="CK58"/>
+      <c r="CL58" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM58"/>
+      <c r="CN58" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO58"/>
+      <c r="CP58"/>
+      <c r="CQ58"/>
+      <c r="CR58"/>
+      <c r="CS58"/>
+      <c r="CT58"/>
+      <c r="CU58" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV58"/>
+      <c r="CW58"/>
+      <c r="CX58" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY58"/>
+      <c r="CZ58"/>
+      <c r="DA58"/>
+      <c r="DB58" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC58"/>
+      <c r="DD58"/>
+      <c r="DE58"/>
+      <c r="DF58"/>
+      <c r="DG58" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59" t="s">
+        <v>14</v>
+      </c>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+      <c r="AS59"/>
+      <c r="AT59"/>
+      <c r="AU59"/>
+      <c r="AV59"/>
+      <c r="AW59"/>
+      <c r="AX59"/>
+      <c r="AY59"/>
+      <c r="AZ59" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA59"/>
+      <c r="BB59"/>
+      <c r="BC59"/>
+      <c r="BD59"/>
+      <c r="BE59"/>
+      <c r="BF59" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG59"/>
+      <c r="BH59"/>
+      <c r="BI59" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ59"/>
+      <c r="BK59"/>
+      <c r="BL59"/>
+      <c r="BM59"/>
+      <c r="BN59" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO59"/>
+      <c r="BP59"/>
+      <c r="BQ59"/>
+      <c r="BR59"/>
+      <c r="BS59"/>
+      <c r="BT59"/>
+      <c r="BU59"/>
+      <c r="BV59"/>
+      <c r="BW59"/>
+      <c r="BX59"/>
+      <c r="BY59" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ59"/>
+      <c r="CA59"/>
+      <c r="CB59" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC59"/>
+      <c r="CD59"/>
+      <c r="CE59"/>
+      <c r="CF59"/>
+      <c r="CG59"/>
+      <c r="CH59"/>
+      <c r="CI59"/>
+      <c r="CJ59"/>
+      <c r="CK59"/>
+      <c r="CL59"/>
+      <c r="CM59"/>
+      <c r="CN59" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO59"/>
+      <c r="CP59"/>
+      <c r="CQ59"/>
+      <c r="CR59"/>
+      <c r="CS59"/>
+      <c r="CT59"/>
+      <c r="CU59"/>
+      <c r="CV59"/>
+      <c r="CW59"/>
+      <c r="CX59"/>
+      <c r="CY59"/>
+      <c r="CZ59"/>
+      <c r="DA59"/>
+      <c r="DB59"/>
+      <c r="DC59"/>
+      <c r="DD59"/>
+      <c r="DE59"/>
+      <c r="DF59"/>
+      <c r="DG59" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summaries/variantSummary2.xlsx
+++ b/summaries/variantSummary2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -23,12 +23,6 @@
     <t xml:space="preserve">1059|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">10665|orf1ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10685|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">11083|orf1ab</t>
   </si>
   <si>
@@ -41,9 +35,6 @@
     <t xml:space="preserve">12513|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">13344|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">13459|orf1ab</t>
   </si>
   <si>
@@ -281,9 +272,6 @@
     <t xml:space="preserve">29614|orf10</t>
   </si>
   <si>
-    <t xml:space="preserve">29665|orf10</t>
-  </si>
-  <si>
     <t xml:space="preserve">29836|transgenic</t>
   </si>
   <si>
@@ -308,9 +296,6 @@
     <t xml:space="preserve">4579|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">5260|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">5570|orf1ab</t>
   </si>
   <si>
@@ -329,9 +314,6 @@
     <t xml:space="preserve">7386|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">7649|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">7834|orf1ab</t>
   </si>
   <si>
@@ -563,15 +545,15 @@
     <t xml:space="preserve">266</t>
   </si>
   <si>
-    <t xml:space="preserve">266||20200520</t>
-  </si>
-  <si>
     <t xml:space="preserve">266|NP-OP|20200520</t>
   </si>
   <si>
     <t xml:space="preserve">266|NP-OP|20200522</t>
   </si>
   <si>
+    <t xml:space="preserve">266|Unk|20200520</t>
+  </si>
+  <si>
     <t xml:space="preserve">269</t>
   </si>
   <si>
@@ -603,12 +585,6 @@
   </si>
   <si>
     <t xml:space="preserve">290|NP-OP|20200701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300|NP-OP|20200713</t>
   </si>
   <si>
     <t xml:space="preserve">307</t>
@@ -1265,31 +1241,13 @@
       <c r="DB1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1302,12 +1260,12 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
+      <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1317,16 +1275,16 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2"/>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
       <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2"/>
       <c r="AC2"/>
-      <c r="AD2" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
@@ -1344,16 +1302,18 @@
       <c r="AS2"/>
       <c r="AT2"/>
       <c r="AU2"/>
-      <c r="AV2"/>
+      <c r="AV2" t="s">
+        <v>47</v>
+      </c>
       <c r="AW2"/>
       <c r="AX2"/>
-      <c r="AY2" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY2"/>
       <c r="AZ2"/>
       <c r="BA2"/>
       <c r="BB2"/>
-      <c r="BC2"/>
+      <c r="BC2" t="s">
+        <v>54</v>
+      </c>
       <c r="BD2"/>
       <c r="BE2"/>
       <c r="BF2" t="s">
@@ -1361,29 +1321,27 @@
       </c>
       <c r="BG2"/>
       <c r="BH2"/>
-      <c r="BI2" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI2"/>
       <c r="BJ2"/>
       <c r="BK2"/>
-      <c r="BL2"/>
+      <c r="BL2" t="s">
+        <v>63</v>
+      </c>
       <c r="BM2"/>
       <c r="BN2"/>
-      <c r="BO2" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO2"/>
       <c r="BP2"/>
       <c r="BQ2"/>
       <c r="BR2"/>
       <c r="BS2"/>
       <c r="BT2"/>
       <c r="BU2"/>
-      <c r="BV2"/>
+      <c r="BV2" t="s">
+        <v>73</v>
+      </c>
       <c r="BW2"/>
       <c r="BX2"/>
-      <c r="BY2" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY2"/>
       <c r="BZ2"/>
       <c r="CA2"/>
       <c r="CB2"/>
@@ -1394,13 +1352,13 @@
       <c r="CG2"/>
       <c r="CH2"/>
       <c r="CI2"/>
-      <c r="CJ2"/>
+      <c r="CJ2" t="s">
+        <v>87</v>
+      </c>
       <c r="CK2"/>
       <c r="CL2"/>
       <c r="CM2"/>
-      <c r="CN2" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN2"/>
       <c r="CO2"/>
       <c r="CP2"/>
       <c r="CQ2"/>
@@ -1413,23 +1371,17 @@
       <c r="CX2"/>
       <c r="CY2"/>
       <c r="CZ2"/>
-      <c r="DA2"/>
+      <c r="DA2" t="s">
+        <v>104</v>
+      </c>
       <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1441,15 +1393,15 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
       <c r="M3"/>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
+      <c r="N3"/>
+      <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1459,16 +1411,16 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3"/>
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
       <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3"/>
       <c r="AC3"/>
-      <c r="AD3" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
@@ -1486,16 +1438,18 @@
       <c r="AS3"/>
       <c r="AT3"/>
       <c r="AU3"/>
-      <c r="AV3"/>
+      <c r="AV3" t="s">
+        <v>47</v>
+      </c>
       <c r="AW3"/>
       <c r="AX3"/>
-      <c r="AY3" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY3"/>
       <c r="AZ3"/>
       <c r="BA3"/>
       <c r="BB3"/>
-      <c r="BC3"/>
+      <c r="BC3" t="s">
+        <v>54</v>
+      </c>
       <c r="BD3"/>
       <c r="BE3"/>
       <c r="BF3" t="s">
@@ -1503,29 +1457,27 @@
       </c>
       <c r="BG3"/>
       <c r="BH3"/>
-      <c r="BI3" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI3"/>
       <c r="BJ3"/>
       <c r="BK3"/>
-      <c r="BL3"/>
+      <c r="BL3" t="s">
+        <v>63</v>
+      </c>
       <c r="BM3"/>
       <c r="BN3"/>
-      <c r="BO3" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO3"/>
       <c r="BP3"/>
       <c r="BQ3"/>
       <c r="BR3"/>
       <c r="BS3"/>
       <c r="BT3"/>
       <c r="BU3"/>
-      <c r="BV3"/>
+      <c r="BV3" t="s">
+        <v>73</v>
+      </c>
       <c r="BW3"/>
       <c r="BX3"/>
-      <c r="BY3" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
       <c r="CB3"/>
@@ -1536,13 +1488,13 @@
       <c r="CG3"/>
       <c r="CH3"/>
       <c r="CI3"/>
-      <c r="CJ3"/>
+      <c r="CJ3" t="s">
+        <v>87</v>
+      </c>
       <c r="CK3"/>
       <c r="CL3"/>
       <c r="CM3"/>
-      <c r="CN3" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN3"/>
       <c r="CO3"/>
       <c r="CP3"/>
       <c r="CQ3"/>
@@ -1555,23 +1507,17 @@
       <c r="CX3"/>
       <c r="CY3"/>
       <c r="CZ3"/>
-      <c r="DA3"/>
+      <c r="DA3" t="s">
+        <v>104</v>
+      </c>
       <c r="DB3"/>
-      <c r="DC3"/>
-      <c r="DD3"/>
-      <c r="DE3"/>
-      <c r="DF3"/>
-      <c r="DG3" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1584,12 +1530,12 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4" t="s">
-        <v>14</v>
-      </c>
+      <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -1599,12 +1545,12 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
-      <c r="Y4"/>
+      <c r="Y4" t="s">
+        <v>24</v>
+      </c>
       <c r="Z4"/>
       <c r="AA4"/>
-      <c r="AB4" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
@@ -1631,7 +1577,9 @@
       <c r="AZ4"/>
       <c r="BA4"/>
       <c r="BB4"/>
-      <c r="BC4"/>
+      <c r="BC4" t="s">
+        <v>54</v>
+      </c>
       <c r="BD4"/>
       <c r="BE4"/>
       <c r="BF4" t="s">
@@ -1639,29 +1587,27 @@
       </c>
       <c r="BG4"/>
       <c r="BH4"/>
-      <c r="BI4" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI4"/>
       <c r="BJ4"/>
       <c r="BK4"/>
-      <c r="BL4"/>
+      <c r="BL4" t="s">
+        <v>63</v>
+      </c>
       <c r="BM4"/>
       <c r="BN4"/>
-      <c r="BO4" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO4"/>
       <c r="BP4"/>
       <c r="BQ4"/>
       <c r="BR4"/>
       <c r="BS4"/>
       <c r="BT4"/>
       <c r="BU4"/>
-      <c r="BV4"/>
+      <c r="BV4" t="s">
+        <v>73</v>
+      </c>
       <c r="BW4"/>
       <c r="BX4"/>
-      <c r="BY4" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY4"/>
       <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
@@ -1672,17 +1618,17 @@
       <c r="CG4"/>
       <c r="CH4"/>
       <c r="CI4"/>
-      <c r="CJ4"/>
+      <c r="CJ4" t="s">
+        <v>87</v>
+      </c>
       <c r="CK4"/>
-      <c r="CL4"/>
+      <c r="CL4" t="s">
+        <v>89</v>
+      </c>
       <c r="CM4"/>
-      <c r="CN4" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN4"/>
       <c r="CO4"/>
-      <c r="CP4" t="s">
-        <v>93</v>
-      </c>
+      <c r="CP4"/>
       <c r="CQ4"/>
       <c r="CR4"/>
       <c r="CS4"/>
@@ -1693,23 +1639,17 @@
       <c r="CX4"/>
       <c r="CY4"/>
       <c r="CZ4"/>
-      <c r="DA4"/>
+      <c r="DA4" t="s">
+        <v>104</v>
+      </c>
       <c r="DB4"/>
-      <c r="DC4"/>
-      <c r="DD4"/>
-      <c r="DE4"/>
-      <c r="DF4"/>
-      <c r="DG4" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1722,12 +1662,12 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5" t="s">
-        <v>14</v>
-      </c>
+      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1737,16 +1677,16 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
-      <c r="Y5"/>
+      <c r="Y5" t="s">
+        <v>24</v>
+      </c>
       <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5"/>
       <c r="AC5"/>
-      <c r="AD5" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5"/>
@@ -1757,25 +1697,27 @@
       <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
-      <c r="AO5"/>
+      <c r="AO5" t="s">
+        <v>40</v>
+      </c>
       <c r="AP5"/>
       <c r="AQ5"/>
-      <c r="AR5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AR5"/>
       <c r="AS5"/>
       <c r="AT5"/>
       <c r="AU5"/>
-      <c r="AV5"/>
+      <c r="AV5" t="s">
+        <v>47</v>
+      </c>
       <c r="AW5"/>
       <c r="AX5"/>
-      <c r="AY5" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY5"/>
       <c r="AZ5"/>
       <c r="BA5"/>
       <c r="BB5"/>
-      <c r="BC5"/>
+      <c r="BC5" t="s">
+        <v>54</v>
+      </c>
       <c r="BD5"/>
       <c r="BE5"/>
       <c r="BF5" t="s">
@@ -1783,48 +1725,46 @@
       </c>
       <c r="BG5"/>
       <c r="BH5"/>
-      <c r="BI5" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI5"/>
       <c r="BJ5"/>
       <c r="BK5"/>
-      <c r="BL5"/>
+      <c r="BL5" t="s">
+        <v>63</v>
+      </c>
       <c r="BM5"/>
       <c r="BN5"/>
-      <c r="BO5" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO5"/>
       <c r="BP5"/>
       <c r="BQ5"/>
       <c r="BR5"/>
       <c r="BS5"/>
       <c r="BT5"/>
       <c r="BU5"/>
-      <c r="BV5"/>
+      <c r="BV5" t="s">
+        <v>73</v>
+      </c>
       <c r="BW5"/>
       <c r="BX5"/>
-      <c r="BY5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ5"/>
+      <c r="BY5"/>
+      <c r="BZ5" t="s">
+        <v>77</v>
+      </c>
       <c r="CA5"/>
       <c r="CB5"/>
-      <c r="CC5" t="s">
-        <v>80</v>
-      </c>
+      <c r="CC5"/>
       <c r="CD5"/>
       <c r="CE5"/>
       <c r="CF5"/>
       <c r="CG5"/>
       <c r="CH5"/>
       <c r="CI5"/>
-      <c r="CJ5"/>
+      <c r="CJ5" t="s">
+        <v>87</v>
+      </c>
       <c r="CK5"/>
       <c r="CL5"/>
       <c r="CM5"/>
-      <c r="CN5" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN5"/>
       <c r="CO5"/>
       <c r="CP5"/>
       <c r="CQ5"/>
@@ -1837,43 +1777,37 @@
       <c r="CX5"/>
       <c r="CY5"/>
       <c r="CZ5"/>
-      <c r="DA5"/>
+      <c r="DA5" t="s">
+        <v>104</v>
+      </c>
       <c r="DB5"/>
-      <c r="DC5"/>
-      <c r="DD5"/>
-      <c r="DE5"/>
-      <c r="DF5"/>
-      <c r="DG5" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6"/>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
       <c r="F6"/>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6" t="s">
-        <v>14</v>
-      </c>
+      <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
@@ -1883,12 +1817,12 @@
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
-      <c r="Y6"/>
+      <c r="Y6" t="s">
+        <v>24</v>
+      </c>
       <c r="Z6"/>
       <c r="AA6"/>
-      <c r="AB6" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
@@ -1896,12 +1830,12 @@
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
-      <c r="AJ6"/>
+      <c r="AJ6" t="s">
+        <v>35</v>
+      </c>
       <c r="AK6"/>
       <c r="AL6"/>
-      <c r="AM6" t="s">
-        <v>38</v>
-      </c>
+      <c r="AM6"/>
       <c r="AN6"/>
       <c r="AO6"/>
       <c r="AP6"/>
@@ -1917,39 +1851,39 @@
       <c r="AZ6"/>
       <c r="BA6"/>
       <c r="BB6"/>
-      <c r="BC6"/>
+      <c r="BC6" t="s">
+        <v>54</v>
+      </c>
       <c r="BD6"/>
       <c r="BE6"/>
       <c r="BF6" t="s">
         <v>57</v>
       </c>
       <c r="BG6"/>
-      <c r="BH6"/>
-      <c r="BI6" t="s">
-        <v>60</v>
-      </c>
+      <c r="BH6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI6"/>
       <c r="BJ6"/>
-      <c r="BK6" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL6"/>
+      <c r="BK6"/>
+      <c r="BL6" t="s">
+        <v>63</v>
+      </c>
       <c r="BM6"/>
       <c r="BN6"/>
-      <c r="BO6" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO6"/>
       <c r="BP6"/>
       <c r="BQ6"/>
       <c r="BR6"/>
       <c r="BS6"/>
       <c r="BT6"/>
       <c r="BU6"/>
-      <c r="BV6"/>
+      <c r="BV6" t="s">
+        <v>73</v>
+      </c>
       <c r="BW6"/>
       <c r="BX6"/>
-      <c r="BY6" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY6"/>
       <c r="BZ6"/>
       <c r="CA6"/>
       <c r="CB6"/>
@@ -1957,7 +1891,9 @@
       <c r="CD6"/>
       <c r="CE6"/>
       <c r="CF6"/>
-      <c r="CG6"/>
+      <c r="CG6" t="s">
+        <v>84</v>
+      </c>
       <c r="CH6"/>
       <c r="CI6"/>
       <c r="CJ6" t="s">
@@ -1966,16 +1902,14 @@
       <c r="CK6"/>
       <c r="CL6"/>
       <c r="CM6"/>
-      <c r="CN6" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO6"/>
+      <c r="CN6"/>
+      <c r="CO6" t="s">
+        <v>92</v>
+      </c>
       <c r="CP6"/>
       <c r="CQ6"/>
       <c r="CR6"/>
-      <c r="CS6" t="s">
-        <v>96</v>
-      </c>
+      <c r="CS6"/>
       <c r="CT6"/>
       <c r="CU6"/>
       <c r="CV6"/>
@@ -1983,43 +1917,37 @@
       <c r="CX6"/>
       <c r="CY6"/>
       <c r="CZ6"/>
-      <c r="DA6"/>
+      <c r="DA6" t="s">
+        <v>104</v>
+      </c>
       <c r="DB6"/>
-      <c r="DC6"/>
-      <c r="DD6"/>
-      <c r="DE6"/>
-      <c r="DF6"/>
-      <c r="DG6" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7"/>
-      <c r="E7"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
       <c r="F7"/>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
+      <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7"/>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7" t="s">
-        <v>14</v>
-      </c>
+      <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -2028,15 +1956,15 @@
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
+      <c r="X7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>24</v>
+      </c>
       <c r="Z7"/>
-      <c r="AA7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA7"/>
+      <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
@@ -2044,64 +1972,64 @@
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
-      <c r="AJ7"/>
+      <c r="AJ7" t="s">
+        <v>35</v>
+      </c>
       <c r="AK7"/>
       <c r="AL7"/>
-      <c r="AM7" t="s">
-        <v>38</v>
-      </c>
+      <c r="AM7"/>
       <c r="AN7"/>
       <c r="AO7"/>
       <c r="AP7"/>
       <c r="AQ7"/>
       <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
+      <c r="AS7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>45</v>
+      </c>
       <c r="AU7"/>
-      <c r="AV7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>48</v>
-      </c>
+      <c r="AV7"/>
+      <c r="AW7"/>
       <c r="AX7"/>
       <c r="AY7"/>
       <c r="AZ7"/>
       <c r="BA7"/>
       <c r="BB7"/>
-      <c r="BC7"/>
+      <c r="BC7" t="s">
+        <v>54</v>
+      </c>
       <c r="BD7"/>
       <c r="BE7"/>
       <c r="BF7" t="s">
         <v>57</v>
       </c>
       <c r="BG7"/>
-      <c r="BH7"/>
-      <c r="BI7" t="s">
-        <v>60</v>
-      </c>
+      <c r="BH7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI7"/>
       <c r="BJ7"/>
-      <c r="BK7" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL7"/>
+      <c r="BK7"/>
+      <c r="BL7" t="s">
+        <v>63</v>
+      </c>
       <c r="BM7"/>
       <c r="BN7"/>
-      <c r="BO7" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO7"/>
       <c r="BP7"/>
       <c r="BQ7"/>
       <c r="BR7"/>
       <c r="BS7"/>
       <c r="BT7"/>
       <c r="BU7"/>
-      <c r="BV7"/>
+      <c r="BV7" t="s">
+        <v>73</v>
+      </c>
       <c r="BW7"/>
       <c r="BX7"/>
-      <c r="BY7" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
       <c r="CB7"/>
@@ -2109,7 +2037,9 @@
       <c r="CD7"/>
       <c r="CE7"/>
       <c r="CF7"/>
-      <c r="CG7"/>
+      <c r="CG7" t="s">
+        <v>84</v>
+      </c>
       <c r="CH7"/>
       <c r="CI7"/>
       <c r="CJ7" t="s">
@@ -2118,16 +2048,14 @@
       <c r="CK7"/>
       <c r="CL7"/>
       <c r="CM7"/>
-      <c r="CN7" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO7"/>
+      <c r="CN7"/>
+      <c r="CO7" t="s">
+        <v>92</v>
+      </c>
       <c r="CP7"/>
       <c r="CQ7"/>
       <c r="CR7"/>
-      <c r="CS7" t="s">
-        <v>96</v>
-      </c>
+      <c r="CS7"/>
       <c r="CT7"/>
       <c r="CU7"/>
       <c r="CV7"/>
@@ -2135,43 +2063,37 @@
       <c r="CX7"/>
       <c r="CY7"/>
       <c r="CZ7"/>
-      <c r="DA7"/>
+      <c r="DA7" t="s">
+        <v>104</v>
+      </c>
       <c r="DB7"/>
-      <c r="DC7"/>
-      <c r="DD7"/>
-      <c r="DE7"/>
-      <c r="DF7"/>
-      <c r="DG7" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8"/>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
       <c r="F8"/>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
+      <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8"/>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8" t="s">
-        <v>14</v>
-      </c>
+      <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
@@ -2181,12 +2103,12 @@
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
-      <c r="Y8"/>
+      <c r="Y8" t="s">
+        <v>24</v>
+      </c>
       <c r="Z8"/>
       <c r="AA8"/>
-      <c r="AB8" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -2194,12 +2116,12 @@
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
-      <c r="AJ8"/>
+      <c r="AJ8" t="s">
+        <v>35</v>
+      </c>
       <c r="AK8"/>
       <c r="AL8"/>
-      <c r="AM8" t="s">
-        <v>38</v>
-      </c>
+      <c r="AM8"/>
       <c r="AN8"/>
       <c r="AO8"/>
       <c r="AP8"/>
@@ -2215,39 +2137,39 @@
       <c r="AZ8"/>
       <c r="BA8"/>
       <c r="BB8"/>
-      <c r="BC8"/>
+      <c r="BC8" t="s">
+        <v>54</v>
+      </c>
       <c r="BD8"/>
       <c r="BE8"/>
       <c r="BF8" t="s">
         <v>57</v>
       </c>
       <c r="BG8"/>
-      <c r="BH8"/>
-      <c r="BI8" t="s">
-        <v>60</v>
-      </c>
+      <c r="BH8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI8"/>
       <c r="BJ8"/>
-      <c r="BK8" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL8"/>
+      <c r="BK8"/>
+      <c r="BL8" t="s">
+        <v>63</v>
+      </c>
       <c r="BM8"/>
       <c r="BN8"/>
-      <c r="BO8" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO8"/>
       <c r="BP8"/>
       <c r="BQ8"/>
       <c r="BR8"/>
       <c r="BS8"/>
       <c r="BT8"/>
       <c r="BU8"/>
-      <c r="BV8"/>
+      <c r="BV8" t="s">
+        <v>73</v>
+      </c>
       <c r="BW8"/>
       <c r="BX8"/>
-      <c r="BY8" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY8"/>
       <c r="BZ8"/>
       <c r="CA8"/>
       <c r="CB8"/>
@@ -2255,7 +2177,9 @@
       <c r="CD8"/>
       <c r="CE8"/>
       <c r="CF8"/>
-      <c r="CG8"/>
+      <c r="CG8" t="s">
+        <v>84</v>
+      </c>
       <c r="CH8"/>
       <c r="CI8"/>
       <c r="CJ8" t="s">
@@ -2264,16 +2188,14 @@
       <c r="CK8"/>
       <c r="CL8"/>
       <c r="CM8"/>
-      <c r="CN8" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO8"/>
+      <c r="CN8"/>
+      <c r="CO8" t="s">
+        <v>92</v>
+      </c>
       <c r="CP8"/>
       <c r="CQ8"/>
       <c r="CR8"/>
-      <c r="CS8" t="s">
-        <v>96</v>
-      </c>
+      <c r="CS8"/>
       <c r="CT8"/>
       <c r="CU8"/>
       <c r="CV8"/>
@@ -2281,43 +2203,37 @@
       <c r="CX8"/>
       <c r="CY8"/>
       <c r="CZ8"/>
-      <c r="DA8"/>
+      <c r="DA8" t="s">
+        <v>104</v>
+      </c>
       <c r="DB8"/>
-      <c r="DC8"/>
-      <c r="DD8"/>
-      <c r="DE8"/>
-      <c r="DF8"/>
-      <c r="DG8" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9"/>
-      <c r="E9"/>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
       <c r="F9"/>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9"/>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" t="s">
-        <v>14</v>
-      </c>
+      <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -2327,12 +2243,12 @@
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
-      <c r="Y9"/>
+      <c r="Y9" t="s">
+        <v>24</v>
+      </c>
       <c r="Z9"/>
       <c r="AA9"/>
-      <c r="AB9" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
@@ -2340,12 +2256,12 @@
       <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
-      <c r="AJ9"/>
+      <c r="AJ9" t="s">
+        <v>35</v>
+      </c>
       <c r="AK9"/>
       <c r="AL9"/>
-      <c r="AM9" t="s">
-        <v>38</v>
-      </c>
+      <c r="AM9"/>
       <c r="AN9"/>
       <c r="AO9"/>
       <c r="AP9"/>
@@ -2361,39 +2277,39 @@
       <c r="AZ9"/>
       <c r="BA9"/>
       <c r="BB9"/>
-      <c r="BC9"/>
+      <c r="BC9" t="s">
+        <v>54</v>
+      </c>
       <c r="BD9"/>
       <c r="BE9"/>
       <c r="BF9" t="s">
         <v>57</v>
       </c>
       <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9" t="s">
-        <v>60</v>
-      </c>
+      <c r="BH9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI9"/>
       <c r="BJ9"/>
-      <c r="BK9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL9"/>
+      <c r="BK9"/>
+      <c r="BL9" t="s">
+        <v>63</v>
+      </c>
       <c r="BM9"/>
       <c r="BN9"/>
-      <c r="BO9" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO9"/>
       <c r="BP9"/>
       <c r="BQ9"/>
       <c r="BR9"/>
       <c r="BS9"/>
       <c r="BT9"/>
       <c r="BU9"/>
-      <c r="BV9"/>
+      <c r="BV9" t="s">
+        <v>73</v>
+      </c>
       <c r="BW9"/>
       <c r="BX9"/>
-      <c r="BY9" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY9"/>
       <c r="BZ9"/>
       <c r="CA9"/>
       <c r="CB9"/>
@@ -2401,7 +2317,9 @@
       <c r="CD9"/>
       <c r="CE9"/>
       <c r="CF9"/>
-      <c r="CG9"/>
+      <c r="CG9" t="s">
+        <v>84</v>
+      </c>
       <c r="CH9"/>
       <c r="CI9"/>
       <c r="CJ9" t="s">
@@ -2410,44 +2328,36 @@
       <c r="CK9"/>
       <c r="CL9"/>
       <c r="CM9"/>
-      <c r="CN9" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO9"/>
+      <c r="CN9"/>
+      <c r="CO9" t="s">
+        <v>92</v>
+      </c>
       <c r="CP9"/>
       <c r="CQ9"/>
       <c r="CR9"/>
-      <c r="CS9" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT9"/>
+      <c r="CS9"/>
+      <c r="CT9" t="s">
+        <v>97</v>
+      </c>
       <c r="CU9"/>
       <c r="CV9"/>
       <c r="CW9"/>
       <c r="CX9"/>
-      <c r="CY9" t="s">
-        <v>102</v>
-      </c>
+      <c r="CY9"/>
       <c r="CZ9"/>
-      <c r="DA9"/>
-      <c r="DB9"/>
-      <c r="DC9"/>
-      <c r="DD9"/>
-      <c r="DE9"/>
-      <c r="DF9"/>
-      <c r="DG9" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH9" t="s">
-        <v>111</v>
+      <c r="DA9" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2460,29 +2370,29 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10"/>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
       <c r="M10"/>
       <c r="N10"/>
-      <c r="O10" t="s">
-        <v>14</v>
-      </c>
+      <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10"/>
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
       <c r="T10"/>
       <c r="U10"/>
-      <c r="V10" t="s">
-        <v>21</v>
-      </c>
+      <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
-      <c r="Y10"/>
+      <c r="Y10" t="s">
+        <v>24</v>
+      </c>
       <c r="Z10"/>
       <c r="AA10"/>
-      <c r="AB10" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -2509,7 +2419,9 @@
       <c r="AZ10"/>
       <c r="BA10"/>
       <c r="BB10"/>
-      <c r="BC10"/>
+      <c r="BC10" t="s">
+        <v>54</v>
+      </c>
       <c r="BD10"/>
       <c r="BE10"/>
       <c r="BF10" t="s">
@@ -2517,33 +2429,31 @@
       </c>
       <c r="BG10"/>
       <c r="BH10"/>
-      <c r="BI10" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI10"/>
       <c r="BJ10"/>
       <c r="BK10"/>
-      <c r="BL10"/>
+      <c r="BL10" t="s">
+        <v>63</v>
+      </c>
       <c r="BM10"/>
       <c r="BN10"/>
-      <c r="BO10" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO10"/>
       <c r="BP10"/>
       <c r="BQ10"/>
       <c r="BR10"/>
       <c r="BS10"/>
       <c r="BT10"/>
       <c r="BU10"/>
-      <c r="BV10"/>
+      <c r="BV10" t="s">
+        <v>73</v>
+      </c>
       <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY10"/>
       <c r="BZ10"/>
-      <c r="CA10" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA10"/>
       <c r="CB10"/>
       <c r="CC10"/>
       <c r="CD10"/>
@@ -2552,13 +2462,13 @@
       <c r="CG10"/>
       <c r="CH10"/>
       <c r="CI10"/>
-      <c r="CJ10"/>
+      <c r="CJ10" t="s">
+        <v>87</v>
+      </c>
       <c r="CK10"/>
       <c r="CL10"/>
       <c r="CM10"/>
-      <c r="CN10" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN10"/>
       <c r="CO10"/>
       <c r="CP10"/>
       <c r="CQ10"/>
@@ -2568,28 +2478,22 @@
       <c r="CU10"/>
       <c r="CV10"/>
       <c r="CW10"/>
-      <c r="CX10"/>
+      <c r="CX10" t="s">
+        <v>101</v>
+      </c>
       <c r="CY10"/>
       <c r="CZ10"/>
-      <c r="DA10"/>
+      <c r="DA10" t="s">
+        <v>104</v>
+      </c>
       <c r="DB10"/>
-      <c r="DC10"/>
-      <c r="DD10" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE10"/>
-      <c r="DF10"/>
-      <c r="DG10" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -2600,35 +2504,35 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>16</v>
-      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-      <c r="T11"/>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
       <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11" t="s">
-        <v>22</v>
-      </c>
+      <c r="V11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11"/>
       <c r="X11"/>
       <c r="Y11" t="s">
         <v>24</v>
       </c>
       <c r="Z11"/>
       <c r="AA11"/>
-      <c r="AB11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
@@ -2655,41 +2559,41 @@
       <c r="AZ11"/>
       <c r="BA11"/>
       <c r="BB11"/>
-      <c r="BC11"/>
+      <c r="BC11" t="s">
+        <v>54</v>
+      </c>
       <c r="BD11"/>
       <c r="BE11"/>
       <c r="BF11" t="s">
         <v>57</v>
       </c>
-      <c r="BG11"/>
+      <c r="BG11" t="s">
+        <v>58</v>
+      </c>
       <c r="BH11"/>
-      <c r="BI11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>61</v>
-      </c>
+      <c r="BI11"/>
+      <c r="BJ11"/>
       <c r="BK11"/>
-      <c r="BL11"/>
-      <c r="BM11"/>
+      <c r="BL11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>64</v>
+      </c>
       <c r="BN11"/>
-      <c r="BO11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>67</v>
-      </c>
+      <c r="BO11"/>
+      <c r="BP11"/>
       <c r="BQ11"/>
       <c r="BR11"/>
       <c r="BS11"/>
       <c r="BT11"/>
       <c r="BU11"/>
-      <c r="BV11"/>
+      <c r="BV11" t="s">
+        <v>73</v>
+      </c>
       <c r="BW11"/>
       <c r="BX11"/>
-      <c r="BY11" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY11"/>
       <c r="BZ11"/>
       <c r="CA11"/>
       <c r="CB11"/>
@@ -2700,18 +2604,18 @@
       <c r="CG11"/>
       <c r="CH11"/>
       <c r="CI11"/>
-      <c r="CJ11"/>
+      <c r="CJ11" t="s">
+        <v>87</v>
+      </c>
       <c r="CK11"/>
       <c r="CL11"/>
-      <c r="CM11"/>
-      <c r="CN11" t="s">
-        <v>91</v>
-      </c>
+      <c r="CM11" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN11"/>
       <c r="CO11"/>
       <c r="CP11"/>
-      <c r="CQ11" t="s">
-        <v>94</v>
-      </c>
+      <c r="CQ11"/>
       <c r="CR11"/>
       <c r="CS11"/>
       <c r="CT11"/>
@@ -2719,47 +2623,41 @@
       <c r="CV11"/>
       <c r="CW11"/>
       <c r="CX11"/>
-      <c r="CY11"/>
+      <c r="CY11" t="s">
+        <v>102</v>
+      </c>
       <c r="CZ11"/>
-      <c r="DA11"/>
+      <c r="DA11" t="s">
+        <v>104</v>
+      </c>
       <c r="DB11"/>
-      <c r="DC11"/>
-      <c r="DD11"/>
-      <c r="DE11" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF11"/>
-      <c r="DG11" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12"/>
-      <c r="E12"/>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
       <c r="F12"/>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
+      <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
       <c r="M12"/>
       <c r="N12"/>
-      <c r="O12" t="s">
-        <v>14</v>
-      </c>
+      <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
@@ -2769,12 +2667,12 @@
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
-      <c r="Y12"/>
+      <c r="Y12" t="s">
+        <v>24</v>
+      </c>
       <c r="Z12"/>
       <c r="AA12"/>
-      <c r="AB12" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -2782,12 +2680,12 @@
       <c r="AG12"/>
       <c r="AH12"/>
       <c r="AI12"/>
-      <c r="AJ12"/>
+      <c r="AJ12" t="s">
+        <v>35</v>
+      </c>
       <c r="AK12"/>
       <c r="AL12"/>
-      <c r="AM12" t="s">
-        <v>38</v>
-      </c>
+      <c r="AM12"/>
       <c r="AN12"/>
       <c r="AO12"/>
       <c r="AP12"/>
@@ -2803,7 +2701,9 @@
       <c r="AZ12"/>
       <c r="BA12"/>
       <c r="BB12"/>
-      <c r="BC12"/>
+      <c r="BC12" t="s">
+        <v>54</v>
+      </c>
       <c r="BD12"/>
       <c r="BE12"/>
       <c r="BF12" t="s">
@@ -2811,29 +2711,27 @@
       </c>
       <c r="BG12"/>
       <c r="BH12"/>
-      <c r="BI12" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI12"/>
       <c r="BJ12"/>
       <c r="BK12"/>
-      <c r="BL12"/>
+      <c r="BL12" t="s">
+        <v>63</v>
+      </c>
       <c r="BM12"/>
       <c r="BN12"/>
-      <c r="BO12" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO12"/>
       <c r="BP12"/>
       <c r="BQ12"/>
       <c r="BR12"/>
       <c r="BS12"/>
       <c r="BT12"/>
       <c r="BU12"/>
-      <c r="BV12"/>
+      <c r="BV12" t="s">
+        <v>73</v>
+      </c>
       <c r="BW12"/>
       <c r="BX12"/>
-      <c r="BY12" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY12"/>
       <c r="BZ12"/>
       <c r="CA12"/>
       <c r="CB12"/>
@@ -2841,7 +2739,9 @@
       <c r="CD12"/>
       <c r="CE12"/>
       <c r="CF12"/>
-      <c r="CG12"/>
+      <c r="CG12" t="s">
+        <v>84</v>
+      </c>
       <c r="CH12"/>
       <c r="CI12"/>
       <c r="CJ12" t="s">
@@ -2850,9 +2750,7 @@
       <c r="CK12"/>
       <c r="CL12"/>
       <c r="CM12"/>
-      <c r="CN12" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN12"/>
       <c r="CO12"/>
       <c r="CP12"/>
       <c r="CQ12"/>
@@ -2865,43 +2763,37 @@
       <c r="CX12"/>
       <c r="CY12"/>
       <c r="CZ12"/>
-      <c r="DA12"/>
+      <c r="DA12" t="s">
+        <v>104</v>
+      </c>
       <c r="DB12"/>
-      <c r="DC12"/>
-      <c r="DD12"/>
-      <c r="DE12"/>
-      <c r="DF12"/>
-      <c r="DG12" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13"/>
-      <c r="E13"/>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
       <c r="F13"/>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
+      <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" t="s">
-        <v>14</v>
-      </c>
+      <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
@@ -2911,12 +2803,12 @@
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
-      <c r="Y13"/>
+      <c r="Y13" t="s">
+        <v>24</v>
+      </c>
       <c r="Z13"/>
       <c r="AA13"/>
-      <c r="AB13" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB13"/>
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
@@ -2924,12 +2816,12 @@
       <c r="AG13"/>
       <c r="AH13"/>
       <c r="AI13"/>
-      <c r="AJ13"/>
+      <c r="AJ13" t="s">
+        <v>35</v>
+      </c>
       <c r="AK13"/>
       <c r="AL13"/>
-      <c r="AM13" t="s">
-        <v>38</v>
-      </c>
+      <c r="AM13"/>
       <c r="AN13"/>
       <c r="AO13"/>
       <c r="AP13"/>
@@ -2945,7 +2837,9 @@
       <c r="AZ13"/>
       <c r="BA13"/>
       <c r="BB13"/>
-      <c r="BC13"/>
+      <c r="BC13" t="s">
+        <v>54</v>
+      </c>
       <c r="BD13"/>
       <c r="BE13"/>
       <c r="BF13" t="s">
@@ -2953,29 +2847,27 @@
       </c>
       <c r="BG13"/>
       <c r="BH13"/>
-      <c r="BI13" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI13"/>
       <c r="BJ13"/>
       <c r="BK13"/>
-      <c r="BL13"/>
+      <c r="BL13" t="s">
+        <v>63</v>
+      </c>
       <c r="BM13"/>
       <c r="BN13"/>
-      <c r="BO13" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO13"/>
       <c r="BP13"/>
       <c r="BQ13"/>
       <c r="BR13"/>
       <c r="BS13"/>
       <c r="BT13"/>
       <c r="BU13"/>
-      <c r="BV13"/>
+      <c r="BV13" t="s">
+        <v>73</v>
+      </c>
       <c r="BW13"/>
       <c r="BX13"/>
-      <c r="BY13" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY13"/>
       <c r="BZ13"/>
       <c r="CA13"/>
       <c r="CB13"/>
@@ -2983,7 +2875,9 @@
       <c r="CD13"/>
       <c r="CE13"/>
       <c r="CF13"/>
-      <c r="CG13"/>
+      <c r="CG13" t="s">
+        <v>84</v>
+      </c>
       <c r="CH13"/>
       <c r="CI13"/>
       <c r="CJ13" t="s">
@@ -2992,9 +2886,7 @@
       <c r="CK13"/>
       <c r="CL13"/>
       <c r="CM13"/>
-      <c r="CN13" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN13"/>
       <c r="CO13"/>
       <c r="CP13"/>
       <c r="CQ13"/>
@@ -3007,43 +2899,37 @@
       <c r="CX13"/>
       <c r="CY13"/>
       <c r="CZ13"/>
-      <c r="DA13"/>
+      <c r="DA13" t="s">
+        <v>104</v>
+      </c>
       <c r="DB13"/>
-      <c r="DC13"/>
-      <c r="DD13"/>
-      <c r="DE13"/>
-      <c r="DF13"/>
-      <c r="DG13" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14"/>
-      <c r="E14"/>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
       <c r="F14"/>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
+      <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14"/>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" t="s">
-        <v>14</v>
-      </c>
+      <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -3053,12 +2939,12 @@
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
-      <c r="Y14"/>
+      <c r="Y14" t="s">
+        <v>24</v>
+      </c>
       <c r="Z14"/>
       <c r="AA14"/>
-      <c r="AB14" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB14"/>
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
@@ -3066,20 +2952,20 @@
       <c r="AG14"/>
       <c r="AH14"/>
       <c r="AI14"/>
-      <c r="AJ14"/>
+      <c r="AJ14" t="s">
+        <v>35</v>
+      </c>
       <c r="AK14"/>
       <c r="AL14"/>
-      <c r="AM14" t="s">
-        <v>38</v>
-      </c>
+      <c r="AM14"/>
       <c r="AN14"/>
       <c r="AO14"/>
-      <c r="AP14"/>
+      <c r="AP14" t="s">
+        <v>41</v>
+      </c>
       <c r="AQ14"/>
       <c r="AR14"/>
-      <c r="AS14" t="s">
-        <v>44</v>
-      </c>
+      <c r="AS14"/>
       <c r="AT14"/>
       <c r="AU14"/>
       <c r="AV14"/>
@@ -3089,7 +2975,9 @@
       <c r="AZ14"/>
       <c r="BA14"/>
       <c r="BB14"/>
-      <c r="BC14"/>
+      <c r="BC14" t="s">
+        <v>54</v>
+      </c>
       <c r="BD14"/>
       <c r="BE14"/>
       <c r="BF14" t="s">
@@ -3097,29 +2985,27 @@
       </c>
       <c r="BG14"/>
       <c r="BH14"/>
-      <c r="BI14" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI14"/>
       <c r="BJ14"/>
       <c r="BK14"/>
-      <c r="BL14"/>
+      <c r="BL14" t="s">
+        <v>63</v>
+      </c>
       <c r="BM14"/>
       <c r="BN14"/>
-      <c r="BO14" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO14"/>
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
       <c r="BS14"/>
       <c r="BT14"/>
       <c r="BU14"/>
-      <c r="BV14"/>
+      <c r="BV14" t="s">
+        <v>73</v>
+      </c>
       <c r="BW14"/>
       <c r="BX14"/>
-      <c r="BY14" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
       <c r="CB14"/>
@@ -3127,7 +3013,9 @@
       <c r="CD14"/>
       <c r="CE14"/>
       <c r="CF14"/>
-      <c r="CG14"/>
+      <c r="CG14" t="s">
+        <v>84</v>
+      </c>
       <c r="CH14"/>
       <c r="CI14"/>
       <c r="CJ14" t="s">
@@ -3136,9 +3024,7 @@
       <c r="CK14"/>
       <c r="CL14"/>
       <c r="CM14"/>
-      <c r="CN14" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN14"/>
       <c r="CO14"/>
       <c r="CP14"/>
       <c r="CQ14"/>
@@ -3151,43 +3037,37 @@
       <c r="CX14"/>
       <c r="CY14"/>
       <c r="CZ14"/>
-      <c r="DA14"/>
+      <c r="DA14" t="s">
+        <v>104</v>
+      </c>
       <c r="DB14"/>
-      <c r="DC14"/>
-      <c r="DD14"/>
-      <c r="DE14"/>
-      <c r="DF14"/>
-      <c r="DG14" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15"/>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
       <c r="G15"/>
       <c r="H15" t="s">
         <v>7</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="K15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15"/>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15" t="s">
-        <v>14</v>
-      </c>
+      <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -3197,12 +3077,12 @@
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
-      <c r="Y15"/>
+      <c r="Y15" t="s">
+        <v>24</v>
+      </c>
       <c r="Z15"/>
       <c r="AA15"/>
-      <c r="AB15" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
@@ -3221,53 +3101,53 @@
       <c r="AR15"/>
       <c r="AS15"/>
       <c r="AT15"/>
-      <c r="AU15"/>
+      <c r="AU15" t="s">
+        <v>46</v>
+      </c>
       <c r="AV15"/>
       <c r="AW15"/>
-      <c r="AX15" t="s">
-        <v>49</v>
-      </c>
+      <c r="AX15"/>
       <c r="AY15"/>
       <c r="AZ15"/>
       <c r="BA15"/>
       <c r="BB15"/>
-      <c r="BC15"/>
+      <c r="BC15" t="s">
+        <v>54</v>
+      </c>
       <c r="BD15"/>
       <c r="BE15"/>
       <c r="BF15" t="s">
         <v>57</v>
       </c>
-      <c r="BG15"/>
+      <c r="BG15" t="s">
+        <v>58</v>
+      </c>
       <c r="BH15"/>
-      <c r="BI15" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI15"/>
       <c r="BJ15" t="s">
         <v>61</v>
       </c>
       <c r="BK15"/>
-      <c r="BL15"/>
-      <c r="BM15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN15"/>
-      <c r="BO15" t="s">
-        <v>66</v>
-      </c>
+      <c r="BL15" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM15"/>
+      <c r="BN15" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO15"/>
       <c r="BP15"/>
-      <c r="BQ15" t="s">
-        <v>68</v>
-      </c>
+      <c r="BQ15"/>
       <c r="BR15"/>
       <c r="BS15"/>
       <c r="BT15"/>
       <c r="BU15"/>
-      <c r="BV15"/>
+      <c r="BV15" t="s">
+        <v>73</v>
+      </c>
       <c r="BW15"/>
       <c r="BX15"/>
-      <c r="BY15" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY15"/>
       <c r="BZ15"/>
       <c r="CA15"/>
       <c r="CB15"/>
@@ -3278,13 +3158,13 @@
       <c r="CG15"/>
       <c r="CH15"/>
       <c r="CI15"/>
-      <c r="CJ15"/>
+      <c r="CJ15" t="s">
+        <v>87</v>
+      </c>
       <c r="CK15"/>
       <c r="CL15"/>
       <c r="CM15"/>
-      <c r="CN15" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN15"/>
       <c r="CO15"/>
       <c r="CP15"/>
       <c r="CQ15"/>
@@ -3297,23 +3177,17 @@
       <c r="CX15"/>
       <c r="CY15"/>
       <c r="CZ15"/>
-      <c r="DA15"/>
+      <c r="DA15" t="s">
+        <v>104</v>
+      </c>
       <c r="DB15"/>
-      <c r="DC15"/>
-      <c r="DD15"/>
-      <c r="DE15"/>
-      <c r="DF15"/>
-      <c r="DG15" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -3326,12 +3200,12 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16"/>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
       <c r="M16"/>
       <c r="N16"/>
-      <c r="O16" t="s">
-        <v>14</v>
-      </c>
+      <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
@@ -3341,12 +3215,12 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
-      <c r="Y16"/>
+      <c r="Y16" t="s">
+        <v>24</v>
+      </c>
       <c r="Z16"/>
       <c r="AA16"/>
-      <c r="AB16" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
@@ -3358,12 +3232,12 @@
       <c r="AK16"/>
       <c r="AL16"/>
       <c r="AM16"/>
-      <c r="AN16"/>
+      <c r="AN16" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16"/>
       <c r="AP16"/>
-      <c r="AQ16" t="s">
-        <v>42</v>
-      </c>
+      <c r="AQ16"/>
       <c r="AR16"/>
       <c r="AS16"/>
       <c r="AT16"/>
@@ -3375,7 +3249,9 @@
       <c r="AZ16"/>
       <c r="BA16"/>
       <c r="BB16"/>
-      <c r="BC16"/>
+      <c r="BC16" t="s">
+        <v>54</v>
+      </c>
       <c r="BD16"/>
       <c r="BE16"/>
       <c r="BF16" t="s">
@@ -3383,31 +3259,29 @@
       </c>
       <c r="BG16"/>
       <c r="BH16"/>
-      <c r="BI16" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI16"/>
       <c r="BJ16"/>
       <c r="BK16"/>
-      <c r="BL16"/>
+      <c r="BL16" t="s">
+        <v>63</v>
+      </c>
       <c r="BM16"/>
       <c r="BN16"/>
-      <c r="BO16" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
       <c r="BR16"/>
       <c r="BS16"/>
       <c r="BT16"/>
-      <c r="BU16"/>
-      <c r="BV16"/>
+      <c r="BU16" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>73</v>
+      </c>
       <c r="BW16"/>
-      <c r="BX16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX16"/>
+      <c r="BY16"/>
       <c r="BZ16"/>
       <c r="CA16"/>
       <c r="CB16"/>
@@ -3418,13 +3292,13 @@
       <c r="CG16"/>
       <c r="CH16"/>
       <c r="CI16"/>
-      <c r="CJ16"/>
+      <c r="CJ16" t="s">
+        <v>87</v>
+      </c>
       <c r="CK16"/>
       <c r="CL16"/>
       <c r="CM16"/>
-      <c r="CN16" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN16"/>
       <c r="CO16"/>
       <c r="CP16"/>
       <c r="CQ16"/>
@@ -3437,23 +3311,17 @@
       <c r="CX16"/>
       <c r="CY16"/>
       <c r="CZ16"/>
-      <c r="DA16"/>
+      <c r="DA16" t="s">
+        <v>104</v>
+      </c>
       <c r="DB16"/>
-      <c r="DC16"/>
-      <c r="DD16"/>
-      <c r="DE16"/>
-      <c r="DF16"/>
-      <c r="DG16" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3466,12 +3334,12 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17" t="s">
-        <v>14</v>
-      </c>
+      <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
@@ -3481,28 +3349,28 @@
       <c r="V17"/>
       <c r="W17"/>
       <c r="X17"/>
-      <c r="Y17"/>
+      <c r="Y17" t="s">
+        <v>24</v>
+      </c>
       <c r="Z17"/>
-      <c r="AA17"/>
+      <c r="AA17" t="s">
+        <v>26</v>
+      </c>
       <c r="AB17" t="s">
         <v>27</v>
       </c>
       <c r="AC17"/>
-      <c r="AD17" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>30</v>
-      </c>
+      <c r="AD17"/>
+      <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
-      <c r="AI17"/>
+      <c r="AI17" t="s">
+        <v>34</v>
+      </c>
       <c r="AJ17"/>
       <c r="AK17"/>
-      <c r="AL17" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL17"/>
       <c r="AM17"/>
       <c r="AN17"/>
       <c r="AO17"/>
@@ -3518,8 +3386,12 @@
       <c r="AY17"/>
       <c r="AZ17"/>
       <c r="BA17"/>
-      <c r="BB17"/>
-      <c r="BC17"/>
+      <c r="BB17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>54</v>
+      </c>
       <c r="BD17"/>
       <c r="BE17" t="s">
         <v>56</v>
@@ -3528,32 +3400,28 @@
         <v>57</v>
       </c>
       <c r="BG17"/>
-      <c r="BH17" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>60</v>
-      </c>
+      <c r="BH17"/>
+      <c r="BI17"/>
       <c r="BJ17"/>
       <c r="BK17"/>
-      <c r="BL17"/>
+      <c r="BL17" t="s">
+        <v>63</v>
+      </c>
       <c r="BM17"/>
       <c r="BN17"/>
-      <c r="BO17" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO17"/>
       <c r="BP17"/>
       <c r="BQ17"/>
       <c r="BR17"/>
       <c r="BS17"/>
       <c r="BT17"/>
       <c r="BU17"/>
-      <c r="BV17"/>
+      <c r="BV17" t="s">
+        <v>73</v>
+      </c>
       <c r="BW17"/>
       <c r="BX17"/>
-      <c r="BY17" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
       <c r="CB17"/>
@@ -3564,13 +3432,13 @@
       <c r="CG17"/>
       <c r="CH17"/>
       <c r="CI17"/>
-      <c r="CJ17"/>
+      <c r="CJ17" t="s">
+        <v>87</v>
+      </c>
       <c r="CK17"/>
       <c r="CL17"/>
       <c r="CM17"/>
-      <c r="CN17" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN17"/>
       <c r="CO17"/>
       <c r="CP17"/>
       <c r="CQ17"/>
@@ -3578,7 +3446,9 @@
       <c r="CS17"/>
       <c r="CT17"/>
       <c r="CU17"/>
-      <c r="CV17"/>
+      <c r="CV17" t="s">
+        <v>99</v>
+      </c>
       <c r="CW17"/>
       <c r="CX17"/>
       <c r="CY17"/>
@@ -3587,21 +3457,13 @@
         <v>104</v>
       </c>
       <c r="DB17"/>
-      <c r="DC17"/>
-      <c r="DD17"/>
-      <c r="DE17"/>
-      <c r="DF17"/>
-      <c r="DG17" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -3614,12 +3476,12 @@
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18"/>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
       <c r="M18"/>
       <c r="N18"/>
-      <c r="O18" t="s">
-        <v>14</v>
-      </c>
+      <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
@@ -3629,16 +3491,16 @@
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
-      <c r="Y18"/>
+      <c r="Y18" t="s">
+        <v>24</v>
+      </c>
       <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18"/>
       <c r="AC18"/>
-      <c r="AD18" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD18"/>
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18"/>
@@ -3656,48 +3518,48 @@
       <c r="AS18"/>
       <c r="AT18"/>
       <c r="AU18"/>
-      <c r="AV18"/>
+      <c r="AV18" t="s">
+        <v>47</v>
+      </c>
       <c r="AW18"/>
       <c r="AX18"/>
-      <c r="AY18" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY18"/>
       <c r="AZ18"/>
       <c r="BA18"/>
       <c r="BB18"/>
-      <c r="BC18"/>
+      <c r="BC18" t="s">
+        <v>54</v>
+      </c>
       <c r="BD18"/>
-      <c r="BE18"/>
+      <c r="BE18" t="s">
+        <v>56</v>
+      </c>
       <c r="BF18" t="s">
         <v>57</v>
       </c>
       <c r="BG18"/>
-      <c r="BH18" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>60</v>
-      </c>
+      <c r="BH18"/>
+      <c r="BI18"/>
       <c r="BJ18"/>
       <c r="BK18"/>
-      <c r="BL18"/>
+      <c r="BL18" t="s">
+        <v>63</v>
+      </c>
       <c r="BM18"/>
       <c r="BN18"/>
-      <c r="BO18" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO18"/>
       <c r="BP18"/>
       <c r="BQ18"/>
       <c r="BR18"/>
       <c r="BS18"/>
       <c r="BT18"/>
       <c r="BU18"/>
-      <c r="BV18"/>
+      <c r="BV18" t="s">
+        <v>73</v>
+      </c>
       <c r="BW18"/>
       <c r="BX18"/>
-      <c r="BY18" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
       <c r="CB18"/>
@@ -3708,13 +3570,13 @@
       <c r="CG18"/>
       <c r="CH18"/>
       <c r="CI18"/>
-      <c r="CJ18"/>
+      <c r="CJ18" t="s">
+        <v>87</v>
+      </c>
       <c r="CK18"/>
       <c r="CL18"/>
       <c r="CM18"/>
-      <c r="CN18" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN18"/>
       <c r="CO18"/>
       <c r="CP18"/>
       <c r="CQ18"/>
@@ -3722,7 +3584,9 @@
       <c r="CS18"/>
       <c r="CT18"/>
       <c r="CU18"/>
-      <c r="CV18"/>
+      <c r="CV18" t="s">
+        <v>99</v>
+      </c>
       <c r="CW18"/>
       <c r="CX18"/>
       <c r="CY18"/>
@@ -3731,21 +3595,13 @@
         <v>104</v>
       </c>
       <c r="DB18"/>
-      <c r="DC18"/>
-      <c r="DD18"/>
-      <c r="DE18"/>
-      <c r="DF18"/>
-      <c r="DG18" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -3758,12 +3614,12 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19"/>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
       <c r="M19"/>
       <c r="N19"/>
-      <c r="O19" t="s">
-        <v>14</v>
-      </c>
+      <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
@@ -3773,16 +3629,16 @@
       <c r="V19"/>
       <c r="W19"/>
       <c r="X19"/>
-      <c r="Y19"/>
+      <c r="Y19" t="s">
+        <v>24</v>
+      </c>
       <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19"/>
       <c r="AC19"/>
-      <c r="AD19" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19"/>
       <c r="AG19"/>
@@ -3800,48 +3656,48 @@
       <c r="AS19"/>
       <c r="AT19"/>
       <c r="AU19"/>
-      <c r="AV19"/>
+      <c r="AV19" t="s">
+        <v>47</v>
+      </c>
       <c r="AW19"/>
       <c r="AX19"/>
-      <c r="AY19" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY19"/>
       <c r="AZ19"/>
       <c r="BA19"/>
       <c r="BB19"/>
-      <c r="BC19"/>
+      <c r="BC19" t="s">
+        <v>54</v>
+      </c>
       <c r="BD19"/>
-      <c r="BE19"/>
+      <c r="BE19" t="s">
+        <v>56</v>
+      </c>
       <c r="BF19" t="s">
         <v>57</v>
       </c>
       <c r="BG19"/>
-      <c r="BH19" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>60</v>
-      </c>
+      <c r="BH19"/>
+      <c r="BI19"/>
       <c r="BJ19"/>
       <c r="BK19"/>
-      <c r="BL19"/>
+      <c r="BL19" t="s">
+        <v>63</v>
+      </c>
       <c r="BM19"/>
       <c r="BN19"/>
-      <c r="BO19" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO19"/>
       <c r="BP19"/>
       <c r="BQ19"/>
       <c r="BR19"/>
       <c r="BS19"/>
       <c r="BT19"/>
       <c r="BU19"/>
-      <c r="BV19"/>
+      <c r="BV19" t="s">
+        <v>73</v>
+      </c>
       <c r="BW19"/>
       <c r="BX19"/>
-      <c r="BY19" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
       <c r="CB19"/>
@@ -3852,13 +3708,13 @@
       <c r="CG19"/>
       <c r="CH19"/>
       <c r="CI19"/>
-      <c r="CJ19"/>
+      <c r="CJ19" t="s">
+        <v>87</v>
+      </c>
       <c r="CK19"/>
       <c r="CL19"/>
       <c r="CM19"/>
-      <c r="CN19" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN19"/>
       <c r="CO19"/>
       <c r="CP19"/>
       <c r="CQ19"/>
@@ -3866,7 +3722,9 @@
       <c r="CS19"/>
       <c r="CT19"/>
       <c r="CU19"/>
-      <c r="CV19"/>
+      <c r="CV19" t="s">
+        <v>99</v>
+      </c>
       <c r="CW19"/>
       <c r="CX19"/>
       <c r="CY19"/>
@@ -3875,21 +3733,13 @@
         <v>104</v>
       </c>
       <c r="DB19"/>
-      <c r="DC19"/>
-      <c r="DD19"/>
-      <c r="DE19"/>
-      <c r="DF19"/>
-      <c r="DG19" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -3902,12 +3752,12 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="L20"/>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
       <c r="M20"/>
       <c r="N20"/>
-      <c r="O20" t="s">
-        <v>14</v>
-      </c>
+      <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
@@ -3917,16 +3767,16 @@
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
-      <c r="Y20"/>
+      <c r="Y20" t="s">
+        <v>24</v>
+      </c>
       <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20"/>
       <c r="AC20"/>
-      <c r="AD20" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20"/>
       <c r="AG20"/>
@@ -3944,48 +3794,48 @@
       <c r="AS20"/>
       <c r="AT20"/>
       <c r="AU20"/>
-      <c r="AV20"/>
+      <c r="AV20" t="s">
+        <v>47</v>
+      </c>
       <c r="AW20"/>
       <c r="AX20"/>
-      <c r="AY20" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY20"/>
       <c r="AZ20"/>
       <c r="BA20"/>
       <c r="BB20"/>
-      <c r="BC20"/>
+      <c r="BC20" t="s">
+        <v>54</v>
+      </c>
       <c r="BD20"/>
-      <c r="BE20"/>
+      <c r="BE20" t="s">
+        <v>56</v>
+      </c>
       <c r="BF20" t="s">
         <v>57</v>
       </c>
       <c r="BG20"/>
-      <c r="BH20" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>60</v>
-      </c>
+      <c r="BH20"/>
+      <c r="BI20"/>
       <c r="BJ20"/>
       <c r="BK20"/>
-      <c r="BL20"/>
+      <c r="BL20" t="s">
+        <v>63</v>
+      </c>
       <c r="BM20"/>
       <c r="BN20"/>
-      <c r="BO20" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO20"/>
       <c r="BP20"/>
       <c r="BQ20"/>
       <c r="BR20"/>
       <c r="BS20"/>
       <c r="BT20"/>
       <c r="BU20"/>
-      <c r="BV20"/>
+      <c r="BV20" t="s">
+        <v>73</v>
+      </c>
       <c r="BW20"/>
       <c r="BX20"/>
-      <c r="BY20" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
       <c r="CB20"/>
@@ -3996,13 +3846,13 @@
       <c r="CG20"/>
       <c r="CH20"/>
       <c r="CI20"/>
-      <c r="CJ20"/>
+      <c r="CJ20" t="s">
+        <v>87</v>
+      </c>
       <c r="CK20"/>
       <c r="CL20"/>
       <c r="CM20"/>
-      <c r="CN20" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN20"/>
       <c r="CO20"/>
       <c r="CP20"/>
       <c r="CQ20"/>
@@ -4010,7 +3860,9 @@
       <c r="CS20"/>
       <c r="CT20"/>
       <c r="CU20"/>
-      <c r="CV20"/>
+      <c r="CV20" t="s">
+        <v>99</v>
+      </c>
       <c r="CW20"/>
       <c r="CX20"/>
       <c r="CY20"/>
@@ -4019,21 +3871,13 @@
         <v>104</v>
       </c>
       <c r="DB20"/>
-      <c r="DC20"/>
-      <c r="DD20"/>
-      <c r="DE20"/>
-      <c r="DF20"/>
-      <c r="DG20" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -4046,12 +3890,12 @@
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21"/>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" t="s">
-        <v>14</v>
-      </c>
+      <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
@@ -4061,16 +3905,16 @@
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
-      <c r="Y21"/>
+      <c r="Y21" t="s">
+        <v>24</v>
+      </c>
       <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB21"/>
       <c r="AC21"/>
-      <c r="AD21" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD21"/>
       <c r="AE21"/>
       <c r="AF21"/>
       <c r="AG21"/>
@@ -4088,48 +3932,48 @@
       <c r="AS21"/>
       <c r="AT21"/>
       <c r="AU21"/>
-      <c r="AV21"/>
+      <c r="AV21" t="s">
+        <v>47</v>
+      </c>
       <c r="AW21"/>
       <c r="AX21"/>
-      <c r="AY21" t="s">
-        <v>50</v>
-      </c>
+      <c r="AY21"/>
       <c r="AZ21"/>
       <c r="BA21"/>
       <c r="BB21"/>
-      <c r="BC21"/>
+      <c r="BC21" t="s">
+        <v>54</v>
+      </c>
       <c r="BD21"/>
-      <c r="BE21"/>
+      <c r="BE21" t="s">
+        <v>56</v>
+      </c>
       <c r="BF21" t="s">
         <v>57</v>
       </c>
       <c r="BG21"/>
-      <c r="BH21" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>60</v>
-      </c>
+      <c r="BH21"/>
+      <c r="BI21"/>
       <c r="BJ21"/>
       <c r="BK21"/>
-      <c r="BL21"/>
+      <c r="BL21" t="s">
+        <v>63</v>
+      </c>
       <c r="BM21"/>
       <c r="BN21"/>
-      <c r="BO21" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO21"/>
       <c r="BP21"/>
       <c r="BQ21"/>
       <c r="BR21"/>
       <c r="BS21"/>
       <c r="BT21"/>
       <c r="BU21"/>
-      <c r="BV21"/>
+      <c r="BV21" t="s">
+        <v>73</v>
+      </c>
       <c r="BW21"/>
       <c r="BX21"/>
-      <c r="BY21" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
       <c r="CB21"/>
@@ -4140,13 +3984,13 @@
       <c r="CG21"/>
       <c r="CH21"/>
       <c r="CI21"/>
-      <c r="CJ21"/>
+      <c r="CJ21" t="s">
+        <v>87</v>
+      </c>
       <c r="CK21"/>
       <c r="CL21"/>
       <c r="CM21"/>
-      <c r="CN21" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN21"/>
       <c r="CO21"/>
       <c r="CP21"/>
       <c r="CQ21"/>
@@ -4154,7 +3998,9 @@
       <c r="CS21"/>
       <c r="CT21"/>
       <c r="CU21"/>
-      <c r="CV21"/>
+      <c r="CV21" t="s">
+        <v>99</v>
+      </c>
       <c r="CW21"/>
       <c r="CX21"/>
       <c r="CY21"/>
@@ -4163,21 +4009,13 @@
         <v>104</v>
       </c>
       <c r="DB21"/>
-      <c r="DC21"/>
-      <c r="DD21"/>
-      <c r="DE21"/>
-      <c r="DF21"/>
-      <c r="DG21" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -4201,24 +4039,24 @@
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
+      <c r="Y22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>25</v>
+      </c>
       <c r="AA22"/>
-      <c r="AB22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AB22"/>
+      <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
       <c r="AF22"/>
-      <c r="AG22"/>
+      <c r="AG22" t="s">
+        <v>32</v>
+      </c>
       <c r="AH22"/>
       <c r="AI22"/>
-      <c r="AJ22" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
@@ -4237,7 +4075,9 @@
       <c r="AZ22"/>
       <c r="BA22"/>
       <c r="BB22"/>
-      <c r="BC22"/>
+      <c r="BC22" t="s">
+        <v>54</v>
+      </c>
       <c r="BD22"/>
       <c r="BE22"/>
       <c r="BF22" t="s">
@@ -4245,9 +4085,7 @@
       </c>
       <c r="BG22"/>
       <c r="BH22"/>
-      <c r="BI22" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI22"/>
       <c r="BJ22"/>
       <c r="BK22"/>
       <c r="BL22"/>
@@ -4255,35 +4093,35 @@
       <c r="BN22"/>
       <c r="BO22"/>
       <c r="BP22"/>
-      <c r="BQ22"/>
+      <c r="BQ22" t="s">
+        <v>68</v>
+      </c>
       <c r="BR22"/>
       <c r="BS22"/>
-      <c r="BT22" t="s">
-        <v>71</v>
-      </c>
+      <c r="BT22"/>
       <c r="BU22"/>
-      <c r="BV22"/>
+      <c r="BV22" t="s">
+        <v>73</v>
+      </c>
       <c r="BW22"/>
       <c r="BX22"/>
-      <c r="BY22" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY22"/>
       <c r="BZ22"/>
-      <c r="CA22"/>
-      <c r="CB22"/>
-      <c r="CC22"/>
+      <c r="CA22" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>80</v>
+      </c>
       <c r="CD22" t="s">
         <v>81</v>
       </c>
-      <c r="CE22" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF22" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG22" t="s">
-        <v>84</v>
-      </c>
+      <c r="CE22"/>
+      <c r="CF22"/>
+      <c r="CG22"/>
       <c r="CH22"/>
       <c r="CI22"/>
       <c r="CJ22"/>
@@ -4292,13 +4130,15 @@
       <c r="CM22"/>
       <c r="CN22"/>
       <c r="CO22"/>
-      <c r="CP22"/>
+      <c r="CP22" t="s">
+        <v>93</v>
+      </c>
       <c r="CQ22"/>
-      <c r="CR22"/>
+      <c r="CR22" t="s">
+        <v>95</v>
+      </c>
       <c r="CS22"/>
-      <c r="CT22" t="s">
-        <v>97</v>
-      </c>
+      <c r="CT22"/>
       <c r="CU22"/>
       <c r="CV22"/>
       <c r="CW22" t="s">
@@ -4307,25 +4147,17 @@
       <c r="CX22"/>
       <c r="CY22"/>
       <c r="CZ22"/>
-      <c r="DA22"/>
+      <c r="DA22" t="s">
+        <v>104</v>
+      </c>
       <c r="DB22"/>
-      <c r="DC22" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD22"/>
-      <c r="DE22"/>
-      <c r="DF22"/>
-      <c r="DG22" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -4338,12 +4170,12 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
       <c r="M23"/>
       <c r="N23"/>
-      <c r="O23" t="s">
-        <v>14</v>
-      </c>
+      <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
@@ -4353,12 +4185,12 @@
       <c r="V23"/>
       <c r="W23"/>
       <c r="X23"/>
-      <c r="Y23"/>
+      <c r="Y23" t="s">
+        <v>24</v>
+      </c>
       <c r="Z23"/>
       <c r="AA23"/>
-      <c r="AB23" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
@@ -4385,39 +4217,39 @@
       <c r="AZ23"/>
       <c r="BA23"/>
       <c r="BB23"/>
-      <c r="BC23"/>
-      <c r="BD23"/>
+      <c r="BC23" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>55</v>
+      </c>
       <c r="BE23"/>
       <c r="BF23" t="s">
         <v>57</v>
       </c>
-      <c r="BG23" t="s">
-        <v>58</v>
-      </c>
+      <c r="BG23"/>
       <c r="BH23"/>
-      <c r="BI23" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI23"/>
       <c r="BJ23"/>
       <c r="BK23"/>
-      <c r="BL23"/>
+      <c r="BL23" t="s">
+        <v>63</v>
+      </c>
       <c r="BM23"/>
       <c r="BN23"/>
-      <c r="BO23" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO23"/>
       <c r="BP23"/>
       <c r="BQ23"/>
       <c r="BR23"/>
       <c r="BS23"/>
       <c r="BT23"/>
       <c r="BU23"/>
-      <c r="BV23"/>
+      <c r="BV23" t="s">
+        <v>73</v>
+      </c>
       <c r="BW23"/>
       <c r="BX23"/>
-      <c r="BY23" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
       <c r="CB23"/>
@@ -4428,13 +4260,13 @@
       <c r="CG23"/>
       <c r="CH23"/>
       <c r="CI23"/>
-      <c r="CJ23"/>
+      <c r="CJ23" t="s">
+        <v>87</v>
+      </c>
       <c r="CK23"/>
       <c r="CL23"/>
       <c r="CM23"/>
-      <c r="CN23" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN23"/>
       <c r="CO23"/>
       <c r="CP23"/>
       <c r="CQ23"/>
@@ -4447,23 +4279,17 @@
       <c r="CX23"/>
       <c r="CY23"/>
       <c r="CZ23"/>
-      <c r="DA23"/>
+      <c r="DA23" t="s">
+        <v>104</v>
+      </c>
       <c r="DB23"/>
-      <c r="DC23"/>
-      <c r="DD23"/>
-      <c r="DE23"/>
-      <c r="DF23"/>
-      <c r="DG23" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -4476,13 +4302,15 @@
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24"/>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
       <c r="M24"/>
       <c r="N24"/>
-      <c r="O24" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24"/>
+      <c r="O24"/>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24" t="s">
@@ -4490,17 +4318,15 @@
       </c>
       <c r="T24"/>
       <c r="U24"/>
-      <c r="V24" t="s">
-        <v>21</v>
-      </c>
+      <c r="V24"/>
       <c r="W24"/>
       <c r="X24"/>
-      <c r="Y24"/>
+      <c r="Y24" t="s">
+        <v>24</v>
+      </c>
       <c r="Z24"/>
       <c r="AA24"/>
-      <c r="AB24" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
@@ -4527,7 +4353,9 @@
       <c r="AZ24"/>
       <c r="BA24"/>
       <c r="BB24"/>
-      <c r="BC24"/>
+      <c r="BC24" t="s">
+        <v>54</v>
+      </c>
       <c r="BD24"/>
       <c r="BE24"/>
       <c r="BF24" t="s">
@@ -4535,33 +4363,31 @@
       </c>
       <c r="BG24"/>
       <c r="BH24"/>
-      <c r="BI24" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI24"/>
       <c r="BJ24"/>
       <c r="BK24"/>
-      <c r="BL24"/>
+      <c r="BL24" t="s">
+        <v>63</v>
+      </c>
       <c r="BM24"/>
       <c r="BN24"/>
-      <c r="BO24" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO24"/>
       <c r="BP24"/>
       <c r="BQ24"/>
       <c r="BR24"/>
       <c r="BS24"/>
       <c r="BT24"/>
       <c r="BU24"/>
-      <c r="BV24"/>
+      <c r="BV24" t="s">
+        <v>73</v>
+      </c>
       <c r="BW24"/>
-      <c r="BX24"/>
-      <c r="BY24" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY24"/>
       <c r="BZ24"/>
-      <c r="CA24" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA24"/>
       <c r="CB24"/>
       <c r="CC24"/>
       <c r="CD24"/>
@@ -4570,13 +4396,13 @@
       <c r="CG24"/>
       <c r="CH24"/>
       <c r="CI24"/>
-      <c r="CJ24"/>
+      <c r="CJ24" t="s">
+        <v>87</v>
+      </c>
       <c r="CK24"/>
       <c r="CL24"/>
       <c r="CM24"/>
-      <c r="CN24" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN24"/>
       <c r="CO24"/>
       <c r="CP24"/>
       <c r="CQ24"/>
@@ -4589,23 +4415,17 @@
       <c r="CX24"/>
       <c r="CY24"/>
       <c r="CZ24"/>
-      <c r="DA24"/>
+      <c r="DA24" t="s">
+        <v>104</v>
+      </c>
       <c r="DB24"/>
-      <c r="DC24"/>
-      <c r="DD24"/>
-      <c r="DE24"/>
-      <c r="DF24"/>
-      <c r="DG24" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -4618,33 +4438,33 @@
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25"/>
+      <c r="O25"/>
+      <c r="P25" t="s">
+        <v>15</v>
+      </c>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25" t="s">
         <v>18</v>
       </c>
       <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25" t="s">
-        <v>21</v>
-      </c>
+      <c r="U25" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25"/>
       <c r="W25"/>
-      <c r="X25" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y25"/>
+      <c r="X25"/>
+      <c r="Y25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z25"/>
       <c r="AA25"/>
-      <c r="AB25" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
@@ -4660,12 +4480,12 @@
       <c r="AO25"/>
       <c r="AP25"/>
       <c r="AQ25"/>
-      <c r="AR25"/>
+      <c r="AR25" t="s">
+        <v>43</v>
+      </c>
       <c r="AS25"/>
       <c r="AT25"/>
-      <c r="AU25" t="s">
-        <v>46</v>
-      </c>
+      <c r="AU25"/>
       <c r="AV25"/>
       <c r="AW25"/>
       <c r="AX25"/>
@@ -4673,7 +4493,9 @@
       <c r="AZ25"/>
       <c r="BA25"/>
       <c r="BB25"/>
-      <c r="BC25"/>
+      <c r="BC25" t="s">
+        <v>54</v>
+      </c>
       <c r="BD25"/>
       <c r="BE25"/>
       <c r="BF25" t="s">
@@ -4681,33 +4503,31 @@
       </c>
       <c r="BG25"/>
       <c r="BH25"/>
-      <c r="BI25" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI25"/>
       <c r="BJ25"/>
       <c r="BK25"/>
-      <c r="BL25"/>
+      <c r="BL25" t="s">
+        <v>63</v>
+      </c>
       <c r="BM25"/>
       <c r="BN25"/>
-      <c r="BO25" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO25"/>
       <c r="BP25"/>
       <c r="BQ25"/>
       <c r="BR25"/>
       <c r="BS25"/>
       <c r="BT25"/>
       <c r="BU25"/>
-      <c r="BV25"/>
+      <c r="BV25" t="s">
+        <v>73</v>
+      </c>
       <c r="BW25"/>
-      <c r="BX25"/>
-      <c r="BY25" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX25" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY25"/>
       <c r="BZ25"/>
-      <c r="CA25" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA25"/>
       <c r="CB25"/>
       <c r="CC25"/>
       <c r="CD25"/>
@@ -4716,13 +4536,13 @@
       <c r="CG25"/>
       <c r="CH25"/>
       <c r="CI25"/>
-      <c r="CJ25"/>
+      <c r="CJ25" t="s">
+        <v>87</v>
+      </c>
       <c r="CK25"/>
       <c r="CL25"/>
       <c r="CM25"/>
-      <c r="CN25" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN25"/>
       <c r="CO25"/>
       <c r="CP25"/>
       <c r="CQ25"/>
@@ -4734,26 +4554,20 @@
       <c r="CW25"/>
       <c r="CX25"/>
       <c r="CY25"/>
-      <c r="CZ25"/>
-      <c r="DA25"/>
+      <c r="CZ25" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA25" t="s">
+        <v>104</v>
+      </c>
       <c r="DB25"/>
-      <c r="DC25"/>
-      <c r="DD25"/>
-      <c r="DE25"/>
-      <c r="DF25" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG25" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -4766,12 +4580,12 @@
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
-      <c r="L26"/>
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
       <c r="M26"/>
       <c r="N26"/>
-      <c r="O26" t="s">
-        <v>14</v>
-      </c>
+      <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
@@ -4781,12 +4595,12 @@
       <c r="V26"/>
       <c r="W26"/>
       <c r="X26"/>
-      <c r="Y26"/>
+      <c r="Y26" t="s">
+        <v>24</v>
+      </c>
       <c r="Z26"/>
       <c r="AA26"/>
-      <c r="AB26" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB26"/>
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26"/>
@@ -4813,7 +4627,9 @@
       <c r="AZ26"/>
       <c r="BA26"/>
       <c r="BB26"/>
-      <c r="BC26"/>
+      <c r="BC26" t="s">
+        <v>54</v>
+      </c>
       <c r="BD26"/>
       <c r="BE26"/>
       <c r="BF26" t="s">
@@ -4821,29 +4637,27 @@
       </c>
       <c r="BG26"/>
       <c r="BH26"/>
-      <c r="BI26" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI26"/>
       <c r="BJ26"/>
       <c r="BK26"/>
-      <c r="BL26"/>
+      <c r="BL26" t="s">
+        <v>63</v>
+      </c>
       <c r="BM26"/>
       <c r="BN26"/>
-      <c r="BO26" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO26"/>
       <c r="BP26"/>
       <c r="BQ26"/>
       <c r="BR26"/>
       <c r="BS26"/>
       <c r="BT26"/>
       <c r="BU26"/>
-      <c r="BV26"/>
+      <c r="BV26" t="s">
+        <v>73</v>
+      </c>
       <c r="BW26"/>
       <c r="BX26"/>
-      <c r="BY26" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
       <c r="CB26"/>
@@ -4854,13 +4668,13 @@
       <c r="CG26"/>
       <c r="CH26"/>
       <c r="CI26"/>
-      <c r="CJ26"/>
+      <c r="CJ26" t="s">
+        <v>87</v>
+      </c>
       <c r="CK26"/>
       <c r="CL26"/>
       <c r="CM26"/>
-      <c r="CN26" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN26"/>
       <c r="CO26"/>
       <c r="CP26"/>
       <c r="CQ26"/>
@@ -4873,23 +4687,17 @@
       <c r="CX26"/>
       <c r="CY26"/>
       <c r="CZ26"/>
-      <c r="DA26"/>
+      <c r="DA26" t="s">
+        <v>104</v>
+      </c>
       <c r="DB26"/>
-      <c r="DC26"/>
-      <c r="DD26"/>
-      <c r="DE26"/>
-      <c r="DF26"/>
-      <c r="DG26" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -4902,13 +4710,15 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27"/>
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
       <c r="M27"/>
       <c r="N27"/>
-      <c r="O27" t="s">
-        <v>14</v>
-      </c>
-      <c r="P27"/>
+      <c r="O27"/>
+      <c r="P27" t="s">
+        <v>15</v>
+      </c>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27" t="s">
@@ -4916,17 +4726,15 @@
       </c>
       <c r="T27"/>
       <c r="U27"/>
-      <c r="V27" t="s">
-        <v>21</v>
-      </c>
+      <c r="V27"/>
       <c r="W27"/>
       <c r="X27"/>
-      <c r="Y27"/>
+      <c r="Y27" t="s">
+        <v>24</v>
+      </c>
       <c r="Z27"/>
       <c r="AA27"/>
-      <c r="AB27" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB27"/>
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27"/>
@@ -4953,7 +4761,9 @@
       <c r="AZ27"/>
       <c r="BA27"/>
       <c r="BB27"/>
-      <c r="BC27"/>
+      <c r="BC27" t="s">
+        <v>54</v>
+      </c>
       <c r="BD27"/>
       <c r="BE27"/>
       <c r="BF27" t="s">
@@ -4961,33 +4771,31 @@
       </c>
       <c r="BG27"/>
       <c r="BH27"/>
-      <c r="BI27" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI27"/>
       <c r="BJ27"/>
       <c r="BK27"/>
-      <c r="BL27"/>
+      <c r="BL27" t="s">
+        <v>63</v>
+      </c>
       <c r="BM27"/>
       <c r="BN27"/>
-      <c r="BO27" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO27"/>
       <c r="BP27"/>
       <c r="BQ27"/>
       <c r="BR27"/>
       <c r="BS27"/>
       <c r="BT27"/>
       <c r="BU27"/>
-      <c r="BV27"/>
+      <c r="BV27" t="s">
+        <v>73</v>
+      </c>
       <c r="BW27"/>
-      <c r="BX27"/>
-      <c r="BY27" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX27" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY27"/>
       <c r="BZ27"/>
-      <c r="CA27" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA27"/>
       <c r="CB27"/>
       <c r="CC27"/>
       <c r="CD27"/>
@@ -4996,13 +4804,13 @@
       <c r="CG27"/>
       <c r="CH27"/>
       <c r="CI27"/>
-      <c r="CJ27"/>
+      <c r="CJ27" t="s">
+        <v>87</v>
+      </c>
       <c r="CK27"/>
       <c r="CL27"/>
       <c r="CM27"/>
-      <c r="CN27" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN27"/>
       <c r="CO27"/>
       <c r="CP27"/>
       <c r="CQ27"/>
@@ -5015,23 +4823,17 @@
       <c r="CX27"/>
       <c r="CY27"/>
       <c r="CZ27"/>
-      <c r="DA27"/>
+      <c r="DA27" t="s">
+        <v>104</v>
+      </c>
       <c r="DB27"/>
-      <c r="DC27"/>
-      <c r="DD27"/>
-      <c r="DE27"/>
-      <c r="DF27"/>
-      <c r="DG27" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -5044,29 +4846,29 @@
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
-      <c r="L28"/>
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
       <c r="M28"/>
       <c r="N28"/>
-      <c r="O28" t="s">
-        <v>14</v>
-      </c>
+      <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
-      <c r="S28"/>
+      <c r="S28" t="s">
+        <v>18</v>
+      </c>
       <c r="T28"/>
       <c r="U28"/>
-      <c r="V28" t="s">
-        <v>21</v>
-      </c>
+      <c r="V28"/>
       <c r="W28"/>
       <c r="X28"/>
-      <c r="Y28"/>
+      <c r="Y28" t="s">
+        <v>24</v>
+      </c>
       <c r="Z28"/>
       <c r="AA28"/>
-      <c r="AB28" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB28"/>
       <c r="AC28"/>
       <c r="AD28"/>
       <c r="AE28"/>
@@ -5093,7 +4895,9 @@
       <c r="AZ28"/>
       <c r="BA28"/>
       <c r="BB28"/>
-      <c r="BC28"/>
+      <c r="BC28" t="s">
+        <v>54</v>
+      </c>
       <c r="BD28"/>
       <c r="BE28"/>
       <c r="BF28" t="s">
@@ -5101,33 +4905,31 @@
       </c>
       <c r="BG28"/>
       <c r="BH28"/>
-      <c r="BI28" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI28"/>
       <c r="BJ28"/>
       <c r="BK28"/>
-      <c r="BL28"/>
+      <c r="BL28" t="s">
+        <v>63</v>
+      </c>
       <c r="BM28"/>
       <c r="BN28"/>
-      <c r="BO28" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO28"/>
       <c r="BP28"/>
       <c r="BQ28"/>
       <c r="BR28"/>
       <c r="BS28"/>
       <c r="BT28"/>
       <c r="BU28"/>
-      <c r="BV28"/>
+      <c r="BV28" t="s">
+        <v>73</v>
+      </c>
       <c r="BW28"/>
-      <c r="BX28"/>
-      <c r="BY28" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX28" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY28"/>
       <c r="BZ28"/>
-      <c r="CA28" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA28"/>
       <c r="CB28"/>
       <c r="CC28"/>
       <c r="CD28"/>
@@ -5136,13 +4938,13 @@
       <c r="CG28"/>
       <c r="CH28"/>
       <c r="CI28"/>
-      <c r="CJ28"/>
+      <c r="CJ28" t="s">
+        <v>87</v>
+      </c>
       <c r="CK28"/>
       <c r="CL28"/>
       <c r="CM28"/>
-      <c r="CN28" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN28"/>
       <c r="CO28"/>
       <c r="CP28"/>
       <c r="CQ28"/>
@@ -5155,23 +4957,17 @@
       <c r="CX28"/>
       <c r="CY28"/>
       <c r="CZ28"/>
-      <c r="DA28"/>
+      <c r="DA28" t="s">
+        <v>104</v>
+      </c>
       <c r="DB28"/>
-      <c r="DC28"/>
-      <c r="DD28"/>
-      <c r="DE28"/>
-      <c r="DF28"/>
-      <c r="DG28" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -5184,29 +4980,29 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29"/>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
       <c r="M29"/>
       <c r="N29"/>
-      <c r="O29" t="s">
-        <v>14</v>
-      </c>
+      <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
-      <c r="S29"/>
+      <c r="S29" t="s">
+        <v>18</v>
+      </c>
       <c r="T29"/>
       <c r="U29"/>
-      <c r="V29" t="s">
-        <v>21</v>
-      </c>
+      <c r="V29"/>
       <c r="W29"/>
       <c r="X29"/>
-      <c r="Y29"/>
+      <c r="Y29" t="s">
+        <v>24</v>
+      </c>
       <c r="Z29"/>
       <c r="AA29"/>
-      <c r="AB29" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB29"/>
       <c r="AC29"/>
       <c r="AD29"/>
       <c r="AE29"/>
@@ -5233,7 +5029,9 @@
       <c r="AZ29"/>
       <c r="BA29"/>
       <c r="BB29"/>
-      <c r="BC29"/>
+      <c r="BC29" t="s">
+        <v>54</v>
+      </c>
       <c r="BD29"/>
       <c r="BE29"/>
       <c r="BF29" t="s">
@@ -5241,33 +5039,31 @@
       </c>
       <c r="BG29"/>
       <c r="BH29"/>
-      <c r="BI29" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI29"/>
       <c r="BJ29"/>
       <c r="BK29"/>
-      <c r="BL29"/>
+      <c r="BL29" t="s">
+        <v>63</v>
+      </c>
       <c r="BM29"/>
       <c r="BN29"/>
-      <c r="BO29" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO29"/>
       <c r="BP29"/>
       <c r="BQ29"/>
       <c r="BR29"/>
       <c r="BS29"/>
       <c r="BT29"/>
       <c r="BU29"/>
-      <c r="BV29"/>
+      <c r="BV29" t="s">
+        <v>73</v>
+      </c>
       <c r="BW29"/>
-      <c r="BX29"/>
-      <c r="BY29" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX29" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY29"/>
       <c r="BZ29"/>
-      <c r="CA29" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA29"/>
       <c r="CB29"/>
       <c r="CC29"/>
       <c r="CD29"/>
@@ -5276,13 +5072,13 @@
       <c r="CG29"/>
       <c r="CH29"/>
       <c r="CI29"/>
-      <c r="CJ29"/>
+      <c r="CJ29" t="s">
+        <v>87</v>
+      </c>
       <c r="CK29"/>
       <c r="CL29"/>
       <c r="CM29"/>
-      <c r="CN29" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN29"/>
       <c r="CO29"/>
       <c r="CP29"/>
       <c r="CQ29"/>
@@ -5295,23 +5091,17 @@
       <c r="CX29"/>
       <c r="CY29"/>
       <c r="CZ29"/>
-      <c r="DA29"/>
+      <c r="DA29" t="s">
+        <v>104</v>
+      </c>
       <c r="DB29"/>
-      <c r="DC29"/>
-      <c r="DD29"/>
-      <c r="DE29"/>
-      <c r="DF29"/>
-      <c r="DG29" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -5324,12 +5114,12 @@
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
       <c r="M30"/>
       <c r="N30"/>
-      <c r="O30" t="s">
-        <v>14</v>
-      </c>
+      <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
@@ -5339,12 +5129,12 @@
       <c r="V30"/>
       <c r="W30"/>
       <c r="X30"/>
-      <c r="Y30"/>
+      <c r="Y30" t="s">
+        <v>24</v>
+      </c>
       <c r="Z30"/>
       <c r="AA30"/>
-      <c r="AB30" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB30"/>
       <c r="AC30"/>
       <c r="AD30"/>
       <c r="AE30"/>
@@ -5371,7 +5161,9 @@
       <c r="AZ30"/>
       <c r="BA30"/>
       <c r="BB30"/>
-      <c r="BC30"/>
+      <c r="BC30" t="s">
+        <v>54</v>
+      </c>
       <c r="BD30"/>
       <c r="BE30"/>
       <c r="BF30" t="s">
@@ -5379,29 +5171,27 @@
       </c>
       <c r="BG30"/>
       <c r="BH30"/>
-      <c r="BI30" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI30"/>
       <c r="BJ30"/>
       <c r="BK30"/>
-      <c r="BL30"/>
+      <c r="BL30" t="s">
+        <v>63</v>
+      </c>
       <c r="BM30"/>
       <c r="BN30"/>
-      <c r="BO30" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO30"/>
       <c r="BP30"/>
       <c r="BQ30"/>
       <c r="BR30"/>
       <c r="BS30"/>
       <c r="BT30"/>
       <c r="BU30"/>
-      <c r="BV30"/>
+      <c r="BV30" t="s">
+        <v>73</v>
+      </c>
       <c r="BW30"/>
       <c r="BX30"/>
-      <c r="BY30" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
       <c r="CB30"/>
@@ -5412,13 +5202,13 @@
       <c r="CG30"/>
       <c r="CH30"/>
       <c r="CI30"/>
-      <c r="CJ30"/>
+      <c r="CJ30" t="s">
+        <v>87</v>
+      </c>
       <c r="CK30"/>
       <c r="CL30"/>
       <c r="CM30"/>
-      <c r="CN30" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN30"/>
       <c r="CO30"/>
       <c r="CP30"/>
       <c r="CQ30"/>
@@ -5431,23 +5221,17 @@
       <c r="CX30"/>
       <c r="CY30"/>
       <c r="CZ30"/>
-      <c r="DA30"/>
+      <c r="DA30" t="s">
+        <v>104</v>
+      </c>
       <c r="DB30"/>
-      <c r="DC30"/>
-      <c r="DD30"/>
-      <c r="DE30"/>
-      <c r="DF30"/>
-      <c r="DG30" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -5458,12 +5242,12 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="L31"/>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
       <c r="M31"/>
       <c r="N31"/>
-      <c r="O31" t="s">
-        <v>14</v>
-      </c>
+      <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
@@ -5473,12 +5257,12 @@
       <c r="V31"/>
       <c r="W31"/>
       <c r="X31"/>
-      <c r="Y31"/>
+      <c r="Y31" t="s">
+        <v>24</v>
+      </c>
       <c r="Z31"/>
       <c r="AA31"/>
-      <c r="AB31" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB31"/>
       <c r="AC31"/>
       <c r="AD31"/>
       <c r="AE31"/>
@@ -5505,7 +5289,9 @@
       <c r="AZ31"/>
       <c r="BA31"/>
       <c r="BB31"/>
-      <c r="BC31"/>
+      <c r="BC31" t="s">
+        <v>54</v>
+      </c>
       <c r="BD31"/>
       <c r="BE31"/>
       <c r="BF31" t="s">
@@ -5513,9 +5299,7 @@
       </c>
       <c r="BG31"/>
       <c r="BH31"/>
-      <c r="BI31" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI31"/>
       <c r="BJ31"/>
       <c r="BK31"/>
       <c r="BL31"/>
@@ -5528,12 +5312,12 @@
       <c r="BS31"/>
       <c r="BT31"/>
       <c r="BU31"/>
-      <c r="BV31"/>
+      <c r="BV31" t="s">
+        <v>73</v>
+      </c>
       <c r="BW31"/>
       <c r="BX31"/>
-      <c r="BY31" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY31"/>
       <c r="BZ31"/>
       <c r="CA31"/>
       <c r="CB31"/>
@@ -5544,13 +5328,13 @@
       <c r="CG31"/>
       <c r="CH31"/>
       <c r="CI31"/>
-      <c r="CJ31"/>
+      <c r="CJ31" t="s">
+        <v>87</v>
+      </c>
       <c r="CK31"/>
       <c r="CL31"/>
       <c r="CM31"/>
-      <c r="CN31" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN31"/>
       <c r="CO31"/>
       <c r="CP31"/>
       <c r="CQ31"/>
@@ -5563,23 +5347,17 @@
       <c r="CX31"/>
       <c r="CY31"/>
       <c r="CZ31"/>
-      <c r="DA31"/>
+      <c r="DA31" t="s">
+        <v>104</v>
+      </c>
       <c r="DB31"/>
-      <c r="DC31"/>
-      <c r="DD31"/>
-      <c r="DE31"/>
-      <c r="DF31"/>
-      <c r="DG31" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -5590,12 +5368,12 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32"/>
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
       <c r="M32"/>
       <c r="N32"/>
-      <c r="O32" t="s">
-        <v>14</v>
-      </c>
+      <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
@@ -5605,12 +5383,12 @@
       <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
-      <c r="Y32"/>
+      <c r="Y32" t="s">
+        <v>24</v>
+      </c>
       <c r="Z32"/>
       <c r="AA32"/>
-      <c r="AB32" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB32"/>
       <c r="AC32"/>
       <c r="AD32"/>
       <c r="AE32"/>
@@ -5637,7 +5415,9 @@
       <c r="AZ32"/>
       <c r="BA32"/>
       <c r="BB32"/>
-      <c r="BC32"/>
+      <c r="BC32" t="s">
+        <v>54</v>
+      </c>
       <c r="BD32"/>
       <c r="BE32"/>
       <c r="BF32" t="s">
@@ -5645,9 +5425,7 @@
       </c>
       <c r="BG32"/>
       <c r="BH32"/>
-      <c r="BI32" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI32"/>
       <c r="BJ32"/>
       <c r="BK32"/>
       <c r="BL32"/>
@@ -5660,12 +5438,12 @@
       <c r="BS32"/>
       <c r="BT32"/>
       <c r="BU32"/>
-      <c r="BV32"/>
+      <c r="BV32" t="s">
+        <v>73</v>
+      </c>
       <c r="BW32"/>
       <c r="BX32"/>
-      <c r="BY32" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY32"/>
       <c r="BZ32"/>
       <c r="CA32"/>
       <c r="CB32"/>
@@ -5676,13 +5454,13 @@
       <c r="CG32"/>
       <c r="CH32"/>
       <c r="CI32"/>
-      <c r="CJ32"/>
+      <c r="CJ32" t="s">
+        <v>87</v>
+      </c>
       <c r="CK32"/>
       <c r="CL32"/>
       <c r="CM32"/>
-      <c r="CN32" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN32"/>
       <c r="CO32"/>
       <c r="CP32"/>
       <c r="CQ32"/>
@@ -5695,23 +5473,17 @@
       <c r="CX32"/>
       <c r="CY32"/>
       <c r="CZ32"/>
-      <c r="DA32"/>
+      <c r="DA32" t="s">
+        <v>104</v>
+      </c>
       <c r="DB32"/>
-      <c r="DC32"/>
-      <c r="DD32"/>
-      <c r="DE32"/>
-      <c r="DF32"/>
-      <c r="DG32" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -5722,12 +5494,12 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33"/>
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33" t="s">
-        <v>14</v>
-      </c>
+      <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
@@ -5737,12 +5509,12 @@
       <c r="V33"/>
       <c r="W33"/>
       <c r="X33"/>
-      <c r="Y33"/>
+      <c r="Y33" t="s">
+        <v>24</v>
+      </c>
       <c r="Z33"/>
       <c r="AA33"/>
-      <c r="AB33" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB33"/>
       <c r="AC33"/>
       <c r="AD33"/>
       <c r="AE33"/>
@@ -5769,7 +5541,9 @@
       <c r="AZ33"/>
       <c r="BA33"/>
       <c r="BB33"/>
-      <c r="BC33"/>
+      <c r="BC33" t="s">
+        <v>54</v>
+      </c>
       <c r="BD33"/>
       <c r="BE33"/>
       <c r="BF33" t="s">
@@ -5777,9 +5551,7 @@
       </c>
       <c r="BG33"/>
       <c r="BH33"/>
-      <c r="BI33" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI33"/>
       <c r="BJ33"/>
       <c r="BK33"/>
       <c r="BL33"/>
@@ -5792,12 +5564,12 @@
       <c r="BS33"/>
       <c r="BT33"/>
       <c r="BU33"/>
-      <c r="BV33"/>
+      <c r="BV33" t="s">
+        <v>73</v>
+      </c>
       <c r="BW33"/>
       <c r="BX33"/>
-      <c r="BY33" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY33"/>
       <c r="BZ33"/>
       <c r="CA33"/>
       <c r="CB33"/>
@@ -5808,13 +5580,13 @@
       <c r="CG33"/>
       <c r="CH33"/>
       <c r="CI33"/>
-      <c r="CJ33"/>
+      <c r="CJ33" t="s">
+        <v>87</v>
+      </c>
       <c r="CK33"/>
       <c r="CL33"/>
       <c r="CM33"/>
-      <c r="CN33" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN33"/>
       <c r="CO33"/>
       <c r="CP33"/>
       <c r="CQ33"/>
@@ -5827,23 +5599,17 @@
       <c r="CX33"/>
       <c r="CY33"/>
       <c r="CZ33"/>
-      <c r="DA33"/>
+      <c r="DA33" t="s">
+        <v>104</v>
+      </c>
       <c r="DB33"/>
-      <c r="DC33"/>
-      <c r="DD33"/>
-      <c r="DE33"/>
-      <c r="DF33"/>
-      <c r="DG33" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -5854,12 +5620,12 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34"/>
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
       <c r="M34"/>
       <c r="N34"/>
-      <c r="O34" t="s">
-        <v>14</v>
-      </c>
+      <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
@@ -5869,12 +5635,12 @@
       <c r="V34"/>
       <c r="W34"/>
       <c r="X34"/>
-      <c r="Y34"/>
+      <c r="Y34" t="s">
+        <v>24</v>
+      </c>
       <c r="Z34"/>
       <c r="AA34"/>
-      <c r="AB34" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB34"/>
       <c r="AC34"/>
       <c r="AD34"/>
       <c r="AE34"/>
@@ -5901,7 +5667,9 @@
       <c r="AZ34"/>
       <c r="BA34"/>
       <c r="BB34"/>
-      <c r="BC34"/>
+      <c r="BC34" t="s">
+        <v>54</v>
+      </c>
       <c r="BD34"/>
       <c r="BE34"/>
       <c r="BF34" t="s">
@@ -5909,9 +5677,7 @@
       </c>
       <c r="BG34"/>
       <c r="BH34"/>
-      <c r="BI34" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI34"/>
       <c r="BJ34"/>
       <c r="BK34"/>
       <c r="BL34"/>
@@ -5924,12 +5690,12 @@
       <c r="BS34"/>
       <c r="BT34"/>
       <c r="BU34"/>
-      <c r="BV34"/>
+      <c r="BV34" t="s">
+        <v>73</v>
+      </c>
       <c r="BW34"/>
       <c r="BX34"/>
-      <c r="BY34" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY34"/>
       <c r="BZ34"/>
       <c r="CA34"/>
       <c r="CB34"/>
@@ -5940,13 +5706,13 @@
       <c r="CG34"/>
       <c r="CH34"/>
       <c r="CI34"/>
-      <c r="CJ34"/>
+      <c r="CJ34" t="s">
+        <v>87</v>
+      </c>
       <c r="CK34"/>
       <c r="CL34"/>
       <c r="CM34"/>
-      <c r="CN34" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN34"/>
       <c r="CO34"/>
       <c r="CP34"/>
       <c r="CQ34"/>
@@ -5959,23 +5725,17 @@
       <c r="CX34"/>
       <c r="CY34"/>
       <c r="CZ34"/>
-      <c r="DA34"/>
+      <c r="DA34" t="s">
+        <v>104</v>
+      </c>
       <c r="DB34"/>
-      <c r="DC34"/>
-      <c r="DD34"/>
-      <c r="DE34"/>
-      <c r="DF34"/>
-      <c r="DG34" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -5988,12 +5748,12 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="L35"/>
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
       <c r="M35"/>
       <c r="N35"/>
-      <c r="O35" t="s">
-        <v>14</v>
-      </c>
+      <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
@@ -6003,23 +5763,23 @@
       <c r="V35"/>
       <c r="W35"/>
       <c r="X35"/>
-      <c r="Y35"/>
+      <c r="Y35" t="s">
+        <v>24</v>
+      </c>
       <c r="Z35"/>
       <c r="AA35"/>
-      <c r="AB35" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB35"/>
       <c r="AC35"/>
       <c r="AD35"/>
       <c r="AE35"/>
       <c r="AF35"/>
       <c r="AG35"/>
-      <c r="AH35"/>
+      <c r="AH35" t="s">
+        <v>33</v>
+      </c>
       <c r="AI35"/>
       <c r="AJ35"/>
-      <c r="AK35" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK35"/>
       <c r="AL35"/>
       <c r="AM35"/>
       <c r="AN35"/>
@@ -6037,7 +5797,9 @@
       <c r="AZ35"/>
       <c r="BA35"/>
       <c r="BB35"/>
-      <c r="BC35"/>
+      <c r="BC35" t="s">
+        <v>54</v>
+      </c>
       <c r="BD35"/>
       <c r="BE35"/>
       <c r="BF35" t="s">
@@ -6045,33 +5807,31 @@
       </c>
       <c r="BG35"/>
       <c r="BH35"/>
-      <c r="BI35" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI35"/>
       <c r="BJ35"/>
       <c r="BK35"/>
-      <c r="BL35"/>
+      <c r="BL35" t="s">
+        <v>63</v>
+      </c>
       <c r="BM35"/>
       <c r="BN35"/>
-      <c r="BO35" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP35"/>
+      <c r="BO35"/>
+      <c r="BP35" t="s">
+        <v>67</v>
+      </c>
       <c r="BQ35"/>
-      <c r="BR35"/>
-      <c r="BS35" t="s">
-        <v>70</v>
-      </c>
+      <c r="BR35" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS35"/>
       <c r="BT35"/>
-      <c r="BU35" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV35"/>
+      <c r="BU35"/>
+      <c r="BV35" t="s">
+        <v>73</v>
+      </c>
       <c r="BW35"/>
       <c r="BX35"/>
-      <c r="BY35" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY35"/>
       <c r="BZ35"/>
       <c r="CA35"/>
       <c r="CB35"/>
@@ -6082,13 +5842,13 @@
       <c r="CG35"/>
       <c r="CH35"/>
       <c r="CI35"/>
-      <c r="CJ35"/>
+      <c r="CJ35" t="s">
+        <v>87</v>
+      </c>
       <c r="CK35"/>
       <c r="CL35"/>
       <c r="CM35"/>
-      <c r="CN35" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN35"/>
       <c r="CO35"/>
       <c r="CP35"/>
       <c r="CQ35"/>
@@ -6101,23 +5861,17 @@
       <c r="CX35"/>
       <c r="CY35"/>
       <c r="CZ35"/>
-      <c r="DA35"/>
+      <c r="DA35" t="s">
+        <v>104</v>
+      </c>
       <c r="DB35"/>
-      <c r="DC35"/>
-      <c r="DD35"/>
-      <c r="DE35"/>
-      <c r="DF35"/>
-      <c r="DG35" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -6128,12 +5882,12 @@
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="L36"/>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
       <c r="M36"/>
       <c r="N36"/>
-      <c r="O36" t="s">
-        <v>14</v>
-      </c>
+      <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
@@ -6143,28 +5897,28 @@
       <c r="V36"/>
       <c r="W36"/>
       <c r="X36"/>
-      <c r="Y36"/>
+      <c r="Y36" t="s">
+        <v>24</v>
+      </c>
       <c r="Z36"/>
       <c r="AA36"/>
-      <c r="AB36" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB36"/>
       <c r="AC36"/>
       <c r="AD36"/>
       <c r="AE36"/>
-      <c r="AF36"/>
+      <c r="AF36" t="s">
+        <v>31</v>
+      </c>
       <c r="AG36"/>
       <c r="AH36"/>
-      <c r="AI36" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI36"/>
       <c r="AJ36"/>
-      <c r="AK36"/>
+      <c r="AK36" t="s">
+        <v>36</v>
+      </c>
       <c r="AL36"/>
       <c r="AM36"/>
-      <c r="AN36" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN36"/>
       <c r="AO36"/>
       <c r="AP36"/>
       <c r="AQ36"/>
@@ -6177,24 +5931,26 @@
       <c r="AX36"/>
       <c r="AY36"/>
       <c r="AZ36"/>
-      <c r="BA36"/>
+      <c r="BA36" t="s">
+        <v>52</v>
+      </c>
       <c r="BB36"/>
-      <c r="BC36"/>
-      <c r="BD36" t="s">
-        <v>55</v>
-      </c>
+      <c r="BC36" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD36"/>
       <c r="BE36"/>
       <c r="BF36" t="s">
         <v>57</v>
       </c>
       <c r="BG36"/>
       <c r="BH36"/>
-      <c r="BI36" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI36"/>
       <c r="BJ36"/>
       <c r="BK36"/>
-      <c r="BL36"/>
+      <c r="BL36" t="s">
+        <v>63</v>
+      </c>
       <c r="BM36"/>
       <c r="BN36"/>
       <c r="BO36" t="s">
@@ -6202,18 +5958,16 @@
       </c>
       <c r="BP36"/>
       <c r="BQ36"/>
-      <c r="BR36" t="s">
-        <v>69</v>
-      </c>
+      <c r="BR36"/>
       <c r="BS36"/>
       <c r="BT36"/>
       <c r="BU36"/>
-      <c r="BV36"/>
+      <c r="BV36" t="s">
+        <v>73</v>
+      </c>
       <c r="BW36"/>
       <c r="BX36"/>
-      <c r="BY36" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY36"/>
       <c r="BZ36"/>
       <c r="CA36"/>
       <c r="CB36"/>
@@ -6224,13 +5978,13 @@
       <c r="CG36"/>
       <c r="CH36"/>
       <c r="CI36"/>
-      <c r="CJ36"/>
+      <c r="CJ36" t="s">
+        <v>87</v>
+      </c>
       <c r="CK36"/>
       <c r="CL36"/>
       <c r="CM36"/>
-      <c r="CN36" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN36"/>
       <c r="CO36"/>
       <c r="CP36"/>
       <c r="CQ36"/>
@@ -6243,23 +5997,17 @@
       <c r="CX36"/>
       <c r="CY36"/>
       <c r="CZ36"/>
-      <c r="DA36"/>
+      <c r="DA36" t="s">
+        <v>104</v>
+      </c>
       <c r="DB36"/>
-      <c r="DC36"/>
-      <c r="DD36"/>
-      <c r="DE36"/>
-      <c r="DF36"/>
-      <c r="DG36" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -6270,12 +6018,12 @@
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
-      <c r="L37"/>
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="O37" t="s">
-        <v>14</v>
-      </c>
+      <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
@@ -6285,28 +6033,28 @@
       <c r="V37"/>
       <c r="W37"/>
       <c r="X37"/>
-      <c r="Y37"/>
+      <c r="Y37" t="s">
+        <v>24</v>
+      </c>
       <c r="Z37"/>
       <c r="AA37"/>
-      <c r="AB37" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB37"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
-      <c r="AF37"/>
+      <c r="AF37" t="s">
+        <v>31</v>
+      </c>
       <c r="AG37"/>
       <c r="AH37"/>
-      <c r="AI37" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI37"/>
       <c r="AJ37"/>
-      <c r="AK37"/>
+      <c r="AK37" t="s">
+        <v>36</v>
+      </c>
       <c r="AL37"/>
       <c r="AM37"/>
-      <c r="AN37" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN37"/>
       <c r="AO37"/>
       <c r="AP37"/>
       <c r="AQ37"/>
@@ -6319,41 +6067,41 @@
       <c r="AX37"/>
       <c r="AY37"/>
       <c r="AZ37"/>
-      <c r="BA37"/>
+      <c r="BA37" t="s">
+        <v>52</v>
+      </c>
       <c r="BB37"/>
-      <c r="BC37"/>
-      <c r="BD37" t="s">
-        <v>55</v>
-      </c>
+      <c r="BC37" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD37"/>
       <c r="BE37"/>
       <c r="BF37" t="s">
         <v>57</v>
       </c>
       <c r="BG37"/>
       <c r="BH37"/>
-      <c r="BI37" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI37"/>
       <c r="BJ37"/>
       <c r="BK37"/>
-      <c r="BL37"/>
+      <c r="BL37" t="s">
+        <v>63</v>
+      </c>
       <c r="BM37"/>
       <c r="BN37"/>
-      <c r="BO37" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO37"/>
       <c r="BP37"/>
       <c r="BQ37"/>
       <c r="BR37"/>
       <c r="BS37"/>
       <c r="BT37"/>
       <c r="BU37"/>
-      <c r="BV37"/>
+      <c r="BV37" t="s">
+        <v>73</v>
+      </c>
       <c r="BW37"/>
       <c r="BX37"/>
-      <c r="BY37" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY37"/>
       <c r="BZ37"/>
       <c r="CA37"/>
       <c r="CB37"/>
@@ -6364,13 +6112,13 @@
       <c r="CG37"/>
       <c r="CH37"/>
       <c r="CI37"/>
-      <c r="CJ37"/>
+      <c r="CJ37" t="s">
+        <v>87</v>
+      </c>
       <c r="CK37"/>
       <c r="CL37"/>
       <c r="CM37"/>
-      <c r="CN37" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN37"/>
       <c r="CO37"/>
       <c r="CP37"/>
       <c r="CQ37"/>
@@ -6383,23 +6131,17 @@
       <c r="CX37"/>
       <c r="CY37"/>
       <c r="CZ37"/>
-      <c r="DA37"/>
+      <c r="DA37" t="s">
+        <v>104</v>
+      </c>
       <c r="DB37"/>
-      <c r="DC37"/>
-      <c r="DD37"/>
-      <c r="DE37"/>
-      <c r="DF37"/>
-      <c r="DG37" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -6410,12 +6152,12 @@
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
-      <c r="L38"/>
+      <c r="L38" t="s">
+        <v>11</v>
+      </c>
       <c r="M38"/>
       <c r="N38"/>
-      <c r="O38" t="s">
-        <v>14</v>
-      </c>
+      <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
@@ -6425,77 +6167,77 @@
       <c r="V38"/>
       <c r="W38"/>
       <c r="X38"/>
-      <c r="Y38"/>
+      <c r="Y38" t="s">
+        <v>24</v>
+      </c>
       <c r="Z38"/>
       <c r="AA38"/>
-      <c r="AB38" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB38"/>
       <c r="AC38"/>
       <c r="AD38"/>
       <c r="AE38"/>
-      <c r="AF38"/>
+      <c r="AF38" t="s">
+        <v>31</v>
+      </c>
       <c r="AG38"/>
       <c r="AH38"/>
-      <c r="AI38" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI38"/>
       <c r="AJ38"/>
-      <c r="AK38"/>
+      <c r="AK38" t="s">
+        <v>36</v>
+      </c>
       <c r="AL38"/>
       <c r="AM38"/>
-      <c r="AN38" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN38"/>
       <c r="AO38"/>
       <c r="AP38"/>
-      <c r="AQ38"/>
+      <c r="AQ38" t="s">
+        <v>42</v>
+      </c>
       <c r="AR38"/>
       <c r="AS38"/>
-      <c r="AT38" t="s">
-        <v>45</v>
-      </c>
+      <c r="AT38"/>
       <c r="AU38"/>
       <c r="AV38"/>
       <c r="AW38"/>
       <c r="AX38"/>
       <c r="AY38"/>
       <c r="AZ38"/>
-      <c r="BA38"/>
+      <c r="BA38" t="s">
+        <v>52</v>
+      </c>
       <c r="BB38"/>
-      <c r="BC38"/>
-      <c r="BD38" t="s">
-        <v>55</v>
-      </c>
+      <c r="BC38" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD38"/>
       <c r="BE38"/>
       <c r="BF38" t="s">
         <v>57</v>
       </c>
       <c r="BG38"/>
       <c r="BH38"/>
-      <c r="BI38" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI38"/>
       <c r="BJ38"/>
       <c r="BK38"/>
-      <c r="BL38"/>
+      <c r="BL38" t="s">
+        <v>63</v>
+      </c>
       <c r="BM38"/>
       <c r="BN38"/>
-      <c r="BO38" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO38"/>
       <c r="BP38"/>
       <c r="BQ38"/>
       <c r="BR38"/>
       <c r="BS38"/>
       <c r="BT38"/>
       <c r="BU38"/>
-      <c r="BV38"/>
+      <c r="BV38" t="s">
+        <v>73</v>
+      </c>
       <c r="BW38"/>
       <c r="BX38"/>
-      <c r="BY38" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY38"/>
       <c r="BZ38"/>
       <c r="CA38"/>
       <c r="CB38"/>
@@ -6506,13 +6248,13 @@
       <c r="CG38"/>
       <c r="CH38"/>
       <c r="CI38"/>
-      <c r="CJ38"/>
+      <c r="CJ38" t="s">
+        <v>87</v>
+      </c>
       <c r="CK38"/>
       <c r="CL38"/>
       <c r="CM38"/>
-      <c r="CN38" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN38"/>
       <c r="CO38"/>
       <c r="CP38"/>
       <c r="CQ38"/>
@@ -6525,23 +6267,17 @@
       <c r="CX38"/>
       <c r="CY38"/>
       <c r="CZ38"/>
-      <c r="DA38"/>
+      <c r="DA38" t="s">
+        <v>104</v>
+      </c>
       <c r="DB38"/>
-      <c r="DC38"/>
-      <c r="DD38"/>
-      <c r="DE38"/>
-      <c r="DF38"/>
-      <c r="DG38" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -6554,12 +6290,12 @@
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
-      <c r="L39"/>
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
       <c r="M39"/>
       <c r="N39"/>
-      <c r="O39" t="s">
-        <v>14</v>
-      </c>
+      <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
@@ -6569,12 +6305,12 @@
       <c r="V39"/>
       <c r="W39"/>
       <c r="X39"/>
-      <c r="Y39"/>
+      <c r="Y39" t="s">
+        <v>24</v>
+      </c>
       <c r="Z39"/>
       <c r="AA39"/>
-      <c r="AB39" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB39"/>
       <c r="AC39"/>
       <c r="AD39"/>
       <c r="AE39"/>
@@ -6586,12 +6322,12 @@
       <c r="AK39"/>
       <c r="AL39"/>
       <c r="AM39"/>
-      <c r="AN39"/>
+      <c r="AN39" t="s">
+        <v>39</v>
+      </c>
       <c r="AO39"/>
       <c r="AP39"/>
-      <c r="AQ39" t="s">
-        <v>42</v>
-      </c>
+      <c r="AQ39"/>
       <c r="AR39"/>
       <c r="AS39"/>
       <c r="AT39"/>
@@ -6603,7 +6339,9 @@
       <c r="AZ39"/>
       <c r="BA39"/>
       <c r="BB39"/>
-      <c r="BC39"/>
+      <c r="BC39" t="s">
+        <v>54</v>
+      </c>
       <c r="BD39"/>
       <c r="BE39"/>
       <c r="BF39" t="s">
@@ -6611,31 +6349,29 @@
       </c>
       <c r="BG39"/>
       <c r="BH39"/>
-      <c r="BI39" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI39"/>
       <c r="BJ39"/>
       <c r="BK39"/>
-      <c r="BL39"/>
+      <c r="BL39" t="s">
+        <v>63</v>
+      </c>
       <c r="BM39"/>
       <c r="BN39"/>
-      <c r="BO39" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO39"/>
       <c r="BP39"/>
       <c r="BQ39"/>
       <c r="BR39"/>
       <c r="BS39"/>
       <c r="BT39"/>
-      <c r="BU39"/>
-      <c r="BV39"/>
+      <c r="BU39" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>73</v>
+      </c>
       <c r="BW39"/>
-      <c r="BX39" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY39" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX39"/>
+      <c r="BY39"/>
       <c r="BZ39"/>
       <c r="CA39"/>
       <c r="CB39"/>
@@ -6646,13 +6382,13 @@
       <c r="CG39"/>
       <c r="CH39"/>
       <c r="CI39"/>
-      <c r="CJ39"/>
+      <c r="CJ39" t="s">
+        <v>87</v>
+      </c>
       <c r="CK39"/>
       <c r="CL39"/>
       <c r="CM39"/>
-      <c r="CN39" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN39"/>
       <c r="CO39"/>
       <c r="CP39"/>
       <c r="CQ39"/>
@@ -6665,23 +6401,17 @@
       <c r="CX39"/>
       <c r="CY39"/>
       <c r="CZ39"/>
-      <c r="DA39"/>
+      <c r="DA39" t="s">
+        <v>104</v>
+      </c>
       <c r="DB39"/>
-      <c r="DC39"/>
-      <c r="DD39"/>
-      <c r="DE39"/>
-      <c r="DF39"/>
-      <c r="DG39" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -6694,12 +6424,12 @@
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40"/>
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
       <c r="M40"/>
       <c r="N40"/>
-      <c r="O40" t="s">
-        <v>14</v>
-      </c>
+      <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
@@ -6709,12 +6439,12 @@
       <c r="V40"/>
       <c r="W40"/>
       <c r="X40"/>
-      <c r="Y40"/>
+      <c r="Y40" t="s">
+        <v>24</v>
+      </c>
       <c r="Z40"/>
       <c r="AA40"/>
-      <c r="AB40" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB40"/>
       <c r="AC40"/>
       <c r="AD40"/>
       <c r="AE40"/>
@@ -6726,12 +6456,12 @@
       <c r="AK40"/>
       <c r="AL40"/>
       <c r="AM40"/>
-      <c r="AN40"/>
+      <c r="AN40" t="s">
+        <v>39</v>
+      </c>
       <c r="AO40"/>
       <c r="AP40"/>
-      <c r="AQ40" t="s">
-        <v>42</v>
-      </c>
+      <c r="AQ40"/>
       <c r="AR40"/>
       <c r="AS40"/>
       <c r="AT40"/>
@@ -6743,7 +6473,9 @@
       <c r="AZ40"/>
       <c r="BA40"/>
       <c r="BB40"/>
-      <c r="BC40"/>
+      <c r="BC40" t="s">
+        <v>54</v>
+      </c>
       <c r="BD40"/>
       <c r="BE40"/>
       <c r="BF40" t="s">
@@ -6751,31 +6483,29 @@
       </c>
       <c r="BG40"/>
       <c r="BH40"/>
-      <c r="BI40" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI40"/>
       <c r="BJ40"/>
       <c r="BK40"/>
-      <c r="BL40"/>
+      <c r="BL40" t="s">
+        <v>63</v>
+      </c>
       <c r="BM40"/>
       <c r="BN40"/>
-      <c r="BO40" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO40"/>
       <c r="BP40"/>
       <c r="BQ40"/>
       <c r="BR40"/>
       <c r="BS40"/>
       <c r="BT40"/>
-      <c r="BU40"/>
-      <c r="BV40"/>
+      <c r="BU40" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>73</v>
+      </c>
       <c r="BW40"/>
-      <c r="BX40" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY40" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX40"/>
+      <c r="BY40"/>
       <c r="BZ40"/>
       <c r="CA40"/>
       <c r="CB40"/>
@@ -6786,13 +6516,13 @@
       <c r="CG40"/>
       <c r="CH40"/>
       <c r="CI40"/>
-      <c r="CJ40"/>
+      <c r="CJ40" t="s">
+        <v>87</v>
+      </c>
       <c r="CK40"/>
       <c r="CL40"/>
       <c r="CM40"/>
-      <c r="CN40" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN40"/>
       <c r="CO40"/>
       <c r="CP40"/>
       <c r="CQ40"/>
@@ -6805,23 +6535,17 @@
       <c r="CX40"/>
       <c r="CY40"/>
       <c r="CZ40"/>
-      <c r="DA40"/>
+      <c r="DA40" t="s">
+        <v>104</v>
+      </c>
       <c r="DB40"/>
-      <c r="DC40"/>
-      <c r="DD40"/>
-      <c r="DE40"/>
-      <c r="DF40"/>
-      <c r="DG40" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -6834,12 +6558,12 @@
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
-      <c r="L41"/>
+      <c r="L41" t="s">
+        <v>11</v>
+      </c>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41" t="s">
-        <v>14</v>
-      </c>
+      <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41"/>
@@ -6849,12 +6573,12 @@
       <c r="V41"/>
       <c r="W41"/>
       <c r="X41"/>
-      <c r="Y41"/>
+      <c r="Y41" t="s">
+        <v>24</v>
+      </c>
       <c r="Z41"/>
       <c r="AA41"/>
-      <c r="AB41" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB41"/>
       <c r="AC41"/>
       <c r="AD41"/>
       <c r="AE41"/>
@@ -6866,12 +6590,12 @@
       <c r="AK41"/>
       <c r="AL41"/>
       <c r="AM41"/>
-      <c r="AN41"/>
+      <c r="AN41" t="s">
+        <v>39</v>
+      </c>
       <c r="AO41"/>
       <c r="AP41"/>
-      <c r="AQ41" t="s">
-        <v>42</v>
-      </c>
+      <c r="AQ41"/>
       <c r="AR41"/>
       <c r="AS41"/>
       <c r="AT41"/>
@@ -6883,7 +6607,9 @@
       <c r="AZ41"/>
       <c r="BA41"/>
       <c r="BB41"/>
-      <c r="BC41"/>
+      <c r="BC41" t="s">
+        <v>54</v>
+      </c>
       <c r="BD41"/>
       <c r="BE41"/>
       <c r="BF41" t="s">
@@ -6891,31 +6617,29 @@
       </c>
       <c r="BG41"/>
       <c r="BH41"/>
-      <c r="BI41" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI41"/>
       <c r="BJ41"/>
       <c r="BK41"/>
-      <c r="BL41"/>
+      <c r="BL41" t="s">
+        <v>63</v>
+      </c>
       <c r="BM41"/>
       <c r="BN41"/>
-      <c r="BO41" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO41"/>
       <c r="BP41"/>
       <c r="BQ41"/>
       <c r="BR41"/>
       <c r="BS41"/>
       <c r="BT41"/>
-      <c r="BU41"/>
-      <c r="BV41"/>
+      <c r="BU41" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>73</v>
+      </c>
       <c r="BW41"/>
-      <c r="BX41" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY41" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX41"/>
+      <c r="BY41"/>
       <c r="BZ41"/>
       <c r="CA41"/>
       <c r="CB41"/>
@@ -6926,13 +6650,13 @@
       <c r="CG41"/>
       <c r="CH41"/>
       <c r="CI41"/>
-      <c r="CJ41"/>
+      <c r="CJ41" t="s">
+        <v>87</v>
+      </c>
       <c r="CK41"/>
       <c r="CL41"/>
       <c r="CM41"/>
-      <c r="CN41" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN41"/>
       <c r="CO41"/>
       <c r="CP41"/>
       <c r="CQ41"/>
@@ -6945,43 +6669,37 @@
       <c r="CX41"/>
       <c r="CY41"/>
       <c r="CZ41"/>
-      <c r="DA41"/>
+      <c r="DA41" t="s">
+        <v>104</v>
+      </c>
       <c r="DB41"/>
-      <c r="DC41"/>
-      <c r="DD41"/>
-      <c r="DE41"/>
-      <c r="DF41"/>
-      <c r="DG41" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
       <c r="E42"/>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
+      <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
-      <c r="L42"/>
+      <c r="L42" t="s">
+        <v>11</v>
+      </c>
       <c r="M42"/>
       <c r="N42"/>
-      <c r="O42" t="s">
-        <v>14</v>
-      </c>
+      <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
@@ -6991,12 +6709,12 @@
       <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
-      <c r="Y42"/>
+      <c r="Y42" t="s">
+        <v>24</v>
+      </c>
       <c r="Z42"/>
       <c r="AA42"/>
-      <c r="AB42" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB42"/>
       <c r="AC42"/>
       <c r="AD42"/>
       <c r="AE42"/>
@@ -7023,7 +6741,9 @@
       <c r="AZ42"/>
       <c r="BA42"/>
       <c r="BB42"/>
-      <c r="BC42"/>
+      <c r="BC42" t="s">
+        <v>54</v>
+      </c>
       <c r="BD42"/>
       <c r="BE42"/>
       <c r="BF42" t="s">
@@ -7031,29 +6751,27 @@
       </c>
       <c r="BG42"/>
       <c r="BH42"/>
-      <c r="BI42" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI42"/>
       <c r="BJ42"/>
       <c r="BK42"/>
-      <c r="BL42"/>
+      <c r="BL42" t="s">
+        <v>63</v>
+      </c>
       <c r="BM42"/>
       <c r="BN42"/>
-      <c r="BO42" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO42"/>
       <c r="BP42"/>
       <c r="BQ42"/>
       <c r="BR42"/>
       <c r="BS42"/>
       <c r="BT42"/>
       <c r="BU42"/>
-      <c r="BV42"/>
+      <c r="BV42" t="s">
+        <v>73</v>
+      </c>
       <c r="BW42"/>
       <c r="BX42"/>
-      <c r="BY42" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY42"/>
       <c r="BZ42"/>
       <c r="CA42"/>
       <c r="CB42"/>
@@ -7064,13 +6782,13 @@
       <c r="CG42"/>
       <c r="CH42"/>
       <c r="CI42"/>
-      <c r="CJ42"/>
+      <c r="CJ42" t="s">
+        <v>87</v>
+      </c>
       <c r="CK42"/>
       <c r="CL42"/>
       <c r="CM42"/>
-      <c r="CN42" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN42"/>
       <c r="CO42"/>
       <c r="CP42"/>
       <c r="CQ42"/>
@@ -7083,23 +6801,17 @@
       <c r="CX42"/>
       <c r="CY42"/>
       <c r="CZ42"/>
-      <c r="DA42"/>
+      <c r="DA42" t="s">
+        <v>104</v>
+      </c>
       <c r="DB42"/>
-      <c r="DC42"/>
-      <c r="DD42"/>
-      <c r="DE42"/>
-      <c r="DF42"/>
-      <c r="DG42" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -7112,29 +6824,29 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
-      <c r="L43"/>
+      <c r="L43" t="s">
+        <v>11</v>
+      </c>
       <c r="M43"/>
       <c r="N43"/>
-      <c r="O43" t="s">
-        <v>14</v>
-      </c>
+      <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43"/>
-      <c r="S43"/>
+      <c r="S43" t="s">
+        <v>18</v>
+      </c>
       <c r="T43"/>
       <c r="U43"/>
-      <c r="V43" t="s">
-        <v>21</v>
-      </c>
+      <c r="V43"/>
       <c r="W43"/>
       <c r="X43"/>
-      <c r="Y43"/>
+      <c r="Y43" t="s">
+        <v>24</v>
+      </c>
       <c r="Z43"/>
       <c r="AA43"/>
-      <c r="AB43" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB43"/>
       <c r="AC43"/>
       <c r="AD43"/>
       <c r="AE43"/>
@@ -7161,7 +6873,9 @@
       <c r="AZ43"/>
       <c r="BA43"/>
       <c r="BB43"/>
-      <c r="BC43"/>
+      <c r="BC43" t="s">
+        <v>54</v>
+      </c>
       <c r="BD43"/>
       <c r="BE43"/>
       <c r="BF43" t="s">
@@ -7169,35 +6883,33 @@
       </c>
       <c r="BG43"/>
       <c r="BH43"/>
-      <c r="BI43" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI43"/>
       <c r="BJ43"/>
       <c r="BK43"/>
-      <c r="BL43"/>
+      <c r="BL43" t="s">
+        <v>63</v>
+      </c>
       <c r="BM43"/>
       <c r="BN43"/>
-      <c r="BO43" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO43"/>
       <c r="BP43"/>
       <c r="BQ43"/>
       <c r="BR43"/>
-      <c r="BS43"/>
+      <c r="BS43" t="s">
+        <v>70</v>
+      </c>
       <c r="BT43"/>
       <c r="BU43"/>
       <c r="BV43" t="s">
         <v>73</v>
       </c>
       <c r="BW43"/>
-      <c r="BX43"/>
-      <c r="BY43" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX43" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY43"/>
       <c r="BZ43"/>
-      <c r="CA43" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA43"/>
       <c r="CB43"/>
       <c r="CC43"/>
       <c r="CD43"/>
@@ -7206,13 +6918,13 @@
       <c r="CG43"/>
       <c r="CH43"/>
       <c r="CI43"/>
-      <c r="CJ43"/>
+      <c r="CJ43" t="s">
+        <v>87</v>
+      </c>
       <c r="CK43"/>
       <c r="CL43"/>
       <c r="CM43"/>
-      <c r="CN43" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN43"/>
       <c r="CO43"/>
       <c r="CP43"/>
       <c r="CQ43"/>
@@ -7225,23 +6937,17 @@
       <c r="CX43"/>
       <c r="CY43"/>
       <c r="CZ43"/>
-      <c r="DA43"/>
+      <c r="DA43" t="s">
+        <v>104</v>
+      </c>
       <c r="DB43"/>
-      <c r="DC43"/>
-      <c r="DD43"/>
-      <c r="DE43"/>
-      <c r="DF43"/>
-      <c r="DG43" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -7254,29 +6960,29 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
-      <c r="L44"/>
+      <c r="L44" t="s">
+        <v>11</v>
+      </c>
       <c r="M44"/>
       <c r="N44"/>
-      <c r="O44" t="s">
-        <v>14</v>
-      </c>
+      <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44"/>
-      <c r="S44"/>
+      <c r="S44" t="s">
+        <v>18</v>
+      </c>
       <c r="T44"/>
       <c r="U44"/>
-      <c r="V44" t="s">
-        <v>21</v>
-      </c>
+      <c r="V44"/>
       <c r="W44"/>
       <c r="X44"/>
-      <c r="Y44"/>
+      <c r="Y44" t="s">
+        <v>24</v>
+      </c>
       <c r="Z44"/>
       <c r="AA44"/>
-      <c r="AB44" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB44"/>
       <c r="AC44"/>
       <c r="AD44"/>
       <c r="AE44"/>
@@ -7303,7 +7009,9 @@
       <c r="AZ44"/>
       <c r="BA44"/>
       <c r="BB44"/>
-      <c r="BC44"/>
+      <c r="BC44" t="s">
+        <v>54</v>
+      </c>
       <c r="BD44"/>
       <c r="BE44"/>
       <c r="BF44" t="s">
@@ -7311,50 +7019,48 @@
       </c>
       <c r="BG44"/>
       <c r="BH44"/>
-      <c r="BI44" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI44"/>
       <c r="BJ44"/>
       <c r="BK44"/>
-      <c r="BL44"/>
+      <c r="BL44" t="s">
+        <v>63</v>
+      </c>
       <c r="BM44"/>
       <c r="BN44"/>
-      <c r="BO44" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO44"/>
       <c r="BP44"/>
       <c r="BQ44"/>
       <c r="BR44"/>
       <c r="BS44"/>
       <c r="BT44"/>
       <c r="BU44"/>
-      <c r="BV44"/>
+      <c r="BV44" t="s">
+        <v>73</v>
+      </c>
       <c r="BW44"/>
-      <c r="BX44"/>
-      <c r="BY44" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX44" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY44"/>
       <c r="BZ44"/>
-      <c r="CA44" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA44"/>
       <c r="CB44"/>
       <c r="CC44"/>
       <c r="CD44"/>
       <c r="CE44"/>
-      <c r="CF44"/>
+      <c r="CF44" t="s">
+        <v>83</v>
+      </c>
       <c r="CG44"/>
       <c r="CH44"/>
-      <c r="CI44" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ44"/>
+      <c r="CI44"/>
+      <c r="CJ44" t="s">
+        <v>87</v>
+      </c>
       <c r="CK44"/>
       <c r="CL44"/>
       <c r="CM44"/>
-      <c r="CN44" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN44"/>
       <c r="CO44"/>
       <c r="CP44"/>
       <c r="CQ44"/>
@@ -7367,23 +7073,17 @@
       <c r="CX44"/>
       <c r="CY44"/>
       <c r="CZ44"/>
-      <c r="DA44"/>
+      <c r="DA44" t="s">
+        <v>104</v>
+      </c>
       <c r="DB44"/>
-      <c r="DC44"/>
-      <c r="DD44"/>
-      <c r="DE44"/>
-      <c r="DF44"/>
-      <c r="DG44" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -7391,42 +7091,42 @@
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
-      <c r="G45"/>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
       <c r="H45"/>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
+      <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
-      <c r="L45"/>
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
-      <c r="O45" t="s">
-        <v>14</v>
-      </c>
+      <c r="O45"/>
       <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
+      <c r="Q45" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" t="s">
+        <v>17</v>
+      </c>
       <c r="S45"/>
-      <c r="T45" t="s">
-        <v>19</v>
-      </c>
-      <c r="U45" t="s">
-        <v>20</v>
-      </c>
+      <c r="T45"/>
+      <c r="U45"/>
       <c r="V45"/>
       <c r="W45"/>
       <c r="X45"/>
-      <c r="Y45"/>
+      <c r="Y45" t="s">
+        <v>24</v>
+      </c>
       <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB45"/>
       <c r="AC45"/>
-      <c r="AD45" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD45"/>
       <c r="AE45"/>
       <c r="AF45"/>
       <c r="AG45"/>
@@ -7444,7 +7144,9 @@
       <c r="AS45"/>
       <c r="AT45"/>
       <c r="AU45"/>
-      <c r="AV45"/>
+      <c r="AV45" t="s">
+        <v>47</v>
+      </c>
       <c r="AW45"/>
       <c r="AX45"/>
       <c r="AY45" t="s">
@@ -7452,10 +7154,10 @@
       </c>
       <c r="AZ45"/>
       <c r="BA45"/>
-      <c r="BB45" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC45"/>
+      <c r="BB45"/>
+      <c r="BC45" t="s">
+        <v>54</v>
+      </c>
       <c r="BD45"/>
       <c r="BE45"/>
       <c r="BF45" t="s">
@@ -7473,21 +7175,19 @@
       </c>
       <c r="BM45"/>
       <c r="BN45"/>
-      <c r="BO45" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO45"/>
       <c r="BP45"/>
       <c r="BQ45"/>
       <c r="BR45"/>
       <c r="BS45"/>
       <c r="BT45"/>
       <c r="BU45"/>
-      <c r="BV45"/>
+      <c r="BV45" t="s">
+        <v>73</v>
+      </c>
       <c r="BW45"/>
       <c r="BX45"/>
-      <c r="BY45" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY45"/>
       <c r="BZ45"/>
       <c r="CA45"/>
       <c r="CB45"/>
@@ -7496,12 +7196,14 @@
       <c r="CE45"/>
       <c r="CF45"/>
       <c r="CG45"/>
-      <c r="CH45"/>
+      <c r="CH45" t="s">
+        <v>85</v>
+      </c>
       <c r="CI45"/>
-      <c r="CJ45"/>
-      <c r="CK45" t="s">
-        <v>88</v>
-      </c>
+      <c r="CJ45" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK45"/>
       <c r="CL45"/>
       <c r="CM45"/>
       <c r="CN45" t="s">
@@ -7510,9 +7212,7 @@
       <c r="CO45"/>
       <c r="CP45"/>
       <c r="CQ45"/>
-      <c r="CR45" t="s">
-        <v>95</v>
-      </c>
+      <c r="CR45"/>
       <c r="CS45"/>
       <c r="CT45"/>
       <c r="CU45"/>
@@ -7521,23 +7221,17 @@
       <c r="CX45"/>
       <c r="CY45"/>
       <c r="CZ45"/>
-      <c r="DA45"/>
+      <c r="DA45" t="s">
+        <v>104</v>
+      </c>
       <c r="DB45"/>
-      <c r="DC45"/>
-      <c r="DD45"/>
-      <c r="DE45"/>
-      <c r="DF45"/>
-      <c r="DG45" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -7545,42 +7239,42 @@
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46"/>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
       <c r="H46"/>
-      <c r="I46" t="s">
-        <v>8</v>
-      </c>
+      <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46"/>
+      <c r="L46" t="s">
+        <v>11</v>
+      </c>
       <c r="M46"/>
       <c r="N46"/>
-      <c r="O46" t="s">
-        <v>14</v>
-      </c>
+      <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
+      <c r="Q46" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" t="s">
+        <v>17</v>
+      </c>
       <c r="S46"/>
-      <c r="T46" t="s">
-        <v>19</v>
-      </c>
-      <c r="U46" t="s">
-        <v>20</v>
-      </c>
+      <c r="T46"/>
+      <c r="U46"/>
       <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
-      <c r="Y46"/>
+      <c r="Y46" t="s">
+        <v>24</v>
+      </c>
       <c r="Z46"/>
-      <c r="AA46"/>
-      <c r="AB46" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB46"/>
       <c r="AC46"/>
-      <c r="AD46" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD46"/>
       <c r="AE46"/>
       <c r="AF46"/>
       <c r="AG46"/>
@@ -7588,19 +7282,21 @@
       <c r="AI46"/>
       <c r="AJ46"/>
       <c r="AK46"/>
-      <c r="AL46"/>
+      <c r="AL46" t="s">
+        <v>37</v>
+      </c>
       <c r="AM46"/>
       <c r="AN46"/>
-      <c r="AO46" t="s">
-        <v>40</v>
-      </c>
+      <c r="AO46"/>
       <c r="AP46"/>
       <c r="AQ46"/>
       <c r="AR46"/>
       <c r="AS46"/>
       <c r="AT46"/>
       <c r="AU46"/>
-      <c r="AV46"/>
+      <c r="AV46" t="s">
+        <v>47</v>
+      </c>
       <c r="AW46"/>
       <c r="AX46"/>
       <c r="AY46" t="s">
@@ -7608,10 +7304,10 @@
       </c>
       <c r="AZ46"/>
       <c r="BA46"/>
-      <c r="BB46" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC46"/>
+      <c r="BB46"/>
+      <c r="BC46" t="s">
+        <v>54</v>
+      </c>
       <c r="BD46"/>
       <c r="BE46"/>
       <c r="BF46" t="s">
@@ -7629,21 +7325,19 @@
       </c>
       <c r="BM46"/>
       <c r="BN46"/>
-      <c r="BO46" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO46"/>
       <c r="BP46"/>
       <c r="BQ46"/>
       <c r="BR46"/>
       <c r="BS46"/>
       <c r="BT46"/>
       <c r="BU46"/>
-      <c r="BV46"/>
+      <c r="BV46" t="s">
+        <v>73</v>
+      </c>
       <c r="BW46"/>
       <c r="BX46"/>
-      <c r="BY46" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY46"/>
       <c r="BZ46"/>
       <c r="CA46"/>
       <c r="CB46"/>
@@ -7652,25 +7346,25 @@
       <c r="CE46"/>
       <c r="CF46"/>
       <c r="CG46"/>
-      <c r="CH46"/>
-      <c r="CI46"/>
-      <c r="CJ46"/>
-      <c r="CK46" t="s">
-        <v>88</v>
-      </c>
+      <c r="CH46" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI46" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ46" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK46"/>
       <c r="CL46"/>
-      <c r="CM46" t="s">
-        <v>90</v>
-      </c>
+      <c r="CM46"/>
       <c r="CN46" t="s">
         <v>91</v>
       </c>
       <c r="CO46"/>
       <c r="CP46"/>
       <c r="CQ46"/>
-      <c r="CR46" t="s">
-        <v>95</v>
-      </c>
+      <c r="CR46"/>
       <c r="CS46"/>
       <c r="CT46"/>
       <c r="CU46"/>
@@ -7679,33 +7373,29 @@
       <c r="CX46"/>
       <c r="CY46"/>
       <c r="CZ46"/>
-      <c r="DA46"/>
+      <c r="DA46" t="s">
+        <v>104</v>
+      </c>
       <c r="DB46"/>
-      <c r="DC46"/>
-      <c r="DD46"/>
-      <c r="DE46"/>
-      <c r="DF46"/>
-      <c r="DG46" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C47"/>
-      <c r="D47"/>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
       <c r="E47"/>
-      <c r="F47" t="s">
-        <v>5</v>
-      </c>
+      <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="I47"/>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="s">
@@ -7718,32 +7408,30 @@
       </c>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47" t="s">
-        <v>17</v>
-      </c>
+      <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
       <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
       <c r="X47"/>
-      <c r="Y47"/>
+      <c r="Y47" t="s">
+        <v>24</v>
+      </c>
       <c r="Z47"/>
       <c r="AA47"/>
-      <c r="AB47" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB47"/>
       <c r="AC47"/>
-      <c r="AD47"/>
+      <c r="AD47" t="s">
+        <v>29</v>
+      </c>
       <c r="AE47"/>
-      <c r="AF47"/>
-      <c r="AG47" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG47"/>
       <c r="AH47"/>
-      <c r="AI47" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI47"/>
       <c r="AJ47"/>
       <c r="AK47"/>
       <c r="AL47"/>
@@ -7763,7 +7451,9 @@
       <c r="AZ47"/>
       <c r="BA47"/>
       <c r="BB47"/>
-      <c r="BC47"/>
+      <c r="BC47" t="s">
+        <v>54</v>
+      </c>
       <c r="BD47"/>
       <c r="BE47"/>
       <c r="BF47" t="s">
@@ -7771,29 +7461,27 @@
       </c>
       <c r="BG47"/>
       <c r="BH47"/>
-      <c r="BI47" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI47"/>
       <c r="BJ47"/>
       <c r="BK47"/>
-      <c r="BL47"/>
+      <c r="BL47" t="s">
+        <v>63</v>
+      </c>
       <c r="BM47"/>
       <c r="BN47"/>
-      <c r="BO47" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO47"/>
       <c r="BP47"/>
       <c r="BQ47"/>
       <c r="BR47"/>
       <c r="BS47"/>
       <c r="BT47"/>
       <c r="BU47"/>
-      <c r="BV47"/>
+      <c r="BV47" t="s">
+        <v>73</v>
+      </c>
       <c r="BW47"/>
       <c r="BX47"/>
-      <c r="BY47" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY47"/>
       <c r="BZ47"/>
       <c r="CA47"/>
       <c r="CB47"/>
@@ -7804,16 +7492,16 @@
       <c r="CG47"/>
       <c r="CH47"/>
       <c r="CI47"/>
-      <c r="CJ47"/>
-      <c r="CK47"/>
+      <c r="CJ47" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>88</v>
+      </c>
       <c r="CL47"/>
       <c r="CM47"/>
-      <c r="CN47" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO47" t="s">
-        <v>92</v>
-      </c>
+      <c r="CN47"/>
+      <c r="CO47"/>
       <c r="CP47"/>
       <c r="CQ47"/>
       <c r="CR47"/>
@@ -7825,33 +7513,29 @@
       <c r="CX47"/>
       <c r="CY47"/>
       <c r="CZ47"/>
-      <c r="DA47"/>
+      <c r="DA47" t="s">
+        <v>104</v>
+      </c>
       <c r="DB47"/>
-      <c r="DC47"/>
-      <c r="DD47"/>
-      <c r="DE47"/>
-      <c r="DF47"/>
-      <c r="DG47" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C48"/>
-      <c r="D48"/>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
       <c r="E48"/>
-      <c r="F48" t="s">
-        <v>5</v>
-      </c>
+      <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48"/>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="s">
@@ -7864,32 +7548,28 @@
       </c>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48" t="s">
-        <v>17</v>
-      </c>
+      <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
       <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
-      <c r="Y48"/>
+      <c r="Y48" t="s">
+        <v>24</v>
+      </c>
       <c r="Z48"/>
       <c r="AA48"/>
-      <c r="AB48" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB48"/>
       <c r="AC48"/>
       <c r="AD48"/>
       <c r="AE48"/>
-      <c r="AF48"/>
-      <c r="AG48" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF48" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG48"/>
       <c r="AH48"/>
-      <c r="AI48" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI48"/>
       <c r="AJ48"/>
       <c r="AK48"/>
       <c r="AL48"/>
@@ -7909,7 +7589,9 @@
       <c r="AZ48"/>
       <c r="BA48"/>
       <c r="BB48"/>
-      <c r="BC48"/>
+      <c r="BC48" t="s">
+        <v>54</v>
+      </c>
       <c r="BD48"/>
       <c r="BE48"/>
       <c r="BF48" t="s">
@@ -7917,29 +7599,27 @@
       </c>
       <c r="BG48"/>
       <c r="BH48"/>
-      <c r="BI48" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI48"/>
       <c r="BJ48"/>
       <c r="BK48"/>
-      <c r="BL48"/>
+      <c r="BL48" t="s">
+        <v>63</v>
+      </c>
       <c r="BM48"/>
       <c r="BN48"/>
-      <c r="BO48" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO48"/>
       <c r="BP48"/>
       <c r="BQ48"/>
       <c r="BR48"/>
       <c r="BS48"/>
       <c r="BT48"/>
       <c r="BU48"/>
-      <c r="BV48"/>
+      <c r="BV48" t="s">
+        <v>73</v>
+      </c>
       <c r="BW48"/>
       <c r="BX48"/>
-      <c r="BY48" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY48"/>
       <c r="BZ48"/>
       <c r="CA48"/>
       <c r="CB48"/>
@@ -7950,18 +7630,20 @@
       <c r="CG48"/>
       <c r="CH48"/>
       <c r="CI48"/>
-      <c r="CJ48"/>
-      <c r="CK48"/>
+      <c r="CJ48" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK48" t="s">
+        <v>88</v>
+      </c>
       <c r="CL48"/>
       <c r="CM48"/>
-      <c r="CN48" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO48" t="s">
-        <v>92</v>
-      </c>
+      <c r="CN48"/>
+      <c r="CO48"/>
       <c r="CP48"/>
-      <c r="CQ48"/>
+      <c r="CQ48" t="s">
+        <v>94</v>
+      </c>
       <c r="CR48"/>
       <c r="CS48"/>
       <c r="CT48"/>
@@ -7971,33 +7653,29 @@
       <c r="CX48"/>
       <c r="CY48"/>
       <c r="CZ48"/>
-      <c r="DA48"/>
+      <c r="DA48" t="s">
+        <v>104</v>
+      </c>
       <c r="DB48"/>
-      <c r="DC48"/>
-      <c r="DD48"/>
-      <c r="DE48"/>
-      <c r="DF48"/>
-      <c r="DG48" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C49"/>
-      <c r="D49"/>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
       <c r="E49"/>
-      <c r="F49" t="s">
-        <v>5</v>
-      </c>
+      <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
-      <c r="I49"/>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="s">
@@ -8010,30 +7688,30 @@
       </c>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49" t="s">
-        <v>17</v>
-      </c>
+      <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
-      <c r="Y49"/>
+      <c r="Y49" t="s">
+        <v>24</v>
+      </c>
       <c r="Z49"/>
       <c r="AA49"/>
-      <c r="AB49" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB49"/>
       <c r="AC49"/>
-      <c r="AD49"/>
+      <c r="AD49" t="s">
+        <v>29</v>
+      </c>
       <c r="AE49"/>
-      <c r="AF49"/>
+      <c r="AF49" t="s">
+        <v>31</v>
+      </c>
       <c r="AG49"/>
       <c r="AH49"/>
-      <c r="AI49" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI49"/>
       <c r="AJ49"/>
       <c r="AK49"/>
       <c r="AL49"/>
@@ -8053,7 +7731,9 @@
       <c r="AZ49"/>
       <c r="BA49"/>
       <c r="BB49"/>
-      <c r="BC49"/>
+      <c r="BC49" t="s">
+        <v>54</v>
+      </c>
       <c r="BD49"/>
       <c r="BE49"/>
       <c r="BF49" t="s">
@@ -8061,29 +7741,27 @@
       </c>
       <c r="BG49"/>
       <c r="BH49"/>
-      <c r="BI49" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI49"/>
       <c r="BJ49"/>
       <c r="BK49"/>
-      <c r="BL49"/>
+      <c r="BL49" t="s">
+        <v>63</v>
+      </c>
       <c r="BM49"/>
       <c r="BN49"/>
-      <c r="BO49" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO49"/>
       <c r="BP49"/>
       <c r="BQ49"/>
       <c r="BR49"/>
       <c r="BS49"/>
       <c r="BT49"/>
       <c r="BU49"/>
-      <c r="BV49"/>
+      <c r="BV49" t="s">
+        <v>73</v>
+      </c>
       <c r="BW49"/>
       <c r="BX49"/>
-      <c r="BY49" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY49"/>
       <c r="BZ49"/>
       <c r="CA49"/>
       <c r="CB49"/>
@@ -8094,46 +7772,38 @@
       <c r="CG49"/>
       <c r="CH49"/>
       <c r="CI49"/>
-      <c r="CJ49"/>
-      <c r="CK49"/>
+      <c r="CJ49" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK49" t="s">
+        <v>88</v>
+      </c>
       <c r="CL49"/>
       <c r="CM49"/>
-      <c r="CN49" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO49" t="s">
-        <v>92</v>
-      </c>
+      <c r="CN49"/>
+      <c r="CO49"/>
       <c r="CP49"/>
       <c r="CQ49"/>
       <c r="CR49"/>
       <c r="CS49"/>
       <c r="CT49"/>
       <c r="CU49"/>
-      <c r="CV49" t="s">
-        <v>99</v>
-      </c>
+      <c r="CV49"/>
       <c r="CW49"/>
       <c r="CX49"/>
       <c r="CY49"/>
       <c r="CZ49"/>
-      <c r="DA49"/>
+      <c r="DA49" t="s">
+        <v>104</v>
+      </c>
       <c r="DB49"/>
-      <c r="DC49"/>
-      <c r="DD49"/>
-      <c r="DE49"/>
-      <c r="DF49"/>
-      <c r="DG49" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -8146,29 +7816,29 @@
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
-      <c r="L50"/>
+      <c r="L50" t="s">
+        <v>11</v>
+      </c>
       <c r="M50"/>
       <c r="N50"/>
-      <c r="O50" t="s">
-        <v>14</v>
-      </c>
+      <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50"/>
+      <c r="S50" t="s">
+        <v>18</v>
+      </c>
       <c r="T50"/>
       <c r="U50"/>
-      <c r="V50" t="s">
-        <v>21</v>
-      </c>
+      <c r="V50"/>
       <c r="W50"/>
       <c r="X50"/>
-      <c r="Y50"/>
+      <c r="Y50" t="s">
+        <v>24</v>
+      </c>
       <c r="Z50"/>
       <c r="AA50"/>
-      <c r="AB50" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB50"/>
       <c r="AC50"/>
       <c r="AD50"/>
       <c r="AE50"/>
@@ -8195,7 +7865,9 @@
       <c r="AZ50"/>
       <c r="BA50"/>
       <c r="BB50"/>
-      <c r="BC50"/>
+      <c r="BC50" t="s">
+        <v>54</v>
+      </c>
       <c r="BD50"/>
       <c r="BE50"/>
       <c r="BF50" t="s">
@@ -8203,52 +7875,50 @@
       </c>
       <c r="BG50"/>
       <c r="BH50"/>
-      <c r="BI50" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI50"/>
       <c r="BJ50"/>
       <c r="BK50"/>
-      <c r="BL50"/>
+      <c r="BL50" t="s">
+        <v>63</v>
+      </c>
       <c r="BM50"/>
       <c r="BN50"/>
-      <c r="BO50" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO50"/>
       <c r="BP50"/>
       <c r="BQ50"/>
       <c r="BR50"/>
       <c r="BS50"/>
       <c r="BT50"/>
       <c r="BU50"/>
-      <c r="BV50"/>
+      <c r="BV50" t="s">
+        <v>73</v>
+      </c>
       <c r="BW50"/>
-      <c r="BX50"/>
-      <c r="BY50" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX50" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY50"/>
       <c r="BZ50"/>
-      <c r="CA50" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA50"/>
       <c r="CB50"/>
       <c r="CC50"/>
       <c r="CD50"/>
-      <c r="CE50"/>
-      <c r="CF50"/>
+      <c r="CE50" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF50" t="s">
+        <v>83</v>
+      </c>
       <c r="CG50"/>
-      <c r="CH50" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI50" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ50"/>
+      <c r="CH50"/>
+      <c r="CI50"/>
+      <c r="CJ50" t="s">
+        <v>87</v>
+      </c>
       <c r="CK50"/>
       <c r="CL50"/>
       <c r="CM50"/>
-      <c r="CN50" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN50"/>
       <c r="CO50"/>
       <c r="CP50"/>
       <c r="CQ50"/>
@@ -8261,23 +7931,17 @@
       <c r="CX50"/>
       <c r="CY50"/>
       <c r="CZ50"/>
-      <c r="DA50"/>
+      <c r="DA50" t="s">
+        <v>104</v>
+      </c>
       <c r="DB50"/>
-      <c r="DC50"/>
-      <c r="DD50"/>
-      <c r="DE50"/>
-      <c r="DF50"/>
-      <c r="DG50" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -8290,29 +7954,29 @@
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
-      <c r="L51"/>
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
       <c r="M51"/>
       <c r="N51"/>
-      <c r="O51" t="s">
-        <v>14</v>
-      </c>
+      <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51"/>
+      <c r="S51" t="s">
+        <v>18</v>
+      </c>
       <c r="T51"/>
       <c r="U51"/>
-      <c r="V51" t="s">
-        <v>21</v>
-      </c>
+      <c r="V51"/>
       <c r="W51"/>
       <c r="X51"/>
-      <c r="Y51"/>
+      <c r="Y51" t="s">
+        <v>24</v>
+      </c>
       <c r="Z51"/>
       <c r="AA51"/>
-      <c r="AB51" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB51"/>
       <c r="AC51"/>
       <c r="AD51"/>
       <c r="AE51"/>
@@ -8339,7 +8003,9 @@
       <c r="AZ51"/>
       <c r="BA51"/>
       <c r="BB51"/>
-      <c r="BC51"/>
+      <c r="BC51" t="s">
+        <v>54</v>
+      </c>
       <c r="BD51"/>
       <c r="BE51"/>
       <c r="BF51" t="s">
@@ -8347,52 +8013,50 @@
       </c>
       <c r="BG51"/>
       <c r="BH51"/>
-      <c r="BI51" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI51"/>
       <c r="BJ51"/>
       <c r="BK51"/>
-      <c r="BL51"/>
+      <c r="BL51" t="s">
+        <v>63</v>
+      </c>
       <c r="BM51"/>
       <c r="BN51"/>
-      <c r="BO51" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO51"/>
       <c r="BP51"/>
       <c r="BQ51"/>
       <c r="BR51"/>
       <c r="BS51"/>
       <c r="BT51"/>
       <c r="BU51"/>
-      <c r="BV51"/>
+      <c r="BV51" t="s">
+        <v>73</v>
+      </c>
       <c r="BW51"/>
-      <c r="BX51"/>
-      <c r="BY51" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX51" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY51"/>
       <c r="BZ51"/>
-      <c r="CA51" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA51"/>
       <c r="CB51"/>
       <c r="CC51"/>
       <c r="CD51"/>
-      <c r="CE51"/>
-      <c r="CF51"/>
+      <c r="CE51" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>83</v>
+      </c>
       <c r="CG51"/>
-      <c r="CH51" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI51" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ51"/>
+      <c r="CH51"/>
+      <c r="CI51"/>
+      <c r="CJ51" t="s">
+        <v>87</v>
+      </c>
       <c r="CK51"/>
       <c r="CL51"/>
       <c r="CM51"/>
-      <c r="CN51" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN51"/>
       <c r="CO51"/>
       <c r="CP51"/>
       <c r="CQ51"/>
@@ -8405,23 +8069,17 @@
       <c r="CX51"/>
       <c r="CY51"/>
       <c r="CZ51"/>
-      <c r="DA51"/>
+      <c r="DA51" t="s">
+        <v>104</v>
+      </c>
       <c r="DB51"/>
-      <c r="DC51"/>
-      <c r="DD51"/>
-      <c r="DE51"/>
-      <c r="DF51"/>
-      <c r="DG51" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -8434,29 +8092,29 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
-      <c r="L52"/>
+      <c r="L52" t="s">
+        <v>11</v>
+      </c>
       <c r="M52"/>
       <c r="N52"/>
-      <c r="O52" t="s">
-        <v>14</v>
-      </c>
+      <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52"/>
+      <c r="S52" t="s">
+        <v>18</v>
+      </c>
       <c r="T52"/>
       <c r="U52"/>
-      <c r="V52" t="s">
-        <v>21</v>
-      </c>
+      <c r="V52"/>
       <c r="W52"/>
       <c r="X52"/>
-      <c r="Y52"/>
+      <c r="Y52" t="s">
+        <v>24</v>
+      </c>
       <c r="Z52"/>
       <c r="AA52"/>
-      <c r="AB52" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB52"/>
       <c r="AC52"/>
       <c r="AD52"/>
       <c r="AE52"/>
@@ -8483,7 +8141,9 @@
       <c r="AZ52"/>
       <c r="BA52"/>
       <c r="BB52"/>
-      <c r="BC52"/>
+      <c r="BC52" t="s">
+        <v>54</v>
+      </c>
       <c r="BD52"/>
       <c r="BE52"/>
       <c r="BF52" t="s">
@@ -8491,52 +8151,50 @@
       </c>
       <c r="BG52"/>
       <c r="BH52"/>
-      <c r="BI52" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI52"/>
       <c r="BJ52"/>
       <c r="BK52"/>
-      <c r="BL52"/>
+      <c r="BL52" t="s">
+        <v>63</v>
+      </c>
       <c r="BM52"/>
       <c r="BN52"/>
-      <c r="BO52" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO52"/>
       <c r="BP52"/>
       <c r="BQ52"/>
       <c r="BR52"/>
       <c r="BS52"/>
       <c r="BT52"/>
       <c r="BU52"/>
-      <c r="BV52"/>
+      <c r="BV52" t="s">
+        <v>73</v>
+      </c>
       <c r="BW52"/>
-      <c r="BX52"/>
-      <c r="BY52" t="s">
-        <v>76</v>
-      </c>
+      <c r="BX52" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY52"/>
       <c r="BZ52"/>
-      <c r="CA52" t="s">
-        <v>78</v>
-      </c>
+      <c r="CA52"/>
       <c r="CB52"/>
       <c r="CC52"/>
       <c r="CD52"/>
-      <c r="CE52"/>
-      <c r="CF52"/>
+      <c r="CE52" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>83</v>
+      </c>
       <c r="CG52"/>
-      <c r="CH52" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI52" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ52"/>
+      <c r="CH52"/>
+      <c r="CI52"/>
+      <c r="CJ52" t="s">
+        <v>87</v>
+      </c>
       <c r="CK52"/>
       <c r="CL52"/>
       <c r="CM52"/>
-      <c r="CN52" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN52"/>
       <c r="CO52"/>
       <c r="CP52"/>
       <c r="CQ52"/>
@@ -8549,23 +8207,17 @@
       <c r="CX52"/>
       <c r="CY52"/>
       <c r="CZ52"/>
-      <c r="DA52"/>
+      <c r="DA52" t="s">
+        <v>104</v>
+      </c>
       <c r="DB52"/>
-      <c r="DC52"/>
-      <c r="DD52"/>
-      <c r="DE52"/>
-      <c r="DF52"/>
-      <c r="DG52" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -8576,12 +8228,12 @@
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
-      <c r="L53"/>
+      <c r="L53" t="s">
+        <v>11</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
-      <c r="O53" t="s">
-        <v>14</v>
-      </c>
+      <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
@@ -8591,28 +8243,28 @@
       <c r="V53"/>
       <c r="W53"/>
       <c r="X53"/>
-      <c r="Y53"/>
+      <c r="Y53" t="s">
+        <v>24</v>
+      </c>
       <c r="Z53"/>
       <c r="AA53"/>
-      <c r="AB53" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
       <c r="AE53"/>
-      <c r="AF53"/>
+      <c r="AF53" t="s">
+        <v>31</v>
+      </c>
       <c r="AG53"/>
       <c r="AH53"/>
-      <c r="AI53" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI53"/>
       <c r="AJ53"/>
-      <c r="AK53"/>
+      <c r="AK53" t="s">
+        <v>36</v>
+      </c>
       <c r="AL53"/>
       <c r="AM53"/>
-      <c r="AN53" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN53"/>
       <c r="AO53"/>
       <c r="AP53"/>
       <c r="AQ53"/>
@@ -8625,44 +8277,44 @@
       <c r="AX53"/>
       <c r="AY53"/>
       <c r="AZ53"/>
-      <c r="BA53"/>
+      <c r="BA53" t="s">
+        <v>52</v>
+      </c>
       <c r="BB53"/>
-      <c r="BC53"/>
-      <c r="BD53" t="s">
-        <v>55</v>
-      </c>
+      <c r="BC53" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD53"/>
       <c r="BE53"/>
       <c r="BF53" t="s">
         <v>57</v>
       </c>
       <c r="BG53"/>
       <c r="BH53"/>
-      <c r="BI53" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI53"/>
       <c r="BJ53"/>
       <c r="BK53"/>
-      <c r="BL53"/>
+      <c r="BL53" t="s">
+        <v>63</v>
+      </c>
       <c r="BM53"/>
       <c r="BN53"/>
-      <c r="BO53" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO53"/>
       <c r="BP53"/>
       <c r="BQ53"/>
       <c r="BR53"/>
       <c r="BS53"/>
       <c r="BT53"/>
       <c r="BU53"/>
-      <c r="BV53"/>
-      <c r="BW53"/>
+      <c r="BV53" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW53" t="s">
+        <v>74</v>
+      </c>
       <c r="BX53"/>
-      <c r="BY53" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ53" t="s">
-        <v>77</v>
-      </c>
+      <c r="BY53"/>
+      <c r="BZ53"/>
       <c r="CA53"/>
       <c r="CB53"/>
       <c r="CC53"/>
@@ -8672,44 +8324,38 @@
       <c r="CG53"/>
       <c r="CH53"/>
       <c r="CI53"/>
-      <c r="CJ53"/>
+      <c r="CJ53" t="s">
+        <v>87</v>
+      </c>
       <c r="CK53"/>
       <c r="CL53"/>
       <c r="CM53"/>
-      <c r="CN53" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN53"/>
       <c r="CO53"/>
       <c r="CP53"/>
       <c r="CQ53"/>
       <c r="CR53"/>
       <c r="CS53"/>
       <c r="CT53"/>
-      <c r="CU53"/>
+      <c r="CU53" t="s">
+        <v>98</v>
+      </c>
       <c r="CV53"/>
       <c r="CW53"/>
       <c r="CX53"/>
       <c r="CY53"/>
-      <c r="CZ53" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA53"/>
+      <c r="CZ53"/>
+      <c r="DA53" t="s">
+        <v>104</v>
+      </c>
       <c r="DB53"/>
-      <c r="DC53"/>
-      <c r="DD53"/>
-      <c r="DE53"/>
-      <c r="DF53"/>
-      <c r="DG53" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -8720,12 +8366,12 @@
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
-      <c r="L54"/>
+      <c r="L54" t="s">
+        <v>11</v>
+      </c>
       <c r="M54"/>
       <c r="N54"/>
-      <c r="O54" t="s">
-        <v>14</v>
-      </c>
+      <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
@@ -8735,28 +8381,28 @@
       <c r="V54"/>
       <c r="W54"/>
       <c r="X54"/>
-      <c r="Y54"/>
+      <c r="Y54" t="s">
+        <v>24</v>
+      </c>
       <c r="Z54"/>
       <c r="AA54"/>
-      <c r="AB54" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB54"/>
       <c r="AC54"/>
       <c r="AD54"/>
       <c r="AE54"/>
-      <c r="AF54"/>
+      <c r="AF54" t="s">
+        <v>31</v>
+      </c>
       <c r="AG54"/>
       <c r="AH54"/>
-      <c r="AI54" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI54"/>
       <c r="AJ54"/>
-      <c r="AK54"/>
+      <c r="AK54" t="s">
+        <v>36</v>
+      </c>
       <c r="AL54"/>
       <c r="AM54"/>
-      <c r="AN54" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN54"/>
       <c r="AO54"/>
       <c r="AP54"/>
       <c r="AQ54"/>
@@ -8769,44 +8415,44 @@
       <c r="AX54"/>
       <c r="AY54"/>
       <c r="AZ54"/>
-      <c r="BA54"/>
+      <c r="BA54" t="s">
+        <v>52</v>
+      </c>
       <c r="BB54"/>
-      <c r="BC54"/>
-      <c r="BD54" t="s">
-        <v>55</v>
-      </c>
+      <c r="BC54" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD54"/>
       <c r="BE54"/>
       <c r="BF54" t="s">
         <v>57</v>
       </c>
       <c r="BG54"/>
       <c r="BH54"/>
-      <c r="BI54" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI54"/>
       <c r="BJ54"/>
       <c r="BK54"/>
-      <c r="BL54"/>
+      <c r="BL54" t="s">
+        <v>63</v>
+      </c>
       <c r="BM54"/>
       <c r="BN54"/>
-      <c r="BO54" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO54"/>
       <c r="BP54"/>
       <c r="BQ54"/>
       <c r="BR54"/>
       <c r="BS54"/>
       <c r="BT54"/>
       <c r="BU54"/>
-      <c r="BV54"/>
-      <c r="BW54"/>
+      <c r="BV54" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW54" t="s">
+        <v>74</v>
+      </c>
       <c r="BX54"/>
-      <c r="BY54" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ54" t="s">
-        <v>77</v>
-      </c>
+      <c r="BY54"/>
+      <c r="BZ54"/>
       <c r="CA54"/>
       <c r="CB54"/>
       <c r="CC54"/>
@@ -8816,44 +8462,38 @@
       <c r="CG54"/>
       <c r="CH54"/>
       <c r="CI54"/>
-      <c r="CJ54"/>
+      <c r="CJ54" t="s">
+        <v>87</v>
+      </c>
       <c r="CK54"/>
       <c r="CL54"/>
       <c r="CM54"/>
-      <c r="CN54" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN54"/>
       <c r="CO54"/>
       <c r="CP54"/>
       <c r="CQ54"/>
       <c r="CR54"/>
       <c r="CS54"/>
       <c r="CT54"/>
-      <c r="CU54"/>
+      <c r="CU54" t="s">
+        <v>98</v>
+      </c>
       <c r="CV54"/>
       <c r="CW54"/>
       <c r="CX54"/>
       <c r="CY54"/>
-      <c r="CZ54" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA54"/>
+      <c r="CZ54"/>
+      <c r="DA54" t="s">
+        <v>104</v>
+      </c>
       <c r="DB54"/>
-      <c r="DC54"/>
-      <c r="DD54"/>
-      <c r="DE54"/>
-      <c r="DF54"/>
-      <c r="DG54" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -8864,12 +8504,12 @@
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
-      <c r="L55"/>
+      <c r="L55" t="s">
+        <v>11</v>
+      </c>
       <c r="M55"/>
       <c r="N55"/>
-      <c r="O55" t="s">
-        <v>14</v>
-      </c>
+      <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
@@ -8879,28 +8519,28 @@
       <c r="V55"/>
       <c r="W55"/>
       <c r="X55"/>
-      <c r="Y55"/>
+      <c r="Y55" t="s">
+        <v>24</v>
+      </c>
       <c r="Z55"/>
       <c r="AA55"/>
-      <c r="AB55" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB55"/>
       <c r="AC55"/>
       <c r="AD55"/>
       <c r="AE55"/>
-      <c r="AF55"/>
+      <c r="AF55" t="s">
+        <v>31</v>
+      </c>
       <c r="AG55"/>
       <c r="AH55"/>
-      <c r="AI55" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI55"/>
       <c r="AJ55"/>
-      <c r="AK55"/>
+      <c r="AK55" t="s">
+        <v>36</v>
+      </c>
       <c r="AL55"/>
       <c r="AM55"/>
-      <c r="AN55" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN55"/>
       <c r="AO55"/>
       <c r="AP55"/>
       <c r="AQ55"/>
@@ -8913,44 +8553,44 @@
       <c r="AX55"/>
       <c r="AY55"/>
       <c r="AZ55"/>
-      <c r="BA55"/>
+      <c r="BA55" t="s">
+        <v>52</v>
+      </c>
       <c r="BB55"/>
-      <c r="BC55"/>
-      <c r="BD55" t="s">
-        <v>55</v>
-      </c>
+      <c r="BC55" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD55"/>
       <c r="BE55"/>
       <c r="BF55" t="s">
         <v>57</v>
       </c>
       <c r="BG55"/>
       <c r="BH55"/>
-      <c r="BI55" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI55"/>
       <c r="BJ55"/>
       <c r="BK55"/>
-      <c r="BL55"/>
+      <c r="BL55" t="s">
+        <v>63</v>
+      </c>
       <c r="BM55"/>
       <c r="BN55"/>
-      <c r="BO55" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO55"/>
       <c r="BP55"/>
       <c r="BQ55"/>
       <c r="BR55"/>
       <c r="BS55"/>
       <c r="BT55"/>
       <c r="BU55"/>
-      <c r="BV55"/>
-      <c r="BW55"/>
+      <c r="BV55" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW55" t="s">
+        <v>74</v>
+      </c>
       <c r="BX55"/>
-      <c r="BY55" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ55" t="s">
-        <v>77</v>
-      </c>
+      <c r="BY55"/>
+      <c r="BZ55"/>
       <c r="CA55"/>
       <c r="CB55"/>
       <c r="CC55"/>
@@ -8960,66 +8600,60 @@
       <c r="CG55"/>
       <c r="CH55"/>
       <c r="CI55"/>
-      <c r="CJ55"/>
+      <c r="CJ55" t="s">
+        <v>87</v>
+      </c>
       <c r="CK55"/>
       <c r="CL55"/>
       <c r="CM55"/>
-      <c r="CN55" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN55"/>
       <c r="CO55"/>
       <c r="CP55"/>
       <c r="CQ55"/>
       <c r="CR55"/>
       <c r="CS55"/>
       <c r="CT55"/>
-      <c r="CU55"/>
+      <c r="CU55" t="s">
+        <v>98</v>
+      </c>
       <c r="CV55"/>
       <c r="CW55"/>
       <c r="CX55"/>
       <c r="CY55"/>
-      <c r="CZ55" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA55"/>
+      <c r="CZ55"/>
+      <c r="DA55" t="s">
+        <v>104</v>
+      </c>
       <c r="DB55"/>
-      <c r="DC55"/>
-      <c r="DD55"/>
-      <c r="DE55"/>
-      <c r="DF55"/>
-      <c r="DG55" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56"/>
-      <c r="E56"/>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
       <c r="F56"/>
-      <c r="G56" t="s">
-        <v>6</v>
-      </c>
+      <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56"/>
+      <c r="J56" t="s">
+        <v>9</v>
+      </c>
       <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56" t="s">
-        <v>12</v>
-      </c>
+      <c r="L56" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56"/>
       <c r="N56"/>
-      <c r="O56" t="s">
-        <v>14</v>
-      </c>
+      <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
@@ -9027,24 +8661,24 @@
       <c r="T56"/>
       <c r="U56"/>
       <c r="V56"/>
-      <c r="W56"/>
+      <c r="W56" t="s">
+        <v>22</v>
+      </c>
       <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56" t="s">
-        <v>25</v>
-      </c>
+      <c r="Y56" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z56"/>
       <c r="AA56"/>
-      <c r="AB56" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB56"/>
       <c r="AC56"/>
       <c r="AD56"/>
-      <c r="AE56"/>
+      <c r="AE56" t="s">
+        <v>30</v>
+      </c>
       <c r="AF56"/>
       <c r="AG56"/>
-      <c r="AH56" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH56"/>
       <c r="AI56"/>
       <c r="AJ56"/>
       <c r="AK56"/>
@@ -9060,12 +8694,14 @@
       <c r="AU56"/>
       <c r="AV56"/>
       <c r="AW56"/>
-      <c r="AX56"/>
+      <c r="AX56" t="s">
+        <v>49</v>
+      </c>
       <c r="AY56"/>
-      <c r="AZ56"/>
-      <c r="BA56" t="s">
-        <v>52</v>
-      </c>
+      <c r="AZ56" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA56"/>
       <c r="BB56"/>
       <c r="BC56" t="s">
         <v>54</v>
@@ -9077,31 +8713,29 @@
       </c>
       <c r="BG56"/>
       <c r="BH56"/>
-      <c r="BI56" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI56"/>
       <c r="BJ56"/>
       <c r="BK56"/>
-      <c r="BL56"/>
+      <c r="BL56" t="s">
+        <v>63</v>
+      </c>
       <c r="BM56"/>
       <c r="BN56"/>
-      <c r="BO56" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO56"/>
       <c r="BP56"/>
       <c r="BQ56"/>
       <c r="BR56"/>
       <c r="BS56"/>
-      <c r="BT56"/>
+      <c r="BT56" t="s">
+        <v>71</v>
+      </c>
       <c r="BU56"/>
-      <c r="BV56"/>
-      <c r="BW56" t="s">
-        <v>74</v>
-      </c>
+      <c r="BV56" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW56"/>
       <c r="BX56"/>
-      <c r="BY56" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY56"/>
       <c r="BZ56"/>
       <c r="CA56"/>
       <c r="CB56"/>
@@ -9112,66 +8746,60 @@
       <c r="CG56"/>
       <c r="CH56"/>
       <c r="CI56"/>
-      <c r="CJ56"/>
+      <c r="CJ56" t="s">
+        <v>87</v>
+      </c>
       <c r="CK56"/>
       <c r="CL56"/>
       <c r="CM56"/>
-      <c r="CN56" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN56"/>
       <c r="CO56"/>
       <c r="CP56"/>
       <c r="CQ56"/>
       <c r="CR56"/>
-      <c r="CS56"/>
+      <c r="CS56" t="s">
+        <v>96</v>
+      </c>
       <c r="CT56"/>
       <c r="CU56"/>
       <c r="CV56"/>
       <c r="CW56"/>
-      <c r="CX56" t="s">
-        <v>101</v>
-      </c>
+      <c r="CX56"/>
       <c r="CY56"/>
       <c r="CZ56"/>
-      <c r="DA56"/>
+      <c r="DA56" t="s">
+        <v>104</v>
+      </c>
       <c r="DB56"/>
-      <c r="DC56"/>
-      <c r="DD56"/>
-      <c r="DE56"/>
-      <c r="DF56"/>
-      <c r="DG56" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57"/>
-      <c r="E57"/>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
       <c r="F57"/>
-      <c r="G57" t="s">
-        <v>6</v>
-      </c>
+      <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57"/>
+      <c r="J57" t="s">
+        <v>9</v>
+      </c>
       <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57" t="s">
-        <v>12</v>
-      </c>
+      <c r="L57" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57"/>
       <c r="N57"/>
-      <c r="O57" t="s">
-        <v>14</v>
-      </c>
+      <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
@@ -9179,24 +8807,24 @@
       <c r="T57"/>
       <c r="U57"/>
       <c r="V57"/>
-      <c r="W57"/>
+      <c r="W57" t="s">
+        <v>22</v>
+      </c>
       <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57" t="s">
-        <v>25</v>
-      </c>
+      <c r="Y57" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z57"/>
       <c r="AA57"/>
-      <c r="AB57" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB57"/>
       <c r="AC57"/>
       <c r="AD57"/>
-      <c r="AE57"/>
+      <c r="AE57" t="s">
+        <v>30</v>
+      </c>
       <c r="AF57"/>
       <c r="AG57"/>
-      <c r="AH57" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH57"/>
       <c r="AI57"/>
       <c r="AJ57"/>
       <c r="AK57"/>
@@ -9212,14 +8840,16 @@
       <c r="AU57"/>
       <c r="AV57"/>
       <c r="AW57"/>
-      <c r="AX57"/>
+      <c r="AX57" t="s">
+        <v>49</v>
+      </c>
       <c r="AY57"/>
       <c r="AZ57"/>
-      <c r="BA57" t="s">
-        <v>52</v>
-      </c>
+      <c r="BA57"/>
       <c r="BB57"/>
-      <c r="BC57"/>
+      <c r="BC57" t="s">
+        <v>54</v>
+      </c>
       <c r="BD57"/>
       <c r="BE57"/>
       <c r="BF57" t="s">
@@ -9227,31 +8857,29 @@
       </c>
       <c r="BG57"/>
       <c r="BH57"/>
-      <c r="BI57" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI57"/>
       <c r="BJ57"/>
       <c r="BK57"/>
-      <c r="BL57"/>
+      <c r="BL57" t="s">
+        <v>63</v>
+      </c>
       <c r="BM57"/>
       <c r="BN57"/>
-      <c r="BO57" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO57"/>
       <c r="BP57"/>
       <c r="BQ57"/>
       <c r="BR57"/>
       <c r="BS57"/>
-      <c r="BT57"/>
+      <c r="BT57" t="s">
+        <v>71</v>
+      </c>
       <c r="BU57"/>
-      <c r="BV57"/>
-      <c r="BW57" t="s">
-        <v>74</v>
-      </c>
+      <c r="BV57" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW57"/>
       <c r="BX57"/>
-      <c r="BY57" t="s">
-        <v>76</v>
-      </c>
+      <c r="BY57"/>
       <c r="BZ57"/>
       <c r="CA57"/>
       <c r="CB57"/>
@@ -9262,13 +8890,13 @@
       <c r="CG57"/>
       <c r="CH57"/>
       <c r="CI57"/>
-      <c r="CJ57"/>
+      <c r="CJ57" t="s">
+        <v>87</v>
+      </c>
       <c r="CK57"/>
       <c r="CL57"/>
       <c r="CM57"/>
-      <c r="CN57" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN57"/>
       <c r="CO57"/>
       <c r="CP57"/>
       <c r="CQ57"/>
@@ -9281,51 +8909,33 @@
       <c r="CX57"/>
       <c r="CY57"/>
       <c r="CZ57"/>
-      <c r="DA57"/>
+      <c r="DA57" t="s">
+        <v>104</v>
+      </c>
       <c r="DB57"/>
-      <c r="DC57"/>
-      <c r="DD57"/>
-      <c r="DE57"/>
-      <c r="DF57"/>
-      <c r="DG57" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
       <c r="F58"/>
-      <c r="G58" t="s">
-        <v>6</v>
-      </c>
+      <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58" t="s">
-        <v>9</v>
-      </c>
+      <c r="J58"/>
       <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58" t="s">
-        <v>12</v>
-      </c>
+      <c r="L58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58"/>
       <c r="N58"/>
-      <c r="O58" t="s">
-        <v>14</v>
-      </c>
+      <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
@@ -9335,27 +8945,27 @@
       <c r="V58"/>
       <c r="W58"/>
       <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58" t="s">
-        <v>25</v>
-      </c>
+      <c r="Y58" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z58"/>
       <c r="AA58"/>
-      <c r="AB58" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC58"/>
+      <c r="AB58"/>
+      <c r="AC58" t="s">
+        <v>28</v>
+      </c>
       <c r="AD58"/>
       <c r="AE58"/>
       <c r="AF58"/>
       <c r="AG58"/>
-      <c r="AH58" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH58"/>
       <c r="AI58"/>
       <c r="AJ58"/>
       <c r="AK58"/>
       <c r="AL58"/>
-      <c r="AM58"/>
+      <c r="AM58" t="s">
+        <v>38</v>
+      </c>
       <c r="AN58"/>
       <c r="AO58"/>
       <c r="AP58"/>
@@ -9365,13 +8975,13 @@
       <c r="AT58"/>
       <c r="AU58"/>
       <c r="AV58"/>
-      <c r="AW58"/>
+      <c r="AW58" t="s">
+        <v>48</v>
+      </c>
       <c r="AX58"/>
       <c r="AY58"/>
       <c r="AZ58"/>
-      <c r="BA58" t="s">
-        <v>52</v>
-      </c>
+      <c r="BA58"/>
       <c r="BB58"/>
       <c r="BC58" t="s">
         <v>54</v>
@@ -9383,27 +8993,25 @@
       </c>
       <c r="BG58"/>
       <c r="BH58"/>
-      <c r="BI58" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI58"/>
       <c r="BJ58"/>
-      <c r="BK58"/>
+      <c r="BK58" t="s">
+        <v>62</v>
+      </c>
       <c r="BL58"/>
       <c r="BM58"/>
       <c r="BN58"/>
-      <c r="BO58" t="s">
-        <v>66</v>
-      </c>
+      <c r="BO58"/>
       <c r="BP58"/>
       <c r="BQ58"/>
       <c r="BR58"/>
       <c r="BS58"/>
       <c r="BT58"/>
       <c r="BU58"/>
-      <c r="BV58"/>
-      <c r="BW58" t="s">
-        <v>74</v>
-      </c>
+      <c r="BV58" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW58"/>
       <c r="BX58"/>
       <c r="BY58" t="s">
         <v>76</v>
@@ -9415,190 +9023,32 @@
       <c r="CD58"/>
       <c r="CE58"/>
       <c r="CF58"/>
-      <c r="CG58" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG58"/>
       <c r="CH58"/>
       <c r="CI58"/>
-      <c r="CJ58"/>
+      <c r="CJ58" t="s">
+        <v>87</v>
+      </c>
       <c r="CK58"/>
-      <c r="CL58" t="s">
-        <v>89</v>
-      </c>
+      <c r="CL58"/>
       <c r="CM58"/>
-      <c r="CN58" t="s">
-        <v>91</v>
-      </c>
+      <c r="CN58"/>
       <c r="CO58"/>
       <c r="CP58"/>
       <c r="CQ58"/>
       <c r="CR58"/>
       <c r="CS58"/>
       <c r="CT58"/>
-      <c r="CU58" t="s">
-        <v>98</v>
-      </c>
+      <c r="CU58"/>
       <c r="CV58"/>
       <c r="CW58"/>
-      <c r="CX58" t="s">
-        <v>101</v>
-      </c>
+      <c r="CX58"/>
       <c r="CY58"/>
       <c r="CZ58"/>
-      <c r="DA58"/>
-      <c r="DB58" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC58"/>
-      <c r="DD58"/>
-      <c r="DE58"/>
-      <c r="DF58"/>
-      <c r="DG58" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH58"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>199</v>
-      </c>
-      <c r="B59" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59" t="s">
-        <v>14</v>
-      </c>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC59"/>
-      <c r="AD59"/>
-      <c r="AE59"/>
-      <c r="AF59" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG59"/>
-      <c r="AH59"/>
-      <c r="AI59"/>
-      <c r="AJ59"/>
-      <c r="AK59"/>
-      <c r="AL59"/>
-      <c r="AM59"/>
-      <c r="AN59"/>
-      <c r="AO59"/>
-      <c r="AP59" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ59"/>
-      <c r="AR59"/>
-      <c r="AS59"/>
-      <c r="AT59"/>
-      <c r="AU59"/>
-      <c r="AV59"/>
-      <c r="AW59"/>
-      <c r="AX59"/>
-      <c r="AY59"/>
-      <c r="AZ59" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA59"/>
-      <c r="BB59"/>
-      <c r="BC59"/>
-      <c r="BD59"/>
-      <c r="BE59"/>
-      <c r="BF59" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG59"/>
-      <c r="BH59"/>
-      <c r="BI59" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ59"/>
-      <c r="BK59"/>
-      <c r="BL59"/>
-      <c r="BM59"/>
-      <c r="BN59" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO59"/>
-      <c r="BP59"/>
-      <c r="BQ59"/>
-      <c r="BR59"/>
-      <c r="BS59"/>
-      <c r="BT59"/>
-      <c r="BU59"/>
-      <c r="BV59"/>
-      <c r="BW59"/>
-      <c r="BX59"/>
-      <c r="BY59" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ59"/>
-      <c r="CA59"/>
-      <c r="CB59" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC59"/>
-      <c r="CD59"/>
-      <c r="CE59"/>
-      <c r="CF59"/>
-      <c r="CG59"/>
-      <c r="CH59"/>
-      <c r="CI59"/>
-      <c r="CJ59"/>
-      <c r="CK59"/>
-      <c r="CL59"/>
-      <c r="CM59"/>
-      <c r="CN59" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO59"/>
-      <c r="CP59"/>
-      <c r="CQ59"/>
-      <c r="CR59"/>
-      <c r="CS59"/>
-      <c r="CT59"/>
-      <c r="CU59"/>
-      <c r="CV59"/>
-      <c r="CW59"/>
-      <c r="CX59"/>
-      <c r="CY59"/>
-      <c r="CZ59"/>
-      <c r="DA59"/>
-      <c r="DB59"/>
-      <c r="DC59"/>
-      <c r="DD59"/>
-      <c r="DE59"/>
-      <c r="DF59"/>
-      <c r="DG59" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH59"/>
+      <c r="DA58" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summaries/variantSummary2.xlsx
+++ b/summaries/variantSummary2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -50,12 +50,6 @@
     <t xml:space="preserve">14408|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">14648|orf1ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14817|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">1500|orf1ab</t>
   </si>
   <si>
@@ -71,15 +65,9 @@
     <t xml:space="preserve">16260|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">16396|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">16438|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">16669|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">17010|orf1ab</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t xml:space="preserve">18060|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">18106|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">18255|orf1ab</t>
   </si>
   <si>
@@ -110,9 +95,6 @@
     <t xml:space="preserve">18877|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">18898|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">18958|orf1ab</t>
   </si>
   <si>
@@ -206,9 +188,6 @@
     <t xml:space="preserve">25563|orf3a</t>
   </si>
   <si>
-    <t xml:space="preserve">25897|orf3a</t>
-  </si>
-  <si>
     <t xml:space="preserve">26233|transgenic</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t xml:space="preserve">26461|E</t>
   </si>
   <si>
-    <t xml:space="preserve">26467|E</t>
-  </si>
-  <si>
     <t xml:space="preserve">26690|M</t>
   </si>
   <si>
@@ -248,18 +224,6 @@
     <t xml:space="preserve">28866|N</t>
   </si>
   <si>
-    <t xml:space="preserve">28881|N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28882|N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28883|N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2903|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">29247|N</t>
   </si>
   <si>
@@ -284,24 +248,15 @@
     <t xml:space="preserve">3312|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">3714|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">4002|orf1ab</t>
   </si>
   <si>
     <t xml:space="preserve">4113|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">4579|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">5570|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">6040|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">625|orf1ab</t>
   </si>
   <si>
@@ -314,15 +269,9 @@
     <t xml:space="preserve">7386|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">7834|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">7975|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">8047|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">8247|orf1ab</t>
   </si>
   <si>
@@ -338,6 +287,9 @@
     <t xml:space="preserve">197|ETA|20200330</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">203</t>
   </si>
   <si>
@@ -377,12 +329,6 @@
     <t xml:space="preserve">213|ETA|20200415</t>
   </si>
   <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219|ETA|20200417</t>
-  </si>
-  <si>
     <t xml:space="preserve">222</t>
   </si>
   <si>
@@ -423,12 +369,6 @@
   </si>
   <si>
     <t xml:space="preserve">228|Saliva|20200529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234|NP-OP-HI|20200424</t>
   </si>
   <si>
     <t xml:space="preserve">235</t>
@@ -1190,67 +1130,16 @@
       <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -1261,7 +1150,7 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
@@ -1271,17 +1160,17 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="U2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" t="s">
+        <v>91</v>
+      </c>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y2"/>
       <c r="Z2"/>
-      <c r="AA2" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
@@ -1296,39 +1185,41 @@
       <c r="AM2"/>
       <c r="AN2"/>
       <c r="AO2"/>
-      <c r="AP2"/>
+      <c r="AP2" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ2"/>
       <c r="AR2"/>
       <c r="AS2"/>
       <c r="AT2"/>
       <c r="AU2"/>
-      <c r="AV2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW2"/>
+      <c r="AV2"/>
+      <c r="AW2" t="s">
+        <v>91</v>
+      </c>
       <c r="AX2"/>
       <c r="AY2"/>
-      <c r="AZ2"/>
+      <c r="AZ2" t="s">
+        <v>91</v>
+      </c>
       <c r="BA2"/>
       <c r="BB2"/>
-      <c r="BC2" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC2"/>
       <c r="BD2"/>
       <c r="BE2"/>
       <c r="BF2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG2"/>
       <c r="BH2"/>
       <c r="BI2"/>
       <c r="BJ2"/>
       <c r="BK2"/>
-      <c r="BL2" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL2"/>
       <c r="BM2"/>
-      <c r="BN2"/>
+      <c r="BN2" t="s">
+        <v>91</v>
+      </c>
       <c r="BO2"/>
       <c r="BP2"/>
       <c r="BQ2"/>
@@ -1336,11 +1227,11 @@
       <c r="BS2"/>
       <c r="BT2"/>
       <c r="BU2"/>
-      <c r="BV2" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV2"/>
       <c r="BW2"/>
-      <c r="BX2"/>
+      <c r="BX2" t="s">
+        <v>91</v>
+      </c>
       <c r="BY2"/>
       <c r="BZ2"/>
       <c r="CA2"/>
@@ -1353,38 +1244,19 @@
       <c r="CH2"/>
       <c r="CI2"/>
       <c r="CJ2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1394,10 +1266,10 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -1407,17 +1279,17 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
+      <c r="U3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" t="s">
+        <v>91</v>
+      </c>
       <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y3"/>
       <c r="Z3"/>
-      <c r="AA3" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
@@ -1432,39 +1304,41 @@
       <c r="AM3"/>
       <c r="AN3"/>
       <c r="AO3"/>
-      <c r="AP3"/>
+      <c r="AP3" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ3"/>
       <c r="AR3"/>
       <c r="AS3"/>
       <c r="AT3"/>
       <c r="AU3"/>
-      <c r="AV3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW3"/>
+      <c r="AV3"/>
+      <c r="AW3" t="s">
+        <v>91</v>
+      </c>
       <c r="AX3"/>
       <c r="AY3"/>
-      <c r="AZ3"/>
+      <c r="AZ3" t="s">
+        <v>91</v>
+      </c>
       <c r="BA3"/>
       <c r="BB3"/>
-      <c r="BC3" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC3"/>
       <c r="BD3"/>
       <c r="BE3"/>
       <c r="BF3" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG3"/>
       <c r="BH3"/>
       <c r="BI3"/>
       <c r="BJ3"/>
       <c r="BK3"/>
-      <c r="BL3" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL3"/>
       <c r="BM3"/>
-      <c r="BN3"/>
+      <c r="BN3" t="s">
+        <v>91</v>
+      </c>
       <c r="BO3"/>
       <c r="BP3"/>
       <c r="BQ3"/>
@@ -1472,11 +1346,11 @@
       <c r="BS3"/>
       <c r="BT3"/>
       <c r="BU3"/>
-      <c r="BV3" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV3"/>
       <c r="BW3"/>
-      <c r="BX3"/>
+      <c r="BX3" t="s">
+        <v>91</v>
+      </c>
       <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
@@ -1489,38 +1363,19 @@
       <c r="CH3"/>
       <c r="CI3"/>
       <c r="CJ3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK3"/>
-      <c r="CL3"/>
-      <c r="CM3"/>
-      <c r="CN3"/>
-      <c r="CO3"/>
-      <c r="CP3"/>
-      <c r="CQ3"/>
-      <c r="CR3"/>
-      <c r="CS3"/>
-      <c r="CT3"/>
-      <c r="CU3"/>
-      <c r="CV3"/>
-      <c r="CW3"/>
-      <c r="CX3"/>
-      <c r="CY3"/>
-      <c r="CZ3"/>
-      <c r="DA3" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -1531,7 +1386,7 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -1541,13 +1396,13 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
-      <c r="U4"/>
+      <c r="U4" t="s">
+        <v>91</v>
+      </c>
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
-      <c r="Y4" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
@@ -1571,30 +1426,32 @@
       <c r="AT4"/>
       <c r="AU4"/>
       <c r="AV4"/>
-      <c r="AW4"/>
+      <c r="AW4" t="s">
+        <v>91</v>
+      </c>
       <c r="AX4"/>
       <c r="AY4"/>
-      <c r="AZ4"/>
+      <c r="AZ4" t="s">
+        <v>91</v>
+      </c>
       <c r="BA4"/>
       <c r="BB4"/>
-      <c r="BC4" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC4"/>
       <c r="BD4"/>
       <c r="BE4"/>
       <c r="BF4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG4"/>
       <c r="BH4"/>
       <c r="BI4"/>
       <c r="BJ4"/>
       <c r="BK4"/>
-      <c r="BL4" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL4"/>
       <c r="BM4"/>
-      <c r="BN4"/>
+      <c r="BN4" t="s">
+        <v>91</v>
+      </c>
       <c r="BO4"/>
       <c r="BP4"/>
       <c r="BQ4"/>
@@ -1602,13 +1459,15 @@
       <c r="BS4"/>
       <c r="BT4"/>
       <c r="BU4"/>
-      <c r="BV4" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV4"/>
       <c r="BW4"/>
-      <c r="BX4"/>
+      <c r="BX4" t="s">
+        <v>91</v>
+      </c>
       <c r="BY4"/>
-      <c r="BZ4"/>
+      <c r="BZ4" t="s">
+        <v>91</v>
+      </c>
       <c r="CA4"/>
       <c r="CB4"/>
       <c r="CC4"/>
@@ -1619,40 +1478,19 @@
       <c r="CH4"/>
       <c r="CI4"/>
       <c r="CJ4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK4"/>
-      <c r="CL4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM4"/>
-      <c r="CN4"/>
-      <c r="CO4"/>
-      <c r="CP4"/>
-      <c r="CQ4"/>
-      <c r="CR4"/>
-      <c r="CS4"/>
-      <c r="CT4"/>
-      <c r="CU4"/>
-      <c r="CV4"/>
-      <c r="CW4"/>
-      <c r="CX4"/>
-      <c r="CY4"/>
-      <c r="CZ4"/>
-      <c r="DA4" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1663,7 +1501,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -1673,17 +1511,17 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
+      <c r="U5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" t="s">
+        <v>91</v>
+      </c>
       <c r="W5"/>
       <c r="X5"/>
-      <c r="Y5" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y5"/>
       <c r="Z5"/>
-      <c r="AA5" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -1691,64 +1529,66 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
-      <c r="AI5"/>
+      <c r="AI5" t="s">
+        <v>91</v>
+      </c>
       <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
-      <c r="AO5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP5"/>
+      <c r="AO5"/>
+      <c r="AP5" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ5"/>
       <c r="AR5"/>
       <c r="AS5"/>
       <c r="AT5"/>
       <c r="AU5"/>
-      <c r="AV5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW5"/>
+      <c r="AV5"/>
+      <c r="AW5" t="s">
+        <v>91</v>
+      </c>
       <c r="AX5"/>
       <c r="AY5"/>
-      <c r="AZ5"/>
+      <c r="AZ5" t="s">
+        <v>91</v>
+      </c>
       <c r="BA5"/>
       <c r="BB5"/>
-      <c r="BC5" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC5"/>
       <c r="BD5"/>
       <c r="BE5"/>
       <c r="BF5" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG5"/>
       <c r="BH5"/>
       <c r="BI5"/>
       <c r="BJ5"/>
       <c r="BK5"/>
-      <c r="BL5" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL5"/>
       <c r="BM5"/>
-      <c r="BN5"/>
+      <c r="BN5" t="s">
+        <v>91</v>
+      </c>
       <c r="BO5"/>
       <c r="BP5"/>
       <c r="BQ5"/>
-      <c r="BR5"/>
+      <c r="BR5" t="s">
+        <v>91</v>
+      </c>
       <c r="BS5"/>
       <c r="BT5"/>
       <c r="BU5"/>
-      <c r="BV5" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV5"/>
       <c r="BW5"/>
-      <c r="BX5"/>
+      <c r="BX5" t="s">
+        <v>91</v>
+      </c>
       <c r="BY5"/>
-      <c r="BZ5" t="s">
-        <v>77</v>
-      </c>
+      <c r="BZ5"/>
       <c r="CA5"/>
       <c r="CB5"/>
       <c r="CC5"/>
@@ -1759,42 +1599,23 @@
       <c r="CH5"/>
       <c r="CI5"/>
       <c r="CJ5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK5"/>
-      <c r="CL5"/>
-      <c r="CM5"/>
-      <c r="CN5"/>
-      <c r="CO5"/>
-      <c r="CP5"/>
-      <c r="CQ5"/>
-      <c r="CR5"/>
-      <c r="CS5"/>
-      <c r="CT5"/>
-      <c r="CU5"/>
-      <c r="CV5"/>
-      <c r="CW5"/>
-      <c r="CX5"/>
-      <c r="CY5"/>
-      <c r="CZ5"/>
-      <c r="DA5" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1803,7 +1624,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -1813,26 +1634,26 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
-      <c r="U6"/>
+      <c r="U6" t="s">
+        <v>91</v>
+      </c>
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
-      <c r="Y6" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
-      <c r="AD6"/>
+      <c r="AD6" t="s">
+        <v>91</v>
+      </c>
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
-      <c r="AJ6" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6"/>
       <c r="AM6"/>
@@ -1845,96 +1666,79 @@
       <c r="AT6"/>
       <c r="AU6"/>
       <c r="AV6"/>
-      <c r="AW6"/>
+      <c r="AW6" t="s">
+        <v>91</v>
+      </c>
       <c r="AX6"/>
       <c r="AY6"/>
-      <c r="AZ6"/>
+      <c r="AZ6" t="s">
+        <v>91</v>
+      </c>
       <c r="BA6"/>
-      <c r="BB6"/>
-      <c r="BC6" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC6"/>
       <c r="BD6"/>
       <c r="BE6"/>
       <c r="BF6" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG6"/>
-      <c r="BH6" t="s">
-        <v>59</v>
-      </c>
+      <c r="BH6"/>
       <c r="BI6"/>
       <c r="BJ6"/>
       <c r="BK6"/>
-      <c r="BL6" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL6"/>
       <c r="BM6"/>
-      <c r="BN6"/>
+      <c r="BN6" t="s">
+        <v>91</v>
+      </c>
       <c r="BO6"/>
       <c r="BP6"/>
       <c r="BQ6"/>
       <c r="BR6"/>
       <c r="BS6"/>
       <c r="BT6"/>
-      <c r="BU6"/>
-      <c r="BV6" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV6"/>
       <c r="BW6"/>
-      <c r="BX6"/>
+      <c r="BX6" t="s">
+        <v>91</v>
+      </c>
       <c r="BY6"/>
       <c r="BZ6"/>
       <c r="CA6"/>
-      <c r="CB6"/>
+      <c r="CB6" t="s">
+        <v>91</v>
+      </c>
       <c r="CC6"/>
       <c r="CD6"/>
       <c r="CE6"/>
       <c r="CF6"/>
-      <c r="CG6" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG6"/>
       <c r="CH6"/>
       <c r="CI6"/>
       <c r="CJ6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK6"/>
-      <c r="CL6"/>
-      <c r="CM6"/>
-      <c r="CN6"/>
-      <c r="CO6" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP6"/>
-      <c r="CQ6"/>
-      <c r="CR6"/>
-      <c r="CS6"/>
-      <c r="CT6"/>
-      <c r="CU6"/>
-      <c r="CV6"/>
-      <c r="CW6"/>
-      <c r="CX6"/>
-      <c r="CY6"/>
-      <c r="CZ6"/>
-      <c r="DA6" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1943,7 +1747,7 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -1952,135 +1756,118 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="T7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" t="s">
+        <v>91</v>
+      </c>
       <c r="V7"/>
       <c r="W7"/>
-      <c r="X7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>24</v>
-      </c>
+      <c r="X7"/>
+      <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7"/>
-      <c r="AD7"/>
+      <c r="AD7" t="s">
+        <v>91</v>
+      </c>
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
-      <c r="AJ7" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
+      <c r="AM7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>91</v>
+      </c>
       <c r="AO7"/>
       <c r="AP7"/>
       <c r="AQ7"/>
       <c r="AR7"/>
-      <c r="AS7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>45</v>
-      </c>
+      <c r="AS7"/>
+      <c r="AT7"/>
       <c r="AU7"/>
       <c r="AV7"/>
-      <c r="AW7"/>
+      <c r="AW7" t="s">
+        <v>91</v>
+      </c>
       <c r="AX7"/>
       <c r="AY7"/>
-      <c r="AZ7"/>
+      <c r="AZ7" t="s">
+        <v>91</v>
+      </c>
       <c r="BA7"/>
-      <c r="BB7"/>
-      <c r="BC7" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC7"/>
       <c r="BD7"/>
       <c r="BE7"/>
       <c r="BF7" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG7"/>
-      <c r="BH7" t="s">
-        <v>59</v>
-      </c>
+      <c r="BH7"/>
       <c r="BI7"/>
       <c r="BJ7"/>
       <c r="BK7"/>
-      <c r="BL7" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL7"/>
       <c r="BM7"/>
-      <c r="BN7"/>
+      <c r="BN7" t="s">
+        <v>91</v>
+      </c>
       <c r="BO7"/>
       <c r="BP7"/>
       <c r="BQ7"/>
       <c r="BR7"/>
       <c r="BS7"/>
       <c r="BT7"/>
-      <c r="BU7"/>
-      <c r="BV7" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV7"/>
       <c r="BW7"/>
-      <c r="BX7"/>
+      <c r="BX7" t="s">
+        <v>91</v>
+      </c>
       <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
-      <c r="CB7"/>
+      <c r="CB7" t="s">
+        <v>91</v>
+      </c>
       <c r="CC7"/>
       <c r="CD7"/>
       <c r="CE7"/>
       <c r="CF7"/>
-      <c r="CG7" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG7"/>
       <c r="CH7"/>
       <c r="CI7"/>
       <c r="CJ7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK7"/>
-      <c r="CL7"/>
-      <c r="CM7"/>
-      <c r="CN7"/>
-      <c r="CO7" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP7"/>
-      <c r="CQ7"/>
-      <c r="CR7"/>
-      <c r="CS7"/>
-      <c r="CT7"/>
-      <c r="CU7"/>
-      <c r="CV7"/>
-      <c r="CW7"/>
-      <c r="CX7"/>
-      <c r="CY7"/>
-      <c r="CZ7"/>
-      <c r="DA7" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -2089,7 +1876,7 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -2099,26 +1886,26 @@
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
-      <c r="U8"/>
+      <c r="U8" t="s">
+        <v>91</v>
+      </c>
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
-      <c r="Y8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
-      <c r="AD8"/>
+      <c r="AD8" t="s">
+        <v>91</v>
+      </c>
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
-      <c r="AJ8" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ8"/>
       <c r="AK8"/>
       <c r="AL8"/>
       <c r="AM8"/>
@@ -2131,96 +1918,79 @@
       <c r="AT8"/>
       <c r="AU8"/>
       <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AW8" t="s">
+        <v>91</v>
+      </c>
       <c r="AX8"/>
       <c r="AY8"/>
-      <c r="AZ8"/>
+      <c r="AZ8" t="s">
+        <v>91</v>
+      </c>
       <c r="BA8"/>
-      <c r="BB8"/>
-      <c r="BC8" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC8"/>
       <c r="BD8"/>
       <c r="BE8"/>
       <c r="BF8" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG8"/>
-      <c r="BH8" t="s">
-        <v>59</v>
-      </c>
+      <c r="BH8"/>
       <c r="BI8"/>
       <c r="BJ8"/>
       <c r="BK8"/>
-      <c r="BL8" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL8"/>
       <c r="BM8"/>
-      <c r="BN8"/>
+      <c r="BN8" t="s">
+        <v>91</v>
+      </c>
       <c r="BO8"/>
       <c r="BP8"/>
       <c r="BQ8"/>
       <c r="BR8"/>
       <c r="BS8"/>
       <c r="BT8"/>
-      <c r="BU8"/>
-      <c r="BV8" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV8"/>
       <c r="BW8"/>
-      <c r="BX8"/>
+      <c r="BX8" t="s">
+        <v>91</v>
+      </c>
       <c r="BY8"/>
       <c r="BZ8"/>
       <c r="CA8"/>
-      <c r="CB8"/>
+      <c r="CB8" t="s">
+        <v>91</v>
+      </c>
       <c r="CC8"/>
       <c r="CD8"/>
       <c r="CE8"/>
       <c r="CF8"/>
-      <c r="CG8" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG8"/>
       <c r="CH8"/>
       <c r="CI8"/>
       <c r="CJ8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK8"/>
-      <c r="CL8"/>
-      <c r="CM8"/>
-      <c r="CN8"/>
-      <c r="CO8" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP8"/>
-      <c r="CQ8"/>
-      <c r="CR8"/>
-      <c r="CS8"/>
-      <c r="CT8"/>
-      <c r="CU8"/>
-      <c r="CV8"/>
-      <c r="CW8"/>
-      <c r="CX8"/>
-      <c r="CY8"/>
-      <c r="CZ8"/>
-      <c r="DA8" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -2229,7 +1999,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -2239,26 +2009,26 @@
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
-      <c r="U9"/>
+      <c r="U9" t="s">
+        <v>91</v>
+      </c>
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
-      <c r="Y9" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
       <c r="AC9"/>
-      <c r="AD9"/>
+      <c r="AD9" t="s">
+        <v>91</v>
+      </c>
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
-      <c r="AJ9" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ9"/>
       <c r="AK9"/>
       <c r="AL9"/>
       <c r="AM9"/>
@@ -2271,96 +2041,79 @@
       <c r="AT9"/>
       <c r="AU9"/>
       <c r="AV9"/>
-      <c r="AW9"/>
+      <c r="AW9" t="s">
+        <v>91</v>
+      </c>
       <c r="AX9"/>
       <c r="AY9"/>
-      <c r="AZ9"/>
+      <c r="AZ9" t="s">
+        <v>91</v>
+      </c>
       <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC9"/>
       <c r="BD9"/>
       <c r="BE9"/>
       <c r="BF9" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG9"/>
-      <c r="BH9" t="s">
-        <v>59</v>
-      </c>
+      <c r="BH9"/>
       <c r="BI9"/>
       <c r="BJ9"/>
       <c r="BK9"/>
-      <c r="BL9" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL9"/>
       <c r="BM9"/>
-      <c r="BN9"/>
+      <c r="BN9" t="s">
+        <v>91</v>
+      </c>
       <c r="BO9"/>
       <c r="BP9"/>
       <c r="BQ9"/>
       <c r="BR9"/>
       <c r="BS9"/>
       <c r="BT9"/>
-      <c r="BU9"/>
-      <c r="BV9" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV9"/>
       <c r="BW9"/>
-      <c r="BX9"/>
+      <c r="BX9" t="s">
+        <v>91</v>
+      </c>
       <c r="BY9"/>
       <c r="BZ9"/>
       <c r="CA9"/>
-      <c r="CB9"/>
+      <c r="CB9" t="s">
+        <v>91</v>
+      </c>
       <c r="CC9"/>
       <c r="CD9"/>
-      <c r="CE9"/>
+      <c r="CE9" t="s">
+        <v>91</v>
+      </c>
       <c r="CF9"/>
-      <c r="CG9" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG9"/>
       <c r="CH9"/>
       <c r="CI9"/>
       <c r="CJ9" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK9"/>
-      <c r="CL9"/>
-      <c r="CM9"/>
-      <c r="CN9"/>
-      <c r="CO9" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP9"/>
-      <c r="CQ9"/>
-      <c r="CR9"/>
-      <c r="CS9"/>
-      <c r="CT9" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU9"/>
-      <c r="CV9"/>
-      <c r="CW9"/>
-      <c r="CX9"/>
-      <c r="CY9"/>
-      <c r="CZ9"/>
-      <c r="DA9" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB9" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -2371,25 +2124,25 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
-      <c r="Q10"/>
+      <c r="Q10" t="s">
+        <v>91</v>
+      </c>
       <c r="R10"/>
-      <c r="S10" t="s">
-        <v>18</v>
-      </c>
+      <c r="S10"/>
       <c r="T10"/>
-      <c r="U10"/>
+      <c r="U10" t="s">
+        <v>91</v>
+      </c>
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
-      <c r="Y10" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10"/>
@@ -2413,43 +2166,45 @@
       <c r="AT10"/>
       <c r="AU10"/>
       <c r="AV10"/>
-      <c r="AW10"/>
+      <c r="AW10" t="s">
+        <v>91</v>
+      </c>
       <c r="AX10"/>
       <c r="AY10"/>
-      <c r="AZ10"/>
+      <c r="AZ10" t="s">
+        <v>91</v>
+      </c>
       <c r="BA10"/>
       <c r="BB10"/>
-      <c r="BC10" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC10"/>
       <c r="BD10"/>
       <c r="BE10"/>
       <c r="BF10" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG10"/>
       <c r="BH10"/>
       <c r="BI10"/>
       <c r="BJ10"/>
       <c r="BK10"/>
-      <c r="BL10" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL10"/>
       <c r="BM10"/>
-      <c r="BN10"/>
+      <c r="BN10" t="s">
+        <v>91</v>
+      </c>
       <c r="BO10"/>
-      <c r="BP10"/>
+      <c r="BP10" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ10"/>
       <c r="BR10"/>
       <c r="BS10"/>
       <c r="BT10"/>
       <c r="BU10"/>
-      <c r="BV10" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV10"/>
       <c r="BW10"/>
       <c r="BX10" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY10"/>
       <c r="BZ10"/>
@@ -2460,44 +2215,29 @@
       <c r="CE10"/>
       <c r="CF10"/>
       <c r="CG10"/>
-      <c r="CH10"/>
+      <c r="CH10" t="s">
+        <v>91</v>
+      </c>
       <c r="CI10"/>
       <c r="CJ10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-      <c r="CQ10"/>
-      <c r="CR10"/>
-      <c r="CS10"/>
-      <c r="CT10"/>
-      <c r="CU10"/>
-      <c r="CV10"/>
-      <c r="CW10"/>
-      <c r="CX10" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY10"/>
-      <c r="CZ10"/>
-      <c r="DA10" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11"/>
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
       <c r="D11"/>
-      <c r="E11"/>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
@@ -2505,36 +2245,30 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" t="s">
-        <v>13</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-      <c r="T11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11"/>
-      <c r="V11" t="s">
-        <v>21</v>
-      </c>
+      <c r="T11"/>
+      <c r="U11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
-      <c r="Y11" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11"/>
-      <c r="AD11"/>
+      <c r="AD11" t="s">
+        <v>91</v>
+      </c>
       <c r="AE11"/>
       <c r="AF11"/>
       <c r="AG11"/>
@@ -2553,46 +2287,46 @@
       <c r="AT11"/>
       <c r="AU11"/>
       <c r="AV11"/>
-      <c r="AW11"/>
+      <c r="AW11" t="s">
+        <v>91</v>
+      </c>
       <c r="AX11"/>
       <c r="AY11"/>
-      <c r="AZ11"/>
+      <c r="AZ11" t="s">
+        <v>91</v>
+      </c>
       <c r="BA11"/>
       <c r="BB11"/>
-      <c r="BC11" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC11"/>
       <c r="BD11"/>
       <c r="BE11"/>
       <c r="BF11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>58</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="BG11"/>
       <c r="BH11"/>
       <c r="BI11"/>
       <c r="BJ11"/>
       <c r="BK11"/>
-      <c r="BL11" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11" t="s">
+        <v>91</v>
+      </c>
       <c r="BO11"/>
       <c r="BP11"/>
       <c r="BQ11"/>
       <c r="BR11"/>
       <c r="BS11"/>
       <c r="BT11"/>
-      <c r="BU11"/>
-      <c r="BV11" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV11"/>
       <c r="BW11"/>
-      <c r="BX11"/>
+      <c r="BX11" t="s">
+        <v>91</v>
+      </c>
       <c r="BY11"/>
       <c r="BZ11"/>
       <c r="CA11"/>
@@ -2605,46 +2339,23 @@
       <c r="CH11"/>
       <c r="CI11"/>
       <c r="CJ11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK11"/>
-      <c r="CL11"/>
-      <c r="CM11" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN11"/>
-      <c r="CO11"/>
-      <c r="CP11"/>
-      <c r="CQ11"/>
-      <c r="CR11"/>
-      <c r="CS11"/>
-      <c r="CT11"/>
-      <c r="CU11"/>
-      <c r="CV11"/>
-      <c r="CW11"/>
-      <c r="CX11"/>
-      <c r="CY11" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ11"/>
-      <c r="DA11" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -2653,7 +2364,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -2663,26 +2374,26 @@
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
-      <c r="U12"/>
+      <c r="U12" t="s">
+        <v>91</v>
+      </c>
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
-      <c r="Y12" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
-      <c r="AD12"/>
+      <c r="AD12" t="s">
+        <v>91</v>
+      </c>
       <c r="AE12"/>
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
       <c r="AI12"/>
-      <c r="AJ12" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ12"/>
       <c r="AK12"/>
       <c r="AL12"/>
       <c r="AM12"/>
@@ -2695,42 +2406,46 @@
       <c r="AT12"/>
       <c r="AU12"/>
       <c r="AV12"/>
-      <c r="AW12"/>
+      <c r="AW12" t="s">
+        <v>91</v>
+      </c>
       <c r="AX12"/>
       <c r="AY12"/>
-      <c r="AZ12"/>
+      <c r="AZ12" t="s">
+        <v>91</v>
+      </c>
       <c r="BA12"/>
       <c r="BB12"/>
-      <c r="BC12" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC12"/>
       <c r="BD12"/>
       <c r="BE12"/>
       <c r="BF12" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG12"/>
       <c r="BH12"/>
       <c r="BI12"/>
       <c r="BJ12"/>
       <c r="BK12"/>
-      <c r="BL12" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL12"/>
       <c r="BM12"/>
-      <c r="BN12"/>
+      <c r="BN12" t="s">
+        <v>91</v>
+      </c>
       <c r="BO12"/>
       <c r="BP12"/>
       <c r="BQ12"/>
       <c r="BR12"/>
       <c r="BS12"/>
       <c r="BT12"/>
-      <c r="BU12"/>
-      <c r="BV12" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV12"/>
       <c r="BW12"/>
-      <c r="BX12"/>
+      <c r="BX12" t="s">
+        <v>91</v>
+      </c>
       <c r="BY12"/>
       <c r="BZ12"/>
       <c r="CA12"/>
@@ -2739,48 +2454,27 @@
       <c r="CD12"/>
       <c r="CE12"/>
       <c r="CF12"/>
-      <c r="CG12" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG12"/>
       <c r="CH12"/>
       <c r="CI12"/>
       <c r="CJ12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK12"/>
-      <c r="CL12"/>
-      <c r="CM12"/>
-      <c r="CN12"/>
-      <c r="CO12"/>
-      <c r="CP12"/>
-      <c r="CQ12"/>
-      <c r="CR12"/>
-      <c r="CS12"/>
-      <c r="CT12"/>
-      <c r="CU12"/>
-      <c r="CV12"/>
-      <c r="CW12"/>
-      <c r="CX12"/>
-      <c r="CY12"/>
-      <c r="CZ12"/>
-      <c r="DA12" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -2789,7 +2483,7 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -2799,25 +2493,27 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
-      <c r="U13"/>
+      <c r="U13" t="s">
+        <v>91</v>
+      </c>
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
-      <c r="Y13" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
       <c r="AB13"/>
       <c r="AC13"/>
-      <c r="AD13"/>
+      <c r="AD13" t="s">
+        <v>91</v>
+      </c>
       <c r="AE13"/>
       <c r="AF13"/>
       <c r="AG13"/>
       <c r="AH13"/>
       <c r="AI13"/>
       <c r="AJ13" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="AK13"/>
       <c r="AL13"/>
@@ -2831,42 +2527,46 @@
       <c r="AT13"/>
       <c r="AU13"/>
       <c r="AV13"/>
-      <c r="AW13"/>
+      <c r="AW13" t="s">
+        <v>91</v>
+      </c>
       <c r="AX13"/>
       <c r="AY13"/>
-      <c r="AZ13"/>
+      <c r="AZ13" t="s">
+        <v>91</v>
+      </c>
       <c r="BA13"/>
       <c r="BB13"/>
-      <c r="BC13" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC13"/>
       <c r="BD13"/>
       <c r="BE13"/>
       <c r="BF13" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG13"/>
       <c r="BH13"/>
       <c r="BI13"/>
       <c r="BJ13"/>
       <c r="BK13"/>
-      <c r="BL13" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL13"/>
       <c r="BM13"/>
-      <c r="BN13"/>
+      <c r="BN13" t="s">
+        <v>91</v>
+      </c>
       <c r="BO13"/>
       <c r="BP13"/>
       <c r="BQ13"/>
       <c r="BR13"/>
       <c r="BS13"/>
       <c r="BT13"/>
-      <c r="BU13"/>
-      <c r="BV13" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV13"/>
       <c r="BW13"/>
-      <c r="BX13"/>
+      <c r="BX13" t="s">
+        <v>91</v>
+      </c>
       <c r="BY13"/>
       <c r="BZ13"/>
       <c r="CA13"/>
@@ -2875,57 +2575,36 @@
       <c r="CD13"/>
       <c r="CE13"/>
       <c r="CF13"/>
-      <c r="CG13" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG13"/>
       <c r="CH13"/>
       <c r="CI13"/>
       <c r="CJ13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK13"/>
-      <c r="CL13"/>
-      <c r="CM13"/>
-      <c r="CN13"/>
-      <c r="CO13"/>
-      <c r="CP13"/>
-      <c r="CQ13"/>
-      <c r="CR13"/>
-      <c r="CS13"/>
-      <c r="CT13"/>
-      <c r="CU13"/>
-      <c r="CV13"/>
-      <c r="CW13"/>
-      <c r="CX13"/>
-      <c r="CY13"/>
-      <c r="CZ13"/>
-      <c r="DA13" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14"/>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
       <c r="G14"/>
-      <c r="H14"/>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -2935,13 +2614,13 @@
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
-      <c r="U14"/>
+      <c r="U14" t="s">
+        <v>91</v>
+      </c>
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
-      <c r="Y14" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
       <c r="AB14"/>
@@ -2952,47 +2631,53 @@
       <c r="AG14"/>
       <c r="AH14"/>
       <c r="AI14"/>
-      <c r="AJ14" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ14"/>
       <c r="AK14"/>
       <c r="AL14"/>
       <c r="AM14"/>
       <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14" t="s">
-        <v>41</v>
-      </c>
+      <c r="AO14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP14"/>
       <c r="AQ14"/>
       <c r="AR14"/>
       <c r="AS14"/>
       <c r="AT14"/>
       <c r="AU14"/>
       <c r="AV14"/>
-      <c r="AW14"/>
+      <c r="AW14" t="s">
+        <v>91</v>
+      </c>
       <c r="AX14"/>
       <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="BA14"/>
+      <c r="AZ14" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>91</v>
+      </c>
       <c r="BB14"/>
-      <c r="BC14" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD14"/>
+      <c r="BC14"/>
+      <c r="BD14" t="s">
+        <v>91</v>
+      </c>
       <c r="BE14"/>
       <c r="BF14" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG14"/>
+        <v>91</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>91</v>
+      </c>
       <c r="BH14"/>
       <c r="BI14"/>
       <c r="BJ14"/>
       <c r="BK14"/>
-      <c r="BL14" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL14"/>
       <c r="BM14"/>
-      <c r="BN14"/>
+      <c r="BN14" t="s">
+        <v>91</v>
+      </c>
       <c r="BO14"/>
       <c r="BP14"/>
       <c r="BQ14"/>
@@ -3000,11 +2685,11 @@
       <c r="BS14"/>
       <c r="BT14"/>
       <c r="BU14"/>
-      <c r="BV14" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV14"/>
       <c r="BW14"/>
-      <c r="BX14"/>
+      <c r="BX14" t="s">
+        <v>91</v>
+      </c>
       <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
@@ -3013,57 +2698,34 @@
       <c r="CD14"/>
       <c r="CE14"/>
       <c r="CF14"/>
-      <c r="CG14" t="s">
-        <v>84</v>
-      </c>
+      <c r="CG14"/>
       <c r="CH14"/>
       <c r="CI14"/>
       <c r="CJ14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK14"/>
-      <c r="CL14"/>
-      <c r="CM14"/>
-      <c r="CN14"/>
-      <c r="CO14"/>
-      <c r="CP14"/>
-      <c r="CQ14"/>
-      <c r="CR14"/>
-      <c r="CS14"/>
-      <c r="CT14"/>
-      <c r="CU14"/>
-      <c r="CV14"/>
-      <c r="CW14"/>
-      <c r="CX14"/>
-      <c r="CY14"/>
-      <c r="CZ14"/>
-      <c r="DA14" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15"/>
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" t="s">
-        <v>5</v>
-      </c>
+      <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
+      <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
@@ -3073,13 +2735,13 @@
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
-      <c r="U15"/>
+      <c r="U15" t="s">
+        <v>91</v>
+      </c>
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
-      <c r="Y15" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
       <c r="AB15"/>
@@ -3088,7 +2750,9 @@
       <c r="AE15"/>
       <c r="AF15"/>
       <c r="AG15"/>
-      <c r="AH15"/>
+      <c r="AH15" t="s">
+        <v>91</v>
+      </c>
       <c r="AI15"/>
       <c r="AJ15"/>
       <c r="AK15"/>
@@ -3101,39 +2765,35 @@
       <c r="AR15"/>
       <c r="AS15"/>
       <c r="AT15"/>
-      <c r="AU15" t="s">
-        <v>46</v>
-      </c>
+      <c r="AU15"/>
       <c r="AV15"/>
-      <c r="AW15"/>
+      <c r="AW15" t="s">
+        <v>91</v>
+      </c>
       <c r="AX15"/>
       <c r="AY15"/>
-      <c r="AZ15"/>
+      <c r="AZ15" t="s">
+        <v>91</v>
+      </c>
       <c r="BA15"/>
       <c r="BB15"/>
-      <c r="BC15" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC15"/>
       <c r="BD15"/>
       <c r="BE15"/>
       <c r="BF15" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>58</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="BG15"/>
       <c r="BH15"/>
       <c r="BI15"/>
-      <c r="BJ15" t="s">
-        <v>61</v>
-      </c>
+      <c r="BJ15"/>
       <c r="BK15"/>
-      <c r="BL15" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM15"/>
+      <c r="BL15"/>
+      <c r="BM15" t="s">
+        <v>91</v>
+      </c>
       <c r="BN15" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BO15"/>
       <c r="BP15"/>
@@ -3142,11 +2802,11 @@
       <c r="BS15"/>
       <c r="BT15"/>
       <c r="BU15"/>
-      <c r="BV15" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV15"/>
       <c r="BW15"/>
-      <c r="BX15"/>
+      <c r="BX15" t="s">
+        <v>91</v>
+      </c>
       <c r="BY15"/>
       <c r="BZ15"/>
       <c r="CA15"/>
@@ -3159,38 +2819,19 @@
       <c r="CH15"/>
       <c r="CI15"/>
       <c r="CJ15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK15"/>
-      <c r="CL15"/>
-      <c r="CM15"/>
-      <c r="CN15"/>
-      <c r="CO15"/>
-      <c r="CP15"/>
-      <c r="CQ15"/>
-      <c r="CR15"/>
-      <c r="CS15"/>
-      <c r="CT15"/>
-      <c r="CU15"/>
-      <c r="CV15"/>
-      <c r="CW15"/>
-      <c r="CX15"/>
-      <c r="CY15"/>
-      <c r="CZ15"/>
-      <c r="DA15" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -3201,7 +2842,7 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -3211,17 +2852,23 @@
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
+      <c r="U16" t="s">
+        <v>91</v>
+      </c>
+      <c r="V16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16" t="s">
+        <v>91</v>
+      </c>
       <c r="X16"/>
-      <c r="Y16" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
-      <c r="AC16"/>
+      <c r="AC16" t="s">
+        <v>91</v>
+      </c>
       <c r="AD16"/>
       <c r="AE16"/>
       <c r="AF16"/>
@@ -3232,9 +2879,7 @@
       <c r="AK16"/>
       <c r="AL16"/>
       <c r="AM16"/>
-      <c r="AN16" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN16"/>
       <c r="AO16"/>
       <c r="AP16"/>
       <c r="AQ16"/>
@@ -3242,45 +2887,49 @@
       <c r="AS16"/>
       <c r="AT16"/>
       <c r="AU16"/>
-      <c r="AV16"/>
-      <c r="AW16"/>
+      <c r="AV16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>91</v>
+      </c>
       <c r="AX16"/>
-      <c r="AY16"/>
-      <c r="AZ16"/>
+      <c r="AY16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>91</v>
+      </c>
       <c r="BA16"/>
       <c r="BB16"/>
-      <c r="BC16" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC16"/>
       <c r="BD16"/>
       <c r="BE16"/>
       <c r="BF16" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG16"/>
       <c r="BH16"/>
       <c r="BI16"/>
       <c r="BJ16"/>
       <c r="BK16"/>
-      <c r="BL16" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL16"/>
       <c r="BM16"/>
-      <c r="BN16"/>
+      <c r="BN16" t="s">
+        <v>91</v>
+      </c>
       <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
       <c r="BR16"/>
       <c r="BS16"/>
       <c r="BT16"/>
-      <c r="BU16" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU16"/>
+      <c r="BV16"/>
       <c r="BW16"/>
-      <c r="BX16"/>
+      <c r="BX16" t="s">
+        <v>91</v>
+      </c>
       <c r="BY16"/>
       <c r="BZ16"/>
       <c r="CA16"/>
@@ -3289,42 +2938,25 @@
       <c r="CD16"/>
       <c r="CE16"/>
       <c r="CF16"/>
-      <c r="CG16"/>
+      <c r="CG16" t="s">
+        <v>91</v>
+      </c>
       <c r="CH16"/>
       <c r="CI16"/>
       <c r="CJ16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK16"/>
-      <c r="CL16"/>
-      <c r="CM16"/>
-      <c r="CN16"/>
-      <c r="CO16"/>
-      <c r="CP16"/>
-      <c r="CQ16"/>
-      <c r="CR16"/>
-      <c r="CS16"/>
-      <c r="CT16"/>
-      <c r="CU16"/>
-      <c r="CV16"/>
-      <c r="CW16"/>
-      <c r="CX16"/>
-      <c r="CY16"/>
-      <c r="CZ16"/>
-      <c r="DA16" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -3335,7 +2967,7 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -3345,70 +2977,68 @@
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
+      <c r="U17" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" t="s">
+        <v>91</v>
+      </c>
       <c r="W17"/>
       <c r="X17"/>
-      <c r="Y17" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y17"/>
       <c r="Z17"/>
-      <c r="AA17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA17"/>
+      <c r="AB17"/>
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
-      <c r="AI17" t="s">
-        <v>34</v>
-      </c>
+      <c r="AI17"/>
       <c r="AJ17"/>
       <c r="AK17"/>
       <c r="AL17"/>
       <c r="AM17"/>
       <c r="AN17"/>
       <c r="AO17"/>
-      <c r="AP17"/>
+      <c r="AP17" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ17"/>
       <c r="AR17"/>
       <c r="AS17"/>
       <c r="AT17"/>
       <c r="AU17"/>
       <c r="AV17"/>
-      <c r="AW17"/>
+      <c r="AW17" t="s">
+        <v>91</v>
+      </c>
       <c r="AX17"/>
-      <c r="AY17"/>
-      <c r="AZ17"/>
+      <c r="AY17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>91</v>
+      </c>
       <c r="BA17"/>
-      <c r="BB17" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB17"/>
+      <c r="BC17"/>
       <c r="BD17"/>
-      <c r="BE17" t="s">
-        <v>56</v>
-      </c>
+      <c r="BE17"/>
       <c r="BF17" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG17"/>
       <c r="BH17"/>
       <c r="BI17"/>
       <c r="BJ17"/>
       <c r="BK17"/>
-      <c r="BL17" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL17"/>
       <c r="BM17"/>
-      <c r="BN17"/>
+      <c r="BN17" t="s">
+        <v>91</v>
+      </c>
       <c r="BO17"/>
       <c r="BP17"/>
       <c r="BQ17"/>
@@ -3416,11 +3046,11 @@
       <c r="BS17"/>
       <c r="BT17"/>
       <c r="BU17"/>
-      <c r="BV17" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV17"/>
       <c r="BW17"/>
-      <c r="BX17"/>
+      <c r="BX17" t="s">
+        <v>91</v>
+      </c>
       <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
@@ -3429,44 +3059,25 @@
       <c r="CD17"/>
       <c r="CE17"/>
       <c r="CF17"/>
-      <c r="CG17"/>
+      <c r="CG17" t="s">
+        <v>91</v>
+      </c>
       <c r="CH17"/>
       <c r="CI17"/>
       <c r="CJ17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK17"/>
-      <c r="CL17"/>
-      <c r="CM17"/>
-      <c r="CN17"/>
-      <c r="CO17"/>
-      <c r="CP17"/>
-      <c r="CQ17"/>
-      <c r="CR17"/>
-      <c r="CS17"/>
-      <c r="CT17"/>
-      <c r="CU17"/>
-      <c r="CV17" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW17"/>
-      <c r="CX17"/>
-      <c r="CY17"/>
-      <c r="CZ17"/>
-      <c r="DA17" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -3477,7 +3088,7 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -3487,17 +3098,17 @@
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
+      <c r="U18" t="s">
+        <v>91</v>
+      </c>
+      <c r="V18" t="s">
+        <v>91</v>
+      </c>
       <c r="W18"/>
       <c r="X18"/>
-      <c r="Y18" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y18"/>
       <c r="Z18"/>
-      <c r="AA18" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA18"/>
       <c r="AB18"/>
       <c r="AC18"/>
       <c r="AD18"/>
@@ -3512,41 +3123,43 @@
       <c r="AM18"/>
       <c r="AN18"/>
       <c r="AO18"/>
-      <c r="AP18"/>
+      <c r="AP18" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ18"/>
       <c r="AR18"/>
       <c r="AS18"/>
       <c r="AT18"/>
       <c r="AU18"/>
-      <c r="AV18" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW18"/>
+      <c r="AV18"/>
+      <c r="AW18" t="s">
+        <v>91</v>
+      </c>
       <c r="AX18"/>
-      <c r="AY18"/>
-      <c r="AZ18"/>
+      <c r="AY18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>91</v>
+      </c>
       <c r="BA18"/>
       <c r="BB18"/>
-      <c r="BC18" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC18"/>
       <c r="BD18"/>
-      <c r="BE18" t="s">
-        <v>56</v>
-      </c>
+      <c r="BE18"/>
       <c r="BF18" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG18"/>
       <c r="BH18"/>
       <c r="BI18"/>
       <c r="BJ18"/>
       <c r="BK18"/>
-      <c r="BL18" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL18"/>
       <c r="BM18"/>
-      <c r="BN18"/>
+      <c r="BN18" t="s">
+        <v>91</v>
+      </c>
       <c r="BO18"/>
       <c r="BP18"/>
       <c r="BQ18"/>
@@ -3554,11 +3167,11 @@
       <c r="BS18"/>
       <c r="BT18"/>
       <c r="BU18"/>
-      <c r="BV18" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV18"/>
       <c r="BW18"/>
-      <c r="BX18"/>
+      <c r="BX18" t="s">
+        <v>91</v>
+      </c>
       <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
@@ -3567,44 +3180,25 @@
       <c r="CD18"/>
       <c r="CE18"/>
       <c r="CF18"/>
-      <c r="CG18"/>
+      <c r="CG18" t="s">
+        <v>91</v>
+      </c>
       <c r="CH18"/>
       <c r="CI18"/>
       <c r="CJ18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK18"/>
-      <c r="CL18"/>
-      <c r="CM18"/>
-      <c r="CN18"/>
-      <c r="CO18"/>
-      <c r="CP18"/>
-      <c r="CQ18"/>
-      <c r="CR18"/>
-      <c r="CS18"/>
-      <c r="CT18"/>
-      <c r="CU18"/>
-      <c r="CV18" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW18"/>
-      <c r="CX18"/>
-      <c r="CY18"/>
-      <c r="CZ18"/>
-      <c r="DA18" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -3615,7 +3209,7 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M19"/>
       <c r="N19"/>
@@ -3625,17 +3219,17 @@
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
+      <c r="U19" t="s">
+        <v>91</v>
+      </c>
+      <c r="V19" t="s">
+        <v>91</v>
+      </c>
       <c r="W19"/>
       <c r="X19"/>
-      <c r="Y19" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y19"/>
       <c r="Z19"/>
-      <c r="AA19" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA19"/>
       <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19"/>
@@ -3650,41 +3244,43 @@
       <c r="AM19"/>
       <c r="AN19"/>
       <c r="AO19"/>
-      <c r="AP19"/>
+      <c r="AP19" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ19"/>
       <c r="AR19"/>
       <c r="AS19"/>
       <c r="AT19"/>
       <c r="AU19"/>
-      <c r="AV19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW19"/>
+      <c r="AV19"/>
+      <c r="AW19" t="s">
+        <v>91</v>
+      </c>
       <c r="AX19"/>
-      <c r="AY19"/>
-      <c r="AZ19"/>
+      <c r="AY19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>91</v>
+      </c>
       <c r="BA19"/>
       <c r="BB19"/>
-      <c r="BC19" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC19"/>
       <c r="BD19"/>
-      <c r="BE19" t="s">
-        <v>56</v>
-      </c>
+      <c r="BE19"/>
       <c r="BF19" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG19"/>
       <c r="BH19"/>
       <c r="BI19"/>
       <c r="BJ19"/>
       <c r="BK19"/>
-      <c r="BL19" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL19"/>
       <c r="BM19"/>
-      <c r="BN19"/>
+      <c r="BN19" t="s">
+        <v>91</v>
+      </c>
       <c r="BO19"/>
       <c r="BP19"/>
       <c r="BQ19"/>
@@ -3692,11 +3288,11 @@
       <c r="BS19"/>
       <c r="BT19"/>
       <c r="BU19"/>
-      <c r="BV19" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV19"/>
       <c r="BW19"/>
-      <c r="BX19"/>
+      <c r="BX19" t="s">
+        <v>91</v>
+      </c>
       <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
@@ -3705,44 +3301,25 @@
       <c r="CD19"/>
       <c r="CE19"/>
       <c r="CF19"/>
-      <c r="CG19"/>
+      <c r="CG19" t="s">
+        <v>91</v>
+      </c>
       <c r="CH19"/>
       <c r="CI19"/>
       <c r="CJ19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK19"/>
-      <c r="CL19"/>
-      <c r="CM19"/>
-      <c r="CN19"/>
-      <c r="CO19"/>
-      <c r="CP19"/>
-      <c r="CQ19"/>
-      <c r="CR19"/>
-      <c r="CS19"/>
-      <c r="CT19"/>
-      <c r="CU19"/>
-      <c r="CV19" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW19"/>
-      <c r="CX19"/>
-      <c r="CY19"/>
-      <c r="CZ19"/>
-      <c r="DA19" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -3753,7 +3330,7 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -3763,17 +3340,17 @@
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
+      <c r="U20" t="s">
+        <v>91</v>
+      </c>
+      <c r="V20" t="s">
+        <v>91</v>
+      </c>
       <c r="W20"/>
       <c r="X20"/>
-      <c r="Y20" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y20"/>
       <c r="Z20"/>
-      <c r="AA20" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA20"/>
       <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20"/>
@@ -3788,41 +3365,43 @@
       <c r="AM20"/>
       <c r="AN20"/>
       <c r="AO20"/>
-      <c r="AP20"/>
+      <c r="AP20" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ20"/>
       <c r="AR20"/>
       <c r="AS20"/>
       <c r="AT20"/>
       <c r="AU20"/>
-      <c r="AV20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW20"/>
+      <c r="AV20"/>
+      <c r="AW20" t="s">
+        <v>91</v>
+      </c>
       <c r="AX20"/>
-      <c r="AY20"/>
-      <c r="AZ20"/>
+      <c r="AY20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>91</v>
+      </c>
       <c r="BA20"/>
       <c r="BB20"/>
-      <c r="BC20" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC20"/>
       <c r="BD20"/>
-      <c r="BE20" t="s">
-        <v>56</v>
-      </c>
+      <c r="BE20"/>
       <c r="BF20" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG20"/>
       <c r="BH20"/>
       <c r="BI20"/>
       <c r="BJ20"/>
       <c r="BK20"/>
-      <c r="BL20" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL20"/>
       <c r="BM20"/>
-      <c r="BN20"/>
+      <c r="BN20" t="s">
+        <v>91</v>
+      </c>
       <c r="BO20"/>
       <c r="BP20"/>
       <c r="BQ20"/>
@@ -3830,11 +3409,11 @@
       <c r="BS20"/>
       <c r="BT20"/>
       <c r="BU20"/>
-      <c r="BV20" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV20"/>
       <c r="BW20"/>
-      <c r="BX20"/>
+      <c r="BX20" t="s">
+        <v>91</v>
+      </c>
       <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
@@ -3843,44 +3422,25 @@
       <c r="CD20"/>
       <c r="CE20"/>
       <c r="CF20"/>
-      <c r="CG20"/>
+      <c r="CG20" t="s">
+        <v>91</v>
+      </c>
       <c r="CH20"/>
       <c r="CI20"/>
       <c r="CJ20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK20"/>
-      <c r="CL20"/>
-      <c r="CM20"/>
-      <c r="CN20"/>
-      <c r="CO20"/>
-      <c r="CP20"/>
-      <c r="CQ20"/>
-      <c r="CR20"/>
-      <c r="CS20"/>
-      <c r="CT20"/>
-      <c r="CU20"/>
-      <c r="CV20" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW20"/>
-      <c r="CX20"/>
-      <c r="CY20"/>
-      <c r="CZ20"/>
-      <c r="DA20" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3891,7 +3451,7 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M21"/>
       <c r="N21"/>
@@ -3901,17 +3461,15 @@
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
-      <c r="U21"/>
+      <c r="U21" t="s">
+        <v>91</v>
+      </c>
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
-      <c r="Y21" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y21"/>
       <c r="Z21"/>
-      <c r="AA21" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA21"/>
       <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21"/>
@@ -3932,35 +3490,35 @@
       <c r="AS21"/>
       <c r="AT21"/>
       <c r="AU21"/>
-      <c r="AV21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW21"/>
-      <c r="AX21"/>
+      <c r="AV21"/>
+      <c r="AW21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>91</v>
+      </c>
       <c r="AY21"/>
-      <c r="AZ21"/>
+      <c r="AZ21" t="s">
+        <v>91</v>
+      </c>
       <c r="BA21"/>
       <c r="BB21"/>
-      <c r="BC21" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC21"/>
       <c r="BD21"/>
-      <c r="BE21" t="s">
-        <v>56</v>
-      </c>
+      <c r="BE21"/>
       <c r="BF21" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG21"/>
       <c r="BH21"/>
       <c r="BI21"/>
       <c r="BJ21"/>
       <c r="BK21"/>
-      <c r="BL21" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL21"/>
       <c r="BM21"/>
-      <c r="BN21"/>
+      <c r="BN21" t="s">
+        <v>91</v>
+      </c>
       <c r="BO21"/>
       <c r="BP21"/>
       <c r="BQ21"/>
@@ -3968,11 +3526,11 @@
       <c r="BS21"/>
       <c r="BT21"/>
       <c r="BU21"/>
-      <c r="BV21" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV21"/>
       <c r="BW21"/>
-      <c r="BX21"/>
+      <c r="BX21" t="s">
+        <v>91</v>
+      </c>
       <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
@@ -3985,39 +3543,20 @@
       <c r="CH21"/>
       <c r="CI21"/>
       <c r="CJ21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK21"/>
-      <c r="CL21"/>
-      <c r="CM21"/>
-      <c r="CN21"/>
-      <c r="CO21"/>
-      <c r="CP21"/>
-      <c r="CQ21"/>
-      <c r="CR21"/>
-      <c r="CS21"/>
-      <c r="CT21"/>
-      <c r="CU21"/>
-      <c r="CV21" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW21"/>
-      <c r="CX21"/>
-      <c r="CY21"/>
-      <c r="CZ21"/>
-      <c r="DA21" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22"/>
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4026,34 +3565,36 @@
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22"/>
+      <c r="L22" t="s">
+        <v>91</v>
+      </c>
       <c r="M22"/>
-      <c r="N22"/>
+      <c r="N22" t="s">
+        <v>91</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22"/>
+      <c r="Q22" t="s">
+        <v>91</v>
+      </c>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
-      <c r="U22"/>
+      <c r="U22" t="s">
+        <v>91</v>
+      </c>
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
-      <c r="Y22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>25</v>
-      </c>
+      <c r="Y22"/>
+      <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
       <c r="AF22"/>
-      <c r="AG22" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
@@ -4069,19 +3610,21 @@
       <c r="AT22"/>
       <c r="AU22"/>
       <c r="AV22"/>
-      <c r="AW22"/>
+      <c r="AW22" t="s">
+        <v>91</v>
+      </c>
       <c r="AX22"/>
       <c r="AY22"/>
-      <c r="AZ22"/>
+      <c r="AZ22" t="s">
+        <v>91</v>
+      </c>
       <c r="BA22"/>
       <c r="BB22"/>
-      <c r="BC22" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC22"/>
       <c r="BD22"/>
       <c r="BE22"/>
       <c r="BF22" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG22"/>
       <c r="BH22"/>
@@ -4090,77 +3633,48 @@
       <c r="BK22"/>
       <c r="BL22"/>
       <c r="BM22"/>
-      <c r="BN22"/>
+      <c r="BN22" t="s">
+        <v>91</v>
+      </c>
       <c r="BO22"/>
-      <c r="BP22"/>
-      <c r="BQ22" t="s">
-        <v>68</v>
-      </c>
+      <c r="BP22" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ22"/>
       <c r="BR22"/>
       <c r="BS22"/>
       <c r="BT22"/>
       <c r="BU22"/>
-      <c r="BV22" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV22"/>
       <c r="BW22"/>
-      <c r="BX22"/>
+      <c r="BX22" t="s">
+        <v>91</v>
+      </c>
       <c r="BY22"/>
       <c r="BZ22"/>
-      <c r="CA22" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB22" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC22" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD22" t="s">
-        <v>81</v>
-      </c>
+      <c r="CA22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
+      <c r="CD22"/>
       <c r="CE22"/>
       <c r="CF22"/>
       <c r="CG22"/>
       <c r="CH22"/>
       <c r="CI22"/>
-      <c r="CJ22"/>
+      <c r="CJ22" t="s">
+        <v>91</v>
+      </c>
       <c r="CK22"/>
-      <c r="CL22"/>
-      <c r="CM22"/>
-      <c r="CN22"/>
-      <c r="CO22"/>
-      <c r="CP22" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ22"/>
-      <c r="CR22" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS22"/>
-      <c r="CT22"/>
-      <c r="CU22"/>
-      <c r="CV22"/>
-      <c r="CW22" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX22"/>
-      <c r="CY22"/>
-      <c r="CZ22"/>
-      <c r="DA22" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -4171,23 +3685,29 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M23"/>
-      <c r="N23"/>
+      <c r="N23" t="s">
+        <v>91</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
+      <c r="Q23" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" t="s">
+        <v>91</v>
+      </c>
       <c r="S23"/>
       <c r="T23"/>
-      <c r="U23"/>
+      <c r="U23" t="s">
+        <v>91</v>
+      </c>
       <c r="V23"/>
       <c r="W23"/>
       <c r="X23"/>
-      <c r="Y23" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23"/>
@@ -4200,7 +3720,9 @@
       <c r="AI23"/>
       <c r="AJ23"/>
       <c r="AK23"/>
-      <c r="AL23"/>
+      <c r="AL23" t="s">
+        <v>91</v>
+      </c>
       <c r="AM23"/>
       <c r="AN23"/>
       <c r="AO23"/>
@@ -4211,44 +3733,46 @@
       <c r="AT23"/>
       <c r="AU23"/>
       <c r="AV23"/>
-      <c r="AW23"/>
+      <c r="AW23" t="s">
+        <v>91</v>
+      </c>
       <c r="AX23"/>
       <c r="AY23"/>
-      <c r="AZ23"/>
+      <c r="AZ23" t="s">
+        <v>91</v>
+      </c>
       <c r="BA23"/>
       <c r="BB23"/>
-      <c r="BC23" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>55</v>
-      </c>
+      <c r="BC23"/>
+      <c r="BD23"/>
       <c r="BE23"/>
       <c r="BF23" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG23"/>
       <c r="BH23"/>
       <c r="BI23"/>
       <c r="BJ23"/>
       <c r="BK23"/>
-      <c r="BL23" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL23"/>
       <c r="BM23"/>
-      <c r="BN23"/>
+      <c r="BN23" t="s">
+        <v>91</v>
+      </c>
       <c r="BO23"/>
-      <c r="BP23"/>
+      <c r="BP23" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ23"/>
       <c r="BR23"/>
       <c r="BS23"/>
       <c r="BT23"/>
       <c r="BU23"/>
-      <c r="BV23" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV23"/>
       <c r="BW23"/>
-      <c r="BX23"/>
+      <c r="BX23" t="s">
+        <v>91</v>
+      </c>
       <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
@@ -4259,40 +3783,23 @@
       <c r="CF23"/>
       <c r="CG23"/>
       <c r="CH23"/>
-      <c r="CI23"/>
+      <c r="CI23" t="s">
+        <v>91</v>
+      </c>
       <c r="CJ23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK23"/>
-      <c r="CL23"/>
-      <c r="CM23"/>
-      <c r="CN23"/>
-      <c r="CO23"/>
-      <c r="CP23"/>
-      <c r="CQ23"/>
-      <c r="CR23"/>
-      <c r="CS23"/>
-      <c r="CT23"/>
-      <c r="CU23"/>
-      <c r="CV23"/>
-      <c r="CW23"/>
-      <c r="CX23"/>
-      <c r="CY23"/>
-      <c r="CZ23"/>
-      <c r="DA23" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -4303,27 +3810,23 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24" t="s">
-        <v>15</v>
-      </c>
+      <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
-      <c r="S24" t="s">
-        <v>18</v>
-      </c>
+      <c r="S24"/>
       <c r="T24"/>
-      <c r="U24"/>
+      <c r="U24" t="s">
+        <v>91</v>
+      </c>
       <c r="V24"/>
       <c r="W24"/>
       <c r="X24"/>
-      <c r="Y24" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
       <c r="AB24"/>
@@ -4347,30 +3850,32 @@
       <c r="AT24"/>
       <c r="AU24"/>
       <c r="AV24"/>
-      <c r="AW24"/>
+      <c r="AW24" t="s">
+        <v>91</v>
+      </c>
       <c r="AX24"/>
       <c r="AY24"/>
-      <c r="AZ24"/>
+      <c r="AZ24" t="s">
+        <v>91</v>
+      </c>
       <c r="BA24"/>
       <c r="BB24"/>
-      <c r="BC24" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC24"/>
       <c r="BD24"/>
       <c r="BE24"/>
       <c r="BF24" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG24"/>
       <c r="BH24"/>
       <c r="BI24"/>
       <c r="BJ24"/>
       <c r="BK24"/>
-      <c r="BL24" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL24"/>
       <c r="BM24"/>
-      <c r="BN24"/>
+      <c r="BN24" t="s">
+        <v>91</v>
+      </c>
       <c r="BO24"/>
       <c r="BP24"/>
       <c r="BQ24"/>
@@ -4378,12 +3883,10 @@
       <c r="BS24"/>
       <c r="BT24"/>
       <c r="BU24"/>
-      <c r="BV24" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV24"/>
       <c r="BW24"/>
       <c r="BX24" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY24"/>
       <c r="BZ24"/>
@@ -4397,38 +3900,19 @@
       <c r="CH24"/>
       <c r="CI24"/>
       <c r="CJ24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK24"/>
-      <c r="CL24"/>
-      <c r="CM24"/>
-      <c r="CN24"/>
-      <c r="CO24"/>
-      <c r="CP24"/>
-      <c r="CQ24"/>
-      <c r="CR24"/>
-      <c r="CS24"/>
-      <c r="CT24"/>
-      <c r="CU24"/>
-      <c r="CV24"/>
-      <c r="CW24"/>
-      <c r="CX24"/>
-      <c r="CY24"/>
-      <c r="CZ24"/>
-      <c r="DA24" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -4439,29 +3923,27 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M25"/>
-      <c r="N25"/>
+      <c r="N25" t="s">
+        <v>91</v>
+      </c>
       <c r="O25"/>
-      <c r="P25" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q25"/>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>91</v>
+      </c>
       <c r="R25"/>
-      <c r="S25" t="s">
-        <v>18</v>
-      </c>
+      <c r="S25"/>
       <c r="T25"/>
       <c r="U25" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25"/>
-      <c r="Y25" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y25"/>
       <c r="Z25"/>
       <c r="AA25"/>
       <c r="AB25"/>
@@ -4480,50 +3962,50 @@
       <c r="AO25"/>
       <c r="AP25"/>
       <c r="AQ25"/>
-      <c r="AR25" t="s">
-        <v>43</v>
-      </c>
+      <c r="AR25"/>
       <c r="AS25"/>
       <c r="AT25"/>
       <c r="AU25"/>
       <c r="AV25"/>
-      <c r="AW25"/>
+      <c r="AW25" t="s">
+        <v>91</v>
+      </c>
       <c r="AX25"/>
       <c r="AY25"/>
-      <c r="AZ25"/>
+      <c r="AZ25" t="s">
+        <v>91</v>
+      </c>
       <c r="BA25"/>
       <c r="BB25"/>
-      <c r="BC25" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC25"/>
       <c r="BD25"/>
       <c r="BE25"/>
       <c r="BF25" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG25"/>
       <c r="BH25"/>
       <c r="BI25"/>
       <c r="BJ25"/>
       <c r="BK25"/>
-      <c r="BL25" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL25"/>
       <c r="BM25"/>
-      <c r="BN25"/>
+      <c r="BN25" t="s">
+        <v>91</v>
+      </c>
       <c r="BO25"/>
-      <c r="BP25"/>
+      <c r="BP25" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ25"/>
       <c r="BR25"/>
       <c r="BS25"/>
       <c r="BT25"/>
       <c r="BU25"/>
-      <c r="BV25" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV25"/>
       <c r="BW25"/>
       <c r="BX25" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY25"/>
       <c r="BZ25"/>
@@ -4537,40 +4019,19 @@
       <c r="CH25"/>
       <c r="CI25"/>
       <c r="CJ25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK25"/>
-      <c r="CL25"/>
-      <c r="CM25"/>
-      <c r="CN25"/>
-      <c r="CO25"/>
-      <c r="CP25"/>
-      <c r="CQ25"/>
-      <c r="CR25"/>
-      <c r="CS25"/>
-      <c r="CT25"/>
-      <c r="CU25"/>
-      <c r="CV25"/>
-      <c r="CW25"/>
-      <c r="CX25"/>
-      <c r="CY25"/>
-      <c r="CZ25" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA25" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -4581,23 +4042,25 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
-      <c r="Q26"/>
+      <c r="Q26" t="s">
+        <v>91</v>
+      </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
-      <c r="U26"/>
+      <c r="U26" t="s">
+        <v>91</v>
+      </c>
       <c r="V26"/>
       <c r="W26"/>
       <c r="X26"/>
-      <c r="Y26" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
       <c r="AB26"/>
@@ -4621,42 +4084,46 @@
       <c r="AT26"/>
       <c r="AU26"/>
       <c r="AV26"/>
-      <c r="AW26"/>
+      <c r="AW26" t="s">
+        <v>91</v>
+      </c>
       <c r="AX26"/>
       <c r="AY26"/>
-      <c r="AZ26"/>
+      <c r="AZ26" t="s">
+        <v>91</v>
+      </c>
       <c r="BA26"/>
       <c r="BB26"/>
-      <c r="BC26" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC26"/>
       <c r="BD26"/>
       <c r="BE26"/>
       <c r="BF26" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG26"/>
       <c r="BH26"/>
       <c r="BI26"/>
       <c r="BJ26"/>
       <c r="BK26"/>
-      <c r="BL26" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL26"/>
       <c r="BM26"/>
-      <c r="BN26"/>
+      <c r="BN26" t="s">
+        <v>91</v>
+      </c>
       <c r="BO26"/>
-      <c r="BP26"/>
+      <c r="BP26" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ26"/>
       <c r="BR26"/>
       <c r="BS26"/>
       <c r="BT26"/>
       <c r="BU26"/>
-      <c r="BV26" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV26"/>
       <c r="BW26"/>
-      <c r="BX26"/>
+      <c r="BX26" t="s">
+        <v>91</v>
+      </c>
       <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
@@ -4669,38 +4136,19 @@
       <c r="CH26"/>
       <c r="CI26"/>
       <c r="CJ26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK26"/>
-      <c r="CL26"/>
-      <c r="CM26"/>
-      <c r="CN26"/>
-      <c r="CO26"/>
-      <c r="CP26"/>
-      <c r="CQ26"/>
-      <c r="CR26"/>
-      <c r="CS26"/>
-      <c r="CT26"/>
-      <c r="CU26"/>
-      <c r="CV26"/>
-      <c r="CW26"/>
-      <c r="CX26"/>
-      <c r="CY26"/>
-      <c r="CZ26"/>
-      <c r="DA26" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -4711,27 +4159,25 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
-      <c r="P27" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q27"/>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>91</v>
+      </c>
       <c r="R27"/>
-      <c r="S27" t="s">
-        <v>18</v>
-      </c>
+      <c r="S27"/>
       <c r="T27"/>
-      <c r="U27"/>
+      <c r="U27" t="s">
+        <v>91</v>
+      </c>
       <c r="V27"/>
       <c r="W27"/>
       <c r="X27"/>
-      <c r="Y27" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y27"/>
       <c r="Z27"/>
       <c r="AA27"/>
       <c r="AB27"/>
@@ -4755,43 +4201,45 @@
       <c r="AT27"/>
       <c r="AU27"/>
       <c r="AV27"/>
-      <c r="AW27"/>
+      <c r="AW27" t="s">
+        <v>91</v>
+      </c>
       <c r="AX27"/>
       <c r="AY27"/>
-      <c r="AZ27"/>
+      <c r="AZ27" t="s">
+        <v>91</v>
+      </c>
       <c r="BA27"/>
       <c r="BB27"/>
-      <c r="BC27" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC27"/>
       <c r="BD27"/>
       <c r="BE27"/>
       <c r="BF27" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG27"/>
       <c r="BH27"/>
       <c r="BI27"/>
       <c r="BJ27"/>
       <c r="BK27"/>
-      <c r="BL27" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL27"/>
       <c r="BM27"/>
-      <c r="BN27"/>
+      <c r="BN27" t="s">
+        <v>91</v>
+      </c>
       <c r="BO27"/>
-      <c r="BP27"/>
+      <c r="BP27" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ27"/>
       <c r="BR27"/>
       <c r="BS27"/>
       <c r="BT27"/>
       <c r="BU27"/>
-      <c r="BV27" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV27"/>
       <c r="BW27"/>
       <c r="BX27" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY27"/>
       <c r="BZ27"/>
@@ -4805,38 +4253,19 @@
       <c r="CH27"/>
       <c r="CI27"/>
       <c r="CJ27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK27"/>
-      <c r="CL27"/>
-      <c r="CM27"/>
-      <c r="CN27"/>
-      <c r="CO27"/>
-      <c r="CP27"/>
-      <c r="CQ27"/>
-      <c r="CR27"/>
-      <c r="CS27"/>
-      <c r="CT27"/>
-      <c r="CU27"/>
-      <c r="CV27"/>
-      <c r="CW27"/>
-      <c r="CX27"/>
-      <c r="CY27"/>
-      <c r="CZ27"/>
-      <c r="DA27" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -4847,7 +4276,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M28"/>
       <c r="N28"/>
@@ -4855,17 +4284,15 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
-      <c r="S28" t="s">
-        <v>18</v>
-      </c>
+      <c r="S28"/>
       <c r="T28"/>
-      <c r="U28"/>
+      <c r="U28" t="s">
+        <v>91</v>
+      </c>
       <c r="V28"/>
       <c r="W28"/>
       <c r="X28"/>
-      <c r="Y28" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y28"/>
       <c r="Z28"/>
       <c r="AA28"/>
       <c r="AB28"/>
@@ -4889,30 +4316,32 @@
       <c r="AT28"/>
       <c r="AU28"/>
       <c r="AV28"/>
-      <c r="AW28"/>
+      <c r="AW28" t="s">
+        <v>91</v>
+      </c>
       <c r="AX28"/>
       <c r="AY28"/>
-      <c r="AZ28"/>
+      <c r="AZ28" t="s">
+        <v>91</v>
+      </c>
       <c r="BA28"/>
       <c r="BB28"/>
-      <c r="BC28" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC28"/>
       <c r="BD28"/>
       <c r="BE28"/>
       <c r="BF28" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG28"/>
       <c r="BH28"/>
       <c r="BI28"/>
       <c r="BJ28"/>
       <c r="BK28"/>
-      <c r="BL28" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL28"/>
       <c r="BM28"/>
-      <c r="BN28"/>
+      <c r="BN28" t="s">
+        <v>91</v>
+      </c>
       <c r="BO28"/>
       <c r="BP28"/>
       <c r="BQ28"/>
@@ -4920,12 +4349,10 @@
       <c r="BS28"/>
       <c r="BT28"/>
       <c r="BU28"/>
-      <c r="BV28" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV28"/>
       <c r="BW28"/>
       <c r="BX28" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY28"/>
       <c r="BZ28"/>
@@ -4939,39 +4366,18 @@
       <c r="CH28"/>
       <c r="CI28"/>
       <c r="CJ28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK28"/>
-      <c r="CL28"/>
-      <c r="CM28"/>
-      <c r="CN28"/>
-      <c r="CO28"/>
-      <c r="CP28"/>
-      <c r="CQ28"/>
-      <c r="CR28"/>
-      <c r="CS28"/>
-      <c r="CT28"/>
-      <c r="CU28"/>
-      <c r="CV28"/>
-      <c r="CW28"/>
-      <c r="CX28"/>
-      <c r="CY28"/>
-      <c r="CZ28"/>
-      <c r="DA28" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -4981,7 +4387,7 @@
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
@@ -4989,17 +4395,15 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
-      <c r="S29" t="s">
-        <v>18</v>
-      </c>
+      <c r="S29"/>
       <c r="T29"/>
-      <c r="U29"/>
+      <c r="U29" t="s">
+        <v>91</v>
+      </c>
       <c r="V29"/>
       <c r="W29"/>
       <c r="X29"/>
-      <c r="Y29" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29"/>
       <c r="AB29"/>
@@ -5023,30 +4427,30 @@
       <c r="AT29"/>
       <c r="AU29"/>
       <c r="AV29"/>
-      <c r="AW29"/>
+      <c r="AW29" t="s">
+        <v>91</v>
+      </c>
       <c r="AX29"/>
       <c r="AY29"/>
-      <c r="AZ29"/>
+      <c r="AZ29" t="s">
+        <v>91</v>
+      </c>
       <c r="BA29"/>
       <c r="BB29"/>
-      <c r="BC29" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC29"/>
       <c r="BD29"/>
       <c r="BE29"/>
-      <c r="BF29" t="s">
-        <v>57</v>
-      </c>
+      <c r="BF29"/>
       <c r="BG29"/>
       <c r="BH29"/>
       <c r="BI29"/>
       <c r="BJ29"/>
       <c r="BK29"/>
-      <c r="BL29" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL29"/>
       <c r="BM29"/>
-      <c r="BN29"/>
+      <c r="BN29" t="s">
+        <v>91</v>
+      </c>
       <c r="BO29"/>
       <c r="BP29"/>
       <c r="BQ29"/>
@@ -5054,12 +4458,10 @@
       <c r="BS29"/>
       <c r="BT29"/>
       <c r="BU29"/>
-      <c r="BV29" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV29"/>
       <c r="BW29"/>
       <c r="BX29" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY29"/>
       <c r="BZ29"/>
@@ -5073,39 +4475,18 @@
       <c r="CH29"/>
       <c r="CI29"/>
       <c r="CJ29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK29"/>
-      <c r="CL29"/>
-      <c r="CM29"/>
-      <c r="CN29"/>
-      <c r="CO29"/>
-      <c r="CP29"/>
-      <c r="CQ29"/>
-      <c r="CR29"/>
-      <c r="CS29"/>
-      <c r="CT29"/>
-      <c r="CU29"/>
-      <c r="CV29"/>
-      <c r="CW29"/>
-      <c r="CX29"/>
-      <c r="CY29"/>
-      <c r="CZ29"/>
-      <c r="DA29" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -5115,7 +4496,7 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -5125,13 +4506,13 @@
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
-      <c r="U30"/>
+      <c r="U30" t="s">
+        <v>91</v>
+      </c>
       <c r="V30"/>
       <c r="W30"/>
       <c r="X30"/>
-      <c r="Y30" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
@@ -5155,30 +4536,30 @@
       <c r="AT30"/>
       <c r="AU30"/>
       <c r="AV30"/>
-      <c r="AW30"/>
+      <c r="AW30" t="s">
+        <v>91</v>
+      </c>
       <c r="AX30"/>
       <c r="AY30"/>
-      <c r="AZ30"/>
+      <c r="AZ30" t="s">
+        <v>91</v>
+      </c>
       <c r="BA30"/>
       <c r="BB30"/>
-      <c r="BC30" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC30"/>
       <c r="BD30"/>
       <c r="BE30"/>
-      <c r="BF30" t="s">
-        <v>57</v>
-      </c>
+      <c r="BF30"/>
       <c r="BG30"/>
       <c r="BH30"/>
       <c r="BI30"/>
       <c r="BJ30"/>
       <c r="BK30"/>
-      <c r="BL30" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL30"/>
       <c r="BM30"/>
-      <c r="BN30"/>
+      <c r="BN30" t="s">
+        <v>91</v>
+      </c>
       <c r="BO30"/>
       <c r="BP30"/>
       <c r="BQ30"/>
@@ -5186,11 +4567,11 @@
       <c r="BS30"/>
       <c r="BT30"/>
       <c r="BU30"/>
-      <c r="BV30" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV30"/>
       <c r="BW30"/>
-      <c r="BX30"/>
+      <c r="BX30" t="s">
+        <v>91</v>
+      </c>
       <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
@@ -5203,35 +4584,16 @@
       <c r="CH30"/>
       <c r="CI30"/>
       <c r="CJ30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK30"/>
-      <c r="CL30"/>
-      <c r="CM30"/>
-      <c r="CN30"/>
-      <c r="CO30"/>
-      <c r="CP30"/>
-      <c r="CQ30"/>
-      <c r="CR30"/>
-      <c r="CS30"/>
-      <c r="CT30"/>
-      <c r="CU30"/>
-      <c r="CV30"/>
-      <c r="CW30"/>
-      <c r="CX30"/>
-      <c r="CY30"/>
-      <c r="CZ30"/>
-      <c r="DA30" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -5243,7 +4605,7 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M31"/>
       <c r="N31"/>
@@ -5253,13 +4615,13 @@
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
-      <c r="U31"/>
+      <c r="U31" t="s">
+        <v>91</v>
+      </c>
       <c r="V31"/>
       <c r="W31"/>
       <c r="X31"/>
-      <c r="Y31" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31"/>
       <c r="AB31"/>
@@ -5283,20 +4645,20 @@
       <c r="AT31"/>
       <c r="AU31"/>
       <c r="AV31"/>
-      <c r="AW31"/>
+      <c r="AW31" t="s">
+        <v>91</v>
+      </c>
       <c r="AX31"/>
       <c r="AY31"/>
-      <c r="AZ31"/>
+      <c r="AZ31" t="s">
+        <v>91</v>
+      </c>
       <c r="BA31"/>
       <c r="BB31"/>
-      <c r="BC31" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC31"/>
       <c r="BD31"/>
       <c r="BE31"/>
-      <c r="BF31" t="s">
-        <v>57</v>
-      </c>
+      <c r="BF31"/>
       <c r="BG31"/>
       <c r="BH31"/>
       <c r="BI31"/>
@@ -5304,7 +4666,9 @@
       <c r="BK31"/>
       <c r="BL31"/>
       <c r="BM31"/>
-      <c r="BN31"/>
+      <c r="BN31" t="s">
+        <v>91</v>
+      </c>
       <c r="BO31"/>
       <c r="BP31"/>
       <c r="BQ31"/>
@@ -5312,11 +4676,11 @@
       <c r="BS31"/>
       <c r="BT31"/>
       <c r="BU31"/>
-      <c r="BV31" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV31"/>
       <c r="BW31"/>
-      <c r="BX31"/>
+      <c r="BX31" t="s">
+        <v>91</v>
+      </c>
       <c r="BY31"/>
       <c r="BZ31"/>
       <c r="CA31"/>
@@ -5329,35 +4693,16 @@
       <c r="CH31"/>
       <c r="CI31"/>
       <c r="CJ31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK31"/>
-      <c r="CL31"/>
-      <c r="CM31"/>
-      <c r="CN31"/>
-      <c r="CO31"/>
-      <c r="CP31"/>
-      <c r="CQ31"/>
-      <c r="CR31"/>
-      <c r="CS31"/>
-      <c r="CT31"/>
-      <c r="CU31"/>
-      <c r="CV31"/>
-      <c r="CW31"/>
-      <c r="CX31"/>
-      <c r="CY31"/>
-      <c r="CZ31"/>
-      <c r="DA31" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -5369,7 +4714,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
@@ -5379,13 +4724,13 @@
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
-      <c r="U32"/>
+      <c r="U32" t="s">
+        <v>91</v>
+      </c>
       <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
-      <c r="Y32" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y32"/>
       <c r="Z32"/>
       <c r="AA32"/>
       <c r="AB32"/>
@@ -5409,20 +4754,20 @@
       <c r="AT32"/>
       <c r="AU32"/>
       <c r="AV32"/>
-      <c r="AW32"/>
+      <c r="AW32" t="s">
+        <v>91</v>
+      </c>
       <c r="AX32"/>
       <c r="AY32"/>
-      <c r="AZ32"/>
+      <c r="AZ32" t="s">
+        <v>91</v>
+      </c>
       <c r="BA32"/>
       <c r="BB32"/>
-      <c r="BC32" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC32"/>
       <c r="BD32"/>
       <c r="BE32"/>
-      <c r="BF32" t="s">
-        <v>57</v>
-      </c>
+      <c r="BF32"/>
       <c r="BG32"/>
       <c r="BH32"/>
       <c r="BI32"/>
@@ -5430,7 +4775,9 @@
       <c r="BK32"/>
       <c r="BL32"/>
       <c r="BM32"/>
-      <c r="BN32"/>
+      <c r="BN32" t="s">
+        <v>91</v>
+      </c>
       <c r="BO32"/>
       <c r="BP32"/>
       <c r="BQ32"/>
@@ -5438,11 +4785,11 @@
       <c r="BS32"/>
       <c r="BT32"/>
       <c r="BU32"/>
-      <c r="BV32" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV32"/>
       <c r="BW32"/>
-      <c r="BX32"/>
+      <c r="BX32" t="s">
+        <v>91</v>
+      </c>
       <c r="BY32"/>
       <c r="BZ32"/>
       <c r="CA32"/>
@@ -5455,37 +4802,20 @@
       <c r="CH32"/>
       <c r="CI32"/>
       <c r="CJ32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK32"/>
-      <c r="CL32"/>
-      <c r="CM32"/>
-      <c r="CN32"/>
-      <c r="CO32"/>
-      <c r="CP32"/>
-      <c r="CQ32"/>
-      <c r="CR32"/>
-      <c r="CS32"/>
-      <c r="CT32"/>
-      <c r="CU32"/>
-      <c r="CV32"/>
-      <c r="CW32"/>
-      <c r="CX32"/>
-      <c r="CY32"/>
-      <c r="CZ32"/>
-      <c r="DA32" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33"/>
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -5495,7 +4825,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -5505,16 +4835,18 @@
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
-      <c r="U33"/>
+      <c r="U33" t="s">
+        <v>91</v>
+      </c>
       <c r="V33"/>
       <c r="W33"/>
       <c r="X33"/>
-      <c r="Y33" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
-      <c r="AB33"/>
+      <c r="AB33" t="s">
+        <v>91</v>
+      </c>
       <c r="AC33"/>
       <c r="AD33"/>
       <c r="AE33"/>
@@ -5535,28 +4867,36 @@
       <c r="AT33"/>
       <c r="AU33"/>
       <c r="AV33"/>
-      <c r="AW33"/>
+      <c r="AW33" t="s">
+        <v>91</v>
+      </c>
       <c r="AX33"/>
       <c r="AY33"/>
-      <c r="AZ33"/>
+      <c r="AZ33" t="s">
+        <v>91</v>
+      </c>
       <c r="BA33"/>
       <c r="BB33"/>
-      <c r="BC33" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC33"/>
       <c r="BD33"/>
       <c r="BE33"/>
       <c r="BF33" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG33"/>
       <c r="BH33"/>
-      <c r="BI33"/>
-      <c r="BJ33"/>
+      <c r="BI33" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>91</v>
+      </c>
       <c r="BK33"/>
       <c r="BL33"/>
       <c r="BM33"/>
-      <c r="BN33"/>
+      <c r="BN33" t="s">
+        <v>91</v>
+      </c>
       <c r="BO33"/>
       <c r="BP33"/>
       <c r="BQ33"/>
@@ -5564,11 +4904,11 @@
       <c r="BS33"/>
       <c r="BT33"/>
       <c r="BU33"/>
-      <c r="BV33" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV33"/>
       <c r="BW33"/>
-      <c r="BX33"/>
+      <c r="BX33" t="s">
+        <v>91</v>
+      </c>
       <c r="BY33"/>
       <c r="BZ33"/>
       <c r="CA33"/>
@@ -5581,35 +4921,16 @@
       <c r="CH33"/>
       <c r="CI33"/>
       <c r="CJ33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK33"/>
-      <c r="CL33"/>
-      <c r="CM33"/>
-      <c r="CN33"/>
-      <c r="CO33"/>
-      <c r="CP33"/>
-      <c r="CQ33"/>
-      <c r="CR33"/>
-      <c r="CS33"/>
-      <c r="CT33"/>
-      <c r="CU33"/>
-      <c r="CV33"/>
-      <c r="CW33"/>
-      <c r="CX33"/>
-      <c r="CY33"/>
-      <c r="CZ33"/>
-      <c r="DA33" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -5621,7 +4942,7 @@
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M34"/>
       <c r="N34"/>
@@ -5631,19 +4952,23 @@
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
-      <c r="U34"/>
+      <c r="U34" t="s">
+        <v>91</v>
+      </c>
       <c r="V34"/>
       <c r="W34"/>
       <c r="X34"/>
-      <c r="Y34" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y34"/>
       <c r="Z34"/>
-      <c r="AA34"/>
+      <c r="AA34" t="s">
+        <v>91</v>
+      </c>
       <c r="AB34"/>
       <c r="AC34"/>
       <c r="AD34"/>
-      <c r="AE34"/>
+      <c r="AE34" t="s">
+        <v>91</v>
+      </c>
       <c r="AF34"/>
       <c r="AG34"/>
       <c r="AH34"/>
@@ -5659,30 +4984,38 @@
       <c r="AR34"/>
       <c r="AS34"/>
       <c r="AT34"/>
-      <c r="AU34"/>
+      <c r="AU34" t="s">
+        <v>91</v>
+      </c>
       <c r="AV34"/>
-      <c r="AW34"/>
+      <c r="AW34" t="s">
+        <v>91</v>
+      </c>
       <c r="AX34"/>
       <c r="AY34"/>
-      <c r="AZ34"/>
+      <c r="AZ34" t="s">
+        <v>91</v>
+      </c>
       <c r="BA34"/>
       <c r="BB34"/>
-      <c r="BC34" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC34"/>
       <c r="BD34"/>
       <c r="BE34"/>
       <c r="BF34" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG34"/>
-      <c r="BH34"/>
+      <c r="BH34" t="s">
+        <v>91</v>
+      </c>
       <c r="BI34"/>
       <c r="BJ34"/>
       <c r="BK34"/>
       <c r="BL34"/>
       <c r="BM34"/>
-      <c r="BN34"/>
+      <c r="BN34" t="s">
+        <v>91</v>
+      </c>
       <c r="BO34"/>
       <c r="BP34"/>
       <c r="BQ34"/>
@@ -5690,11 +5023,11 @@
       <c r="BS34"/>
       <c r="BT34"/>
       <c r="BU34"/>
-      <c r="BV34" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV34"/>
       <c r="BW34"/>
-      <c r="BX34"/>
+      <c r="BX34" t="s">
+        <v>91</v>
+      </c>
       <c r="BY34"/>
       <c r="BZ34"/>
       <c r="CA34"/>
@@ -5707,39 +5040,18 @@
       <c r="CH34"/>
       <c r="CI34"/>
       <c r="CJ34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK34"/>
-      <c r="CL34"/>
-      <c r="CM34"/>
-      <c r="CN34"/>
-      <c r="CO34"/>
-      <c r="CP34"/>
-      <c r="CQ34"/>
-      <c r="CR34"/>
-      <c r="CS34"/>
-      <c r="CT34"/>
-      <c r="CU34"/>
-      <c r="CV34"/>
-      <c r="CW34"/>
-      <c r="CX34"/>
-      <c r="CY34"/>
-      <c r="CZ34"/>
-      <c r="DA34" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -5749,7 +5061,7 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M35"/>
       <c r="N35"/>
@@ -5759,24 +5071,26 @@
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
-      <c r="U35"/>
+      <c r="U35" t="s">
+        <v>91</v>
+      </c>
       <c r="V35"/>
       <c r="W35"/>
       <c r="X35"/>
-      <c r="Y35" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y35"/>
       <c r="Z35"/>
-      <c r="AA35"/>
+      <c r="AA35" t="s">
+        <v>91</v>
+      </c>
       <c r="AB35"/>
       <c r="AC35"/>
       <c r="AD35"/>
-      <c r="AE35"/>
+      <c r="AE35" t="s">
+        <v>91</v>
+      </c>
       <c r="AF35"/>
       <c r="AG35"/>
-      <c r="AH35" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH35"/>
       <c r="AI35"/>
       <c r="AJ35"/>
       <c r="AK35"/>
@@ -5789,48 +5103,48 @@
       <c r="AR35"/>
       <c r="AS35"/>
       <c r="AT35"/>
-      <c r="AU35"/>
+      <c r="AU35" t="s">
+        <v>91</v>
+      </c>
       <c r="AV35"/>
-      <c r="AW35"/>
+      <c r="AW35" t="s">
+        <v>91</v>
+      </c>
       <c r="AX35"/>
       <c r="AY35"/>
-      <c r="AZ35"/>
+      <c r="AZ35" t="s">
+        <v>91</v>
+      </c>
       <c r="BA35"/>
       <c r="BB35"/>
-      <c r="BC35" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC35"/>
       <c r="BD35"/>
       <c r="BE35"/>
       <c r="BF35" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG35"/>
       <c r="BH35"/>
       <c r="BI35"/>
       <c r="BJ35"/>
       <c r="BK35"/>
-      <c r="BL35" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL35"/>
       <c r="BM35"/>
-      <c r="BN35"/>
+      <c r="BN35" t="s">
+        <v>91</v>
+      </c>
       <c r="BO35"/>
-      <c r="BP35" t="s">
-        <v>67</v>
-      </c>
+      <c r="BP35"/>
       <c r="BQ35"/>
-      <c r="BR35" t="s">
-        <v>69</v>
-      </c>
+      <c r="BR35"/>
       <c r="BS35"/>
       <c r="BT35"/>
       <c r="BU35"/>
-      <c r="BV35" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV35"/>
       <c r="BW35"/>
-      <c r="BX35"/>
+      <c r="BX35" t="s">
+        <v>91</v>
+      </c>
       <c r="BY35"/>
       <c r="BZ35"/>
       <c r="CA35"/>
@@ -5843,35 +5157,16 @@
       <c r="CH35"/>
       <c r="CI35"/>
       <c r="CJ35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK35"/>
-      <c r="CL35"/>
-      <c r="CM35"/>
-      <c r="CN35"/>
-      <c r="CO35"/>
-      <c r="CP35"/>
-      <c r="CQ35"/>
-      <c r="CR35"/>
-      <c r="CS35"/>
-      <c r="CT35"/>
-      <c r="CU35"/>
-      <c r="CV35"/>
-      <c r="CW35"/>
-      <c r="CX35"/>
-      <c r="CY35"/>
-      <c r="CZ35"/>
-      <c r="DA35" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -5883,7 +5178,7 @@
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -5893,28 +5188,30 @@
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
-      <c r="U36"/>
+      <c r="U36" t="s">
+        <v>91</v>
+      </c>
       <c r="V36"/>
       <c r="W36"/>
       <c r="X36"/>
-      <c r="Y36" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y36"/>
       <c r="Z36"/>
-      <c r="AA36"/>
+      <c r="AA36" t="s">
+        <v>91</v>
+      </c>
       <c r="AB36"/>
       <c r="AC36"/>
       <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36" t="s">
-        <v>31</v>
-      </c>
+      <c r="AE36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF36"/>
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
       <c r="AJ36"/>
       <c r="AK36" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="AL36"/>
       <c r="AM36"/>
@@ -5925,48 +5222,48 @@
       <c r="AR36"/>
       <c r="AS36"/>
       <c r="AT36"/>
-      <c r="AU36"/>
+      <c r="AU36" t="s">
+        <v>91</v>
+      </c>
       <c r="AV36"/>
-      <c r="AW36"/>
+      <c r="AW36" t="s">
+        <v>91</v>
+      </c>
       <c r="AX36"/>
       <c r="AY36"/>
-      <c r="AZ36"/>
-      <c r="BA36" t="s">
-        <v>52</v>
-      </c>
+      <c r="AZ36" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA36"/>
       <c r="BB36"/>
-      <c r="BC36" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC36"/>
       <c r="BD36"/>
       <c r="BE36"/>
       <c r="BF36" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG36"/>
       <c r="BH36"/>
       <c r="BI36"/>
       <c r="BJ36"/>
       <c r="BK36"/>
-      <c r="BL36" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL36"/>
       <c r="BM36"/>
-      <c r="BN36"/>
-      <c r="BO36" t="s">
-        <v>66</v>
-      </c>
+      <c r="BN36" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO36"/>
       <c r="BP36"/>
       <c r="BQ36"/>
       <c r="BR36"/>
       <c r="BS36"/>
       <c r="BT36"/>
       <c r="BU36"/>
-      <c r="BV36" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV36"/>
       <c r="BW36"/>
-      <c r="BX36"/>
+      <c r="BX36" t="s">
+        <v>91</v>
+      </c>
       <c r="BY36"/>
       <c r="BZ36"/>
       <c r="CA36"/>
@@ -5979,37 +5276,20 @@
       <c r="CH36"/>
       <c r="CI36"/>
       <c r="CJ36" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK36"/>
-      <c r="CL36"/>
-      <c r="CM36"/>
-      <c r="CN36"/>
-      <c r="CO36"/>
-      <c r="CP36"/>
-      <c r="CQ36"/>
-      <c r="CR36"/>
-      <c r="CS36"/>
-      <c r="CT36"/>
-      <c r="CU36"/>
-      <c r="CV36"/>
-      <c r="CW36"/>
-      <c r="CX36"/>
-      <c r="CY36"/>
-      <c r="CZ36"/>
-      <c r="DA36" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37"/>
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -6019,7 +5299,7 @@
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M37"/>
       <c r="N37"/>
@@ -6029,29 +5309,27 @@
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
-      <c r="U37"/>
+      <c r="U37" t="s">
+        <v>91</v>
+      </c>
       <c r="V37"/>
       <c r="W37"/>
       <c r="X37"/>
-      <c r="Y37" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y37"/>
       <c r="Z37"/>
       <c r="AA37"/>
       <c r="AB37"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
-      <c r="AF37" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF37"/>
       <c r="AG37"/>
-      <c r="AH37"/>
+      <c r="AH37" t="s">
+        <v>91</v>
+      </c>
       <c r="AI37"/>
       <c r="AJ37"/>
-      <c r="AK37" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK37"/>
       <c r="AL37"/>
       <c r="AM37"/>
       <c r="AN37"/>
@@ -6063,32 +5341,34 @@
       <c r="AT37"/>
       <c r="AU37"/>
       <c r="AV37"/>
-      <c r="AW37"/>
+      <c r="AW37" t="s">
+        <v>91</v>
+      </c>
       <c r="AX37"/>
       <c r="AY37"/>
-      <c r="AZ37"/>
-      <c r="BA37" t="s">
-        <v>52</v>
-      </c>
+      <c r="AZ37" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA37"/>
       <c r="BB37"/>
-      <c r="BC37" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC37"/>
       <c r="BD37"/>
       <c r="BE37"/>
       <c r="BF37" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG37"/>
       <c r="BH37"/>
       <c r="BI37"/>
       <c r="BJ37"/>
       <c r="BK37"/>
-      <c r="BL37" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM37"/>
-      <c r="BN37"/>
+      <c r="BL37"/>
+      <c r="BM37" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>91</v>
+      </c>
       <c r="BO37"/>
       <c r="BP37"/>
       <c r="BQ37"/>
@@ -6096,11 +5376,11 @@
       <c r="BS37"/>
       <c r="BT37"/>
       <c r="BU37"/>
-      <c r="BV37" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV37"/>
       <c r="BW37"/>
-      <c r="BX37"/>
+      <c r="BX37" t="s">
+        <v>91</v>
+      </c>
       <c r="BY37"/>
       <c r="BZ37"/>
       <c r="CA37"/>
@@ -6113,37 +5393,20 @@
       <c r="CH37"/>
       <c r="CI37"/>
       <c r="CJ37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK37"/>
-      <c r="CL37"/>
-      <c r="CM37"/>
-      <c r="CN37"/>
-      <c r="CO37"/>
-      <c r="CP37"/>
-      <c r="CQ37"/>
-      <c r="CR37"/>
-      <c r="CS37"/>
-      <c r="CT37"/>
-      <c r="CU37"/>
-      <c r="CV37"/>
-      <c r="CW37"/>
-      <c r="CX37"/>
-      <c r="CY37"/>
-      <c r="CZ37"/>
-      <c r="DA37" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38"/>
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -6153,7 +5416,7 @@
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
@@ -6163,68 +5426,66 @@
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
-      <c r="U38"/>
+      <c r="U38" t="s">
+        <v>91</v>
+      </c>
       <c r="V38"/>
       <c r="W38"/>
       <c r="X38"/>
-      <c r="Y38" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y38"/>
       <c r="Z38"/>
       <c r="AA38"/>
       <c r="AB38"/>
       <c r="AC38"/>
       <c r="AD38"/>
       <c r="AE38"/>
-      <c r="AF38" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF38"/>
       <c r="AG38"/>
-      <c r="AH38"/>
+      <c r="AH38" t="s">
+        <v>91</v>
+      </c>
       <c r="AI38"/>
       <c r="AJ38"/>
-      <c r="AK38" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK38"/>
       <c r="AL38"/>
       <c r="AM38"/>
       <c r="AN38"/>
       <c r="AO38"/>
       <c r="AP38"/>
-      <c r="AQ38" t="s">
-        <v>42</v>
-      </c>
+      <c r="AQ38"/>
       <c r="AR38"/>
       <c r="AS38"/>
       <c r="AT38"/>
       <c r="AU38"/>
       <c r="AV38"/>
-      <c r="AW38"/>
+      <c r="AW38" t="s">
+        <v>91</v>
+      </c>
       <c r="AX38"/>
       <c r="AY38"/>
-      <c r="AZ38"/>
-      <c r="BA38" t="s">
-        <v>52</v>
-      </c>
+      <c r="AZ38" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA38"/>
       <c r="BB38"/>
-      <c r="BC38" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC38"/>
       <c r="BD38"/>
       <c r="BE38"/>
       <c r="BF38" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG38"/>
       <c r="BH38"/>
       <c r="BI38"/>
       <c r="BJ38"/>
       <c r="BK38"/>
-      <c r="BL38" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM38"/>
-      <c r="BN38"/>
+      <c r="BL38"/>
+      <c r="BM38" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>91</v>
+      </c>
       <c r="BO38"/>
       <c r="BP38"/>
       <c r="BQ38"/>
@@ -6232,11 +5493,11 @@
       <c r="BS38"/>
       <c r="BT38"/>
       <c r="BU38"/>
-      <c r="BV38" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV38"/>
       <c r="BW38"/>
-      <c r="BX38"/>
+      <c r="BX38" t="s">
+        <v>91</v>
+      </c>
       <c r="BY38"/>
       <c r="BZ38"/>
       <c r="CA38"/>
@@ -6249,38 +5510,19 @@
       <c r="CH38"/>
       <c r="CI38"/>
       <c r="CJ38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK38"/>
-      <c r="CL38"/>
-      <c r="CM38"/>
-      <c r="CN38"/>
-      <c r="CO38"/>
-      <c r="CP38"/>
-      <c r="CQ38"/>
-      <c r="CR38"/>
-      <c r="CS38"/>
-      <c r="CT38"/>
-      <c r="CU38"/>
-      <c r="CV38"/>
-      <c r="CW38"/>
-      <c r="CX38"/>
-      <c r="CY38"/>
-      <c r="CZ38"/>
-      <c r="DA38" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -6291,7 +5533,7 @@
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
@@ -6301,13 +5543,13 @@
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
-      <c r="U39"/>
+      <c r="U39" t="s">
+        <v>91</v>
+      </c>
       <c r="V39"/>
       <c r="W39"/>
       <c r="X39"/>
-      <c r="Y39" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y39"/>
       <c r="Z39"/>
       <c r="AA39"/>
       <c r="AB39"/>
@@ -6316,15 +5558,15 @@
       <c r="AE39"/>
       <c r="AF39"/>
       <c r="AG39"/>
-      <c r="AH39"/>
+      <c r="AH39" t="s">
+        <v>91</v>
+      </c>
       <c r="AI39"/>
       <c r="AJ39"/>
       <c r="AK39"/>
       <c r="AL39"/>
       <c r="AM39"/>
-      <c r="AN39" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN39"/>
       <c r="AO39"/>
       <c r="AP39"/>
       <c r="AQ39"/>
@@ -6333,44 +5575,46 @@
       <c r="AT39"/>
       <c r="AU39"/>
       <c r="AV39"/>
-      <c r="AW39"/>
+      <c r="AW39" t="s">
+        <v>91</v>
+      </c>
       <c r="AX39"/>
       <c r="AY39"/>
-      <c r="AZ39"/>
+      <c r="AZ39" t="s">
+        <v>91</v>
+      </c>
       <c r="BA39"/>
       <c r="BB39"/>
-      <c r="BC39" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC39"/>
       <c r="BD39"/>
       <c r="BE39"/>
       <c r="BF39" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG39"/>
       <c r="BH39"/>
       <c r="BI39"/>
       <c r="BJ39"/>
       <c r="BK39"/>
-      <c r="BL39" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM39"/>
-      <c r="BN39"/>
+      <c r="BL39"/>
+      <c r="BM39" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>91</v>
+      </c>
       <c r="BO39"/>
       <c r="BP39"/>
       <c r="BQ39"/>
       <c r="BR39"/>
       <c r="BS39"/>
       <c r="BT39"/>
-      <c r="BU39" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV39" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU39"/>
+      <c r="BV39"/>
       <c r="BW39"/>
-      <c r="BX39"/>
+      <c r="BX39" t="s">
+        <v>91</v>
+      </c>
       <c r="BY39"/>
       <c r="BZ39"/>
       <c r="CA39"/>
@@ -6383,40 +5627,23 @@
       <c r="CH39"/>
       <c r="CI39"/>
       <c r="CJ39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK39"/>
-      <c r="CL39"/>
-      <c r="CM39"/>
-      <c r="CN39"/>
-      <c r="CO39"/>
-      <c r="CP39"/>
-      <c r="CQ39"/>
-      <c r="CR39"/>
-      <c r="CS39"/>
-      <c r="CT39"/>
-      <c r="CU39"/>
-      <c r="CV39"/>
-      <c r="CW39"/>
-      <c r="CX39"/>
-      <c r="CY39"/>
-      <c r="CZ39"/>
-      <c r="DA39" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40"/>
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
@@ -6425,7 +5652,7 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M40"/>
       <c r="N40"/>
@@ -6435,13 +5662,13 @@
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
-      <c r="U40"/>
+      <c r="U40" t="s">
+        <v>91</v>
+      </c>
       <c r="V40"/>
       <c r="W40"/>
       <c r="X40"/>
-      <c r="Y40" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40"/>
@@ -6456,9 +5683,7 @@
       <c r="AK40"/>
       <c r="AL40"/>
       <c r="AM40"/>
-      <c r="AN40" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN40"/>
       <c r="AO40"/>
       <c r="AP40"/>
       <c r="AQ40"/>
@@ -6467,44 +5692,44 @@
       <c r="AT40"/>
       <c r="AU40"/>
       <c r="AV40"/>
-      <c r="AW40"/>
+      <c r="AW40" t="s">
+        <v>91</v>
+      </c>
       <c r="AX40"/>
       <c r="AY40"/>
-      <c r="AZ40"/>
+      <c r="AZ40" t="s">
+        <v>91</v>
+      </c>
       <c r="BA40"/>
       <c r="BB40"/>
-      <c r="BC40" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC40"/>
       <c r="BD40"/>
       <c r="BE40"/>
       <c r="BF40" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG40"/>
       <c r="BH40"/>
       <c r="BI40"/>
       <c r="BJ40"/>
       <c r="BK40"/>
-      <c r="BL40" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL40"/>
       <c r="BM40"/>
-      <c r="BN40"/>
+      <c r="BN40" t="s">
+        <v>91</v>
+      </c>
       <c r="BO40"/>
       <c r="BP40"/>
       <c r="BQ40"/>
       <c r="BR40"/>
       <c r="BS40"/>
       <c r="BT40"/>
-      <c r="BU40" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV40" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU40"/>
+      <c r="BV40"/>
       <c r="BW40"/>
-      <c r="BX40"/>
+      <c r="BX40" t="s">
+        <v>91</v>
+      </c>
       <c r="BY40"/>
       <c r="BZ40"/>
       <c r="CA40"/>
@@ -6517,38 +5742,19 @@
       <c r="CH40"/>
       <c r="CI40"/>
       <c r="CJ40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK40"/>
-      <c r="CL40"/>
-      <c r="CM40"/>
-      <c r="CN40"/>
-      <c r="CO40"/>
-      <c r="CP40"/>
-      <c r="CQ40"/>
-      <c r="CR40"/>
-      <c r="CS40"/>
-      <c r="CT40"/>
-      <c r="CU40"/>
-      <c r="CV40"/>
-      <c r="CW40"/>
-      <c r="CX40"/>
-      <c r="CY40"/>
-      <c r="CZ40"/>
-      <c r="DA40" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -6559,23 +5765,25 @@
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41"/>
+      <c r="Q41" t="s">
+        <v>91</v>
+      </c>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
-      <c r="U41"/>
+      <c r="U41" t="s">
+        <v>91</v>
+      </c>
       <c r="V41"/>
       <c r="W41"/>
       <c r="X41"/>
-      <c r="Y41" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
@@ -6590,9 +5798,7 @@
       <c r="AK41"/>
       <c r="AL41"/>
       <c r="AM41"/>
-      <c r="AN41" t="s">
-        <v>39</v>
-      </c>
+      <c r="AN41"/>
       <c r="AO41"/>
       <c r="AP41"/>
       <c r="AQ41"/>
@@ -6601,44 +5807,48 @@
       <c r="AT41"/>
       <c r="AU41"/>
       <c r="AV41"/>
-      <c r="AW41"/>
+      <c r="AW41" t="s">
+        <v>91</v>
+      </c>
       <c r="AX41"/>
       <c r="AY41"/>
-      <c r="AZ41"/>
+      <c r="AZ41" t="s">
+        <v>91</v>
+      </c>
       <c r="BA41"/>
       <c r="BB41"/>
-      <c r="BC41" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC41"/>
       <c r="BD41"/>
       <c r="BE41"/>
       <c r="BF41" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG41"/>
       <c r="BH41"/>
       <c r="BI41"/>
       <c r="BJ41"/>
-      <c r="BK41"/>
-      <c r="BL41" t="s">
-        <v>63</v>
-      </c>
+      <c r="BK41" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL41"/>
       <c r="BM41"/>
-      <c r="BN41"/>
+      <c r="BN41" t="s">
+        <v>91</v>
+      </c>
       <c r="BO41"/>
-      <c r="BP41"/>
+      <c r="BP41" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ41"/>
       <c r="BR41"/>
       <c r="BS41"/>
       <c r="BT41"/>
-      <c r="BU41" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV41" t="s">
-        <v>73</v>
-      </c>
+      <c r="BU41"/>
+      <c r="BV41"/>
       <c r="BW41"/>
-      <c r="BX41"/>
+      <c r="BX41" t="s">
+        <v>91</v>
+      </c>
       <c r="BY41"/>
       <c r="BZ41"/>
       <c r="CA41"/>
@@ -6651,42 +5861,21 @@
       <c r="CH41"/>
       <c r="CI41"/>
       <c r="CJ41" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK41"/>
-      <c r="CL41"/>
-      <c r="CM41"/>
-      <c r="CN41"/>
-      <c r="CO41"/>
-      <c r="CP41"/>
-      <c r="CQ41"/>
-      <c r="CR41"/>
-      <c r="CS41"/>
-      <c r="CT41"/>
-      <c r="CU41"/>
-      <c r="CV41"/>
-      <c r="CW41"/>
-      <c r="CX41"/>
-      <c r="CY41"/>
-      <c r="CZ41"/>
-      <c r="DA41" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -6695,23 +5884,25 @@
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42"/>
+      <c r="Q42" t="s">
+        <v>91</v>
+      </c>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
-      <c r="U42"/>
+      <c r="U42" t="s">
+        <v>91</v>
+      </c>
       <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
-      <c r="Y42" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42"/>
@@ -6735,42 +5926,48 @@
       <c r="AT42"/>
       <c r="AU42"/>
       <c r="AV42"/>
-      <c r="AW42"/>
+      <c r="AW42" t="s">
+        <v>91</v>
+      </c>
       <c r="AX42"/>
       <c r="AY42"/>
-      <c r="AZ42"/>
+      <c r="AZ42" t="s">
+        <v>91</v>
+      </c>
       <c r="BA42"/>
       <c r="BB42"/>
-      <c r="BC42" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC42"/>
       <c r="BD42"/>
       <c r="BE42"/>
       <c r="BF42" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG42"/>
       <c r="BH42"/>
       <c r="BI42"/>
       <c r="BJ42"/>
       <c r="BK42"/>
-      <c r="BL42" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL42"/>
       <c r="BM42"/>
-      <c r="BN42"/>
+      <c r="BN42" t="s">
+        <v>91</v>
+      </c>
       <c r="BO42"/>
-      <c r="BP42"/>
+      <c r="BP42" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ42"/>
       <c r="BR42"/>
       <c r="BS42"/>
-      <c r="BT42"/>
+      <c r="BT42" t="s">
+        <v>91</v>
+      </c>
       <c r="BU42"/>
-      <c r="BV42" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV42"/>
       <c r="BW42"/>
-      <c r="BX42"/>
+      <c r="BX42" t="s">
+        <v>91</v>
+      </c>
       <c r="BY42"/>
       <c r="BZ42"/>
       <c r="CA42"/>
@@ -6783,67 +5980,54 @@
       <c r="CH42"/>
       <c r="CI42"/>
       <c r="CJ42" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK42"/>
-      <c r="CL42"/>
-      <c r="CM42"/>
-      <c r="CN42"/>
-      <c r="CO42"/>
-      <c r="CP42"/>
-      <c r="CQ42"/>
-      <c r="CR42"/>
-      <c r="CS42"/>
-      <c r="CT42"/>
-      <c r="CU42"/>
-      <c r="CV42"/>
-      <c r="CW42"/>
-      <c r="CX42"/>
-      <c r="CY42"/>
-      <c r="CZ42"/>
-      <c r="DA42" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43"/>
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M43"/>
       <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="s">
+        <v>91</v>
+      </c>
       <c r="Q43"/>
       <c r="R43"/>
-      <c r="S43" t="s">
-        <v>18</v>
-      </c>
+      <c r="S43"/>
       <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
+      <c r="U43" t="s">
+        <v>91</v>
+      </c>
+      <c r="V43" t="s">
+        <v>91</v>
+      </c>
       <c r="W43"/>
       <c r="X43"/>
-      <c r="Y43" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y43"/>
       <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43"/>
@@ -6860,56 +6044,64 @@
       <c r="AM43"/>
       <c r="AN43"/>
       <c r="AO43"/>
-      <c r="AP43"/>
+      <c r="AP43" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ43"/>
       <c r="AR43"/>
-      <c r="AS43"/>
+      <c r="AS43" t="s">
+        <v>91</v>
+      </c>
       <c r="AT43"/>
       <c r="AU43"/>
       <c r="AV43"/>
-      <c r="AW43"/>
+      <c r="AW43" t="s">
+        <v>91</v>
+      </c>
       <c r="AX43"/>
       <c r="AY43"/>
-      <c r="AZ43"/>
+      <c r="AZ43" t="s">
+        <v>91</v>
+      </c>
       <c r="BA43"/>
       <c r="BB43"/>
       <c r="BC43" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="BD43"/>
       <c r="BE43"/>
       <c r="BF43" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG43"/>
       <c r="BH43"/>
       <c r="BI43"/>
       <c r="BJ43"/>
       <c r="BK43"/>
-      <c r="BL43" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL43"/>
       <c r="BM43"/>
-      <c r="BN43"/>
+      <c r="BN43" t="s">
+        <v>91</v>
+      </c>
       <c r="BO43"/>
       <c r="BP43"/>
       <c r="BQ43"/>
       <c r="BR43"/>
-      <c r="BS43" t="s">
-        <v>70</v>
-      </c>
+      <c r="BS43"/>
       <c r="BT43"/>
       <c r="BU43"/>
       <c r="BV43" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="BW43"/>
       <c r="BX43" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY43"/>
       <c r="BZ43"/>
-      <c r="CA43"/>
+      <c r="CA43" t="s">
+        <v>91</v>
+      </c>
       <c r="CB43"/>
       <c r="CC43"/>
       <c r="CD43"/>
@@ -6919,74 +6111,63 @@
       <c r="CH43"/>
       <c r="CI43"/>
       <c r="CJ43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK43"/>
-      <c r="CL43"/>
-      <c r="CM43"/>
-      <c r="CN43"/>
-      <c r="CO43"/>
-      <c r="CP43"/>
-      <c r="CQ43"/>
-      <c r="CR43"/>
-      <c r="CS43"/>
-      <c r="CT43"/>
-      <c r="CU43"/>
-      <c r="CV43"/>
-      <c r="CW43"/>
-      <c r="CX43"/>
-      <c r="CY43"/>
-      <c r="CZ43"/>
-      <c r="DA43" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44"/>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M44"/>
       <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="s">
+        <v>91</v>
+      </c>
       <c r="Q44"/>
       <c r="R44"/>
-      <c r="S44" t="s">
-        <v>18</v>
-      </c>
+      <c r="S44"/>
       <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
+      <c r="U44" t="s">
+        <v>91</v>
+      </c>
+      <c r="V44" t="s">
+        <v>91</v>
+      </c>
       <c r="W44"/>
       <c r="X44"/>
-      <c r="Y44" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y44"/>
       <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44"/>
       <c r="AC44"/>
       <c r="AD44"/>
       <c r="AE44"/>
-      <c r="AF44"/>
+      <c r="AF44" t="s">
+        <v>91</v>
+      </c>
       <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
@@ -6996,37 +6177,45 @@
       <c r="AM44"/>
       <c r="AN44"/>
       <c r="AO44"/>
-      <c r="AP44"/>
+      <c r="AP44" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ44"/>
       <c r="AR44"/>
-      <c r="AS44"/>
+      <c r="AS44" t="s">
+        <v>91</v>
+      </c>
       <c r="AT44"/>
       <c r="AU44"/>
       <c r="AV44"/>
-      <c r="AW44"/>
+      <c r="AW44" t="s">
+        <v>91</v>
+      </c>
       <c r="AX44"/>
       <c r="AY44"/>
-      <c r="AZ44"/>
+      <c r="AZ44" t="s">
+        <v>91</v>
+      </c>
       <c r="BA44"/>
       <c r="BB44"/>
       <c r="BC44" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="BD44"/>
       <c r="BE44"/>
       <c r="BF44" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG44"/>
       <c r="BH44"/>
       <c r="BI44"/>
       <c r="BJ44"/>
       <c r="BK44"/>
-      <c r="BL44" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL44"/>
       <c r="BM44"/>
-      <c r="BN44"/>
+      <c r="BN44" t="s">
+        <v>91</v>
+      </c>
       <c r="BO44"/>
       <c r="BP44"/>
       <c r="BQ44"/>
@@ -7035,94 +6224,77 @@
       <c r="BT44"/>
       <c r="BU44"/>
       <c r="BV44" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW44"/>
+        <v>91</v>
+      </c>
+      <c r="BW44" t="s">
+        <v>91</v>
+      </c>
       <c r="BX44" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY44"/>
       <c r="BZ44"/>
-      <c r="CA44"/>
+      <c r="CA44" t="s">
+        <v>91</v>
+      </c>
       <c r="CB44"/>
       <c r="CC44"/>
       <c r="CD44"/>
       <c r="CE44"/>
-      <c r="CF44" t="s">
-        <v>83</v>
-      </c>
+      <c r="CF44"/>
       <c r="CG44"/>
       <c r="CH44"/>
       <c r="CI44"/>
       <c r="CJ44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK44"/>
-      <c r="CL44"/>
-      <c r="CM44"/>
-      <c r="CN44"/>
-      <c r="CO44"/>
-      <c r="CP44"/>
-      <c r="CQ44"/>
-      <c r="CR44"/>
-      <c r="CS44"/>
-      <c r="CT44"/>
-      <c r="CU44"/>
-      <c r="CV44"/>
-      <c r="CW44"/>
-      <c r="CX44"/>
-      <c r="CY44"/>
-      <c r="CZ44"/>
-      <c r="DA44" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45"/>
+        <v>157</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
       <c r="E45"/>
       <c r="F45"/>
-      <c r="G45" t="s">
-        <v>6</v>
-      </c>
+      <c r="G45"/>
       <c r="H45"/>
-      <c r="I45"/>
+      <c r="I45" t="s">
+        <v>91</v>
+      </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>11</v>
-      </c>
-      <c r="M45"/>
+        <v>91</v>
+      </c>
+      <c r="M45" t="s">
+        <v>91</v>
+      </c>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
-      <c r="Q45" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q45"/>
+      <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
-      <c r="U45"/>
+      <c r="U45" t="s">
+        <v>91</v>
+      </c>
       <c r="V45"/>
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="Z45"/>
       <c r="AA45" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="AB45"/>
       <c r="AC45"/>
@@ -7144,37 +6316,33 @@
       <c r="AS45"/>
       <c r="AT45"/>
       <c r="AU45"/>
-      <c r="AV45" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW45"/>
+      <c r="AV45"/>
+      <c r="AW45" t="s">
+        <v>91</v>
+      </c>
       <c r="AX45"/>
-      <c r="AY45" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ45"/>
+      <c r="AY45"/>
+      <c r="AZ45" t="s">
+        <v>91</v>
+      </c>
       <c r="BA45"/>
       <c r="BB45"/>
-      <c r="BC45" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC45"/>
       <c r="BD45"/>
       <c r="BE45"/>
       <c r="BF45" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG45"/>
       <c r="BH45"/>
-      <c r="BI45" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI45"/>
       <c r="BJ45"/>
       <c r="BK45"/>
-      <c r="BL45" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL45"/>
       <c r="BM45"/>
-      <c r="BN45"/>
+      <c r="BN45" t="s">
+        <v>91</v>
+      </c>
       <c r="BO45"/>
       <c r="BP45"/>
       <c r="BQ45"/>
@@ -7182,12 +6350,14 @@
       <c r="BS45"/>
       <c r="BT45"/>
       <c r="BU45"/>
-      <c r="BV45" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV45"/>
       <c r="BW45"/>
-      <c r="BX45"/>
-      <c r="BY45"/>
+      <c r="BX45" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY45" t="s">
+        <v>91</v>
+      </c>
       <c r="BZ45"/>
       <c r="CA45"/>
       <c r="CB45"/>
@@ -7196,81 +6366,56 @@
       <c r="CE45"/>
       <c r="CF45"/>
       <c r="CG45"/>
-      <c r="CH45" t="s">
-        <v>85</v>
-      </c>
+      <c r="CH45"/>
       <c r="CI45"/>
       <c r="CJ45" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK45"/>
-      <c r="CL45"/>
-      <c r="CM45"/>
-      <c r="CN45" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO45"/>
-      <c r="CP45"/>
-      <c r="CQ45"/>
-      <c r="CR45"/>
-      <c r="CS45"/>
-      <c r="CT45"/>
-      <c r="CU45"/>
-      <c r="CV45"/>
-      <c r="CW45"/>
-      <c r="CX45"/>
-      <c r="CY45"/>
-      <c r="CZ45"/>
-      <c r="DA45" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46"/>
+        <v>158</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" t="s">
-        <v>6</v>
-      </c>
+      <c r="G46"/>
       <c r="H46"/>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>91</v>
+      </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>11</v>
-      </c>
-      <c r="M46"/>
+        <v>91</v>
+      </c>
+      <c r="M46" t="s">
+        <v>91</v>
+      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46" t="s">
-        <v>16</v>
-      </c>
-      <c r="R46" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q46"/>
+      <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
-      <c r="U46"/>
+      <c r="U46" t="s">
+        <v>91</v>
+      </c>
       <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
-      <c r="Y46" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="AB46"/>
       <c r="AC46"/>
@@ -7282,9 +6427,7 @@
       <c r="AI46"/>
       <c r="AJ46"/>
       <c r="AK46"/>
-      <c r="AL46" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL46"/>
       <c r="AM46"/>
       <c r="AN46"/>
       <c r="AO46"/>
@@ -7294,37 +6437,33 @@
       <c r="AS46"/>
       <c r="AT46"/>
       <c r="AU46"/>
-      <c r="AV46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW46"/>
+      <c r="AV46"/>
+      <c r="AW46" t="s">
+        <v>91</v>
+      </c>
       <c r="AX46"/>
-      <c r="AY46" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ46"/>
+      <c r="AY46"/>
+      <c r="AZ46" t="s">
+        <v>91</v>
+      </c>
       <c r="BA46"/>
       <c r="BB46"/>
-      <c r="BC46" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC46"/>
       <c r="BD46"/>
       <c r="BE46"/>
       <c r="BF46" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG46"/>
       <c r="BH46"/>
-      <c r="BI46" t="s">
-        <v>60</v>
-      </c>
+      <c r="BI46"/>
       <c r="BJ46"/>
       <c r="BK46"/>
-      <c r="BL46" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL46"/>
       <c r="BM46"/>
-      <c r="BN46"/>
+      <c r="BN46" t="s">
+        <v>91</v>
+      </c>
       <c r="BO46"/>
       <c r="BP46"/>
       <c r="BQ46"/>
@@ -7332,103 +6471,82 @@
       <c r="BS46"/>
       <c r="BT46"/>
       <c r="BU46"/>
-      <c r="BV46" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV46"/>
       <c r="BW46"/>
-      <c r="BX46"/>
-      <c r="BY46"/>
+      <c r="BX46" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>91</v>
+      </c>
       <c r="BZ46"/>
       <c r="CA46"/>
       <c r="CB46"/>
-      <c r="CC46"/>
+      <c r="CC46" t="s">
+        <v>91</v>
+      </c>
       <c r="CD46"/>
       <c r="CE46"/>
       <c r="CF46"/>
       <c r="CG46"/>
-      <c r="CH46" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI46" t="s">
-        <v>86</v>
-      </c>
+      <c r="CH46"/>
+      <c r="CI46"/>
       <c r="CJ46" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK46"/>
-      <c r="CL46"/>
-      <c r="CM46"/>
-      <c r="CN46" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO46"/>
-      <c r="CP46"/>
-      <c r="CQ46"/>
-      <c r="CR46"/>
-      <c r="CS46"/>
-      <c r="CT46"/>
-      <c r="CU46"/>
-      <c r="CV46"/>
-      <c r="CW46"/>
-      <c r="CX46"/>
-      <c r="CY46"/>
-      <c r="CZ46"/>
-      <c r="DA46" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>11</v>
-      </c>
-      <c r="M47"/>
+        <v>91</v>
+      </c>
+      <c r="M47" t="s">
+        <v>91</v>
+      </c>
       <c r="N47"/>
-      <c r="O47" t="s">
-        <v>14</v>
-      </c>
+      <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
-      <c r="U47"/>
+      <c r="U47" t="s">
+        <v>91</v>
+      </c>
       <c r="V47"/>
       <c r="W47"/>
       <c r="X47"/>
       <c r="Y47" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="Z47"/>
-      <c r="AA47"/>
+      <c r="AA47" t="s">
+        <v>91</v>
+      </c>
       <c r="AB47"/>
       <c r="AC47"/>
-      <c r="AD47" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD47"/>
       <c r="AE47"/>
-      <c r="AF47" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF47"/>
       <c r="AG47"/>
       <c r="AH47"/>
       <c r="AI47"/>
@@ -7445,30 +6563,32 @@
       <c r="AT47"/>
       <c r="AU47"/>
       <c r="AV47"/>
-      <c r="AW47"/>
+      <c r="AW47" t="s">
+        <v>91</v>
+      </c>
       <c r="AX47"/>
       <c r="AY47"/>
-      <c r="AZ47"/>
+      <c r="AZ47" t="s">
+        <v>91</v>
+      </c>
       <c r="BA47"/>
       <c r="BB47"/>
-      <c r="BC47" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC47"/>
       <c r="BD47"/>
       <c r="BE47"/>
       <c r="BF47" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG47"/>
       <c r="BH47"/>
       <c r="BI47"/>
       <c r="BJ47"/>
       <c r="BK47"/>
-      <c r="BL47" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL47"/>
       <c r="BM47"/>
-      <c r="BN47"/>
+      <c r="BN47" t="s">
+        <v>91</v>
+      </c>
       <c r="BO47"/>
       <c r="BP47"/>
       <c r="BQ47"/>
@@ -7476,12 +6596,14 @@
       <c r="BS47"/>
       <c r="BT47"/>
       <c r="BU47"/>
-      <c r="BV47" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV47"/>
       <c r="BW47"/>
-      <c r="BX47"/>
-      <c r="BY47"/>
+      <c r="BX47" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>91</v>
+      </c>
       <c r="BZ47"/>
       <c r="CA47"/>
       <c r="CB47"/>
@@ -7493,80 +6615,55 @@
       <c r="CH47"/>
       <c r="CI47"/>
       <c r="CJ47" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK47" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL47"/>
-      <c r="CM47"/>
-      <c r="CN47"/>
-      <c r="CO47"/>
-      <c r="CP47"/>
-      <c r="CQ47"/>
-      <c r="CR47"/>
-      <c r="CS47"/>
-      <c r="CT47"/>
-      <c r="CU47"/>
-      <c r="CV47"/>
-      <c r="CW47"/>
-      <c r="CX47"/>
-      <c r="CY47"/>
-      <c r="CZ47"/>
-      <c r="DA47" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB47"/>
+        <v>91</v>
+      </c>
+      <c r="CK47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48"/>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
+      <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M48"/>
       <c r="N48"/>
-      <c r="O48" t="s">
-        <v>14</v>
-      </c>
+      <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48"/>
+      <c r="Q48" t="s">
+        <v>91</v>
+      </c>
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
-      <c r="U48"/>
+      <c r="U48" t="s">
+        <v>91</v>
+      </c>
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
-      <c r="Y48" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48"/>
       <c r="AB48"/>
       <c r="AC48"/>
       <c r="AD48"/>
       <c r="AE48"/>
-      <c r="AF48" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF48"/>
       <c r="AG48"/>
       <c r="AH48"/>
       <c r="AI48"/>
@@ -7583,42 +6680,50 @@
       <c r="AT48"/>
       <c r="AU48"/>
       <c r="AV48"/>
-      <c r="AW48"/>
+      <c r="AW48" t="s">
+        <v>91</v>
+      </c>
       <c r="AX48"/>
       <c r="AY48"/>
-      <c r="AZ48"/>
+      <c r="AZ48" t="s">
+        <v>91</v>
+      </c>
       <c r="BA48"/>
       <c r="BB48"/>
-      <c r="BC48" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC48"/>
       <c r="BD48"/>
       <c r="BE48"/>
       <c r="BF48" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG48"/>
       <c r="BH48"/>
       <c r="BI48"/>
       <c r="BJ48"/>
       <c r="BK48"/>
-      <c r="BL48" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL48"/>
       <c r="BM48"/>
-      <c r="BN48"/>
+      <c r="BN48" t="s">
+        <v>91</v>
+      </c>
       <c r="BO48"/>
-      <c r="BP48"/>
+      <c r="BP48" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ48"/>
       <c r="BR48"/>
-      <c r="BS48"/>
-      <c r="BT48"/>
+      <c r="BS48" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>91</v>
+      </c>
       <c r="BU48"/>
-      <c r="BV48" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV48"/>
       <c r="BW48"/>
-      <c r="BX48"/>
+      <c r="BX48" t="s">
+        <v>91</v>
+      </c>
       <c r="BY48"/>
       <c r="BZ48"/>
       <c r="CA48"/>
@@ -7631,84 +6736,55 @@
       <c r="CH48"/>
       <c r="CI48"/>
       <c r="CJ48" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK48" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL48"/>
-      <c r="CM48"/>
-      <c r="CN48"/>
-      <c r="CO48"/>
-      <c r="CP48"/>
-      <c r="CQ48" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR48"/>
-      <c r="CS48"/>
-      <c r="CT48"/>
-      <c r="CU48"/>
-      <c r="CV48"/>
-      <c r="CW48"/>
-      <c r="CX48"/>
-      <c r="CY48"/>
-      <c r="CZ48"/>
-      <c r="DA48" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB48"/>
+        <v>91</v>
+      </c>
+      <c r="CK48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49"/>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
+      <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49" t="s">
-        <v>14</v>
-      </c>
+      <c r="O49"/>
       <c r="P49"/>
-      <c r="Q49"/>
+      <c r="Q49" t="s">
+        <v>91</v>
+      </c>
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
-      <c r="U49"/>
+      <c r="U49" t="s">
+        <v>91</v>
+      </c>
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
-      <c r="Y49" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y49"/>
       <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
       <c r="AC49"/>
-      <c r="AD49" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD49"/>
       <c r="AE49"/>
-      <c r="AF49" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF49"/>
       <c r="AG49"/>
       <c r="AH49"/>
       <c r="AI49"/>
@@ -7725,42 +6801,50 @@
       <c r="AT49"/>
       <c r="AU49"/>
       <c r="AV49"/>
-      <c r="AW49"/>
+      <c r="AW49" t="s">
+        <v>91</v>
+      </c>
       <c r="AX49"/>
       <c r="AY49"/>
-      <c r="AZ49"/>
+      <c r="AZ49" t="s">
+        <v>91</v>
+      </c>
       <c r="BA49"/>
       <c r="BB49"/>
-      <c r="BC49" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC49"/>
       <c r="BD49"/>
       <c r="BE49"/>
       <c r="BF49" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG49"/>
       <c r="BH49"/>
       <c r="BI49"/>
       <c r="BJ49"/>
       <c r="BK49"/>
-      <c r="BL49" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL49"/>
       <c r="BM49"/>
-      <c r="BN49"/>
+      <c r="BN49" t="s">
+        <v>91</v>
+      </c>
       <c r="BO49"/>
-      <c r="BP49"/>
+      <c r="BP49" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ49"/>
       <c r="BR49"/>
-      <c r="BS49"/>
-      <c r="BT49"/>
+      <c r="BS49" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>91</v>
+      </c>
       <c r="BU49"/>
-      <c r="BV49" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV49"/>
       <c r="BW49"/>
-      <c r="BX49"/>
+      <c r="BX49" t="s">
+        <v>91</v>
+      </c>
       <c r="BY49"/>
       <c r="BZ49"/>
       <c r="CA49"/>
@@ -7773,40 +6857,19 @@
       <c r="CH49"/>
       <c r="CI49"/>
       <c r="CJ49" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK49" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL49"/>
-      <c r="CM49"/>
-      <c r="CN49"/>
-      <c r="CO49"/>
-      <c r="CP49"/>
-      <c r="CQ49"/>
-      <c r="CR49"/>
-      <c r="CS49"/>
-      <c r="CT49"/>
-      <c r="CU49"/>
-      <c r="CV49"/>
-      <c r="CW49"/>
-      <c r="CX49"/>
-      <c r="CY49"/>
-      <c r="CZ49"/>
-      <c r="DA49" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB49"/>
+        <v>91</v>
+      </c>
+      <c r="CK49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -7817,25 +6880,25 @@
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
-      <c r="Q50"/>
+      <c r="Q50" t="s">
+        <v>91</v>
+      </c>
       <c r="R50"/>
-      <c r="S50" t="s">
-        <v>18</v>
-      </c>
+      <c r="S50"/>
       <c r="T50"/>
-      <c r="U50"/>
+      <c r="U50" t="s">
+        <v>91</v>
+      </c>
       <c r="V50"/>
       <c r="W50"/>
       <c r="X50"/>
-      <c r="Y50" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
@@ -7859,43 +6922,49 @@
       <c r="AT50"/>
       <c r="AU50"/>
       <c r="AV50"/>
-      <c r="AW50"/>
+      <c r="AW50" t="s">
+        <v>91</v>
+      </c>
       <c r="AX50"/>
       <c r="AY50"/>
-      <c r="AZ50"/>
+      <c r="AZ50" t="s">
+        <v>91</v>
+      </c>
       <c r="BA50"/>
       <c r="BB50"/>
-      <c r="BC50" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC50"/>
       <c r="BD50"/>
       <c r="BE50"/>
       <c r="BF50" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG50"/>
       <c r="BH50"/>
       <c r="BI50"/>
       <c r="BJ50"/>
       <c r="BK50"/>
-      <c r="BL50" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL50"/>
       <c r="BM50"/>
-      <c r="BN50"/>
+      <c r="BN50" t="s">
+        <v>91</v>
+      </c>
       <c r="BO50"/>
-      <c r="BP50"/>
+      <c r="BP50" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ50"/>
       <c r="BR50"/>
-      <c r="BS50"/>
-      <c r="BT50"/>
+      <c r="BS50" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT50" t="s">
+        <v>91</v>
+      </c>
       <c r="BU50"/>
-      <c r="BV50" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV50"/>
       <c r="BW50"/>
       <c r="BX50" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY50"/>
       <c r="BZ50"/>
@@ -7903,49 +6972,24 @@
       <c r="CB50"/>
       <c r="CC50"/>
       <c r="CD50"/>
-      <c r="CE50" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF50" t="s">
-        <v>83</v>
-      </c>
+      <c r="CE50"/>
+      <c r="CF50"/>
       <c r="CG50"/>
       <c r="CH50"/>
       <c r="CI50"/>
       <c r="CJ50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK50"/>
-      <c r="CL50"/>
-      <c r="CM50"/>
-      <c r="CN50"/>
-      <c r="CO50"/>
-      <c r="CP50"/>
-      <c r="CQ50"/>
-      <c r="CR50"/>
-      <c r="CS50"/>
-      <c r="CT50"/>
-      <c r="CU50"/>
-      <c r="CV50"/>
-      <c r="CW50"/>
-      <c r="CX50"/>
-      <c r="CY50"/>
-      <c r="CZ50"/>
-      <c r="DA50" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
@@ -7955,7 +6999,7 @@
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M51"/>
       <c r="N51"/>
@@ -7963,23 +7007,25 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" t="s">
-        <v>18</v>
-      </c>
+      <c r="S51"/>
       <c r="T51"/>
-      <c r="U51"/>
+      <c r="U51" t="s">
+        <v>91</v>
+      </c>
       <c r="V51"/>
       <c r="W51"/>
       <c r="X51"/>
-      <c r="Y51" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y51"/>
       <c r="Z51"/>
-      <c r="AA51"/>
+      <c r="AA51" t="s">
+        <v>91</v>
+      </c>
       <c r="AB51"/>
       <c r="AC51"/>
       <c r="AD51"/>
-      <c r="AE51"/>
+      <c r="AE51" t="s">
+        <v>91</v>
+      </c>
       <c r="AF51"/>
       <c r="AG51"/>
       <c r="AH51"/>
@@ -7995,45 +7041,49 @@
       <c r="AR51"/>
       <c r="AS51"/>
       <c r="AT51"/>
-      <c r="AU51"/>
+      <c r="AU51" t="s">
+        <v>91</v>
+      </c>
       <c r="AV51"/>
-      <c r="AW51"/>
+      <c r="AW51" t="s">
+        <v>91</v>
+      </c>
       <c r="AX51"/>
       <c r="AY51"/>
-      <c r="AZ51"/>
+      <c r="AZ51" t="s">
+        <v>91</v>
+      </c>
       <c r="BA51"/>
       <c r="BB51"/>
-      <c r="BC51" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC51"/>
       <c r="BD51"/>
       <c r="BE51"/>
       <c r="BF51" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG51"/>
       <c r="BH51"/>
       <c r="BI51"/>
       <c r="BJ51"/>
       <c r="BK51"/>
-      <c r="BL51" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL51"/>
       <c r="BM51"/>
-      <c r="BN51"/>
-      <c r="BO51"/>
+      <c r="BN51" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>91</v>
+      </c>
       <c r="BP51"/>
       <c r="BQ51"/>
       <c r="BR51"/>
       <c r="BS51"/>
       <c r="BT51"/>
       <c r="BU51"/>
-      <c r="BV51" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV51"/>
       <c r="BW51"/>
       <c r="BX51" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY51"/>
       <c r="BZ51"/>
@@ -8041,49 +7091,26 @@
       <c r="CB51"/>
       <c r="CC51"/>
       <c r="CD51"/>
-      <c r="CE51" t="s">
-        <v>82</v>
-      </c>
+      <c r="CE51"/>
       <c r="CF51" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="CG51"/>
       <c r="CH51"/>
       <c r="CI51"/>
       <c r="CJ51" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK51"/>
-      <c r="CL51"/>
-      <c r="CM51"/>
-      <c r="CN51"/>
-      <c r="CO51"/>
-      <c r="CP51"/>
-      <c r="CQ51"/>
-      <c r="CR51"/>
-      <c r="CS51"/>
-      <c r="CT51"/>
-      <c r="CU51"/>
-      <c r="CV51"/>
-      <c r="CW51"/>
-      <c r="CX51"/>
-      <c r="CY51"/>
-      <c r="CZ51"/>
-      <c r="DA51" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
@@ -8093,7 +7120,7 @@
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M52"/>
       <c r="N52"/>
@@ -8101,23 +7128,25 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52" t="s">
-        <v>18</v>
-      </c>
+      <c r="S52"/>
       <c r="T52"/>
-      <c r="U52"/>
+      <c r="U52" t="s">
+        <v>91</v>
+      </c>
       <c r="V52"/>
       <c r="W52"/>
       <c r="X52"/>
-      <c r="Y52" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AA52"/>
+      <c r="AA52" t="s">
+        <v>91</v>
+      </c>
       <c r="AB52"/>
       <c r="AC52"/>
       <c r="AD52"/>
-      <c r="AE52"/>
+      <c r="AE52" t="s">
+        <v>91</v>
+      </c>
       <c r="AF52"/>
       <c r="AG52"/>
       <c r="AH52"/>
@@ -8133,45 +7162,49 @@
       <c r="AR52"/>
       <c r="AS52"/>
       <c r="AT52"/>
-      <c r="AU52"/>
+      <c r="AU52" t="s">
+        <v>91</v>
+      </c>
       <c r="AV52"/>
-      <c r="AW52"/>
+      <c r="AW52" t="s">
+        <v>91</v>
+      </c>
       <c r="AX52"/>
       <c r="AY52"/>
-      <c r="AZ52"/>
+      <c r="AZ52" t="s">
+        <v>91</v>
+      </c>
       <c r="BA52"/>
       <c r="BB52"/>
-      <c r="BC52" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC52"/>
       <c r="BD52"/>
       <c r="BE52"/>
       <c r="BF52" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG52"/>
       <c r="BH52"/>
       <c r="BI52"/>
       <c r="BJ52"/>
       <c r="BK52"/>
-      <c r="BL52" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL52"/>
       <c r="BM52"/>
-      <c r="BN52"/>
-      <c r="BO52"/>
+      <c r="BN52" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO52" t="s">
+        <v>91</v>
+      </c>
       <c r="BP52"/>
       <c r="BQ52"/>
       <c r="BR52"/>
       <c r="BS52"/>
       <c r="BT52"/>
       <c r="BU52"/>
-      <c r="BV52" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV52"/>
       <c r="BW52"/>
       <c r="BX52" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BY52"/>
       <c r="BZ52"/>
@@ -8179,45 +7212,24 @@
       <c r="CB52"/>
       <c r="CC52"/>
       <c r="CD52"/>
-      <c r="CE52" t="s">
-        <v>82</v>
-      </c>
+      <c r="CE52"/>
       <c r="CF52" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="CG52"/>
       <c r="CH52"/>
       <c r="CI52"/>
       <c r="CJ52" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK52"/>
-      <c r="CL52"/>
-      <c r="CM52"/>
-      <c r="CN52"/>
-      <c r="CO52"/>
-      <c r="CP52"/>
-      <c r="CQ52"/>
-      <c r="CR52"/>
-      <c r="CS52"/>
-      <c r="CT52"/>
-      <c r="CU52"/>
-      <c r="CV52"/>
-      <c r="CW52"/>
-      <c r="CX52"/>
-      <c r="CY52"/>
-      <c r="CZ52"/>
-      <c r="DA52" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -8229,7 +7241,7 @@
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M53"/>
       <c r="N53"/>
@@ -8239,29 +7251,29 @@
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-      <c r="U53"/>
+      <c r="U53" t="s">
+        <v>91</v>
+      </c>
       <c r="V53"/>
       <c r="W53"/>
       <c r="X53"/>
-      <c r="Y53" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y53"/>
       <c r="Z53"/>
-      <c r="AA53"/>
+      <c r="AA53" t="s">
+        <v>91</v>
+      </c>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
-      <c r="AE53"/>
-      <c r="AF53" t="s">
-        <v>31</v>
-      </c>
+      <c r="AE53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF53"/>
       <c r="AG53"/>
       <c r="AH53"/>
       <c r="AI53"/>
       <c r="AJ53"/>
-      <c r="AK53" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK53"/>
       <c r="AL53"/>
       <c r="AM53"/>
       <c r="AN53"/>
@@ -8271,48 +7283,50 @@
       <c r="AR53"/>
       <c r="AS53"/>
       <c r="AT53"/>
-      <c r="AU53"/>
+      <c r="AU53" t="s">
+        <v>91</v>
+      </c>
       <c r="AV53"/>
-      <c r="AW53"/>
+      <c r="AW53" t="s">
+        <v>91</v>
+      </c>
       <c r="AX53"/>
       <c r="AY53"/>
-      <c r="AZ53"/>
-      <c r="BA53" t="s">
-        <v>52</v>
-      </c>
+      <c r="AZ53" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA53"/>
       <c r="BB53"/>
-      <c r="BC53" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC53"/>
       <c r="BD53"/>
       <c r="BE53"/>
       <c r="BF53" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG53"/>
       <c r="BH53"/>
       <c r="BI53"/>
       <c r="BJ53"/>
       <c r="BK53"/>
-      <c r="BL53" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL53"/>
       <c r="BM53"/>
-      <c r="BN53"/>
-      <c r="BO53"/>
+      <c r="BN53" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO53" t="s">
+        <v>91</v>
+      </c>
       <c r="BP53"/>
       <c r="BQ53"/>
       <c r="BR53"/>
       <c r="BS53"/>
       <c r="BT53"/>
       <c r="BU53"/>
-      <c r="BV53" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX53"/>
+      <c r="BV53"/>
+      <c r="BW53"/>
+      <c r="BX53" t="s">
+        <v>91</v>
+      </c>
       <c r="BY53"/>
       <c r="BZ53"/>
       <c r="CA53"/>
@@ -8320,54 +7334,41 @@
       <c r="CC53"/>
       <c r="CD53"/>
       <c r="CE53"/>
-      <c r="CF53"/>
+      <c r="CF53" t="s">
+        <v>91</v>
+      </c>
       <c r="CG53"/>
       <c r="CH53"/>
       <c r="CI53"/>
       <c r="CJ53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK53"/>
-      <c r="CL53"/>
-      <c r="CM53"/>
-      <c r="CN53"/>
-      <c r="CO53"/>
-      <c r="CP53"/>
-      <c r="CQ53"/>
-      <c r="CR53"/>
-      <c r="CS53"/>
-      <c r="CT53"/>
-      <c r="CU53" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV53"/>
-      <c r="CW53"/>
-      <c r="CX53"/>
-      <c r="CY53"/>
-      <c r="CZ53"/>
-      <c r="DA53" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54"/>
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
       <c r="D54"/>
-      <c r="E54"/>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
       <c r="K54"/>
       <c r="L54" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M54"/>
       <c r="N54"/>
@@ -8375,57 +7376,61 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
-      <c r="S54"/>
+      <c r="S54" t="s">
+        <v>91</v>
+      </c>
       <c r="T54"/>
-      <c r="U54"/>
+      <c r="U54" t="s">
+        <v>91</v>
+      </c>
       <c r="V54"/>
       <c r="W54"/>
       <c r="X54"/>
-      <c r="Y54" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z54"/>
+      <c r="Y54"/>
+      <c r="Z54" t="s">
+        <v>91</v>
+      </c>
       <c r="AA54"/>
       <c r="AB54"/>
       <c r="AC54"/>
       <c r="AD54"/>
       <c r="AE54"/>
-      <c r="AF54" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF54"/>
       <c r="AG54"/>
       <c r="AH54"/>
       <c r="AI54"/>
       <c r="AJ54"/>
-      <c r="AK54" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK54"/>
       <c r="AL54"/>
       <c r="AM54"/>
       <c r="AN54"/>
       <c r="AO54"/>
       <c r="AP54"/>
       <c r="AQ54"/>
-      <c r="AR54"/>
+      <c r="AR54" t="s">
+        <v>91</v>
+      </c>
       <c r="AS54"/>
-      <c r="AT54"/>
+      <c r="AT54" t="s">
+        <v>91</v>
+      </c>
       <c r="AU54"/>
       <c r="AV54"/>
-      <c r="AW54"/>
+      <c r="AW54" t="s">
+        <v>91</v>
+      </c>
       <c r="AX54"/>
       <c r="AY54"/>
-      <c r="AZ54"/>
-      <c r="BA54" t="s">
-        <v>52</v>
-      </c>
+      <c r="AZ54" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA54"/>
       <c r="BB54"/>
-      <c r="BC54" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC54"/>
       <c r="BD54"/>
       <c r="BE54"/>
       <c r="BF54" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG54"/>
       <c r="BH54"/>
@@ -8433,10 +7438,12 @@
       <c r="BJ54"/>
       <c r="BK54"/>
       <c r="BL54" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="BM54"/>
-      <c r="BN54"/>
+      <c r="BN54" t="s">
+        <v>91</v>
+      </c>
       <c r="BO54"/>
       <c r="BP54"/>
       <c r="BQ54"/>
@@ -8444,68 +7451,53 @@
       <c r="BS54"/>
       <c r="BT54"/>
       <c r="BU54"/>
-      <c r="BV54" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW54" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX54"/>
+      <c r="BV54"/>
+      <c r="BW54"/>
+      <c r="BX54" t="s">
+        <v>91</v>
+      </c>
       <c r="BY54"/>
       <c r="BZ54"/>
       <c r="CA54"/>
       <c r="CB54"/>
       <c r="CC54"/>
-      <c r="CD54"/>
+      <c r="CD54" t="s">
+        <v>91</v>
+      </c>
       <c r="CE54"/>
       <c r="CF54"/>
       <c r="CG54"/>
       <c r="CH54"/>
       <c r="CI54"/>
       <c r="CJ54" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK54"/>
-      <c r="CL54"/>
-      <c r="CM54"/>
-      <c r="CN54"/>
-      <c r="CO54"/>
-      <c r="CP54"/>
-      <c r="CQ54"/>
-      <c r="CR54"/>
-      <c r="CS54"/>
-      <c r="CT54"/>
-      <c r="CU54" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV54"/>
-      <c r="CW54"/>
-      <c r="CX54"/>
-      <c r="CY54"/>
-      <c r="CZ54"/>
-      <c r="DA54" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55"/>
+        <v>170</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
       <c r="D55"/>
-      <c r="E55"/>
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55"/>
+      <c r="J55" t="s">
+        <v>91</v>
+      </c>
       <c r="K55"/>
       <c r="L55" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M55"/>
       <c r="N55"/>
@@ -8513,57 +7505,59 @@
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
-      <c r="S55"/>
+      <c r="S55" t="s">
+        <v>91</v>
+      </c>
       <c r="T55"/>
-      <c r="U55"/>
+      <c r="U55" t="s">
+        <v>91</v>
+      </c>
       <c r="V55"/>
       <c r="W55"/>
       <c r="X55"/>
-      <c r="Y55" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z55"/>
+      <c r="Y55"/>
+      <c r="Z55" t="s">
+        <v>91</v>
+      </c>
       <c r="AA55"/>
       <c r="AB55"/>
       <c r="AC55"/>
       <c r="AD55"/>
       <c r="AE55"/>
-      <c r="AF55" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF55"/>
       <c r="AG55"/>
       <c r="AH55"/>
       <c r="AI55"/>
       <c r="AJ55"/>
-      <c r="AK55" t="s">
-        <v>36</v>
-      </c>
+      <c r="AK55"/>
       <c r="AL55"/>
       <c r="AM55"/>
       <c r="AN55"/>
       <c r="AO55"/>
       <c r="AP55"/>
       <c r="AQ55"/>
-      <c r="AR55"/>
+      <c r="AR55" t="s">
+        <v>91</v>
+      </c>
       <c r="AS55"/>
       <c r="AT55"/>
       <c r="AU55"/>
       <c r="AV55"/>
-      <c r="AW55"/>
+      <c r="AW55" t="s">
+        <v>91</v>
+      </c>
       <c r="AX55"/>
       <c r="AY55"/>
-      <c r="AZ55"/>
-      <c r="BA55" t="s">
-        <v>52</v>
-      </c>
+      <c r="AZ55" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA55"/>
       <c r="BB55"/>
-      <c r="BC55" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC55"/>
       <c r="BD55"/>
       <c r="BE55"/>
       <c r="BF55" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="BG55"/>
       <c r="BH55"/>
@@ -8571,10 +7565,12 @@
       <c r="BJ55"/>
       <c r="BK55"/>
       <c r="BL55" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="BM55"/>
-      <c r="BN55"/>
+      <c r="BN55" t="s">
+        <v>91</v>
+      </c>
       <c r="BO55"/>
       <c r="BP55"/>
       <c r="BQ55"/>
@@ -8582,13 +7578,11 @@
       <c r="BS55"/>
       <c r="BT55"/>
       <c r="BU55"/>
-      <c r="BV55" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW55" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX55"/>
+      <c r="BV55"/>
+      <c r="BW55"/>
+      <c r="BX55" t="s">
+        <v>91</v>
+      </c>
       <c r="BY55"/>
       <c r="BZ55"/>
       <c r="CA55"/>
@@ -8601,55 +7595,28 @@
       <c r="CH55"/>
       <c r="CI55"/>
       <c r="CJ55" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK55"/>
-      <c r="CL55"/>
-      <c r="CM55"/>
-      <c r="CN55"/>
-      <c r="CO55"/>
-      <c r="CP55"/>
-      <c r="CQ55"/>
-      <c r="CR55"/>
-      <c r="CS55"/>
-      <c r="CT55"/>
-      <c r="CU55" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV55"/>
-      <c r="CW55"/>
-      <c r="CX55"/>
-      <c r="CY55"/>
-      <c r="CZ55"/>
-      <c r="DA55" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C56"/>
       <c r="D56"/>
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
+      <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56" t="s">
-        <v>9</v>
-      </c>
+      <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M56"/>
       <c r="N56"/>
@@ -8659,25 +7626,25 @@
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56"/>
-      <c r="U56"/>
+      <c r="U56" t="s">
+        <v>91</v>
+      </c>
       <c r="V56"/>
-      <c r="W56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X56"/>
-      <c r="Y56" t="s">
-        <v>24</v>
-      </c>
+      <c r="W56"/>
+      <c r="X56" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y56"/>
       <c r="Z56"/>
       <c r="AA56"/>
       <c r="AB56"/>
       <c r="AC56"/>
       <c r="AD56"/>
-      <c r="AE56" t="s">
-        <v>30</v>
-      </c>
+      <c r="AE56"/>
       <c r="AF56"/>
-      <c r="AG56"/>
+      <c r="AG56" t="s">
+        <v>91</v>
+      </c>
       <c r="AH56"/>
       <c r="AI56"/>
       <c r="AJ56"/>
@@ -8687,54 +7654,54 @@
       <c r="AN56"/>
       <c r="AO56"/>
       <c r="AP56"/>
-      <c r="AQ56"/>
+      <c r="AQ56" t="s">
+        <v>91</v>
+      </c>
       <c r="AR56"/>
       <c r="AS56"/>
       <c r="AT56"/>
       <c r="AU56"/>
       <c r="AV56"/>
-      <c r="AW56"/>
-      <c r="AX56" t="s">
-        <v>49</v>
-      </c>
+      <c r="AW56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX56"/>
       <c r="AY56"/>
       <c r="AZ56" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="BA56"/>
       <c r="BB56"/>
-      <c r="BC56" t="s">
-        <v>54</v>
-      </c>
+      <c r="BC56"/>
       <c r="BD56"/>
-      <c r="BE56"/>
-      <c r="BF56" t="s">
-        <v>57</v>
-      </c>
+      <c r="BE56" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF56"/>
       <c r="BG56"/>
       <c r="BH56"/>
       <c r="BI56"/>
       <c r="BJ56"/>
       <c r="BK56"/>
-      <c r="BL56" t="s">
-        <v>63</v>
-      </c>
+      <c r="BL56"/>
       <c r="BM56"/>
-      <c r="BN56"/>
+      <c r="BN56" t="s">
+        <v>91</v>
+      </c>
       <c r="BO56"/>
       <c r="BP56"/>
-      <c r="BQ56"/>
+      <c r="BQ56" t="s">
+        <v>91</v>
+      </c>
       <c r="BR56"/>
       <c r="BS56"/>
-      <c r="BT56" t="s">
-        <v>71</v>
-      </c>
+      <c r="BT56"/>
       <c r="BU56"/>
-      <c r="BV56" t="s">
-        <v>73</v>
-      </c>
+      <c r="BV56"/>
       <c r="BW56"/>
-      <c r="BX56"/>
+      <c r="BX56" t="s">
+        <v>91</v>
+      </c>
       <c r="BY56"/>
       <c r="BZ56"/>
       <c r="CA56"/>
@@ -8747,308 +7714,9 @@
       <c r="CH56"/>
       <c r="CI56"/>
       <c r="CJ56" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CK56"/>
-      <c r="CL56"/>
-      <c r="CM56"/>
-      <c r="CN56"/>
-      <c r="CO56"/>
-      <c r="CP56"/>
-      <c r="CQ56"/>
-      <c r="CR56"/>
-      <c r="CS56" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT56"/>
-      <c r="CU56"/>
-      <c r="CV56"/>
-      <c r="CW56"/>
-      <c r="CX56"/>
-      <c r="CY56"/>
-      <c r="CZ56"/>
-      <c r="DA56" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB56"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57"/>
-      <c r="L57" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57" t="s">
-        <v>22</v>
-      </c>
-      <c r="X57"/>
-      <c r="Y57" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-      <c r="AE57" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF57"/>
-      <c r="AG57"/>
-      <c r="AH57"/>
-      <c r="AI57"/>
-      <c r="AJ57"/>
-      <c r="AK57"/>
-      <c r="AL57"/>
-      <c r="AM57"/>
-      <c r="AN57"/>
-      <c r="AO57"/>
-      <c r="AP57"/>
-      <c r="AQ57"/>
-      <c r="AR57"/>
-      <c r="AS57"/>
-      <c r="AT57"/>
-      <c r="AU57"/>
-      <c r="AV57"/>
-      <c r="AW57"/>
-      <c r="AX57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY57"/>
-      <c r="AZ57"/>
-      <c r="BA57"/>
-      <c r="BB57"/>
-      <c r="BC57" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD57"/>
-      <c r="BE57"/>
-      <c r="BF57" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG57"/>
-      <c r="BH57"/>
-      <c r="BI57"/>
-      <c r="BJ57"/>
-      <c r="BK57"/>
-      <c r="BL57" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM57"/>
-      <c r="BN57"/>
-      <c r="BO57"/>
-      <c r="BP57"/>
-      <c r="BQ57"/>
-      <c r="BR57"/>
-      <c r="BS57"/>
-      <c r="BT57" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU57"/>
-      <c r="BV57" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW57"/>
-      <c r="BX57"/>
-      <c r="BY57"/>
-      <c r="BZ57"/>
-      <c r="CA57"/>
-      <c r="CB57"/>
-      <c r="CC57"/>
-      <c r="CD57"/>
-      <c r="CE57"/>
-      <c r="CF57"/>
-      <c r="CG57"/>
-      <c r="CH57"/>
-      <c r="CI57"/>
-      <c r="CJ57" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK57"/>
-      <c r="CL57"/>
-      <c r="CM57"/>
-      <c r="CN57"/>
-      <c r="CO57"/>
-      <c r="CP57"/>
-      <c r="CQ57"/>
-      <c r="CR57"/>
-      <c r="CS57"/>
-      <c r="CT57"/>
-      <c r="CU57"/>
-      <c r="CV57"/>
-      <c r="CW57"/>
-      <c r="CX57"/>
-      <c r="CY57"/>
-      <c r="CZ57"/>
-      <c r="DA57" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB57"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58" t="s">
-        <v>11</v>
-      </c>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD58"/>
-      <c r="AE58"/>
-      <c r="AF58"/>
-      <c r="AG58"/>
-      <c r="AH58"/>
-      <c r="AI58"/>
-      <c r="AJ58"/>
-      <c r="AK58"/>
-      <c r="AL58"/>
-      <c r="AM58" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN58"/>
-      <c r="AO58"/>
-      <c r="AP58"/>
-      <c r="AQ58"/>
-      <c r="AR58"/>
-      <c r="AS58"/>
-      <c r="AT58"/>
-      <c r="AU58"/>
-      <c r="AV58"/>
-      <c r="AW58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX58"/>
-      <c r="AY58"/>
-      <c r="AZ58"/>
-      <c r="BA58"/>
-      <c r="BB58"/>
-      <c r="BC58" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD58"/>
-      <c r="BE58"/>
-      <c r="BF58" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG58"/>
-      <c r="BH58"/>
-      <c r="BI58"/>
-      <c r="BJ58"/>
-      <c r="BK58" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL58"/>
-      <c r="BM58"/>
-      <c r="BN58"/>
-      <c r="BO58"/>
-      <c r="BP58"/>
-      <c r="BQ58"/>
-      <c r="BR58"/>
-      <c r="BS58"/>
-      <c r="BT58"/>
-      <c r="BU58"/>
-      <c r="BV58" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW58"/>
-      <c r="BX58"/>
-      <c r="BY58" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ58"/>
-      <c r="CA58"/>
-      <c r="CB58"/>
-      <c r="CC58"/>
-      <c r="CD58"/>
-      <c r="CE58"/>
-      <c r="CF58"/>
-      <c r="CG58"/>
-      <c r="CH58"/>
-      <c r="CI58"/>
-      <c r="CJ58" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK58"/>
-      <c r="CL58"/>
-      <c r="CM58"/>
-      <c r="CN58"/>
-      <c r="CO58"/>
-      <c r="CP58"/>
-      <c r="CQ58"/>
-      <c r="CR58"/>
-      <c r="CS58"/>
-      <c r="CT58"/>
-      <c r="CU58"/>
-      <c r="CV58"/>
-      <c r="CW58"/>
-      <c r="CX58"/>
-      <c r="CY58"/>
-      <c r="CZ58"/>
-      <c r="DA58" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summaries/variantSummary2.xlsx
+++ b/summaries/variantSummary2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -311,16 +311,19 @@
     <t xml:space="preserve">211</t>
   </si>
   <si>
-    <t xml:space="preserve">211|ET|20200413</t>
-  </si>
-  <si>
     <t xml:space="preserve">211|ETA|20200413</t>
   </si>
   <si>
-    <t xml:space="preserve">211|NP|20200408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211|OP|20200413</t>
+    <t xml:space="preserve">211-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE|ETA|20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE|NP|20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE|OP|20200413</t>
   </si>
   <si>
     <t xml:space="preserve">213</t>
@@ -329,22 +332,22 @@
     <t xml:space="preserve">213|ETA|20200415</t>
   </si>
   <si>
-    <t xml:space="preserve">222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222|NP|20200417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222|OP|20200417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222|OP|20200420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223|OP|20200417</t>
+    <t xml:space="preserve">222-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE|NP|20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE|OP|20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE|OP|20200420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-TCE|OP|20200417</t>
   </si>
   <si>
     <t xml:space="preserve">227</t>
@@ -491,7 +494,13 @@
     <t xml:space="preserve">266|NP-OP|20200522</t>
   </si>
   <si>
-    <t xml:space="preserve">266|Unk|20200520</t>
+    <t xml:space="preserve">266-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-TCE|NP-OP|20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-TCE|NP-OP|20200522</t>
   </si>
   <si>
     <t xml:space="preserve">269</t>
@@ -1633,7 +1642,9 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6"/>
+      <c r="T6" t="s">
+        <v>91</v>
+      </c>
       <c r="U6" t="s">
         <v>91</v>
       </c>
@@ -1656,8 +1667,12 @@
       <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
+      <c r="AM6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>91</v>
+      </c>
       <c r="AO6"/>
       <c r="AP6"/>
       <c r="AQ6"/>
@@ -1728,10 +1743,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -1756,9 +1771,7 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="T7" t="s">
-        <v>91</v>
-      </c>
+      <c r="T7"/>
       <c r="U7" t="s">
         <v>91</v>
       </c>
@@ -1781,12 +1794,8 @@
       <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7"/>
-      <c r="AM7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>91</v>
-      </c>
+      <c r="AM7"/>
+      <c r="AN7"/>
       <c r="AO7"/>
       <c r="AP7"/>
       <c r="AQ7"/>
@@ -1857,10 +1866,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -1980,10 +1989,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
@@ -2107,10 +2116,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
@@ -2226,10 +2235,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
@@ -2345,10 +2354,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
@@ -2464,10 +2473,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>91</v>
@@ -2585,10 +2594,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -2708,10 +2717,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -2825,10 +2834,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
         <v>91</v>
@@ -2950,10 +2959,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -3071,10 +3080,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -3192,10 +3201,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -3313,10 +3322,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>91</v>
@@ -3434,10 +3443,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
         <v>91</v>
@@ -3549,10 +3558,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
@@ -3668,10 +3677,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
         <v>91</v>
@@ -3793,10 +3802,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
         <v>91</v>
@@ -3906,10 +3915,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>91</v>
@@ -4025,10 +4034,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>91</v>
@@ -4142,10 +4151,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
@@ -4259,10 +4268,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
@@ -4372,10 +4381,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -4481,10 +4490,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -4590,10 +4599,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -4699,10 +4708,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -4808,10 +4817,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
         <v>91</v>
@@ -4927,10 +4936,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -5046,10 +5055,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -5163,10 +5172,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -5282,10 +5291,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
         <v>91</v>
@@ -5399,10 +5408,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
         <v>91</v>
@@ -5516,10 +5525,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
         <v>91</v>
@@ -5633,10 +5642,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
         <v>91</v>
@@ -5748,10 +5757,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
         <v>91</v>
@@ -5867,10 +5876,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
         <v>91</v>
@@ -5986,10 +5995,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
         <v>91</v>
@@ -6117,10 +6126,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
         <v>91</v>
@@ -6252,10 +6261,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
@@ -6375,10 +6384,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
@@ -6498,10 +6507,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
@@ -6624,29 +6633,31 @@
         <v>160</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48"/>
+        <v>162</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48"/>
+      <c r="I48" t="s">
+        <v>91</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="s">
         <v>91</v>
       </c>
-      <c r="M48"/>
+      <c r="M48" t="s">
+        <v>91</v>
+      </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48" t="s">
-        <v>91</v>
-      </c>
+      <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -6658,7 +6669,9 @@
       <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
-      <c r="AA48"/>
+      <c r="AA48" t="s">
+        <v>91</v>
+      </c>
       <c r="AB48"/>
       <c r="AC48"/>
       <c r="AD48"/>
@@ -6707,28 +6720,26 @@
         <v>91</v>
       </c>
       <c r="BO48"/>
-      <c r="BP48" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP48"/>
       <c r="BQ48"/>
       <c r="BR48"/>
-      <c r="BS48" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT48" t="s">
-        <v>91</v>
-      </c>
+      <c r="BS48"/>
+      <c r="BT48"/>
       <c r="BU48"/>
       <c r="BV48"/>
       <c r="BW48"/>
       <c r="BX48" t="s">
         <v>91</v>
       </c>
-      <c r="BY48"/>
+      <c r="BY48" t="s">
+        <v>91</v>
+      </c>
       <c r="BZ48"/>
       <c r="CA48"/>
       <c r="CB48"/>
-      <c r="CC48"/>
+      <c r="CC48" t="s">
+        <v>91</v>
+      </c>
       <c r="CD48"/>
       <c r="CE48"/>
       <c r="CF48"/>
@@ -6742,10 +6753,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
         <v>91</v>
@@ -6863,10 +6874,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
         <v>91</v>
@@ -6984,12 +6995,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51"/>
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
@@ -7005,7 +7018,9 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
-      <c r="Q51"/>
+      <c r="Q51" t="s">
+        <v>91</v>
+      </c>
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
@@ -7017,15 +7032,11 @@
       <c r="X51"/>
       <c r="Y51"/>
       <c r="Z51"/>
-      <c r="AA51" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA51"/>
       <c r="AB51"/>
       <c r="AC51"/>
       <c r="AD51"/>
-      <c r="AE51" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE51"/>
       <c r="AF51"/>
       <c r="AG51"/>
       <c r="AH51"/>
@@ -7041,9 +7052,7 @@
       <c r="AR51"/>
       <c r="AS51"/>
       <c r="AT51"/>
-      <c r="AU51" t="s">
-        <v>91</v>
-      </c>
+      <c r="AU51"/>
       <c r="AV51"/>
       <c r="AW51" t="s">
         <v>91</v>
@@ -7071,14 +7080,18 @@
       <c r="BN51" t="s">
         <v>91</v>
       </c>
-      <c r="BO51" t="s">
-        <v>91</v>
-      </c>
-      <c r="BP51"/>
+      <c r="BO51"/>
+      <c r="BP51" t="s">
+        <v>91</v>
+      </c>
       <c r="BQ51"/>
       <c r="BR51"/>
-      <c r="BS51"/>
-      <c r="BT51"/>
+      <c r="BS51" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>91</v>
+      </c>
       <c r="BU51"/>
       <c r="BV51"/>
       <c r="BW51"/>
@@ -7092,9 +7105,7 @@
       <c r="CC51"/>
       <c r="CD51"/>
       <c r="CE51"/>
-      <c r="CF51" t="s">
-        <v>91</v>
-      </c>
+      <c r="CF51"/>
       <c r="CG51"/>
       <c r="CH51"/>
       <c r="CI51"/>
@@ -7105,10 +7116,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -7226,10 +7237,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -7347,25 +7358,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" t="s">
-        <v>91</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C54"/>
       <c r="D54"/>
-      <c r="E54" t="s">
-        <v>91</v>
-      </c>
+      <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54" t="s">
-        <v>91</v>
-      </c>
+      <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="s">
         <v>91</v>
@@ -7376,9 +7381,7 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
-      <c r="S54" t="s">
-        <v>91</v>
-      </c>
+      <c r="S54"/>
       <c r="T54"/>
       <c r="U54" t="s">
         <v>91</v>
@@ -7387,14 +7390,16 @@
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54"/>
-      <c r="Z54" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA54"/>
+      <c r="Z54"/>
+      <c r="AA54" t="s">
+        <v>91</v>
+      </c>
       <c r="AB54"/>
       <c r="AC54"/>
       <c r="AD54"/>
-      <c r="AE54"/>
+      <c r="AE54" t="s">
+        <v>91</v>
+      </c>
       <c r="AF54"/>
       <c r="AG54"/>
       <c r="AH54"/>
@@ -7407,14 +7412,12 @@
       <c r="AO54"/>
       <c r="AP54"/>
       <c r="AQ54"/>
-      <c r="AR54" t="s">
-        <v>91</v>
-      </c>
+      <c r="AR54"/>
       <c r="AS54"/>
-      <c r="AT54" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU54"/>
+      <c r="AT54"/>
+      <c r="AU54" t="s">
+        <v>91</v>
+      </c>
       <c r="AV54"/>
       <c r="AW54" t="s">
         <v>91</v>
@@ -7437,14 +7440,14 @@
       <c r="BI54"/>
       <c r="BJ54"/>
       <c r="BK54"/>
-      <c r="BL54" t="s">
-        <v>91</v>
-      </c>
+      <c r="BL54"/>
       <c r="BM54"/>
       <c r="BN54" t="s">
         <v>91</v>
       </c>
-      <c r="BO54"/>
+      <c r="BO54" t="s">
+        <v>91</v>
+      </c>
       <c r="BP54"/>
       <c r="BQ54"/>
       <c r="BR54"/>
@@ -7461,11 +7464,11 @@
       <c r="CA54"/>
       <c r="CB54"/>
       <c r="CC54"/>
-      <c r="CD54" t="s">
-        <v>91</v>
-      </c>
+      <c r="CD54"/>
       <c r="CE54"/>
-      <c r="CF54"/>
+      <c r="CF54" t="s">
+        <v>91</v>
+      </c>
       <c r="CG54"/>
       <c r="CH54"/>
       <c r="CI54"/>
@@ -7476,10 +7479,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
         <v>91</v>
@@ -7540,7 +7543,9 @@
         <v>91</v>
       </c>
       <c r="AS55"/>
-      <c r="AT55"/>
+      <c r="AT55" t="s">
+        <v>91</v>
+      </c>
       <c r="AU55"/>
       <c r="AV55"/>
       <c r="AW55" t="s">
@@ -7588,7 +7593,9 @@
       <c r="CA55"/>
       <c r="CB55"/>
       <c r="CC55"/>
-      <c r="CD55"/>
+      <c r="CD55" t="s">
+        <v>91</v>
+      </c>
       <c r="CE55"/>
       <c r="CF55"/>
       <c r="CG55"/>
@@ -7604,16 +7611,22 @@
         <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56"/>
+        <v>173</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
       <c r="D56"/>
-      <c r="E56"/>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56"/>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
       <c r="K56"/>
       <c r="L56" t="s">
         <v>91</v>
@@ -7624,27 +7637,27 @@
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
-      <c r="S56"/>
+      <c r="S56" t="s">
+        <v>91</v>
+      </c>
       <c r="T56"/>
       <c r="U56" t="s">
         <v>91</v>
       </c>
       <c r="V56"/>
       <c r="W56"/>
-      <c r="X56" t="s">
-        <v>91</v>
-      </c>
+      <c r="X56"/>
       <c r="Y56"/>
-      <c r="Z56"/>
+      <c r="Z56" t="s">
+        <v>91</v>
+      </c>
       <c r="AA56"/>
       <c r="AB56"/>
       <c r="AC56"/>
       <c r="AD56"/>
       <c r="AE56"/>
       <c r="AF56"/>
-      <c r="AG56" t="s">
-        <v>91</v>
-      </c>
+      <c r="AG56"/>
       <c r="AH56"/>
       <c r="AI56"/>
       <c r="AJ56"/>
@@ -7654,10 +7667,10 @@
       <c r="AN56"/>
       <c r="AO56"/>
       <c r="AP56"/>
-      <c r="AQ56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR56"/>
+      <c r="AQ56"/>
+      <c r="AR56" t="s">
+        <v>91</v>
+      </c>
       <c r="AS56"/>
       <c r="AT56"/>
       <c r="AU56"/>
@@ -7674,25 +7687,25 @@
       <c r="BB56"/>
       <c r="BC56"/>
       <c r="BD56"/>
-      <c r="BE56" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF56"/>
+      <c r="BE56"/>
+      <c r="BF56" t="s">
+        <v>91</v>
+      </c>
       <c r="BG56"/>
       <c r="BH56"/>
       <c r="BI56"/>
       <c r="BJ56"/>
       <c r="BK56"/>
-      <c r="BL56"/>
+      <c r="BL56" t="s">
+        <v>91</v>
+      </c>
       <c r="BM56"/>
       <c r="BN56" t="s">
         <v>91</v>
       </c>
       <c r="BO56"/>
       <c r="BP56"/>
-      <c r="BQ56" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ56"/>
       <c r="BR56"/>
       <c r="BS56"/>
       <c r="BT56"/>
@@ -7718,6 +7731,125 @@
       </c>
       <c r="CK56"/>
     </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57" t="s">
+        <v>91</v>
+      </c>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57" t="s">
+        <v>91</v>
+      </c>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR57"/>
+      <c r="AS57"/>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX57"/>
+      <c r="AY57"/>
+      <c r="AZ57" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA57"/>
+      <c r="BB57"/>
+      <c r="BC57"/>
+      <c r="BD57"/>
+      <c r="BE57" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF57"/>
+      <c r="BG57"/>
+      <c r="BH57"/>
+      <c r="BI57"/>
+      <c r="BJ57"/>
+      <c r="BK57"/>
+      <c r="BL57"/>
+      <c r="BM57"/>
+      <c r="BN57" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO57"/>
+      <c r="BP57"/>
+      <c r="BQ57" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR57"/>
+      <c r="BS57"/>
+      <c r="BT57"/>
+      <c r="BU57"/>
+      <c r="BV57"/>
+      <c r="BW57"/>
+      <c r="BX57" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY57"/>
+      <c r="BZ57"/>
+      <c r="CA57"/>
+      <c r="CB57"/>
+      <c r="CC57"/>
+      <c r="CD57"/>
+      <c r="CE57"/>
+      <c r="CF57"/>
+      <c r="CG57"/>
+      <c r="CH57"/>
+      <c r="CI57"/>
+      <c r="CJ57" t="s">
+        <v>91</v>
+      </c>
+      <c r="CK57"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/summaries/variantSummary2.xlsx
+++ b/summaries/variantSummary2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -80,9 +80,6 @@
     <t xml:space="preserve">18255|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">18404|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">18486|orf1ab</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t xml:space="preserve">18958|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">18974|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">18998|orf1ab</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t xml:space="preserve">23230|S</t>
   </si>
   <si>
-    <t xml:space="preserve">2334|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">23403|S</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
     <t xml:space="preserve">228</t>
   </si>
   <si>
-    <t xml:space="preserve">228|NP-OP|20200424</t>
-  </si>
-  <si>
     <t xml:space="preserve">228|NP-OP|20200529</t>
   </si>
   <si>
@@ -492,15 +480,6 @@
   </si>
   <si>
     <t xml:space="preserve">266|NP-OP|20200522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266-TCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266-TCE|NP-OP|20200520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266-TCE|NP-OP|20200522</t>
   </si>
   <si>
     <t xml:space="preserve">269</t>
@@ -1130,25 +1109,16 @@
       <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -1159,7 +1129,7 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
@@ -1170,10 +1140,10 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W2"/>
       <c r="X2"/>
@@ -1192,55 +1162,55 @@
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
-      <c r="AN2"/>
+      <c r="AN2" t="s">
+        <v>88</v>
+      </c>
       <c r="AO2"/>
-      <c r="AP2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AP2"/>
       <c r="AQ2"/>
       <c r="AR2"/>
       <c r="AS2"/>
-      <c r="AT2"/>
+      <c r="AT2" t="s">
+        <v>88</v>
+      </c>
       <c r="AU2"/>
       <c r="AV2"/>
       <c r="AW2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX2"/>
       <c r="AY2"/>
-      <c r="AZ2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ2"/>
       <c r="BA2"/>
       <c r="BB2"/>
-      <c r="BC2"/>
+      <c r="BC2" t="s">
+        <v>88</v>
+      </c>
       <c r="BD2"/>
       <c r="BE2"/>
-      <c r="BF2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF2"/>
       <c r="BG2"/>
       <c r="BH2"/>
       <c r="BI2"/>
       <c r="BJ2"/>
-      <c r="BK2"/>
+      <c r="BK2" t="s">
+        <v>88</v>
+      </c>
       <c r="BL2"/>
       <c r="BM2"/>
-      <c r="BN2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN2"/>
       <c r="BO2"/>
       <c r="BP2"/>
       <c r="BQ2"/>
       <c r="BR2"/>
       <c r="BS2"/>
       <c r="BT2"/>
-      <c r="BU2"/>
+      <c r="BU2" t="s">
+        <v>88</v>
+      </c>
       <c r="BV2"/>
       <c r="BW2"/>
-      <c r="BX2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX2"/>
       <c r="BY2"/>
       <c r="BZ2"/>
       <c r="CA2"/>
@@ -1249,23 +1219,20 @@
       <c r="CD2"/>
       <c r="CE2"/>
       <c r="CF2"/>
-      <c r="CG2"/>
+      <c r="CG2" t="s">
+        <v>88</v>
+      </c>
       <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1275,10 +1242,10 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -1289,10 +1256,10 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W3"/>
       <c r="X3"/>
@@ -1311,55 +1278,55 @@
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
-      <c r="AN3"/>
+      <c r="AN3" t="s">
+        <v>88</v>
+      </c>
       <c r="AO3"/>
-      <c r="AP3" t="s">
-        <v>91</v>
-      </c>
+      <c r="AP3"/>
       <c r="AQ3"/>
       <c r="AR3"/>
       <c r="AS3"/>
-      <c r="AT3"/>
+      <c r="AT3" t="s">
+        <v>88</v>
+      </c>
       <c r="AU3"/>
       <c r="AV3"/>
       <c r="AW3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX3"/>
       <c r="AY3"/>
-      <c r="AZ3" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ3"/>
       <c r="BA3"/>
       <c r="BB3"/>
-      <c r="BC3"/>
+      <c r="BC3" t="s">
+        <v>88</v>
+      </c>
       <c r="BD3"/>
       <c r="BE3"/>
-      <c r="BF3" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF3"/>
       <c r="BG3"/>
       <c r="BH3"/>
       <c r="BI3"/>
       <c r="BJ3"/>
-      <c r="BK3"/>
+      <c r="BK3" t="s">
+        <v>88</v>
+      </c>
       <c r="BL3"/>
       <c r="BM3"/>
-      <c r="BN3" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN3"/>
       <c r="BO3"/>
       <c r="BP3"/>
       <c r="BQ3"/>
       <c r="BR3"/>
       <c r="BS3"/>
       <c r="BT3"/>
-      <c r="BU3"/>
+      <c r="BU3" t="s">
+        <v>88</v>
+      </c>
       <c r="BV3"/>
       <c r="BW3"/>
-      <c r="BX3" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX3"/>
       <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
@@ -1368,23 +1335,20 @@
       <c r="CD3"/>
       <c r="CE3"/>
       <c r="CF3"/>
-      <c r="CG3"/>
+      <c r="CG3" t="s">
+        <v>88</v>
+      </c>
       <c r="CH3"/>
-      <c r="CI3"/>
-      <c r="CJ3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -1395,7 +1359,7 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -1406,7 +1370,7 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -1432,74 +1396,71 @@
       <c r="AQ4"/>
       <c r="AR4"/>
       <c r="AS4"/>
-      <c r="AT4"/>
+      <c r="AT4" t="s">
+        <v>88</v>
+      </c>
       <c r="AU4"/>
       <c r="AV4"/>
       <c r="AW4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX4"/>
       <c r="AY4"/>
-      <c r="AZ4" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ4"/>
       <c r="BA4"/>
       <c r="BB4"/>
-      <c r="BC4"/>
+      <c r="BC4" t="s">
+        <v>88</v>
+      </c>
       <c r="BD4"/>
       <c r="BE4"/>
-      <c r="BF4" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF4"/>
       <c r="BG4"/>
       <c r="BH4"/>
       <c r="BI4"/>
       <c r="BJ4"/>
-      <c r="BK4"/>
+      <c r="BK4" t="s">
+        <v>88</v>
+      </c>
       <c r="BL4"/>
       <c r="BM4"/>
-      <c r="BN4" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN4"/>
       <c r="BO4"/>
       <c r="BP4"/>
       <c r="BQ4"/>
       <c r="BR4"/>
       <c r="BS4"/>
       <c r="BT4"/>
-      <c r="BU4"/>
+      <c r="BU4" t="s">
+        <v>88</v>
+      </c>
       <c r="BV4"/>
-      <c r="BW4"/>
-      <c r="BX4" t="s">
-        <v>91</v>
-      </c>
+      <c r="BW4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX4"/>
       <c r="BY4"/>
-      <c r="BZ4" t="s">
-        <v>91</v>
-      </c>
+      <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
       <c r="CC4"/>
       <c r="CD4"/>
       <c r="CE4"/>
       <c r="CF4"/>
-      <c r="CG4"/>
+      <c r="CG4" t="s">
+        <v>88</v>
+      </c>
       <c r="CH4"/>
-      <c r="CI4"/>
-      <c r="CJ4" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1510,7 +1471,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -1521,10 +1482,10 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W5"/>
       <c r="X5"/>
@@ -1536,66 +1497,66 @@
       <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
-      <c r="AG5"/>
+      <c r="AG5" t="s">
+        <v>88</v>
+      </c>
       <c r="AH5"/>
-      <c r="AI5" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI5"/>
       <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5"/>
-      <c r="AN5"/>
+      <c r="AN5" t="s">
+        <v>88</v>
+      </c>
       <c r="AO5"/>
-      <c r="AP5" t="s">
-        <v>91</v>
-      </c>
+      <c r="AP5"/>
       <c r="AQ5"/>
       <c r="AR5"/>
       <c r="AS5"/>
-      <c r="AT5"/>
+      <c r="AT5" t="s">
+        <v>88</v>
+      </c>
       <c r="AU5"/>
       <c r="AV5"/>
       <c r="AW5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX5"/>
       <c r="AY5"/>
-      <c r="AZ5" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ5"/>
       <c r="BA5"/>
       <c r="BB5"/>
-      <c r="BC5"/>
+      <c r="BC5" t="s">
+        <v>88</v>
+      </c>
       <c r="BD5"/>
       <c r="BE5"/>
-      <c r="BF5" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF5"/>
       <c r="BG5"/>
       <c r="BH5"/>
       <c r="BI5"/>
       <c r="BJ5"/>
-      <c r="BK5"/>
+      <c r="BK5" t="s">
+        <v>88</v>
+      </c>
       <c r="BL5"/>
       <c r="BM5"/>
-      <c r="BN5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO5"/>
+      <c r="BN5"/>
+      <c r="BO5" t="s">
+        <v>88</v>
+      </c>
       <c r="BP5"/>
       <c r="BQ5"/>
-      <c r="BR5" t="s">
-        <v>91</v>
-      </c>
+      <c r="BR5"/>
       <c r="BS5"/>
       <c r="BT5"/>
-      <c r="BU5"/>
+      <c r="BU5" t="s">
+        <v>88</v>
+      </c>
       <c r="BV5"/>
       <c r="BW5"/>
-      <c r="BX5" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX5"/>
       <c r="BY5"/>
       <c r="BZ5"/>
       <c r="CA5"/>
@@ -1604,27 +1565,24 @@
       <c r="CD5"/>
       <c r="CE5"/>
       <c r="CF5"/>
-      <c r="CG5"/>
+      <c r="CG5" t="s">
+        <v>88</v>
+      </c>
       <c r="CH5"/>
-      <c r="CI5"/>
-      <c r="CJ5" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1633,7 +1591,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -1643,10 +1601,10 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1654,106 +1612,103 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
-      <c r="AB6"/>
+      <c r="AB6" t="s">
+        <v>88</v>
+      </c>
       <c r="AC6"/>
-      <c r="AD6" t="s">
-        <v>91</v>
-      </c>
+      <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>91</v>
-      </c>
+      <c r="AK6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM6"/>
+      <c r="AN6"/>
       <c r="AO6"/>
       <c r="AP6"/>
       <c r="AQ6"/>
       <c r="AR6"/>
       <c r="AS6"/>
-      <c r="AT6"/>
+      <c r="AT6" t="s">
+        <v>88</v>
+      </c>
       <c r="AU6"/>
       <c r="AV6"/>
       <c r="AW6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX6"/>
-      <c r="AY6"/>
-      <c r="AZ6" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ6"/>
       <c r="BA6"/>
-      <c r="BB6" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC6"/>
+      <c r="BB6"/>
+      <c r="BC6" t="s">
+        <v>88</v>
+      </c>
       <c r="BD6"/>
       <c r="BE6"/>
-      <c r="BF6" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF6"/>
       <c r="BG6"/>
       <c r="BH6"/>
       <c r="BI6"/>
       <c r="BJ6"/>
-      <c r="BK6"/>
+      <c r="BK6" t="s">
+        <v>88</v>
+      </c>
       <c r="BL6"/>
       <c r="BM6"/>
-      <c r="BN6" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN6"/>
       <c r="BO6"/>
       <c r="BP6"/>
       <c r="BQ6"/>
-      <c r="BR6"/>
+      <c r="BR6" t="s">
+        <v>88</v>
+      </c>
       <c r="BS6"/>
       <c r="BT6"/>
       <c r="BU6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BV6"/>
       <c r="BW6"/>
-      <c r="BX6" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY6"/>
+      <c r="BX6"/>
+      <c r="BY6" t="s">
+        <v>88</v>
+      </c>
       <c r="BZ6"/>
       <c r="CA6"/>
-      <c r="CB6" t="s">
-        <v>91</v>
-      </c>
+      <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6"/>
       <c r="CE6"/>
       <c r="CF6"/>
-      <c r="CG6"/>
+      <c r="CG6" t="s">
+        <v>88</v>
+      </c>
       <c r="CH6"/>
-      <c r="CI6"/>
-      <c r="CJ6" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1762,7 +1717,7 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -1773,7 +1728,7 @@
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -1781,11 +1736,11 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
-      <c r="AB7"/>
+      <c r="AB7" t="s">
+        <v>88</v>
+      </c>
       <c r="AC7"/>
-      <c r="AD7" t="s">
-        <v>91</v>
-      </c>
+      <c r="AD7"/>
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
@@ -1801,82 +1756,79 @@
       <c r="AQ7"/>
       <c r="AR7"/>
       <c r="AS7"/>
-      <c r="AT7"/>
+      <c r="AT7" t="s">
+        <v>88</v>
+      </c>
       <c r="AU7"/>
       <c r="AV7"/>
       <c r="AW7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX7"/>
-      <c r="AY7"/>
-      <c r="AZ7" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ7"/>
       <c r="BA7"/>
-      <c r="BB7" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC7"/>
+      <c r="BB7"/>
+      <c r="BC7" t="s">
+        <v>88</v>
+      </c>
       <c r="BD7"/>
       <c r="BE7"/>
-      <c r="BF7" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF7"/>
       <c r="BG7"/>
       <c r="BH7"/>
       <c r="BI7"/>
       <c r="BJ7"/>
-      <c r="BK7"/>
+      <c r="BK7" t="s">
+        <v>88</v>
+      </c>
       <c r="BL7"/>
       <c r="BM7"/>
-      <c r="BN7" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN7"/>
       <c r="BO7"/>
       <c r="BP7"/>
       <c r="BQ7"/>
-      <c r="BR7"/>
+      <c r="BR7" t="s">
+        <v>88</v>
+      </c>
       <c r="BS7"/>
       <c r="BT7"/>
       <c r="BU7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BV7"/>
       <c r="BW7"/>
-      <c r="BX7" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY7"/>
+      <c r="BX7"/>
+      <c r="BY7" t="s">
+        <v>88</v>
+      </c>
       <c r="BZ7"/>
       <c r="CA7"/>
-      <c r="CB7" t="s">
-        <v>91</v>
-      </c>
+      <c r="CB7"/>
       <c r="CC7"/>
       <c r="CD7"/>
       <c r="CE7"/>
       <c r="CF7"/>
-      <c r="CG7"/>
+      <c r="CG7" t="s">
+        <v>88</v>
+      </c>
       <c r="CH7"/>
-      <c r="CI7"/>
-      <c r="CJ7" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -1885,7 +1837,7 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -1896,7 +1848,7 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1904,11 +1856,11 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
-      <c r="AB8"/>
+      <c r="AB8" t="s">
+        <v>88</v>
+      </c>
       <c r="AC8"/>
-      <c r="AD8" t="s">
-        <v>91</v>
-      </c>
+      <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8"/>
@@ -1924,82 +1876,79 @@
       <c r="AQ8"/>
       <c r="AR8"/>
       <c r="AS8"/>
-      <c r="AT8"/>
+      <c r="AT8" t="s">
+        <v>88</v>
+      </c>
       <c r="AU8"/>
       <c r="AV8"/>
       <c r="AW8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX8"/>
-      <c r="AY8"/>
-      <c r="AZ8" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ8"/>
       <c r="BA8"/>
-      <c r="BB8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC8"/>
+      <c r="BB8"/>
+      <c r="BC8" t="s">
+        <v>88</v>
+      </c>
       <c r="BD8"/>
       <c r="BE8"/>
-      <c r="BF8" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF8"/>
       <c r="BG8"/>
       <c r="BH8"/>
       <c r="BI8"/>
       <c r="BJ8"/>
-      <c r="BK8"/>
+      <c r="BK8" t="s">
+        <v>88</v>
+      </c>
       <c r="BL8"/>
       <c r="BM8"/>
-      <c r="BN8" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN8"/>
       <c r="BO8"/>
       <c r="BP8"/>
       <c r="BQ8"/>
-      <c r="BR8"/>
+      <c r="BR8" t="s">
+        <v>88</v>
+      </c>
       <c r="BS8"/>
       <c r="BT8"/>
       <c r="BU8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BV8"/>
       <c r="BW8"/>
-      <c r="BX8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY8"/>
+      <c r="BX8"/>
+      <c r="BY8" t="s">
+        <v>88</v>
+      </c>
       <c r="BZ8"/>
       <c r="CA8"/>
-      <c r="CB8" t="s">
-        <v>91</v>
-      </c>
+      <c r="CB8"/>
       <c r="CC8"/>
       <c r="CD8"/>
       <c r="CE8"/>
       <c r="CF8"/>
-      <c r="CG8"/>
+      <c r="CG8" t="s">
+        <v>88</v>
+      </c>
       <c r="CH8"/>
-      <c r="CI8"/>
-      <c r="CJ8" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
         <v>100</v>
       </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -2008,7 +1957,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -2019,7 +1968,7 @@
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -2027,11 +1976,11 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
-      <c r="AB9"/>
+      <c r="AB9" t="s">
+        <v>88</v>
+      </c>
       <c r="AC9"/>
-      <c r="AD9" t="s">
-        <v>91</v>
-      </c>
+      <c r="AD9"/>
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9"/>
@@ -2047,82 +1996,79 @@
       <c r="AQ9"/>
       <c r="AR9"/>
       <c r="AS9"/>
-      <c r="AT9"/>
+      <c r="AT9" t="s">
+        <v>88</v>
+      </c>
       <c r="AU9"/>
       <c r="AV9"/>
       <c r="AW9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ9"/>
       <c r="BA9"/>
-      <c r="BB9" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC9"/>
+      <c r="BB9"/>
+      <c r="BC9" t="s">
+        <v>88</v>
+      </c>
       <c r="BD9"/>
       <c r="BE9"/>
-      <c r="BF9" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF9"/>
       <c r="BG9"/>
       <c r="BH9"/>
       <c r="BI9"/>
       <c r="BJ9"/>
-      <c r="BK9"/>
+      <c r="BK9" t="s">
+        <v>88</v>
+      </c>
       <c r="BL9"/>
       <c r="BM9"/>
-      <c r="BN9" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN9"/>
       <c r="BO9"/>
       <c r="BP9"/>
       <c r="BQ9"/>
-      <c r="BR9"/>
+      <c r="BR9" t="s">
+        <v>88</v>
+      </c>
       <c r="BS9"/>
       <c r="BT9"/>
       <c r="BU9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BV9"/>
       <c r="BW9"/>
-      <c r="BX9" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY9"/>
+      <c r="BX9"/>
+      <c r="BY9" t="s">
+        <v>88</v>
+      </c>
       <c r="BZ9"/>
       <c r="CA9"/>
       <c r="CB9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CC9"/>
       <c r="CD9"/>
-      <c r="CE9" t="s">
-        <v>91</v>
-      </c>
+      <c r="CE9"/>
       <c r="CF9"/>
-      <c r="CG9"/>
-      <c r="CH9"/>
-      <c r="CI9"/>
-      <c r="CJ9" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>91</v>
+      <c r="CG9" t="s">
+        <v>88</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -2133,20 +2079,20 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -2172,80 +2118,77 @@
       <c r="AQ10"/>
       <c r="AR10"/>
       <c r="AS10"/>
-      <c r="AT10"/>
+      <c r="AT10" t="s">
+        <v>88</v>
+      </c>
       <c r="AU10"/>
       <c r="AV10"/>
       <c r="AW10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX10"/>
       <c r="AY10"/>
-      <c r="AZ10" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ10"/>
       <c r="BA10"/>
       <c r="BB10"/>
-      <c r="BC10"/>
+      <c r="BC10" t="s">
+        <v>88</v>
+      </c>
       <c r="BD10"/>
       <c r="BE10"/>
-      <c r="BF10" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF10"/>
       <c r="BG10"/>
       <c r="BH10"/>
       <c r="BI10"/>
       <c r="BJ10"/>
-      <c r="BK10"/>
+      <c r="BK10" t="s">
+        <v>88</v>
+      </c>
       <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN10"/>
       <c r="BO10"/>
-      <c r="BP10" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP10"/>
       <c r="BQ10"/>
       <c r="BR10"/>
       <c r="BS10"/>
       <c r="BT10"/>
-      <c r="BU10"/>
+      <c r="BU10" t="s">
+        <v>88</v>
+      </c>
       <c r="BV10"/>
       <c r="BW10"/>
-      <c r="BX10" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX10"/>
       <c r="BY10"/>
       <c r="BZ10"/>
       <c r="CA10"/>
       <c r="CB10"/>
       <c r="CC10"/>
       <c r="CD10"/>
-      <c r="CE10"/>
+      <c r="CE10" t="s">
+        <v>88</v>
+      </c>
       <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10" t="s">
-        <v>91</v>
-      </c>
-      <c r="CI10"/>
-      <c r="CJ10" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK10"/>
+      <c r="CG10" t="s">
+        <v>88</v>
+      </c>
+      <c r="CH10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -2254,7 +2197,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -2265,7 +2208,7 @@
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
@@ -2273,11 +2216,11 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
-      <c r="AB11"/>
+      <c r="AB11" t="s">
+        <v>88</v>
+      </c>
       <c r="AC11"/>
-      <c r="AD11" t="s">
-        <v>91</v>
-      </c>
+      <c r="AD11"/>
       <c r="AE11"/>
       <c r="AF11"/>
       <c r="AG11"/>
@@ -2293,49 +2236,49 @@
       <c r="AQ11"/>
       <c r="AR11"/>
       <c r="AS11"/>
-      <c r="AT11"/>
+      <c r="AT11" t="s">
+        <v>88</v>
+      </c>
       <c r="AU11"/>
       <c r="AV11"/>
       <c r="AW11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX11"/>
       <c r="AY11"/>
-      <c r="AZ11" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ11"/>
       <c r="BA11"/>
       <c r="BB11"/>
-      <c r="BC11"/>
+      <c r="BC11" t="s">
+        <v>88</v>
+      </c>
       <c r="BD11"/>
       <c r="BE11"/>
-      <c r="BF11" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF11"/>
       <c r="BG11"/>
       <c r="BH11"/>
       <c r="BI11"/>
       <c r="BJ11"/>
-      <c r="BK11"/>
+      <c r="BK11" t="s">
+        <v>88</v>
+      </c>
       <c r="BL11"/>
       <c r="BM11"/>
-      <c r="BN11" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN11"/>
       <c r="BO11"/>
       <c r="BP11"/>
       <c r="BQ11"/>
-      <c r="BR11"/>
+      <c r="BR11" t="s">
+        <v>88</v>
+      </c>
       <c r="BS11"/>
       <c r="BT11"/>
       <c r="BU11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BV11"/>
       <c r="BW11"/>
-      <c r="BX11" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX11"/>
       <c r="BY11"/>
       <c r="BZ11"/>
       <c r="CA11"/>
@@ -2344,27 +2287,24 @@
       <c r="CD11"/>
       <c r="CE11"/>
       <c r="CF11"/>
-      <c r="CG11"/>
+      <c r="CG11" t="s">
+        <v>88</v>
+      </c>
       <c r="CH11"/>
-      <c r="CI11"/>
-      <c r="CJ11" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -2373,7 +2313,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -2384,7 +2324,7 @@
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -2392,11 +2332,11 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
-      <c r="AB12"/>
+      <c r="AB12" t="s">
+        <v>88</v>
+      </c>
       <c r="AC12"/>
-      <c r="AD12" t="s">
-        <v>91</v>
-      </c>
+      <c r="AD12"/>
       <c r="AE12"/>
       <c r="AF12"/>
       <c r="AG12"/>
@@ -2412,49 +2352,49 @@
       <c r="AQ12"/>
       <c r="AR12"/>
       <c r="AS12"/>
-      <c r="AT12"/>
+      <c r="AT12" t="s">
+        <v>88</v>
+      </c>
       <c r="AU12"/>
       <c r="AV12"/>
       <c r="AW12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX12"/>
       <c r="AY12"/>
-      <c r="AZ12" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ12"/>
       <c r="BA12"/>
       <c r="BB12"/>
-      <c r="BC12"/>
+      <c r="BC12" t="s">
+        <v>88</v>
+      </c>
       <c r="BD12"/>
       <c r="BE12"/>
-      <c r="BF12" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF12"/>
       <c r="BG12"/>
       <c r="BH12"/>
       <c r="BI12"/>
       <c r="BJ12"/>
-      <c r="BK12"/>
+      <c r="BK12" t="s">
+        <v>88</v>
+      </c>
       <c r="BL12"/>
       <c r="BM12"/>
-      <c r="BN12" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN12"/>
       <c r="BO12"/>
       <c r="BP12"/>
       <c r="BQ12"/>
-      <c r="BR12"/>
+      <c r="BR12" t="s">
+        <v>88</v>
+      </c>
       <c r="BS12"/>
       <c r="BT12"/>
       <c r="BU12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BV12"/>
       <c r="BW12"/>
-      <c r="BX12" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX12"/>
       <c r="BY12"/>
       <c r="BZ12"/>
       <c r="CA12"/>
@@ -2463,27 +2403,24 @@
       <c r="CD12"/>
       <c r="CE12"/>
       <c r="CF12"/>
-      <c r="CG12"/>
+      <c r="CG12" t="s">
+        <v>88</v>
+      </c>
       <c r="CH12"/>
-      <c r="CI12"/>
-      <c r="CJ12" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
         <v>106</v>
       </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -2492,7 +2429,7 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -2503,7 +2440,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V13"/>
       <c r="W13"/>
@@ -2511,19 +2448,19 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
-      <c r="AB13"/>
+      <c r="AB13" t="s">
+        <v>88</v>
+      </c>
       <c r="AC13"/>
-      <c r="AD13" t="s">
-        <v>91</v>
-      </c>
+      <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
       <c r="AG13"/>
-      <c r="AH13"/>
+      <c r="AH13" t="s">
+        <v>88</v>
+      </c>
       <c r="AI13"/>
-      <c r="AJ13" t="s">
-        <v>91</v>
-      </c>
+      <c r="AJ13"/>
       <c r="AK13"/>
       <c r="AL13"/>
       <c r="AM13"/>
@@ -2533,49 +2470,49 @@
       <c r="AQ13"/>
       <c r="AR13"/>
       <c r="AS13"/>
-      <c r="AT13"/>
+      <c r="AT13" t="s">
+        <v>88</v>
+      </c>
       <c r="AU13"/>
       <c r="AV13"/>
       <c r="AW13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX13"/>
       <c r="AY13"/>
-      <c r="AZ13" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ13"/>
       <c r="BA13"/>
       <c r="BB13"/>
-      <c r="BC13"/>
+      <c r="BC13" t="s">
+        <v>88</v>
+      </c>
       <c r="BD13"/>
       <c r="BE13"/>
-      <c r="BF13" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF13"/>
       <c r="BG13"/>
       <c r="BH13"/>
       <c r="BI13"/>
       <c r="BJ13"/>
-      <c r="BK13"/>
+      <c r="BK13" t="s">
+        <v>88</v>
+      </c>
       <c r="BL13"/>
       <c r="BM13"/>
-      <c r="BN13" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN13"/>
       <c r="BO13"/>
       <c r="BP13"/>
       <c r="BQ13"/>
-      <c r="BR13"/>
+      <c r="BR13" t="s">
+        <v>88</v>
+      </c>
       <c r="BS13"/>
       <c r="BT13"/>
       <c r="BU13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BV13"/>
       <c r="BW13"/>
-      <c r="BX13" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX13"/>
       <c r="BY13"/>
       <c r="BZ13"/>
       <c r="CA13"/>
@@ -2584,36 +2521,33 @@
       <c r="CD13"/>
       <c r="CE13"/>
       <c r="CF13"/>
-      <c r="CG13"/>
+      <c r="CG13" t="s">
+        <v>88</v>
+      </c>
       <c r="CH13"/>
-      <c r="CI13"/>
-      <c r="CJ13" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -2624,7 +2558,7 @@
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V14"/>
       <c r="W14"/>
@@ -2643,62 +2577,62 @@
       <c r="AJ14"/>
       <c r="AK14"/>
       <c r="AL14"/>
-      <c r="AM14"/>
+      <c r="AM14" t="s">
+        <v>88</v>
+      </c>
       <c r="AN14"/>
-      <c r="AO14" t="s">
-        <v>91</v>
-      </c>
+      <c r="AO14"/>
       <c r="AP14"/>
       <c r="AQ14"/>
       <c r="AR14"/>
       <c r="AS14"/>
-      <c r="AT14"/>
+      <c r="AT14" t="s">
+        <v>88</v>
+      </c>
       <c r="AU14"/>
       <c r="AV14"/>
       <c r="AW14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX14"/>
+        <v>88</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>88</v>
+      </c>
       <c r="AY14"/>
-      <c r="AZ14" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ14"/>
       <c r="BA14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BB14"/>
-      <c r="BC14"/>
+      <c r="BC14" t="s">
+        <v>88</v>
+      </c>
       <c r="BD14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BE14"/>
-      <c r="BF14" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF14"/>
+      <c r="BG14"/>
       <c r="BH14"/>
       <c r="BI14"/>
       <c r="BJ14"/>
-      <c r="BK14"/>
+      <c r="BK14" t="s">
+        <v>88</v>
+      </c>
       <c r="BL14"/>
       <c r="BM14"/>
-      <c r="BN14" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN14"/>
       <c r="BO14"/>
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
       <c r="BS14"/>
       <c r="BT14"/>
-      <c r="BU14"/>
+      <c r="BU14" t="s">
+        <v>88</v>
+      </c>
       <c r="BV14"/>
       <c r="BW14"/>
-      <c r="BX14" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX14"/>
       <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
@@ -2707,23 +2641,20 @@
       <c r="CD14"/>
       <c r="CE14"/>
       <c r="CF14"/>
-      <c r="CG14"/>
+      <c r="CG14" t="s">
+        <v>88</v>
+      </c>
       <c r="CH14"/>
-      <c r="CI14"/>
-      <c r="CJ14" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -2734,7 +2665,7 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
@@ -2745,7 +2676,7 @@
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V15"/>
       <c r="W15"/>
@@ -2757,11 +2688,11 @@
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
-      <c r="AF15"/>
+      <c r="AF15" t="s">
+        <v>88</v>
+      </c>
       <c r="AG15"/>
-      <c r="AH15" t="s">
-        <v>91</v>
-      </c>
+      <c r="AH15"/>
       <c r="AI15"/>
       <c r="AJ15"/>
       <c r="AK15"/>
@@ -2773,49 +2704,49 @@
       <c r="AQ15"/>
       <c r="AR15"/>
       <c r="AS15"/>
-      <c r="AT15"/>
+      <c r="AT15" t="s">
+        <v>88</v>
+      </c>
       <c r="AU15"/>
       <c r="AV15"/>
       <c r="AW15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX15"/>
       <c r="AY15"/>
-      <c r="AZ15" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ15"/>
       <c r="BA15"/>
       <c r="BB15"/>
-      <c r="BC15"/>
+      <c r="BC15" t="s">
+        <v>88</v>
+      </c>
       <c r="BD15"/>
       <c r="BE15"/>
-      <c r="BF15" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF15"/>
       <c r="BG15"/>
       <c r="BH15"/>
       <c r="BI15"/>
-      <c r="BJ15"/>
-      <c r="BK15"/>
+      <c r="BJ15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>88</v>
+      </c>
       <c r="BL15"/>
-      <c r="BM15" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM15"/>
+      <c r="BN15"/>
       <c r="BO15"/>
       <c r="BP15"/>
       <c r="BQ15"/>
       <c r="BR15"/>
       <c r="BS15"/>
       <c r="BT15"/>
-      <c r="BU15"/>
+      <c r="BU15" t="s">
+        <v>88</v>
+      </c>
       <c r="BV15"/>
       <c r="BW15"/>
-      <c r="BX15" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX15"/>
       <c r="BY15"/>
       <c r="BZ15"/>
       <c r="CA15"/>
@@ -2824,23 +2755,20 @@
       <c r="CD15"/>
       <c r="CE15"/>
       <c r="CF15"/>
-      <c r="CG15"/>
+      <c r="CG15" t="s">
+        <v>88</v>
+      </c>
       <c r="CH15"/>
-      <c r="CI15"/>
-      <c r="CJ15" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -2851,7 +2779,7 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -2862,22 +2790,18 @@
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V16" t="s">
-        <v>91</v>
-      </c>
-      <c r="W16" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
-      <c r="AC16" t="s">
-        <v>91</v>
-      </c>
+      <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
       <c r="AF16"/>
@@ -2888,84 +2812,81 @@
       <c r="AK16"/>
       <c r="AL16"/>
       <c r="AM16"/>
-      <c r="AN16"/>
+      <c r="AN16" t="s">
+        <v>88</v>
+      </c>
       <c r="AO16"/>
       <c r="AP16"/>
       <c r="AQ16"/>
       <c r="AR16"/>
       <c r="AS16"/>
-      <c r="AT16"/>
+      <c r="AT16" t="s">
+        <v>88</v>
+      </c>
       <c r="AU16"/>
       <c r="AV16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AW16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX16"/>
-      <c r="AY16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY16"/>
+      <c r="AZ16"/>
       <c r="BA16"/>
       <c r="BB16"/>
-      <c r="BC16"/>
+      <c r="BC16" t="s">
+        <v>88</v>
+      </c>
       <c r="BD16"/>
       <c r="BE16"/>
-      <c r="BF16" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF16"/>
       <c r="BG16"/>
       <c r="BH16"/>
       <c r="BI16"/>
       <c r="BJ16"/>
-      <c r="BK16"/>
+      <c r="BK16" t="s">
+        <v>88</v>
+      </c>
       <c r="BL16"/>
       <c r="BM16"/>
-      <c r="BN16" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN16"/>
       <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
       <c r="BR16"/>
       <c r="BS16"/>
       <c r="BT16"/>
-      <c r="BU16"/>
+      <c r="BU16" t="s">
+        <v>88</v>
+      </c>
       <c r="BV16"/>
       <c r="BW16"/>
-      <c r="BX16" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX16"/>
       <c r="BY16"/>
       <c r="BZ16"/>
       <c r="CA16"/>
       <c r="CB16"/>
       <c r="CC16"/>
-      <c r="CD16"/>
+      <c r="CD16" t="s">
+        <v>88</v>
+      </c>
       <c r="CE16"/>
       <c r="CF16"/>
       <c r="CG16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CH16"/>
-      <c r="CI16"/>
-      <c r="CJ16" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -2976,7 +2897,7 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -2987,10 +2908,10 @@
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W17"/>
       <c r="X17"/>
@@ -3009,84 +2930,81 @@
       <c r="AK17"/>
       <c r="AL17"/>
       <c r="AM17"/>
-      <c r="AN17"/>
+      <c r="AN17" t="s">
+        <v>88</v>
+      </c>
       <c r="AO17"/>
-      <c r="AP17" t="s">
-        <v>91</v>
-      </c>
+      <c r="AP17"/>
       <c r="AQ17"/>
       <c r="AR17"/>
       <c r="AS17"/>
-      <c r="AT17"/>
+      <c r="AT17" t="s">
+        <v>88</v>
+      </c>
       <c r="AU17"/>
-      <c r="AV17"/>
+      <c r="AV17" t="s">
+        <v>88</v>
+      </c>
       <c r="AW17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX17"/>
-      <c r="AY17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY17"/>
+      <c r="AZ17"/>
       <c r="BA17"/>
       <c r="BB17"/>
-      <c r="BC17"/>
+      <c r="BC17" t="s">
+        <v>88</v>
+      </c>
       <c r="BD17"/>
       <c r="BE17"/>
-      <c r="BF17" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF17"/>
       <c r="BG17"/>
       <c r="BH17"/>
       <c r="BI17"/>
       <c r="BJ17"/>
-      <c r="BK17"/>
+      <c r="BK17" t="s">
+        <v>88</v>
+      </c>
       <c r="BL17"/>
       <c r="BM17"/>
-      <c r="BN17" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN17"/>
       <c r="BO17"/>
       <c r="BP17"/>
       <c r="BQ17"/>
       <c r="BR17"/>
       <c r="BS17"/>
       <c r="BT17"/>
-      <c r="BU17"/>
+      <c r="BU17" t="s">
+        <v>88</v>
+      </c>
       <c r="BV17"/>
       <c r="BW17"/>
-      <c r="BX17" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX17"/>
       <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
       <c r="CB17"/>
       <c r="CC17"/>
-      <c r="CD17"/>
+      <c r="CD17" t="s">
+        <v>88</v>
+      </c>
       <c r="CE17"/>
       <c r="CF17"/>
       <c r="CG17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CH17"/>
-      <c r="CI17"/>
-      <c r="CJ17" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
         <v>114</v>
       </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -3097,7 +3015,7 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -3108,10 +3026,10 @@
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W18"/>
       <c r="X18"/>
@@ -3130,84 +3048,81 @@
       <c r="AK18"/>
       <c r="AL18"/>
       <c r="AM18"/>
-      <c r="AN18"/>
+      <c r="AN18" t="s">
+        <v>88</v>
+      </c>
       <c r="AO18"/>
-      <c r="AP18" t="s">
-        <v>91</v>
-      </c>
+      <c r="AP18"/>
       <c r="AQ18"/>
       <c r="AR18"/>
       <c r="AS18"/>
-      <c r="AT18"/>
+      <c r="AT18" t="s">
+        <v>88</v>
+      </c>
       <c r="AU18"/>
-      <c r="AV18"/>
+      <c r="AV18" t="s">
+        <v>88</v>
+      </c>
       <c r="AW18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX18"/>
-      <c r="AY18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY18"/>
+      <c r="AZ18"/>
       <c r="BA18"/>
       <c r="BB18"/>
-      <c r="BC18"/>
+      <c r="BC18" t="s">
+        <v>88</v>
+      </c>
       <c r="BD18"/>
       <c r="BE18"/>
-      <c r="BF18" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF18"/>
       <c r="BG18"/>
       <c r="BH18"/>
       <c r="BI18"/>
       <c r="BJ18"/>
-      <c r="BK18"/>
+      <c r="BK18" t="s">
+        <v>88</v>
+      </c>
       <c r="BL18"/>
       <c r="BM18"/>
-      <c r="BN18" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN18"/>
       <c r="BO18"/>
       <c r="BP18"/>
       <c r="BQ18"/>
       <c r="BR18"/>
       <c r="BS18"/>
       <c r="BT18"/>
-      <c r="BU18"/>
+      <c r="BU18" t="s">
+        <v>88</v>
+      </c>
       <c r="BV18"/>
       <c r="BW18"/>
-      <c r="BX18" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX18"/>
       <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
       <c r="CB18"/>
       <c r="CC18"/>
-      <c r="CD18"/>
+      <c r="CD18" t="s">
+        <v>88</v>
+      </c>
       <c r="CE18"/>
       <c r="CF18"/>
       <c r="CG18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CH18"/>
-      <c r="CI18"/>
-      <c r="CJ18" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -3218,7 +3133,7 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M19"/>
       <c r="N19"/>
@@ -3229,10 +3144,10 @@
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W19"/>
       <c r="X19"/>
@@ -3251,84 +3166,81 @@
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
-      <c r="AN19"/>
+      <c r="AN19" t="s">
+        <v>88</v>
+      </c>
       <c r="AO19"/>
-      <c r="AP19" t="s">
-        <v>91</v>
-      </c>
+      <c r="AP19"/>
       <c r="AQ19"/>
       <c r="AR19"/>
       <c r="AS19"/>
-      <c r="AT19"/>
+      <c r="AT19" t="s">
+        <v>88</v>
+      </c>
       <c r="AU19"/>
-      <c r="AV19"/>
+      <c r="AV19" t="s">
+        <v>88</v>
+      </c>
       <c r="AW19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX19"/>
-      <c r="AY19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY19"/>
+      <c r="AZ19"/>
       <c r="BA19"/>
       <c r="BB19"/>
-      <c r="BC19"/>
+      <c r="BC19" t="s">
+        <v>88</v>
+      </c>
       <c r="BD19"/>
       <c r="BE19"/>
-      <c r="BF19" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF19"/>
       <c r="BG19"/>
       <c r="BH19"/>
       <c r="BI19"/>
       <c r="BJ19"/>
-      <c r="BK19"/>
+      <c r="BK19" t="s">
+        <v>88</v>
+      </c>
       <c r="BL19"/>
       <c r="BM19"/>
-      <c r="BN19" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN19"/>
       <c r="BO19"/>
       <c r="BP19"/>
       <c r="BQ19"/>
       <c r="BR19"/>
       <c r="BS19"/>
       <c r="BT19"/>
-      <c r="BU19"/>
+      <c r="BU19" t="s">
+        <v>88</v>
+      </c>
       <c r="BV19"/>
       <c r="BW19"/>
-      <c r="BX19" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX19"/>
       <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
       <c r="CB19"/>
       <c r="CC19"/>
-      <c r="CD19"/>
+      <c r="CD19" t="s">
+        <v>88</v>
+      </c>
       <c r="CE19"/>
       <c r="CF19"/>
       <c r="CG19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CH19"/>
-      <c r="CI19"/>
-      <c r="CJ19" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -3339,7 +3251,7 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -3350,11 +3262,9 @@
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20" t="s">
-        <v>91</v>
-      </c>
-      <c r="V20" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
@@ -3374,55 +3284,53 @@
       <c r="AM20"/>
       <c r="AN20"/>
       <c r="AO20"/>
-      <c r="AP20" t="s">
-        <v>91</v>
-      </c>
+      <c r="AP20"/>
       <c r="AQ20"/>
       <c r="AR20"/>
       <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
+      <c r="AT20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>88</v>
+      </c>
       <c r="AV20"/>
       <c r="AW20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX20"/>
-      <c r="AY20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>91</v>
-      </c>
+      <c r="AY20"/>
+      <c r="AZ20"/>
       <c r="BA20"/>
       <c r="BB20"/>
-      <c r="BC20"/>
+      <c r="BC20" t="s">
+        <v>88</v>
+      </c>
       <c r="BD20"/>
       <c r="BE20"/>
-      <c r="BF20" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF20"/>
       <c r="BG20"/>
       <c r="BH20"/>
       <c r="BI20"/>
       <c r="BJ20"/>
-      <c r="BK20"/>
+      <c r="BK20" t="s">
+        <v>88</v>
+      </c>
       <c r="BL20"/>
       <c r="BM20"/>
-      <c r="BN20" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN20"/>
       <c r="BO20"/>
       <c r="BP20"/>
       <c r="BQ20"/>
       <c r="BR20"/>
       <c r="BS20"/>
       <c r="BT20"/>
-      <c r="BU20"/>
+      <c r="BU20" t="s">
+        <v>88</v>
+      </c>
       <c r="BV20"/>
       <c r="BW20"/>
-      <c r="BX20" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX20"/>
       <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
@@ -3432,24 +3340,19 @@
       <c r="CE20"/>
       <c r="CF20"/>
       <c r="CG20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CH20"/>
-      <c r="CI20"/>
-      <c r="CJ20" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3460,18 +3363,22 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M21"/>
-      <c r="N21"/>
+      <c r="N21" t="s">
+        <v>88</v>
+      </c>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21"/>
+      <c r="Q21" t="s">
+        <v>88</v>
+      </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V21"/>
       <c r="W21"/>
@@ -3497,49 +3404,49 @@
       <c r="AQ21"/>
       <c r="AR21"/>
       <c r="AS21"/>
-      <c r="AT21"/>
+      <c r="AT21" t="s">
+        <v>88</v>
+      </c>
       <c r="AU21"/>
       <c r="AV21"/>
       <c r="AW21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AX21"/>
       <c r="AY21"/>
-      <c r="AZ21" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ21"/>
       <c r="BA21"/>
       <c r="BB21"/>
-      <c r="BC21"/>
+      <c r="BC21" t="s">
+        <v>88</v>
+      </c>
       <c r="BD21"/>
       <c r="BE21"/>
-      <c r="BF21" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF21"/>
       <c r="BG21"/>
       <c r="BH21"/>
       <c r="BI21"/>
       <c r="BJ21"/>
-      <c r="BK21"/>
+      <c r="BK21" t="s">
+        <v>88</v>
+      </c>
       <c r="BL21"/>
-      <c r="BM21"/>
-      <c r="BN21" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM21" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN21"/>
       <c r="BO21"/>
       <c r="BP21"/>
       <c r="BQ21"/>
       <c r="BR21"/>
       <c r="BS21"/>
       <c r="BT21"/>
-      <c r="BU21"/>
+      <c r="BU21" t="s">
+        <v>88</v>
+      </c>
       <c r="BV21"/>
       <c r="BW21"/>
-      <c r="BX21" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX21"/>
       <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
@@ -3548,23 +3455,20 @@
       <c r="CD21"/>
       <c r="CE21"/>
       <c r="CF21"/>
-      <c r="CG21"/>
+      <c r="CG21" t="s">
+        <v>88</v>
+      </c>
       <c r="CH21"/>
-      <c r="CI21"/>
-      <c r="CJ21" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -3575,22 +3479,24 @@
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>91</v>
-      </c>
-      <c r="R22"/>
+        <v>88</v>
+      </c>
+      <c r="R22" t="s">
+        <v>88</v>
+      </c>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V22"/>
       <c r="W22"/>
@@ -3606,7 +3512,9 @@
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
-      <c r="AJ22"/>
+      <c r="AJ22" t="s">
+        <v>88</v>
+      </c>
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
@@ -3616,49 +3524,49 @@
       <c r="AQ22"/>
       <c r="AR22"/>
       <c r="AS22"/>
-      <c r="AT22"/>
+      <c r="AT22" t="s">
+        <v>88</v>
+      </c>
       <c r="AU22"/>
       <c r="AV22"/>
       <c r="AW22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX22"/>
       <c r="AY22"/>
-      <c r="AZ22" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ22"/>
       <c r="BA22"/>
       <c r="BB22"/>
-      <c r="BC22"/>
+      <c r="BC22" t="s">
+        <v>88</v>
+      </c>
       <c r="BD22"/>
       <c r="BE22"/>
-      <c r="BF22" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF22"/>
       <c r="BG22"/>
       <c r="BH22"/>
       <c r="BI22"/>
       <c r="BJ22"/>
-      <c r="BK22"/>
+      <c r="BK22" t="s">
+        <v>88</v>
+      </c>
       <c r="BL22"/>
-      <c r="BM22"/>
-      <c r="BN22" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM22" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN22"/>
       <c r="BO22"/>
-      <c r="BP22" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP22"/>
       <c r="BQ22"/>
       <c r="BR22"/>
       <c r="BS22"/>
       <c r="BT22"/>
-      <c r="BU22"/>
+      <c r="BU22" t="s">
+        <v>88</v>
+      </c>
       <c r="BV22"/>
       <c r="BW22"/>
-      <c r="BX22" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX22"/>
       <c r="BY22"/>
       <c r="BZ22"/>
       <c r="CA22"/>
@@ -3666,24 +3574,23 @@
       <c r="CC22"/>
       <c r="CD22"/>
       <c r="CE22"/>
-      <c r="CF22"/>
-      <c r="CG22"/>
+      <c r="CF22" t="s">
+        <v>88</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>88</v>
+      </c>
       <c r="CH22"/>
-      <c r="CI22"/>
-      <c r="CJ22" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -3694,24 +3601,18 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M23"/>
-      <c r="N23" t="s">
-        <v>91</v>
-      </c>
+      <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23" t="s">
-        <v>91</v>
-      </c>
-      <c r="R23" t="s">
-        <v>91</v>
-      </c>
+      <c r="Q23"/>
+      <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
       <c r="U23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V23"/>
       <c r="W23"/>
@@ -3729,9 +3630,7 @@
       <c r="AI23"/>
       <c r="AJ23"/>
       <c r="AK23"/>
-      <c r="AL23" t="s">
-        <v>91</v>
-      </c>
+      <c r="AL23"/>
       <c r="AM23"/>
       <c r="AN23"/>
       <c r="AO23"/>
@@ -3739,49 +3638,47 @@
       <c r="AQ23"/>
       <c r="AR23"/>
       <c r="AS23"/>
-      <c r="AT23"/>
+      <c r="AT23" t="s">
+        <v>88</v>
+      </c>
       <c r="AU23"/>
       <c r="AV23"/>
       <c r="AW23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX23"/>
       <c r="AY23"/>
-      <c r="AZ23" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ23"/>
       <c r="BA23"/>
       <c r="BB23"/>
-      <c r="BC23"/>
+      <c r="BC23" t="s">
+        <v>88</v>
+      </c>
       <c r="BD23"/>
       <c r="BE23"/>
-      <c r="BF23" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF23"/>
       <c r="BG23"/>
       <c r="BH23"/>
       <c r="BI23"/>
       <c r="BJ23"/>
-      <c r="BK23"/>
+      <c r="BK23" t="s">
+        <v>88</v>
+      </c>
       <c r="BL23"/>
       <c r="BM23"/>
-      <c r="BN23" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN23"/>
       <c r="BO23"/>
-      <c r="BP23" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP23"/>
       <c r="BQ23"/>
       <c r="BR23"/>
       <c r="BS23"/>
       <c r="BT23"/>
-      <c r="BU23"/>
+      <c r="BU23" t="s">
+        <v>88</v>
+      </c>
       <c r="BV23"/>
       <c r="BW23"/>
-      <c r="BX23" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX23"/>
       <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
@@ -3790,25 +3687,20 @@
       <c r="CD23"/>
       <c r="CE23"/>
       <c r="CF23"/>
-      <c r="CG23"/>
+      <c r="CG23" t="s">
+        <v>88</v>
+      </c>
       <c r="CH23"/>
-      <c r="CI23" t="s">
-        <v>91</v>
-      </c>
-      <c r="CJ23" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -3819,18 +3711,22 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M24"/>
-      <c r="N24"/>
+      <c r="N24" t="s">
+        <v>88</v>
+      </c>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24"/>
+      <c r="Q24" t="s">
+        <v>88</v>
+      </c>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V24"/>
       <c r="W24"/>
@@ -3856,47 +3752,49 @@
       <c r="AQ24"/>
       <c r="AR24"/>
       <c r="AS24"/>
-      <c r="AT24"/>
+      <c r="AT24" t="s">
+        <v>88</v>
+      </c>
       <c r="AU24"/>
       <c r="AV24"/>
       <c r="AW24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX24"/>
       <c r="AY24"/>
-      <c r="AZ24" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ24"/>
       <c r="BA24"/>
       <c r="BB24"/>
-      <c r="BC24"/>
+      <c r="BC24" t="s">
+        <v>88</v>
+      </c>
       <c r="BD24"/>
       <c r="BE24"/>
-      <c r="BF24" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF24"/>
       <c r="BG24"/>
       <c r="BH24"/>
       <c r="BI24"/>
       <c r="BJ24"/>
-      <c r="BK24"/>
+      <c r="BK24" t="s">
+        <v>88</v>
+      </c>
       <c r="BL24"/>
-      <c r="BM24"/>
-      <c r="BN24" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN24"/>
       <c r="BO24"/>
       <c r="BP24"/>
       <c r="BQ24"/>
       <c r="BR24"/>
       <c r="BS24"/>
       <c r="BT24"/>
-      <c r="BU24"/>
+      <c r="BU24" t="s">
+        <v>88</v>
+      </c>
       <c r="BV24"/>
       <c r="BW24"/>
-      <c r="BX24" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX24"/>
       <c r="BY24"/>
       <c r="BZ24"/>
       <c r="CA24"/>
@@ -3905,23 +3803,20 @@
       <c r="CD24"/>
       <c r="CE24"/>
       <c r="CF24"/>
-      <c r="CG24"/>
+      <c r="CG24" t="s">
+        <v>88</v>
+      </c>
       <c r="CH24"/>
-      <c r="CI24"/>
-      <c r="CJ24" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -3932,22 +3827,20 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M25"/>
-      <c r="N25" t="s">
-        <v>91</v>
-      </c>
+      <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V25"/>
       <c r="W25"/>
@@ -3973,49 +3866,49 @@
       <c r="AQ25"/>
       <c r="AR25"/>
       <c r="AS25"/>
-      <c r="AT25"/>
+      <c r="AT25" t="s">
+        <v>88</v>
+      </c>
       <c r="AU25"/>
       <c r="AV25"/>
       <c r="AW25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX25"/>
       <c r="AY25"/>
-      <c r="AZ25" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ25"/>
       <c r="BA25"/>
       <c r="BB25"/>
-      <c r="BC25"/>
+      <c r="BC25" t="s">
+        <v>88</v>
+      </c>
       <c r="BD25"/>
       <c r="BE25"/>
-      <c r="BF25" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF25"/>
       <c r="BG25"/>
       <c r="BH25"/>
       <c r="BI25"/>
       <c r="BJ25"/>
-      <c r="BK25"/>
+      <c r="BK25" t="s">
+        <v>88</v>
+      </c>
       <c r="BL25"/>
-      <c r="BM25"/>
-      <c r="BN25" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM25" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN25"/>
       <c r="BO25"/>
-      <c r="BP25" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP25"/>
       <c r="BQ25"/>
       <c r="BR25"/>
       <c r="BS25"/>
       <c r="BT25"/>
-      <c r="BU25"/>
+      <c r="BU25" t="s">
+        <v>88</v>
+      </c>
       <c r="BV25"/>
       <c r="BW25"/>
-      <c r="BX25" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX25"/>
       <c r="BY25"/>
       <c r="BZ25"/>
       <c r="CA25"/>
@@ -4024,23 +3917,20 @@
       <c r="CD25"/>
       <c r="CE25"/>
       <c r="CF25"/>
-      <c r="CG25"/>
+      <c r="CG25" t="s">
+        <v>88</v>
+      </c>
       <c r="CH25"/>
-      <c r="CI25"/>
-      <c r="CJ25" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -4051,20 +3941,20 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
       <c r="U26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V26"/>
       <c r="W26"/>
@@ -4090,49 +3980,49 @@
       <c r="AQ26"/>
       <c r="AR26"/>
       <c r="AS26"/>
-      <c r="AT26"/>
+      <c r="AT26" t="s">
+        <v>88</v>
+      </c>
       <c r="AU26"/>
       <c r="AV26"/>
       <c r="AW26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX26"/>
       <c r="AY26"/>
-      <c r="AZ26" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ26"/>
       <c r="BA26"/>
       <c r="BB26"/>
-      <c r="BC26"/>
+      <c r="BC26" t="s">
+        <v>88</v>
+      </c>
       <c r="BD26"/>
       <c r="BE26"/>
-      <c r="BF26" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF26"/>
       <c r="BG26"/>
       <c r="BH26"/>
       <c r="BI26"/>
       <c r="BJ26"/>
-      <c r="BK26"/>
+      <c r="BK26" t="s">
+        <v>88</v>
+      </c>
       <c r="BL26"/>
-      <c r="BM26"/>
-      <c r="BN26" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM26" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN26"/>
       <c r="BO26"/>
-      <c r="BP26" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP26"/>
       <c r="BQ26"/>
       <c r="BR26"/>
       <c r="BS26"/>
       <c r="BT26"/>
-      <c r="BU26"/>
+      <c r="BU26" t="s">
+        <v>88</v>
+      </c>
       <c r="BV26"/>
       <c r="BW26"/>
-      <c r="BX26" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX26"/>
       <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
@@ -4141,23 +4031,20 @@
       <c r="CD26"/>
       <c r="CE26"/>
       <c r="CF26"/>
-      <c r="CG26"/>
+      <c r="CG26" t="s">
+        <v>88</v>
+      </c>
       <c r="CH26"/>
-      <c r="CI26"/>
-      <c r="CJ26" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
         <v>128</v>
       </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -4168,20 +4055,18 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
-      <c r="Q27" t="s">
-        <v>91</v>
-      </c>
+      <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V27"/>
       <c r="W27"/>
@@ -4207,49 +4092,47 @@
       <c r="AQ27"/>
       <c r="AR27"/>
       <c r="AS27"/>
-      <c r="AT27"/>
+      <c r="AT27" t="s">
+        <v>88</v>
+      </c>
       <c r="AU27"/>
       <c r="AV27"/>
       <c r="AW27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX27"/>
       <c r="AY27"/>
-      <c r="AZ27" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ27"/>
       <c r="BA27"/>
       <c r="BB27"/>
-      <c r="BC27"/>
+      <c r="BC27" t="s">
+        <v>88</v>
+      </c>
       <c r="BD27"/>
       <c r="BE27"/>
-      <c r="BF27" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF27"/>
       <c r="BG27"/>
       <c r="BH27"/>
       <c r="BI27"/>
       <c r="BJ27"/>
-      <c r="BK27"/>
+      <c r="BK27" t="s">
+        <v>88</v>
+      </c>
       <c r="BL27"/>
       <c r="BM27"/>
-      <c r="BN27" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN27"/>
       <c r="BO27"/>
-      <c r="BP27" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP27"/>
       <c r="BQ27"/>
       <c r="BR27"/>
       <c r="BS27"/>
       <c r="BT27"/>
-      <c r="BU27"/>
+      <c r="BU27" t="s">
+        <v>88</v>
+      </c>
       <c r="BV27"/>
       <c r="BW27"/>
-      <c r="BX27" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX27"/>
       <c r="BY27"/>
       <c r="BZ27"/>
       <c r="CA27"/>
@@ -4258,24 +4141,19 @@
       <c r="CD27"/>
       <c r="CE27"/>
       <c r="CF27"/>
-      <c r="CG27"/>
+      <c r="CG27" t="s">
+        <v>88</v>
+      </c>
       <c r="CH27"/>
-      <c r="CI27"/>
-      <c r="CJ27" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -4285,7 +4163,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M28"/>
       <c r="N28"/>
@@ -4296,7 +4174,7 @@
       <c r="S28"/>
       <c r="T28"/>
       <c r="U28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V28"/>
       <c r="W28"/>
@@ -4322,47 +4200,45 @@
       <c r="AQ28"/>
       <c r="AR28"/>
       <c r="AS28"/>
-      <c r="AT28"/>
+      <c r="AT28" t="s">
+        <v>88</v>
+      </c>
       <c r="AU28"/>
       <c r="AV28"/>
       <c r="AW28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX28"/>
       <c r="AY28"/>
-      <c r="AZ28" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ28"/>
       <c r="BA28"/>
       <c r="BB28"/>
       <c r="BC28"/>
       <c r="BD28"/>
       <c r="BE28"/>
-      <c r="BF28" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF28"/>
       <c r="BG28"/>
       <c r="BH28"/>
       <c r="BI28"/>
       <c r="BJ28"/>
-      <c r="BK28"/>
+      <c r="BK28" t="s">
+        <v>88</v>
+      </c>
       <c r="BL28"/>
       <c r="BM28"/>
-      <c r="BN28" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN28"/>
       <c r="BO28"/>
       <c r="BP28"/>
       <c r="BQ28"/>
       <c r="BR28"/>
       <c r="BS28"/>
       <c r="BT28"/>
-      <c r="BU28"/>
+      <c r="BU28" t="s">
+        <v>88</v>
+      </c>
       <c r="BV28"/>
       <c r="BW28"/>
-      <c r="BX28" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX28"/>
       <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
@@ -4371,20 +4247,17 @@
       <c r="CD28"/>
       <c r="CE28"/>
       <c r="CF28"/>
-      <c r="CG28"/>
+      <c r="CG28" t="s">
+        <v>88</v>
+      </c>
       <c r="CH28"/>
-      <c r="CI28"/>
-      <c r="CJ28" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -4396,7 +4269,7 @@
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
@@ -4407,7 +4280,7 @@
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V29"/>
       <c r="W29"/>
@@ -4433,17 +4306,17 @@
       <c r="AQ29"/>
       <c r="AR29"/>
       <c r="AS29"/>
-      <c r="AT29"/>
+      <c r="AT29" t="s">
+        <v>88</v>
+      </c>
       <c r="AU29"/>
       <c r="AV29"/>
       <c r="AW29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX29"/>
       <c r="AY29"/>
-      <c r="AZ29" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ29"/>
       <c r="BA29"/>
       <c r="BB29"/>
       <c r="BC29"/>
@@ -4454,24 +4327,24 @@
       <c r="BH29"/>
       <c r="BI29"/>
       <c r="BJ29"/>
-      <c r="BK29"/>
+      <c r="BK29" t="s">
+        <v>88</v>
+      </c>
       <c r="BL29"/>
       <c r="BM29"/>
-      <c r="BN29" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN29"/>
       <c r="BO29"/>
       <c r="BP29"/>
       <c r="BQ29"/>
       <c r="BR29"/>
       <c r="BS29"/>
       <c r="BT29"/>
-      <c r="BU29"/>
+      <c r="BU29" t="s">
+        <v>88</v>
+      </c>
       <c r="BV29"/>
       <c r="BW29"/>
-      <c r="BX29" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX29"/>
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
@@ -4480,20 +4353,17 @@
       <c r="CD29"/>
       <c r="CE29"/>
       <c r="CF29"/>
-      <c r="CG29"/>
+      <c r="CG29" t="s">
+        <v>88</v>
+      </c>
       <c r="CH29"/>
-      <c r="CI29"/>
-      <c r="CJ29" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -4505,7 +4375,7 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -4516,7 +4386,7 @@
       <c r="S30"/>
       <c r="T30"/>
       <c r="U30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V30"/>
       <c r="W30"/>
@@ -4542,17 +4412,17 @@
       <c r="AQ30"/>
       <c r="AR30"/>
       <c r="AS30"/>
-      <c r="AT30"/>
+      <c r="AT30" t="s">
+        <v>88</v>
+      </c>
       <c r="AU30"/>
       <c r="AV30"/>
       <c r="AW30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX30"/>
       <c r="AY30"/>
-      <c r="AZ30" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ30"/>
       <c r="BA30"/>
       <c r="BB30"/>
       <c r="BC30"/>
@@ -4563,24 +4433,24 @@
       <c r="BH30"/>
       <c r="BI30"/>
       <c r="BJ30"/>
-      <c r="BK30"/>
+      <c r="BK30" t="s">
+        <v>88</v>
+      </c>
       <c r="BL30"/>
       <c r="BM30"/>
-      <c r="BN30" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN30"/>
       <c r="BO30"/>
       <c r="BP30"/>
       <c r="BQ30"/>
       <c r="BR30"/>
       <c r="BS30"/>
       <c r="BT30"/>
-      <c r="BU30"/>
+      <c r="BU30" t="s">
+        <v>88</v>
+      </c>
       <c r="BV30"/>
       <c r="BW30"/>
-      <c r="BX30" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX30"/>
       <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
@@ -4589,20 +4459,17 @@
       <c r="CD30"/>
       <c r="CE30"/>
       <c r="CF30"/>
-      <c r="CG30"/>
+      <c r="CG30" t="s">
+        <v>88</v>
+      </c>
       <c r="CH30"/>
-      <c r="CI30"/>
-      <c r="CJ30" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
         <v>133</v>
-      </c>
-      <c r="B31" t="s">
-        <v>136</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -4614,7 +4481,7 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M31"/>
       <c r="N31"/>
@@ -4625,7 +4492,7 @@
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V31"/>
       <c r="W31"/>
@@ -4651,17 +4518,17 @@
       <c r="AQ31"/>
       <c r="AR31"/>
       <c r="AS31"/>
-      <c r="AT31"/>
+      <c r="AT31" t="s">
+        <v>88</v>
+      </c>
       <c r="AU31"/>
       <c r="AV31"/>
       <c r="AW31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX31"/>
       <c r="AY31"/>
-      <c r="AZ31" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ31"/>
       <c r="BA31"/>
       <c r="BB31"/>
       <c r="BC31"/>
@@ -4672,24 +4539,24 @@
       <c r="BH31"/>
       <c r="BI31"/>
       <c r="BJ31"/>
-      <c r="BK31"/>
+      <c r="BK31" t="s">
+        <v>88</v>
+      </c>
       <c r="BL31"/>
       <c r="BM31"/>
-      <c r="BN31" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN31"/>
       <c r="BO31"/>
       <c r="BP31"/>
       <c r="BQ31"/>
       <c r="BR31"/>
       <c r="BS31"/>
       <c r="BT31"/>
-      <c r="BU31"/>
+      <c r="BU31" t="s">
+        <v>88</v>
+      </c>
       <c r="BV31"/>
       <c r="BW31"/>
-      <c r="BX31" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX31"/>
       <c r="BY31"/>
       <c r="BZ31"/>
       <c r="CA31"/>
@@ -4698,22 +4565,21 @@
       <c r="CD31"/>
       <c r="CE31"/>
       <c r="CF31"/>
-      <c r="CG31"/>
+      <c r="CG31" t="s">
+        <v>88</v>
+      </c>
       <c r="CH31"/>
-      <c r="CI31"/>
-      <c r="CJ31" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32"/>
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -4723,7 +4589,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
@@ -4734,14 +4600,16 @@
       <c r="S32"/>
       <c r="T32"/>
       <c r="U32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32"/>
       <c r="Z32"/>
-      <c r="AA32"/>
+      <c r="AA32" t="s">
+        <v>88</v>
+      </c>
       <c r="AB32"/>
       <c r="AC32"/>
       <c r="AD32"/>
@@ -4760,45 +4628,51 @@
       <c r="AQ32"/>
       <c r="AR32"/>
       <c r="AS32"/>
-      <c r="AT32"/>
+      <c r="AT32" t="s">
+        <v>88</v>
+      </c>
       <c r="AU32"/>
       <c r="AV32"/>
       <c r="AW32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX32"/>
       <c r="AY32"/>
-      <c r="AZ32" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ32"/>
       <c r="BA32"/>
       <c r="BB32"/>
-      <c r="BC32"/>
+      <c r="BC32" t="s">
+        <v>88</v>
+      </c>
       <c r="BD32"/>
       <c r="BE32"/>
-      <c r="BF32"/>
-      <c r="BG32"/>
+      <c r="BF32" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>88</v>
+      </c>
       <c r="BH32"/>
       <c r="BI32"/>
       <c r="BJ32"/>
-      <c r="BK32"/>
+      <c r="BK32" t="s">
+        <v>88</v>
+      </c>
       <c r="BL32"/>
       <c r="BM32"/>
-      <c r="BN32" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN32"/>
       <c r="BO32"/>
       <c r="BP32"/>
       <c r="BQ32"/>
       <c r="BR32"/>
       <c r="BS32"/>
       <c r="BT32"/>
-      <c r="BU32"/>
+      <c r="BU32" t="s">
+        <v>88</v>
+      </c>
       <c r="BV32"/>
       <c r="BW32"/>
-      <c r="BX32" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX32"/>
       <c r="BY32"/>
       <c r="BZ32"/>
       <c r="CA32"/>
@@ -4807,24 +4681,19 @@
       <c r="CD32"/>
       <c r="CE32"/>
       <c r="CF32"/>
-      <c r="CG32"/>
+      <c r="CG32" t="s">
+        <v>88</v>
+      </c>
       <c r="CH32"/>
-      <c r="CI32"/>
-      <c r="CJ32" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -4834,7 +4703,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -4845,18 +4714,20 @@
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V33"/>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
-      <c r="Z33"/>
+      <c r="Z33" t="s">
+        <v>88</v>
+      </c>
       <c r="AA33"/>
-      <c r="AB33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC33"/>
+      <c r="AB33"/>
+      <c r="AC33" t="s">
+        <v>88</v>
+      </c>
       <c r="AD33"/>
       <c r="AE33"/>
       <c r="AF33"/>
@@ -4872,52 +4743,52 @@
       <c r="AP33"/>
       <c r="AQ33"/>
       <c r="AR33"/>
-      <c r="AS33"/>
-      <c r="AT33"/>
+      <c r="AS33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>88</v>
+      </c>
       <c r="AU33"/>
       <c r="AV33"/>
       <c r="AW33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX33"/>
       <c r="AY33"/>
-      <c r="AZ33" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ33"/>
       <c r="BA33"/>
       <c r="BB33"/>
-      <c r="BC33"/>
+      <c r="BC33" t="s">
+        <v>88</v>
+      </c>
       <c r="BD33"/>
-      <c r="BE33"/>
-      <c r="BF33" t="s">
-        <v>91</v>
-      </c>
+      <c r="BE33" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF33"/>
       <c r="BG33"/>
       <c r="BH33"/>
-      <c r="BI33" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK33"/>
+      <c r="BI33"/>
+      <c r="BJ33"/>
+      <c r="BK33" t="s">
+        <v>88</v>
+      </c>
       <c r="BL33"/>
       <c r="BM33"/>
-      <c r="BN33" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN33"/>
       <c r="BO33"/>
       <c r="BP33"/>
       <c r="BQ33"/>
       <c r="BR33"/>
       <c r="BS33"/>
       <c r="BT33"/>
-      <c r="BU33"/>
+      <c r="BU33" t="s">
+        <v>88</v>
+      </c>
       <c r="BV33"/>
       <c r="BW33"/>
-      <c r="BX33" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX33"/>
       <c r="BY33"/>
       <c r="BZ33"/>
       <c r="CA33"/>
@@ -4926,20 +4797,17 @@
       <c r="CD33"/>
       <c r="CE33"/>
       <c r="CF33"/>
-      <c r="CG33"/>
+      <c r="CG33" t="s">
+        <v>88</v>
+      </c>
       <c r="CH33"/>
-      <c r="CI33"/>
-      <c r="CJ33" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -4951,7 +4819,7 @@
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M34"/>
       <c r="N34"/>
@@ -4962,22 +4830,22 @@
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V34"/>
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34" t="s">
-        <v>91</v>
-      </c>
+      <c r="Z34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA34"/>
       <c r="AB34"/>
-      <c r="AC34"/>
+      <c r="AC34" t="s">
+        <v>88</v>
+      </c>
       <c r="AD34"/>
-      <c r="AE34" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE34"/>
       <c r="AF34"/>
       <c r="AG34"/>
       <c r="AH34"/>
@@ -4991,52 +4859,50 @@
       <c r="AP34"/>
       <c r="AQ34"/>
       <c r="AR34"/>
-      <c r="AS34"/>
-      <c r="AT34"/>
-      <c r="AU34" t="s">
-        <v>91</v>
-      </c>
+      <c r="AS34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU34"/>
       <c r="AV34"/>
       <c r="AW34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX34"/>
       <c r="AY34"/>
-      <c r="AZ34" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ34"/>
       <c r="BA34"/>
       <c r="BB34"/>
-      <c r="BC34"/>
+      <c r="BC34" t="s">
+        <v>88</v>
+      </c>
       <c r="BD34"/>
       <c r="BE34"/>
-      <c r="BF34" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF34"/>
       <c r="BG34"/>
-      <c r="BH34" t="s">
-        <v>91</v>
-      </c>
+      <c r="BH34"/>
       <c r="BI34"/>
       <c r="BJ34"/>
-      <c r="BK34"/>
+      <c r="BK34" t="s">
+        <v>88</v>
+      </c>
       <c r="BL34"/>
       <c r="BM34"/>
-      <c r="BN34" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN34"/>
       <c r="BO34"/>
       <c r="BP34"/>
       <c r="BQ34"/>
       <c r="BR34"/>
       <c r="BS34"/>
       <c r="BT34"/>
-      <c r="BU34"/>
+      <c r="BU34" t="s">
+        <v>88</v>
+      </c>
       <c r="BV34"/>
       <c r="BW34"/>
-      <c r="BX34" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX34"/>
       <c r="BY34"/>
       <c r="BZ34"/>
       <c r="CA34"/>
@@ -5045,20 +4911,17 @@
       <c r="CD34"/>
       <c r="CE34"/>
       <c r="CF34"/>
-      <c r="CG34"/>
+      <c r="CG34" t="s">
+        <v>88</v>
+      </c>
       <c r="CH34"/>
-      <c r="CI34"/>
-      <c r="CJ34" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -5070,7 +4933,7 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M35"/>
       <c r="N35"/>
@@ -5081,26 +4944,28 @@
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V35"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35" t="s">
-        <v>91</v>
-      </c>
+      <c r="Z35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA35"/>
       <c r="AB35"/>
-      <c r="AC35"/>
+      <c r="AC35" t="s">
+        <v>88</v>
+      </c>
       <c r="AD35"/>
-      <c r="AE35" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE35"/>
       <c r="AF35"/>
       <c r="AG35"/>
       <c r="AH35"/>
-      <c r="AI35"/>
+      <c r="AI35" t="s">
+        <v>88</v>
+      </c>
       <c r="AJ35"/>
       <c r="AK35"/>
       <c r="AL35"/>
@@ -5110,50 +4975,50 @@
       <c r="AP35"/>
       <c r="AQ35"/>
       <c r="AR35"/>
-      <c r="AS35"/>
-      <c r="AT35"/>
-      <c r="AU35" t="s">
-        <v>91</v>
-      </c>
+      <c r="AS35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU35"/>
       <c r="AV35"/>
       <c r="AW35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX35"/>
       <c r="AY35"/>
-      <c r="AZ35" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ35"/>
       <c r="BA35"/>
       <c r="BB35"/>
-      <c r="BC35"/>
+      <c r="BC35" t="s">
+        <v>88</v>
+      </c>
       <c r="BD35"/>
       <c r="BE35"/>
-      <c r="BF35" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF35"/>
       <c r="BG35"/>
       <c r="BH35"/>
       <c r="BI35"/>
       <c r="BJ35"/>
-      <c r="BK35"/>
+      <c r="BK35" t="s">
+        <v>88</v>
+      </c>
       <c r="BL35"/>
       <c r="BM35"/>
-      <c r="BN35" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35"/>
       <c r="BQ35"/>
       <c r="BR35"/>
       <c r="BS35"/>
       <c r="BT35"/>
-      <c r="BU35"/>
+      <c r="BU35" t="s">
+        <v>88</v>
+      </c>
       <c r="BV35"/>
       <c r="BW35"/>
-      <c r="BX35" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX35"/>
       <c r="BY35"/>
       <c r="BZ35"/>
       <c r="CA35"/>
@@ -5162,22 +5027,21 @@
       <c r="CD35"/>
       <c r="CE35"/>
       <c r="CF35"/>
-      <c r="CG35"/>
+      <c r="CG35" t="s">
+        <v>88</v>
+      </c>
       <c r="CH35"/>
-      <c r="CI35"/>
-      <c r="CJ35" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36"/>
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
@@ -5187,7 +5051,7 @@
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -5198,30 +5062,26 @@
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V36"/>
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
       <c r="Z36"/>
-      <c r="AA36" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA36"/>
       <c r="AB36"/>
       <c r="AC36"/>
       <c r="AD36"/>
-      <c r="AE36" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF36"/>
+      <c r="AE36"/>
+      <c r="AF36" t="s">
+        <v>88</v>
+      </c>
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
       <c r="AJ36"/>
-      <c r="AK36" t="s">
-        <v>91</v>
-      </c>
+      <c r="AK36"/>
       <c r="AL36"/>
       <c r="AM36"/>
       <c r="AN36"/>
@@ -5230,49 +5090,49 @@
       <c r="AQ36"/>
       <c r="AR36"/>
       <c r="AS36"/>
-      <c r="AT36"/>
-      <c r="AU36" t="s">
-        <v>91</v>
-      </c>
+      <c r="AT36" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU36"/>
       <c r="AV36"/>
       <c r="AW36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX36"/>
       <c r="AY36"/>
-      <c r="AZ36" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ36"/>
       <c r="BA36"/>
       <c r="BB36"/>
-      <c r="BC36"/>
+      <c r="BC36" t="s">
+        <v>88</v>
+      </c>
       <c r="BD36"/>
       <c r="BE36"/>
-      <c r="BF36" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF36"/>
       <c r="BG36"/>
       <c r="BH36"/>
       <c r="BI36"/>
-      <c r="BJ36"/>
-      <c r="BK36"/>
+      <c r="BJ36" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>88</v>
+      </c>
       <c r="BL36"/>
       <c r="BM36"/>
-      <c r="BN36" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36"/>
       <c r="BQ36"/>
       <c r="BR36"/>
       <c r="BS36"/>
       <c r="BT36"/>
-      <c r="BU36"/>
+      <c r="BU36" t="s">
+        <v>88</v>
+      </c>
       <c r="BV36"/>
       <c r="BW36"/>
-      <c r="BX36" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX36"/>
       <c r="BY36"/>
       <c r="BZ36"/>
       <c r="CA36"/>
@@ -5281,23 +5141,20 @@
       <c r="CD36"/>
       <c r="CE36"/>
       <c r="CF36"/>
-      <c r="CG36"/>
+      <c r="CG36" t="s">
+        <v>88</v>
+      </c>
       <c r="CH36"/>
-      <c r="CI36"/>
-      <c r="CJ36" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -5308,7 +5165,7 @@
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M37"/>
       <c r="N37"/>
@@ -5319,7 +5176,7 @@
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V37"/>
       <c r="W37"/>
@@ -5331,11 +5188,11 @@
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
-      <c r="AF37"/>
+      <c r="AF37" t="s">
+        <v>88</v>
+      </c>
       <c r="AG37"/>
-      <c r="AH37" t="s">
-        <v>91</v>
-      </c>
+      <c r="AH37"/>
       <c r="AI37"/>
       <c r="AJ37"/>
       <c r="AK37"/>
@@ -5347,49 +5204,49 @@
       <c r="AQ37"/>
       <c r="AR37"/>
       <c r="AS37"/>
-      <c r="AT37"/>
+      <c r="AT37" t="s">
+        <v>88</v>
+      </c>
       <c r="AU37"/>
       <c r="AV37"/>
       <c r="AW37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX37"/>
       <c r="AY37"/>
-      <c r="AZ37" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ37"/>
       <c r="BA37"/>
       <c r="BB37"/>
-      <c r="BC37"/>
+      <c r="BC37" t="s">
+        <v>88</v>
+      </c>
       <c r="BD37"/>
       <c r="BE37"/>
-      <c r="BF37" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF37"/>
       <c r="BG37"/>
       <c r="BH37"/>
       <c r="BI37"/>
-      <c r="BJ37"/>
-      <c r="BK37"/>
+      <c r="BJ37" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>88</v>
+      </c>
       <c r="BL37"/>
-      <c r="BM37" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM37"/>
+      <c r="BN37"/>
       <c r="BO37"/>
       <c r="BP37"/>
       <c r="BQ37"/>
       <c r="BR37"/>
       <c r="BS37"/>
       <c r="BT37"/>
-      <c r="BU37"/>
+      <c r="BU37" t="s">
+        <v>88</v>
+      </c>
       <c r="BV37"/>
       <c r="BW37"/>
-      <c r="BX37" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX37"/>
       <c r="BY37"/>
       <c r="BZ37"/>
       <c r="CA37"/>
@@ -5398,23 +5255,20 @@
       <c r="CD37"/>
       <c r="CE37"/>
       <c r="CF37"/>
-      <c r="CG37"/>
+      <c r="CG37" t="s">
+        <v>88</v>
+      </c>
       <c r="CH37"/>
-      <c r="CI37"/>
-      <c r="CJ37" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -5425,7 +5279,7 @@
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
@@ -5436,7 +5290,7 @@
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V38"/>
       <c r="W38"/>
@@ -5448,11 +5302,11 @@
       <c r="AC38"/>
       <c r="AD38"/>
       <c r="AE38"/>
-      <c r="AF38"/>
+      <c r="AF38" t="s">
+        <v>88</v>
+      </c>
       <c r="AG38"/>
-      <c r="AH38" t="s">
-        <v>91</v>
-      </c>
+      <c r="AH38"/>
       <c r="AI38"/>
       <c r="AJ38"/>
       <c r="AK38"/>
@@ -5464,49 +5318,49 @@
       <c r="AQ38"/>
       <c r="AR38"/>
       <c r="AS38"/>
-      <c r="AT38"/>
+      <c r="AT38" t="s">
+        <v>88</v>
+      </c>
       <c r="AU38"/>
       <c r="AV38"/>
       <c r="AW38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX38"/>
       <c r="AY38"/>
-      <c r="AZ38" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ38"/>
       <c r="BA38"/>
       <c r="BB38"/>
-      <c r="BC38"/>
+      <c r="BC38" t="s">
+        <v>88</v>
+      </c>
       <c r="BD38"/>
       <c r="BE38"/>
-      <c r="BF38" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF38"/>
       <c r="BG38"/>
       <c r="BH38"/>
       <c r="BI38"/>
-      <c r="BJ38"/>
-      <c r="BK38"/>
+      <c r="BJ38" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>88</v>
+      </c>
       <c r="BL38"/>
-      <c r="BM38" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN38" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM38"/>
+      <c r="BN38"/>
       <c r="BO38"/>
       <c r="BP38"/>
       <c r="BQ38"/>
       <c r="BR38"/>
       <c r="BS38"/>
       <c r="BT38"/>
-      <c r="BU38"/>
+      <c r="BU38" t="s">
+        <v>88</v>
+      </c>
       <c r="BV38"/>
       <c r="BW38"/>
-      <c r="BX38" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX38"/>
       <c r="BY38"/>
       <c r="BZ38"/>
       <c r="CA38"/>
@@ -5515,25 +5369,24 @@
       <c r="CD38"/>
       <c r="CE38"/>
       <c r="CF38"/>
-      <c r="CG38"/>
+      <c r="CG38" t="s">
+        <v>88</v>
+      </c>
       <c r="CH38"/>
-      <c r="CI38"/>
-      <c r="CJ38" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39"/>
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
@@ -5542,7 +5395,7 @@
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
@@ -5553,7 +5406,7 @@
       <c r="S39"/>
       <c r="T39"/>
       <c r="U39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V39"/>
       <c r="W39"/>
@@ -5567,9 +5420,7 @@
       <c r="AE39"/>
       <c r="AF39"/>
       <c r="AG39"/>
-      <c r="AH39" t="s">
-        <v>91</v>
-      </c>
+      <c r="AH39"/>
       <c r="AI39"/>
       <c r="AJ39"/>
       <c r="AK39"/>
@@ -5581,49 +5432,47 @@
       <c r="AQ39"/>
       <c r="AR39"/>
       <c r="AS39"/>
-      <c r="AT39"/>
+      <c r="AT39" t="s">
+        <v>88</v>
+      </c>
       <c r="AU39"/>
       <c r="AV39"/>
       <c r="AW39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX39"/>
       <c r="AY39"/>
-      <c r="AZ39" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ39"/>
       <c r="BA39"/>
       <c r="BB39"/>
-      <c r="BC39"/>
+      <c r="BC39" t="s">
+        <v>88</v>
+      </c>
       <c r="BD39"/>
       <c r="BE39"/>
-      <c r="BF39" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF39"/>
       <c r="BG39"/>
       <c r="BH39"/>
       <c r="BI39"/>
       <c r="BJ39"/>
-      <c r="BK39"/>
+      <c r="BK39" t="s">
+        <v>88</v>
+      </c>
       <c r="BL39"/>
-      <c r="BM39" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN39" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM39"/>
+      <c r="BN39"/>
       <c r="BO39"/>
       <c r="BP39"/>
       <c r="BQ39"/>
       <c r="BR39"/>
       <c r="BS39"/>
       <c r="BT39"/>
-      <c r="BU39"/>
+      <c r="BU39" t="s">
+        <v>88</v>
+      </c>
       <c r="BV39"/>
       <c r="BW39"/>
-      <c r="BX39" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX39"/>
       <c r="BY39"/>
       <c r="BZ39"/>
       <c r="CA39"/>
@@ -5632,27 +5481,22 @@
       <c r="CD39"/>
       <c r="CE39"/>
       <c r="CF39"/>
-      <c r="CG39"/>
+      <c r="CG39" t="s">
+        <v>88</v>
+      </c>
       <c r="CH39"/>
-      <c r="CI39"/>
-      <c r="CJ39" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
@@ -5661,18 +5505,20 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="Q40"/>
+      <c r="Q40" t="s">
+        <v>88</v>
+      </c>
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V40"/>
       <c r="W40"/>
@@ -5698,47 +5544,51 @@
       <c r="AQ40"/>
       <c r="AR40"/>
       <c r="AS40"/>
-      <c r="AT40"/>
+      <c r="AT40" t="s">
+        <v>88</v>
+      </c>
       <c r="AU40"/>
       <c r="AV40"/>
       <c r="AW40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX40"/>
       <c r="AY40"/>
-      <c r="AZ40" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ40"/>
       <c r="BA40"/>
       <c r="BB40"/>
-      <c r="BC40"/>
+      <c r="BC40" t="s">
+        <v>88</v>
+      </c>
       <c r="BD40"/>
       <c r="BE40"/>
-      <c r="BF40" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF40"/>
       <c r="BG40"/>
-      <c r="BH40"/>
+      <c r="BH40" t="s">
+        <v>88</v>
+      </c>
       <c r="BI40"/>
       <c r="BJ40"/>
-      <c r="BK40"/>
+      <c r="BK40" t="s">
+        <v>88</v>
+      </c>
       <c r="BL40"/>
-      <c r="BM40"/>
-      <c r="BN40" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM40" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN40"/>
       <c r="BO40"/>
       <c r="BP40"/>
       <c r="BQ40"/>
       <c r="BR40"/>
       <c r="BS40"/>
       <c r="BT40"/>
-      <c r="BU40"/>
+      <c r="BU40" t="s">
+        <v>88</v>
+      </c>
       <c r="BV40"/>
       <c r="BW40"/>
-      <c r="BX40" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX40"/>
       <c r="BY40"/>
       <c r="BZ40"/>
       <c r="CA40"/>
@@ -5747,23 +5597,20 @@
       <c r="CD40"/>
       <c r="CE40"/>
       <c r="CF40"/>
-      <c r="CG40"/>
+      <c r="CG40" t="s">
+        <v>88</v>
+      </c>
       <c r="CH40"/>
-      <c r="CI40"/>
-      <c r="CJ40" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -5774,20 +5621,20 @@
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V41"/>
       <c r="W41"/>
@@ -5813,51 +5660,51 @@
       <c r="AQ41"/>
       <c r="AR41"/>
       <c r="AS41"/>
-      <c r="AT41"/>
+      <c r="AT41" t="s">
+        <v>88</v>
+      </c>
       <c r="AU41"/>
       <c r="AV41"/>
       <c r="AW41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX41"/>
       <c r="AY41"/>
-      <c r="AZ41" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ41"/>
       <c r="BA41"/>
       <c r="BB41"/>
-      <c r="BC41"/>
+      <c r="BC41" t="s">
+        <v>88</v>
+      </c>
       <c r="BD41"/>
       <c r="BE41"/>
-      <c r="BF41" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF41"/>
       <c r="BG41"/>
       <c r="BH41"/>
       <c r="BI41"/>
       <c r="BJ41"/>
       <c r="BK41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BL41"/>
-      <c r="BM41"/>
-      <c r="BN41" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM41" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN41"/>
       <c r="BO41"/>
-      <c r="BP41" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ41"/>
+      <c r="BP41"/>
+      <c r="BQ41" t="s">
+        <v>88</v>
+      </c>
       <c r="BR41"/>
       <c r="BS41"/>
       <c r="BT41"/>
-      <c r="BU41"/>
+      <c r="BU41" t="s">
+        <v>88</v>
+      </c>
       <c r="BV41"/>
       <c r="BW41"/>
-      <c r="BX41" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX41"/>
       <c r="BY41"/>
       <c r="BZ41"/>
       <c r="CA41"/>
@@ -5866,49 +5713,52 @@
       <c r="CD41"/>
       <c r="CE41"/>
       <c r="CF41"/>
-      <c r="CG41"/>
+      <c r="CG41" t="s">
+        <v>88</v>
+      </c>
       <c r="CH41"/>
-      <c r="CI41"/>
-      <c r="CJ41" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42"/>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42" t="s">
-        <v>91</v>
-      </c>
+      <c r="O42" t="s">
+        <v>88</v>
+      </c>
+      <c r="P42" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42" t="s">
-        <v>91</v>
-      </c>
-      <c r="V42"/>
+        <v>88</v>
+      </c>
+      <c r="V42" t="s">
+        <v>88</v>
+      </c>
       <c r="W42"/>
       <c r="X42"/>
       <c r="Y42"/>
@@ -5926,56 +5776,62 @@
       <c r="AK42"/>
       <c r="AL42"/>
       <c r="AM42"/>
-      <c r="AN42"/>
+      <c r="AN42" t="s">
+        <v>88</v>
+      </c>
       <c r="AO42"/>
       <c r="AP42"/>
-      <c r="AQ42"/>
+      <c r="AQ42" t="s">
+        <v>88</v>
+      </c>
       <c r="AR42"/>
       <c r="AS42"/>
-      <c r="AT42"/>
+      <c r="AT42" t="s">
+        <v>88</v>
+      </c>
       <c r="AU42"/>
       <c r="AV42"/>
       <c r="AW42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX42"/>
       <c r="AY42"/>
       <c r="AZ42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BA42"/>
       <c r="BB42"/>
-      <c r="BC42"/>
+      <c r="BC42" t="s">
+        <v>88</v>
+      </c>
       <c r="BD42"/>
       <c r="BE42"/>
-      <c r="BF42" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF42"/>
       <c r="BG42"/>
       <c r="BH42"/>
       <c r="BI42"/>
       <c r="BJ42"/>
-      <c r="BK42"/>
+      <c r="BK42" t="s">
+        <v>88</v>
+      </c>
       <c r="BL42"/>
       <c r="BM42"/>
-      <c r="BN42" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN42"/>
       <c r="BO42"/>
-      <c r="BP42" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP42"/>
       <c r="BQ42"/>
       <c r="BR42"/>
-      <c r="BS42"/>
-      <c r="BT42" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU42"/>
+      <c r="BS42" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT42"/>
+      <c r="BU42" t="s">
+        <v>88</v>
+      </c>
       <c r="BV42"/>
       <c r="BW42"/>
       <c r="BX42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BY42"/>
       <c r="BZ42"/>
@@ -5985,54 +5841,51 @@
       <c r="CD42"/>
       <c r="CE42"/>
       <c r="CF42"/>
-      <c r="CG42"/>
+      <c r="CG42" t="s">
+        <v>88</v>
+      </c>
       <c r="CH42"/>
-      <c r="CI42"/>
-      <c r="CJ42" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W43"/>
       <c r="X43"/>
@@ -6041,7 +5894,9 @@
       <c r="AA43"/>
       <c r="AB43"/>
       <c r="AC43"/>
-      <c r="AD43"/>
+      <c r="AD43" t="s">
+        <v>88</v>
+      </c>
       <c r="AE43"/>
       <c r="AF43"/>
       <c r="AG43"/>
@@ -6051,132 +5906,129 @@
       <c r="AK43"/>
       <c r="AL43"/>
       <c r="AM43"/>
-      <c r="AN43"/>
+      <c r="AN43" t="s">
+        <v>88</v>
+      </c>
       <c r="AO43"/>
-      <c r="AP43" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ43"/>
+      <c r="AP43"/>
+      <c r="AQ43" t="s">
+        <v>88</v>
+      </c>
       <c r="AR43"/>
-      <c r="AS43" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT43"/>
+      <c r="AS43"/>
+      <c r="AT43" t="s">
+        <v>88</v>
+      </c>
       <c r="AU43"/>
       <c r="AV43"/>
       <c r="AW43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX43"/>
       <c r="AY43"/>
       <c r="AZ43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BA43"/>
       <c r="BB43"/>
       <c r="BC43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BD43"/>
       <c r="BE43"/>
-      <c r="BF43" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF43"/>
       <c r="BG43"/>
       <c r="BH43"/>
       <c r="BI43"/>
       <c r="BJ43"/>
-      <c r="BK43"/>
+      <c r="BK43" t="s">
+        <v>88</v>
+      </c>
       <c r="BL43"/>
       <c r="BM43"/>
-      <c r="BN43" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN43"/>
       <c r="BO43"/>
       <c r="BP43"/>
       <c r="BQ43"/>
       <c r="BR43"/>
-      <c r="BS43"/>
-      <c r="BT43"/>
-      <c r="BU43"/>
-      <c r="BV43" t="s">
-        <v>91</v>
-      </c>
+      <c r="BS43" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU43" t="s">
+        <v>88</v>
+      </c>
+      <c r="BV43"/>
       <c r="BW43"/>
       <c r="BX43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BY43"/>
       <c r="BZ43"/>
-      <c r="CA43" t="s">
-        <v>91</v>
-      </c>
+      <c r="CA43"/>
       <c r="CB43"/>
       <c r="CC43"/>
       <c r="CD43"/>
       <c r="CE43"/>
       <c r="CF43"/>
-      <c r="CG43"/>
+      <c r="CG43" t="s">
+        <v>88</v>
+      </c>
       <c r="CH43"/>
-      <c r="CI43"/>
-      <c r="CJ43" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
         <v>154</v>
       </c>
-      <c r="B44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44"/>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44" t="s">
-        <v>91</v>
-      </c>
+      <c r="G44"/>
       <c r="H44"/>
-      <c r="I44"/>
+      <c r="I44" t="s">
+        <v>88</v>
+      </c>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>91</v>
-      </c>
-      <c r="M44"/>
+        <v>88</v>
+      </c>
+      <c r="M44" t="s">
+        <v>88</v>
+      </c>
       <c r="N44"/>
-      <c r="O44" t="s">
-        <v>91</v>
-      </c>
-      <c r="P44" t="s">
-        <v>91</v>
-      </c>
+      <c r="O44"/>
+      <c r="P44"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
       <c r="U44" t="s">
-        <v>91</v>
-      </c>
-      <c r="V44" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="V44"/>
       <c r="W44"/>
-      <c r="X44"/>
+      <c r="X44" t="s">
+        <v>88</v>
+      </c>
       <c r="Y44"/>
-      <c r="Z44"/>
+      <c r="Z44" t="s">
+        <v>88</v>
+      </c>
       <c r="AA44"/>
       <c r="AB44"/>
       <c r="AC44"/>
       <c r="AD44"/>
       <c r="AE44"/>
-      <c r="AF44" t="s">
-        <v>91</v>
-      </c>
+      <c r="AF44"/>
       <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
@@ -6186,104 +6038,91 @@
       <c r="AM44"/>
       <c r="AN44"/>
       <c r="AO44"/>
-      <c r="AP44" t="s">
-        <v>91</v>
-      </c>
+      <c r="AP44"/>
       <c r="AQ44"/>
       <c r="AR44"/>
-      <c r="AS44" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT44"/>
+      <c r="AS44"/>
+      <c r="AT44" t="s">
+        <v>88</v>
+      </c>
       <c r="AU44"/>
       <c r="AV44"/>
       <c r="AW44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX44"/>
       <c r="AY44"/>
-      <c r="AZ44" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ44"/>
       <c r="BA44"/>
       <c r="BB44"/>
       <c r="BC44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BD44"/>
       <c r="BE44"/>
-      <c r="BF44" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF44"/>
       <c r="BG44"/>
       <c r="BH44"/>
       <c r="BI44"/>
       <c r="BJ44"/>
-      <c r="BK44"/>
+      <c r="BK44" t="s">
+        <v>88</v>
+      </c>
       <c r="BL44"/>
       <c r="BM44"/>
-      <c r="BN44" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN44"/>
       <c r="BO44"/>
       <c r="BP44"/>
       <c r="BQ44"/>
       <c r="BR44"/>
       <c r="BS44"/>
       <c r="BT44"/>
-      <c r="BU44"/>
+      <c r="BU44" t="s">
+        <v>88</v>
+      </c>
       <c r="BV44" t="s">
-        <v>91</v>
-      </c>
-      <c r="BW44" t="s">
-        <v>91</v>
-      </c>
-      <c r="BX44" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="BW44"/>
+      <c r="BX44"/>
       <c r="BY44"/>
       <c r="BZ44"/>
-      <c r="CA44" t="s">
-        <v>91</v>
-      </c>
+      <c r="CA44"/>
       <c r="CB44"/>
       <c r="CC44"/>
       <c r="CD44"/>
       <c r="CE44"/>
       <c r="CF44"/>
-      <c r="CG44"/>
+      <c r="CG44" t="s">
+        <v>88</v>
+      </c>
       <c r="CH44"/>
-      <c r="CI44"/>
-      <c r="CJ44" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -6293,18 +6132,16 @@
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V45"/>
       <c r="W45"/>
       <c r="X45"/>
-      <c r="Y45" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z45"/>
-      <c r="AA45" t="s">
-        <v>91</v>
-      </c>
+      <c r="Y45"/>
+      <c r="Z45" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA45"/>
       <c r="AB45"/>
       <c r="AC45"/>
       <c r="AD45"/>
@@ -6323,109 +6160,104 @@
       <c r="AQ45"/>
       <c r="AR45"/>
       <c r="AS45"/>
-      <c r="AT45"/>
+      <c r="AT45" t="s">
+        <v>88</v>
+      </c>
       <c r="AU45"/>
       <c r="AV45"/>
       <c r="AW45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX45"/>
       <c r="AY45"/>
-      <c r="AZ45" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ45"/>
       <c r="BA45"/>
       <c r="BB45"/>
-      <c r="BC45"/>
+      <c r="BC45" t="s">
+        <v>88</v>
+      </c>
       <c r="BD45"/>
       <c r="BE45"/>
-      <c r="BF45" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF45"/>
       <c r="BG45"/>
       <c r="BH45"/>
       <c r="BI45"/>
       <c r="BJ45"/>
-      <c r="BK45"/>
+      <c r="BK45" t="s">
+        <v>88</v>
+      </c>
       <c r="BL45"/>
       <c r="BM45"/>
-      <c r="BN45" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN45"/>
       <c r="BO45"/>
       <c r="BP45"/>
       <c r="BQ45"/>
       <c r="BR45"/>
       <c r="BS45"/>
       <c r="BT45"/>
-      <c r="BU45"/>
-      <c r="BV45"/>
+      <c r="BU45" t="s">
+        <v>88</v>
+      </c>
+      <c r="BV45" t="s">
+        <v>88</v>
+      </c>
       <c r="BW45"/>
-      <c r="BX45" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY45" t="s">
-        <v>91</v>
-      </c>
-      <c r="BZ45"/>
+      <c r="BX45"/>
+      <c r="BY45"/>
+      <c r="BZ45" t="s">
+        <v>88</v>
+      </c>
       <c r="CA45"/>
       <c r="CB45"/>
       <c r="CC45"/>
       <c r="CD45"/>
       <c r="CE45"/>
       <c r="CF45"/>
-      <c r="CG45"/>
+      <c r="CG45" t="s">
+        <v>88</v>
+      </c>
       <c r="CH45"/>
-      <c r="CI45"/>
-      <c r="CJ45" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
         <v>157</v>
       </c>
-      <c r="B46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46"/>
-      <c r="D46" t="s">
-        <v>91</v>
-      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="I46" t="s">
-        <v>91</v>
-      </c>
+      <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>91</v>
-      </c>
-      <c r="M46" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46"/>
+      <c r="Q46" t="s">
+        <v>88</v>
+      </c>
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
       <c r="U46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
       <c r="Z46"/>
-      <c r="AA46" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA46"/>
       <c r="AB46"/>
       <c r="AC46"/>
       <c r="AD46"/>
@@ -6444,113 +6276,106 @@
       <c r="AQ46"/>
       <c r="AR46"/>
       <c r="AS46"/>
-      <c r="AT46"/>
+      <c r="AT46" t="s">
+        <v>88</v>
+      </c>
       <c r="AU46"/>
       <c r="AV46"/>
       <c r="AW46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX46"/>
       <c r="AY46"/>
-      <c r="AZ46" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ46"/>
       <c r="BA46"/>
       <c r="BB46"/>
-      <c r="BC46"/>
+      <c r="BC46" t="s">
+        <v>88</v>
+      </c>
       <c r="BD46"/>
       <c r="BE46"/>
-      <c r="BF46" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF46"/>
       <c r="BG46"/>
       <c r="BH46"/>
       <c r="BI46"/>
       <c r="BJ46"/>
-      <c r="BK46"/>
+      <c r="BK46" t="s">
+        <v>88</v>
+      </c>
       <c r="BL46"/>
-      <c r="BM46"/>
-      <c r="BN46" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM46" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN46"/>
       <c r="BO46"/>
-      <c r="BP46"/>
-      <c r="BQ46"/>
+      <c r="BP46" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>88</v>
+      </c>
       <c r="BR46"/>
       <c r="BS46"/>
       <c r="BT46"/>
-      <c r="BU46"/>
+      <c r="BU46" t="s">
+        <v>88</v>
+      </c>
       <c r="BV46"/>
       <c r="BW46"/>
-      <c r="BX46" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY46" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX46"/>
+      <c r="BY46"/>
       <c r="BZ46"/>
       <c r="CA46"/>
       <c r="CB46"/>
-      <c r="CC46" t="s">
-        <v>91</v>
-      </c>
+      <c r="CC46"/>
       <c r="CD46"/>
       <c r="CE46"/>
       <c r="CF46"/>
-      <c r="CG46"/>
+      <c r="CG46" t="s">
+        <v>88</v>
+      </c>
       <c r="CH46"/>
-      <c r="CI46"/>
-      <c r="CJ46" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47"/>
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="I47" t="s">
-        <v>91</v>
-      </c>
+      <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>91</v>
-      </c>
-      <c r="M47" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
-      <c r="Q47"/>
+      <c r="Q47" t="s">
+        <v>88</v>
+      </c>
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
       <c r="U47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V47"/>
       <c r="W47"/>
       <c r="X47"/>
-      <c r="Y47" t="s">
-        <v>91</v>
-      </c>
+      <c r="Y47"/>
       <c r="Z47"/>
-      <c r="AA47" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA47"/>
       <c r="AB47"/>
       <c r="AC47"/>
       <c r="AD47"/>
@@ -6569,50 +6394,54 @@
       <c r="AQ47"/>
       <c r="AR47"/>
       <c r="AS47"/>
-      <c r="AT47"/>
+      <c r="AT47" t="s">
+        <v>88</v>
+      </c>
       <c r="AU47"/>
       <c r="AV47"/>
       <c r="AW47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX47"/>
       <c r="AY47"/>
-      <c r="AZ47" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ47"/>
       <c r="BA47"/>
       <c r="BB47"/>
-      <c r="BC47"/>
+      <c r="BC47" t="s">
+        <v>88</v>
+      </c>
       <c r="BD47"/>
       <c r="BE47"/>
-      <c r="BF47" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF47"/>
       <c r="BG47"/>
       <c r="BH47"/>
       <c r="BI47"/>
       <c r="BJ47"/>
-      <c r="BK47"/>
+      <c r="BK47" t="s">
+        <v>88</v>
+      </c>
       <c r="BL47"/>
-      <c r="BM47"/>
-      <c r="BN47" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM47" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN47"/>
       <c r="BO47"/>
-      <c r="BP47"/>
-      <c r="BQ47"/>
+      <c r="BP47" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ47" t="s">
+        <v>88</v>
+      </c>
       <c r="BR47"/>
       <c r="BS47"/>
       <c r="BT47"/>
-      <c r="BU47"/>
+      <c r="BU47" t="s">
+        <v>88</v>
+      </c>
       <c r="BV47"/>
       <c r="BW47"/>
-      <c r="BX47" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY47" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX47"/>
+      <c r="BY47"/>
       <c r="BZ47"/>
       <c r="CA47"/>
       <c r="CB47"/>
@@ -6620,58 +6449,51 @@
       <c r="CD47"/>
       <c r="CE47"/>
       <c r="CF47"/>
-      <c r="CG47"/>
+      <c r="CG47" t="s">
+        <v>88</v>
+      </c>
       <c r="CH47"/>
-      <c r="CI47"/>
-      <c r="CJ47" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48"/>
-      <c r="D48" t="s">
-        <v>91</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48" t="s">
-        <v>91</v>
-      </c>
+      <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>91</v>
-      </c>
-      <c r="M48" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48"/>
+      <c r="Q48" t="s">
+        <v>88</v>
+      </c>
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
       <c r="U48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
-      <c r="AA48" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA48"/>
       <c r="AB48"/>
       <c r="AC48"/>
       <c r="AD48"/>
@@ -6690,77 +6512,74 @@
       <c r="AQ48"/>
       <c r="AR48"/>
       <c r="AS48"/>
-      <c r="AT48"/>
+      <c r="AT48" t="s">
+        <v>88</v>
+      </c>
       <c r="AU48"/>
       <c r="AV48"/>
       <c r="AW48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX48"/>
       <c r="AY48"/>
-      <c r="AZ48" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ48"/>
       <c r="BA48"/>
       <c r="BB48"/>
-      <c r="BC48"/>
+      <c r="BC48" t="s">
+        <v>88</v>
+      </c>
       <c r="BD48"/>
       <c r="BE48"/>
-      <c r="BF48" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF48"/>
       <c r="BG48"/>
       <c r="BH48"/>
       <c r="BI48"/>
       <c r="BJ48"/>
-      <c r="BK48"/>
+      <c r="BK48" t="s">
+        <v>88</v>
+      </c>
       <c r="BL48"/>
-      <c r="BM48"/>
-      <c r="BN48" t="s">
-        <v>91</v>
-      </c>
+      <c r="BM48" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN48"/>
       <c r="BO48"/>
-      <c r="BP48"/>
-      <c r="BQ48"/>
+      <c r="BP48" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>88</v>
+      </c>
       <c r="BR48"/>
       <c r="BS48"/>
       <c r="BT48"/>
-      <c r="BU48"/>
+      <c r="BU48" t="s">
+        <v>88</v>
+      </c>
       <c r="BV48"/>
       <c r="BW48"/>
-      <c r="BX48" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY48" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX48"/>
+      <c r="BY48"/>
       <c r="BZ48"/>
       <c r="CA48"/>
       <c r="CB48"/>
-      <c r="CC48" t="s">
-        <v>91</v>
-      </c>
+      <c r="CC48"/>
       <c r="CD48"/>
       <c r="CE48"/>
       <c r="CF48"/>
-      <c r="CG48"/>
+      <c r="CG48" t="s">
+        <v>88</v>
+      </c>
       <c r="CH48"/>
-      <c r="CI48"/>
-      <c r="CJ48" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" t="s">
-        <v>91</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -6770,29 +6589,31 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
-      <c r="Q49" t="s">
-        <v>91</v>
-      </c>
+      <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
       <c r="Y49"/>
-      <c r="Z49"/>
+      <c r="Z49" t="s">
+        <v>88</v>
+      </c>
       <c r="AA49"/>
       <c r="AB49"/>
-      <c r="AC49"/>
+      <c r="AC49" t="s">
+        <v>88</v>
+      </c>
       <c r="AD49"/>
       <c r="AE49"/>
       <c r="AF49"/>
@@ -6808,80 +6629,75 @@
       <c r="AP49"/>
       <c r="AQ49"/>
       <c r="AR49"/>
-      <c r="AS49"/>
-      <c r="AT49"/>
+      <c r="AS49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>88</v>
+      </c>
       <c r="AU49"/>
       <c r="AV49"/>
       <c r="AW49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX49"/>
       <c r="AY49"/>
-      <c r="AZ49" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ49"/>
       <c r="BA49"/>
       <c r="BB49"/>
-      <c r="BC49"/>
+      <c r="BC49" t="s">
+        <v>88</v>
+      </c>
       <c r="BD49"/>
       <c r="BE49"/>
-      <c r="BF49" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF49"/>
       <c r="BG49"/>
       <c r="BH49"/>
       <c r="BI49"/>
       <c r="BJ49"/>
-      <c r="BK49"/>
-      <c r="BL49"/>
+      <c r="BK49" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>88</v>
+      </c>
       <c r="BM49"/>
-      <c r="BN49" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN49"/>
       <c r="BO49"/>
-      <c r="BP49" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP49"/>
       <c r="BQ49"/>
       <c r="BR49"/>
-      <c r="BS49" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT49" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU49"/>
+      <c r="BS49"/>
+      <c r="BT49"/>
+      <c r="BU49" t="s">
+        <v>88</v>
+      </c>
       <c r="BV49"/>
       <c r="BW49"/>
-      <c r="BX49" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX49"/>
       <c r="BY49"/>
       <c r="BZ49"/>
       <c r="CA49"/>
       <c r="CB49"/>
-      <c r="CC49"/>
+      <c r="CC49" t="s">
+        <v>88</v>
+      </c>
       <c r="CD49"/>
       <c r="CE49"/>
       <c r="CF49"/>
-      <c r="CG49"/>
+      <c r="CG49" t="s">
+        <v>88</v>
+      </c>
       <c r="CH49"/>
-      <c r="CI49"/>
-      <c r="CJ49" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" t="s">
-        <v>91</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
@@ -6891,29 +6707,31 @@
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
-      <c r="Q50" t="s">
-        <v>91</v>
-      </c>
+      <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
       <c r="U50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V50"/>
       <c r="W50"/>
       <c r="X50"/>
       <c r="Y50"/>
-      <c r="Z50"/>
+      <c r="Z50" t="s">
+        <v>88</v>
+      </c>
       <c r="AA50"/>
       <c r="AB50"/>
-      <c r="AC50"/>
+      <c r="AC50" t="s">
+        <v>88</v>
+      </c>
       <c r="AD50"/>
       <c r="AE50"/>
       <c r="AF50"/>
@@ -6929,80 +6747,75 @@
       <c r="AP50"/>
       <c r="AQ50"/>
       <c r="AR50"/>
-      <c r="AS50"/>
-      <c r="AT50"/>
+      <c r="AS50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>88</v>
+      </c>
       <c r="AU50"/>
       <c r="AV50"/>
       <c r="AW50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX50"/>
       <c r="AY50"/>
-      <c r="AZ50" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ50"/>
       <c r="BA50"/>
       <c r="BB50"/>
-      <c r="BC50"/>
+      <c r="BC50" t="s">
+        <v>88</v>
+      </c>
       <c r="BD50"/>
       <c r="BE50"/>
-      <c r="BF50" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF50"/>
       <c r="BG50"/>
       <c r="BH50"/>
       <c r="BI50"/>
       <c r="BJ50"/>
-      <c r="BK50"/>
-      <c r="BL50"/>
+      <c r="BK50" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL50" t="s">
+        <v>88</v>
+      </c>
       <c r="BM50"/>
-      <c r="BN50" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN50"/>
       <c r="BO50"/>
-      <c r="BP50" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP50"/>
       <c r="BQ50"/>
       <c r="BR50"/>
-      <c r="BS50" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT50" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU50"/>
+      <c r="BS50"/>
+      <c r="BT50"/>
+      <c r="BU50" t="s">
+        <v>88</v>
+      </c>
       <c r="BV50"/>
       <c r="BW50"/>
-      <c r="BX50" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX50"/>
       <c r="BY50"/>
       <c r="BZ50"/>
       <c r="CA50"/>
       <c r="CB50"/>
-      <c r="CC50"/>
+      <c r="CC50" t="s">
+        <v>88</v>
+      </c>
       <c r="CD50"/>
       <c r="CE50"/>
       <c r="CF50"/>
-      <c r="CG50"/>
+      <c r="CG50" t="s">
+        <v>88</v>
+      </c>
       <c r="CH50"/>
-      <c r="CI50"/>
-      <c r="CJ50" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
         <v>163</v>
       </c>
-      <c r="B51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" t="s">
-        <v>91</v>
-      </c>
+      <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
@@ -7012,29 +6825,31 @@
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M51"/>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
-      <c r="Q51" t="s">
-        <v>91</v>
-      </c>
+      <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
       <c r="U51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V51"/>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
-      <c r="Z51"/>
+      <c r="Z51" t="s">
+        <v>88</v>
+      </c>
       <c r="AA51"/>
       <c r="AB51"/>
-      <c r="AC51"/>
+      <c r="AC51" t="s">
+        <v>88</v>
+      </c>
       <c r="AD51"/>
       <c r="AE51"/>
       <c r="AF51"/>
@@ -7050,88 +6865,91 @@
       <c r="AP51"/>
       <c r="AQ51"/>
       <c r="AR51"/>
-      <c r="AS51"/>
-      <c r="AT51"/>
+      <c r="AS51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>88</v>
+      </c>
       <c r="AU51"/>
       <c r="AV51"/>
       <c r="AW51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX51"/>
       <c r="AY51"/>
-      <c r="AZ51" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ51"/>
       <c r="BA51"/>
       <c r="BB51"/>
-      <c r="BC51"/>
+      <c r="BC51" t="s">
+        <v>88</v>
+      </c>
       <c r="BD51"/>
       <c r="BE51"/>
-      <c r="BF51" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF51"/>
       <c r="BG51"/>
       <c r="BH51"/>
       <c r="BI51"/>
       <c r="BJ51"/>
-      <c r="BK51"/>
-      <c r="BL51"/>
+      <c r="BK51" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>88</v>
+      </c>
       <c r="BM51"/>
-      <c r="BN51" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN51"/>
       <c r="BO51"/>
-      <c r="BP51" t="s">
-        <v>91</v>
-      </c>
+      <c r="BP51"/>
       <c r="BQ51"/>
       <c r="BR51"/>
-      <c r="BS51" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT51" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU51"/>
+      <c r="BS51"/>
+      <c r="BT51"/>
+      <c r="BU51" t="s">
+        <v>88</v>
+      </c>
       <c r="BV51"/>
       <c r="BW51"/>
-      <c r="BX51" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX51"/>
       <c r="BY51"/>
       <c r="BZ51"/>
       <c r="CA51"/>
       <c r="CB51"/>
-      <c r="CC51"/>
+      <c r="CC51" t="s">
+        <v>88</v>
+      </c>
       <c r="CD51"/>
       <c r="CE51"/>
       <c r="CF51"/>
-      <c r="CG51"/>
+      <c r="CG51" t="s">
+        <v>88</v>
+      </c>
       <c r="CH51"/>
-      <c r="CI51"/>
-      <c r="CJ51" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52"/>
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
       <c r="D52"/>
-      <c r="E52"/>
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52"/>
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
       <c r="K52"/>
       <c r="L52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M52"/>
       <c r="N52"/>
@@ -7139,25 +6957,25 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52"/>
+      <c r="S52" t="s">
+        <v>88</v>
+      </c>
       <c r="T52"/>
       <c r="U52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V52"/>
       <c r="W52"/>
       <c r="X52"/>
-      <c r="Y52"/>
+      <c r="Y52" t="s">
+        <v>88</v>
+      </c>
       <c r="Z52"/>
-      <c r="AA52" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA52"/>
       <c r="AB52"/>
       <c r="AC52"/>
       <c r="AD52"/>
-      <c r="AE52" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE52"/>
       <c r="AF52"/>
       <c r="AG52"/>
       <c r="AH52"/>
@@ -7168,91 +6986,96 @@
       <c r="AM52"/>
       <c r="AN52"/>
       <c r="AO52"/>
-      <c r="AP52"/>
+      <c r="AP52" t="s">
+        <v>88</v>
+      </c>
       <c r="AQ52"/>
-      <c r="AR52"/>
+      <c r="AR52" t="s">
+        <v>88</v>
+      </c>
       <c r="AS52"/>
-      <c r="AT52"/>
-      <c r="AU52" t="s">
-        <v>91</v>
-      </c>
+      <c r="AT52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU52"/>
       <c r="AV52"/>
       <c r="AW52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX52"/>
       <c r="AY52"/>
-      <c r="AZ52" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ52"/>
       <c r="BA52"/>
       <c r="BB52"/>
-      <c r="BC52"/>
+      <c r="BC52" t="s">
+        <v>88</v>
+      </c>
       <c r="BD52"/>
       <c r="BE52"/>
-      <c r="BF52" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF52"/>
       <c r="BG52"/>
       <c r="BH52"/>
-      <c r="BI52"/>
+      <c r="BI52" t="s">
+        <v>88</v>
+      </c>
       <c r="BJ52"/>
-      <c r="BK52"/>
+      <c r="BK52" t="s">
+        <v>88</v>
+      </c>
       <c r="BL52"/>
       <c r="BM52"/>
-      <c r="BN52" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO52" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN52"/>
+      <c r="BO52"/>
       <c r="BP52"/>
       <c r="BQ52"/>
       <c r="BR52"/>
       <c r="BS52"/>
       <c r="BT52"/>
-      <c r="BU52"/>
+      <c r="BU52" t="s">
+        <v>88</v>
+      </c>
       <c r="BV52"/>
       <c r="BW52"/>
-      <c r="BX52" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX52"/>
       <c r="BY52"/>
       <c r="BZ52"/>
-      <c r="CA52"/>
+      <c r="CA52" t="s">
+        <v>88</v>
+      </c>
       <c r="CB52"/>
       <c r="CC52"/>
       <c r="CD52"/>
       <c r="CE52"/>
-      <c r="CF52" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG52"/>
+      <c r="CF52"/>
+      <c r="CG52" t="s">
+        <v>88</v>
+      </c>
       <c r="CH52"/>
-      <c r="CI52"/>
-      <c r="CJ52" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53"/>
+        <v>166</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
       <c r="D53"/>
-      <c r="E53"/>
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53"/>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
       <c r="K53"/>
       <c r="L53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M53"/>
       <c r="N53"/>
@@ -7260,25 +7083,25 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
-      <c r="S53"/>
+      <c r="S53" t="s">
+        <v>88</v>
+      </c>
       <c r="T53"/>
       <c r="U53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V53"/>
       <c r="W53"/>
       <c r="X53"/>
-      <c r="Y53"/>
+      <c r="Y53" t="s">
+        <v>88</v>
+      </c>
       <c r="Z53"/>
-      <c r="AA53" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA53"/>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
-      <c r="AE53" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE53"/>
       <c r="AF53"/>
       <c r="AG53"/>
       <c r="AH53"/>
@@ -7289,55 +7112,55 @@
       <c r="AM53"/>
       <c r="AN53"/>
       <c r="AO53"/>
-      <c r="AP53"/>
+      <c r="AP53" t="s">
+        <v>88</v>
+      </c>
       <c r="AQ53"/>
       <c r="AR53"/>
       <c r="AS53"/>
-      <c r="AT53"/>
-      <c r="AU53" t="s">
-        <v>91</v>
-      </c>
+      <c r="AT53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU53"/>
       <c r="AV53"/>
       <c r="AW53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX53"/>
       <c r="AY53"/>
-      <c r="AZ53" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ53"/>
       <c r="BA53"/>
       <c r="BB53"/>
-      <c r="BC53"/>
+      <c r="BC53" t="s">
+        <v>88</v>
+      </c>
       <c r="BD53"/>
       <c r="BE53"/>
-      <c r="BF53" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF53"/>
       <c r="BG53"/>
       <c r="BH53"/>
-      <c r="BI53"/>
+      <c r="BI53" t="s">
+        <v>88</v>
+      </c>
       <c r="BJ53"/>
-      <c r="BK53"/>
+      <c r="BK53" t="s">
+        <v>88</v>
+      </c>
       <c r="BL53"/>
       <c r="BM53"/>
-      <c r="BN53" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO53" t="s">
-        <v>91</v>
-      </c>
+      <c r="BN53"/>
+      <c r="BO53"/>
       <c r="BP53"/>
       <c r="BQ53"/>
       <c r="BR53"/>
       <c r="BS53"/>
       <c r="BT53"/>
-      <c r="BU53"/>
+      <c r="BU53" t="s">
+        <v>88</v>
+      </c>
       <c r="BV53"/>
       <c r="BW53"/>
-      <c r="BX53" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX53"/>
       <c r="BY53"/>
       <c r="BZ53"/>
       <c r="CA53"/>
@@ -7345,23 +7168,18 @@
       <c r="CC53"/>
       <c r="CD53"/>
       <c r="CE53"/>
-      <c r="CF53" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG53"/>
+      <c r="CF53"/>
+      <c r="CG53" t="s">
+        <v>88</v>
+      </c>
       <c r="CH53"/>
-      <c r="CI53"/>
-      <c r="CJ53" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -7373,7 +7191,7 @@
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M54"/>
       <c r="N54"/>
@@ -7384,21 +7202,21 @@
       <c r="S54"/>
       <c r="T54"/>
       <c r="U54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V54"/>
-      <c r="W54"/>
+      <c r="W54" t="s">
+        <v>88</v>
+      </c>
       <c r="X54"/>
       <c r="Y54"/>
       <c r="Z54"/>
-      <c r="AA54" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA54"/>
       <c r="AB54"/>
       <c r="AC54"/>
       <c r="AD54"/>
       <c r="AE54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AF54"/>
       <c r="AG54"/>
@@ -7409,56 +7227,56 @@
       <c r="AL54"/>
       <c r="AM54"/>
       <c r="AN54"/>
-      <c r="AO54"/>
+      <c r="AO54" t="s">
+        <v>88</v>
+      </c>
       <c r="AP54"/>
       <c r="AQ54"/>
       <c r="AR54"/>
       <c r="AS54"/>
-      <c r="AT54"/>
-      <c r="AU54" t="s">
-        <v>91</v>
-      </c>
+      <c r="AT54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU54"/>
       <c r="AV54"/>
       <c r="AW54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AX54"/>
       <c r="AY54"/>
-      <c r="AZ54" t="s">
-        <v>91</v>
-      </c>
+      <c r="AZ54"/>
       <c r="BA54"/>
-      <c r="BB54"/>
+      <c r="BB54" t="s">
+        <v>88</v>
+      </c>
       <c r="BC54"/>
       <c r="BD54"/>
       <c r="BE54"/>
-      <c r="BF54" t="s">
-        <v>91</v>
-      </c>
+      <c r="BF54"/>
       <c r="BG54"/>
       <c r="BH54"/>
       <c r="BI54"/>
       <c r="BJ54"/>
-      <c r="BK54"/>
+      <c r="BK54" t="s">
+        <v>88</v>
+      </c>
       <c r="BL54"/>
       <c r="BM54"/>
       <c r="BN54" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO54" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="BO54"/>
       <c r="BP54"/>
       <c r="BQ54"/>
       <c r="BR54"/>
       <c r="BS54"/>
       <c r="BT54"/>
-      <c r="BU54"/>
+      <c r="BU54" t="s">
+        <v>88</v>
+      </c>
       <c r="BV54"/>
       <c r="BW54"/>
-      <c r="BX54" t="s">
-        <v>91</v>
-      </c>
+      <c r="BX54"/>
       <c r="BY54"/>
       <c r="BZ54"/>
       <c r="CA54"/>
@@ -7466,389 +7284,11 @@
       <c r="CC54"/>
       <c r="CD54"/>
       <c r="CE54"/>
-      <c r="CF54" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG54"/>
+      <c r="CF54"/>
+      <c r="CG54" t="s">
+        <v>88</v>
+      </c>
       <c r="CH54"/>
-      <c r="CI54"/>
-      <c r="CJ54" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B55" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55"/>
-      <c r="L55" t="s">
-        <v>91</v>
-      </c>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55" t="s">
-        <v>91</v>
-      </c>
-      <c r="T55"/>
-      <c r="U55" t="s">
-        <v>91</v>
-      </c>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AC55"/>
-      <c r="AD55"/>
-      <c r="AE55"/>
-      <c r="AF55"/>
-      <c r="AG55"/>
-      <c r="AH55"/>
-      <c r="AI55"/>
-      <c r="AJ55"/>
-      <c r="AK55"/>
-      <c r="AL55"/>
-      <c r="AM55"/>
-      <c r="AN55"/>
-      <c r="AO55"/>
-      <c r="AP55"/>
-      <c r="AQ55"/>
-      <c r="AR55" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS55"/>
-      <c r="AT55" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU55"/>
-      <c r="AV55"/>
-      <c r="AW55" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX55"/>
-      <c r="AY55"/>
-      <c r="AZ55" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA55"/>
-      <c r="BB55"/>
-      <c r="BC55"/>
-      <c r="BD55"/>
-      <c r="BE55"/>
-      <c r="BF55" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG55"/>
-      <c r="BH55"/>
-      <c r="BI55"/>
-      <c r="BJ55"/>
-      <c r="BK55"/>
-      <c r="BL55" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM55"/>
-      <c r="BN55" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO55"/>
-      <c r="BP55"/>
-      <c r="BQ55"/>
-      <c r="BR55"/>
-      <c r="BS55"/>
-      <c r="BT55"/>
-      <c r="BU55"/>
-      <c r="BV55"/>
-      <c r="BW55"/>
-      <c r="BX55" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY55"/>
-      <c r="BZ55"/>
-      <c r="CA55"/>
-      <c r="CB55"/>
-      <c r="CC55"/>
-      <c r="CD55" t="s">
-        <v>91</v>
-      </c>
-      <c r="CE55"/>
-      <c r="CF55"/>
-      <c r="CG55"/>
-      <c r="CH55"/>
-      <c r="CI55"/>
-      <c r="CJ55" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK55"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56"/>
-      <c r="L56" t="s">
-        <v>91</v>
-      </c>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56" t="s">
-        <v>91</v>
-      </c>
-      <c r="T56"/>
-      <c r="U56" t="s">
-        <v>91</v>
-      </c>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56"/>
-      <c r="AD56"/>
-      <c r="AE56"/>
-      <c r="AF56"/>
-      <c r="AG56"/>
-      <c r="AH56"/>
-      <c r="AI56"/>
-      <c r="AJ56"/>
-      <c r="AK56"/>
-      <c r="AL56"/>
-      <c r="AM56"/>
-      <c r="AN56"/>
-      <c r="AO56"/>
-      <c r="AP56"/>
-      <c r="AQ56"/>
-      <c r="AR56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS56"/>
-      <c r="AT56"/>
-      <c r="AU56"/>
-      <c r="AV56"/>
-      <c r="AW56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX56"/>
-      <c r="AY56"/>
-      <c r="AZ56" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA56"/>
-      <c r="BB56"/>
-      <c r="BC56"/>
-      <c r="BD56"/>
-      <c r="BE56"/>
-      <c r="BF56" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG56"/>
-      <c r="BH56"/>
-      <c r="BI56"/>
-      <c r="BJ56"/>
-      <c r="BK56"/>
-      <c r="BL56" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM56"/>
-      <c r="BN56" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO56"/>
-      <c r="BP56"/>
-      <c r="BQ56"/>
-      <c r="BR56"/>
-      <c r="BS56"/>
-      <c r="BT56"/>
-      <c r="BU56"/>
-      <c r="BV56"/>
-      <c r="BW56"/>
-      <c r="BX56" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY56"/>
-      <c r="BZ56"/>
-      <c r="CA56"/>
-      <c r="CB56"/>
-      <c r="CC56"/>
-      <c r="CD56"/>
-      <c r="CE56"/>
-      <c r="CF56"/>
-      <c r="CG56"/>
-      <c r="CH56"/>
-      <c r="CI56"/>
-      <c r="CJ56" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK56"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57" t="s">
-        <v>91</v>
-      </c>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57" t="s">
-        <v>91</v>
-      </c>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-      <c r="AE57"/>
-      <c r="AF57"/>
-      <c r="AG57" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH57"/>
-      <c r="AI57"/>
-      <c r="AJ57"/>
-      <c r="AK57"/>
-      <c r="AL57"/>
-      <c r="AM57"/>
-      <c r="AN57"/>
-      <c r="AO57"/>
-      <c r="AP57"/>
-      <c r="AQ57" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR57"/>
-      <c r="AS57"/>
-      <c r="AT57"/>
-      <c r="AU57"/>
-      <c r="AV57"/>
-      <c r="AW57" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX57"/>
-      <c r="AY57"/>
-      <c r="AZ57" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA57"/>
-      <c r="BB57"/>
-      <c r="BC57"/>
-      <c r="BD57"/>
-      <c r="BE57" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF57"/>
-      <c r="BG57"/>
-      <c r="BH57"/>
-      <c r="BI57"/>
-      <c r="BJ57"/>
-      <c r="BK57"/>
-      <c r="BL57"/>
-      <c r="BM57"/>
-      <c r="BN57" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO57"/>
-      <c r="BP57"/>
-      <c r="BQ57" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR57"/>
-      <c r="BS57"/>
-      <c r="BT57"/>
-      <c r="BU57"/>
-      <c r="BV57"/>
-      <c r="BW57"/>
-      <c r="BX57" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY57"/>
-      <c r="BZ57"/>
-      <c r="CA57"/>
-      <c r="CB57"/>
-      <c r="CC57"/>
-      <c r="CD57"/>
-      <c r="CE57"/>
-      <c r="CF57"/>
-      <c r="CG57"/>
-      <c r="CH57"/>
-      <c r="CI57"/>
-      <c r="CJ57" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summaries/variantSummary2.xlsx
+++ b/summaries/variantSummary2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -407,127 +407,100 @@
     <t xml:space="preserve">9544|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">SRR11783578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783578|Unk|20200929</t>
+    <t xml:space="preserve">deWit_RM1_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM1_Remdesivir|BAL|20200604</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">SRR11783582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783582|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783589|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783590|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783593|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783594|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783595|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783599|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783601|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783603|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783604|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783605|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783610|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783614|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783615|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783618|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783621|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783622|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783624|Unk|20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783625|Unk|20200929</t>
+    <t xml:space="preserve">deWit_RM1_Remdesivir|LLLL|20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM10_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM10_Vehicle|BAL|20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM11_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM11_Vehicle|Nose_swab|20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM12_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM12_Vehicle|BAL|20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir|Rectal_swab|20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir|RLLL|20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir|Nose_swab|20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir|BAL|20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir|LLLL|20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir|BAL|20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle|BAL|20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle|LLLL|20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle|Nose_swab|20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle|RLLL|20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle|BAL|20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle|Rectal_swab|20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle|BAL|20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle|LLLL|20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle|RLLL|20200608</t>
   </si>
 </sst>
 </file>
@@ -1261,112 +1234,142 @@
       <c r="B2" t="s">
         <v>132</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2"/>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2"/>
+      <c r="N2" t="s">
+        <v>133</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
+      <c r="Q2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" t="s">
+        <v>133</v>
+      </c>
       <c r="S2"/>
-      <c r="T2"/>
+      <c r="T2" t="s">
+        <v>133</v>
+      </c>
       <c r="U2"/>
-      <c r="V2"/>
+      <c r="V2" t="s">
+        <v>133</v>
+      </c>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
+      <c r="Z2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>133</v>
+      </c>
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
-      <c r="AG2"/>
+      <c r="AG2" t="s">
+        <v>133</v>
+      </c>
       <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
-      <c r="AL2"/>
+      <c r="AL2" t="s">
+        <v>133</v>
+      </c>
       <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
+      <c r="AN2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>133</v>
+      </c>
       <c r="AQ2"/>
       <c r="AR2"/>
       <c r="AS2"/>
-      <c r="AT2"/>
+      <c r="AT2" t="s">
+        <v>133</v>
+      </c>
       <c r="AU2"/>
       <c r="AV2"/>
       <c r="AW2"/>
-      <c r="AX2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2" t="s">
+        <v>133</v>
+      </c>
       <c r="BA2"/>
       <c r="BB2"/>
-      <c r="BC2" t="s">
-        <v>133</v>
-      </c>
+      <c r="BC2"/>
       <c r="BD2"/>
       <c r="BE2"/>
-      <c r="BF2"/>
+      <c r="BF2" t="s">
+        <v>133</v>
+      </c>
       <c r="BG2"/>
-      <c r="BH2"/>
+      <c r="BH2" t="s">
+        <v>133</v>
+      </c>
       <c r="BI2"/>
-      <c r="BJ2"/>
+      <c r="BJ2" t="s">
+        <v>133</v>
+      </c>
       <c r="BK2"/>
       <c r="BL2"/>
       <c r="BM2"/>
       <c r="BN2"/>
-      <c r="BO2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ2"/>
-      <c r="BR2" t="s">
-        <v>133</v>
-      </c>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR2"/>
       <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2" t="s">
-        <v>133</v>
-      </c>
+      <c r="BT2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV2"/>
       <c r="BW2"/>
       <c r="BX2"/>
       <c r="BY2"/>
       <c r="BZ2"/>
-      <c r="CA2" t="s">
-        <v>133</v>
-      </c>
+      <c r="CA2"/>
       <c r="CB2"/>
       <c r="CC2"/>
-      <c r="CD2"/>
+      <c r="CD2" t="s">
+        <v>133</v>
+      </c>
       <c r="CE2"/>
-      <c r="CF2"/>
+      <c r="CF2" t="s">
+        <v>133</v>
+      </c>
       <c r="CG2"/>
       <c r="CH2"/>
-      <c r="CI2" t="s">
-        <v>133</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>133</v>
-      </c>
+      <c r="CI2"/>
+      <c r="CJ2"/>
       <c r="CK2"/>
       <c r="CL2"/>
       <c r="CM2"/>
@@ -1376,59 +1379,65 @@
       <c r="CQ2"/>
       <c r="CR2"/>
       <c r="CS2"/>
-      <c r="CT2" t="s">
-        <v>133</v>
-      </c>
+      <c r="CT2"/>
       <c r="CU2"/>
-      <c r="CV2" t="s">
-        <v>133</v>
-      </c>
+      <c r="CV2"/>
       <c r="CW2"/>
       <c r="CX2"/>
       <c r="CY2"/>
       <c r="CZ2"/>
       <c r="DA2"/>
       <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
+      <c r="DC2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>133</v>
+      </c>
       <c r="DE2"/>
-      <c r="DF2" t="s">
-        <v>133</v>
-      </c>
+      <c r="DF2"/>
       <c r="DG2"/>
-      <c r="DH2" t="s">
-        <v>133</v>
-      </c>
-      <c r="DI2"/>
-      <c r="DJ2" t="s">
-        <v>133</v>
-      </c>
+      <c r="DH2"/>
+      <c r="DI2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ2"/>
       <c r="DK2"/>
       <c r="DL2"/>
       <c r="DM2"/>
       <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
+      <c r="DO2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>133</v>
+      </c>
       <c r="DR2"/>
-      <c r="DS2" t="s">
-        <v>133</v>
-      </c>
+      <c r="DS2"/>
       <c r="DT2"/>
       <c r="DU2"/>
       <c r="DV2"/>
-      <c r="DW2"/>
+      <c r="DW2" t="s">
+        <v>133</v>
+      </c>
       <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
+      <c r="DY2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>133</v>
+      </c>
       <c r="EA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -1436,8 +1445,12 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="I3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1551,13 +1564,9 @@
       <c r="DQ3"/>
       <c r="DR3"/>
       <c r="DS3"/>
-      <c r="DT3" t="s">
-        <v>133</v>
-      </c>
+      <c r="DT3"/>
       <c r="DU3"/>
-      <c r="DV3" t="s">
-        <v>133</v>
-      </c>
+      <c r="DV3"/>
       <c r="DW3"/>
       <c r="DX3"/>
       <c r="DY3"/>
@@ -1566,10 +1575,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -1733,10 +1742,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -1764,9 +1773,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
-      <c r="AC5" t="s">
-        <v>133</v>
-      </c>
+      <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
@@ -1829,9 +1836,7 @@
       <c r="CK5"/>
       <c r="CL5"/>
       <c r="CM5"/>
-      <c r="CN5" t="s">
-        <v>133</v>
-      </c>
+      <c r="CN5"/>
       <c r="CO5"/>
       <c r="CP5"/>
       <c r="CQ5"/>
@@ -1863,9 +1868,13 @@
       <c r="DQ5"/>
       <c r="DR5"/>
       <c r="DS5"/>
-      <c r="DT5"/>
+      <c r="DT5" t="s">
+        <v>133</v>
+      </c>
       <c r="DU5"/>
-      <c r="DV5"/>
+      <c r="DV5" t="s">
+        <v>133</v>
+      </c>
       <c r="DW5"/>
       <c r="DX5"/>
       <c r="DY5"/>
@@ -1874,10 +1883,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
         <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -1897,9 +1906,7 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
-      <c r="U6" t="s">
-        <v>133</v>
-      </c>
+      <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
@@ -1928,12 +1935,18 @@
       <c r="AU6"/>
       <c r="AV6"/>
       <c r="AW6"/>
-      <c r="AX6"/>
-      <c r="AY6"/>
+      <c r="AX6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>133</v>
+      </c>
       <c r="AZ6"/>
       <c r="BA6"/>
       <c r="BB6"/>
-      <c r="BC6"/>
+      <c r="BC6" t="s">
+        <v>133</v>
+      </c>
       <c r="BD6"/>
       <c r="BE6"/>
       <c r="BF6"/>
@@ -1945,19 +1958,29 @@
       <c r="BL6"/>
       <c r="BM6"/>
       <c r="BN6"/>
-      <c r="BO6"/>
-      <c r="BP6"/>
+      <c r="BO6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>133</v>
+      </c>
       <c r="BQ6"/>
-      <c r="BR6"/>
+      <c r="BR6" t="s">
+        <v>133</v>
+      </c>
       <c r="BS6"/>
       <c r="BT6"/>
       <c r="BU6"/>
-      <c r="BV6"/>
+      <c r="BV6" t="s">
+        <v>133</v>
+      </c>
       <c r="BW6"/>
       <c r="BX6"/>
       <c r="BY6"/>
       <c r="BZ6"/>
-      <c r="CA6"/>
+      <c r="CA6" t="s">
+        <v>133</v>
+      </c>
       <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6"/>
@@ -1965,8 +1988,12 @@
       <c r="CF6"/>
       <c r="CG6"/>
       <c r="CH6"/>
-      <c r="CI6"/>
-      <c r="CJ6"/>
+      <c r="CI6" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>133</v>
+      </c>
       <c r="CK6"/>
       <c r="CL6"/>
       <c r="CM6"/>
@@ -1976,9 +2003,13 @@
       <c r="CQ6"/>
       <c r="CR6"/>
       <c r="CS6"/>
-      <c r="CT6"/>
+      <c r="CT6" t="s">
+        <v>133</v>
+      </c>
       <c r="CU6"/>
-      <c r="CV6"/>
+      <c r="CV6" t="s">
+        <v>133</v>
+      </c>
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
@@ -1988,11 +2019,17 @@
       <c r="DC6"/>
       <c r="DD6"/>
       <c r="DE6"/>
-      <c r="DF6"/>
+      <c r="DF6" t="s">
+        <v>133</v>
+      </c>
       <c r="DG6"/>
-      <c r="DH6"/>
+      <c r="DH6" t="s">
+        <v>133</v>
+      </c>
       <c r="DI6"/>
-      <c r="DJ6"/>
+      <c r="DJ6" t="s">
+        <v>133</v>
+      </c>
       <c r="DK6"/>
       <c r="DL6"/>
       <c r="DM6"/>
@@ -2001,11 +2038,11 @@
       <c r="DP6"/>
       <c r="DQ6"/>
       <c r="DR6"/>
-      <c r="DS6"/>
+      <c r="DS6" t="s">
+        <v>133</v>
+      </c>
       <c r="DT6"/>
-      <c r="DU6" t="s">
-        <v>133</v>
-      </c>
+      <c r="DU6"/>
       <c r="DV6"/>
       <c r="DW6"/>
       <c r="DX6"/>
@@ -2015,10 +2052,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -2028,17 +2065,21 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" t="s">
-        <v>133</v>
-      </c>
+      <c r="K7"/>
       <c r="L7"/>
-      <c r="M7"/>
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7"/>
+      <c r="P7" t="s">
+        <v>133</v>
+      </c>
       <c r="Q7"/>
       <c r="R7"/>
-      <c r="S7"/>
+      <c r="S7" t="s">
+        <v>133</v>
+      </c>
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
@@ -2049,7 +2090,9 @@
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7"/>
-      <c r="AD7"/>
+      <c r="AD7" t="s">
+        <v>133</v>
+      </c>
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
@@ -2066,26 +2109,32 @@
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>
-      <c r="AU7" t="s">
-        <v>133</v>
-      </c>
+      <c r="AU7"/>
       <c r="AV7"/>
       <c r="AW7"/>
       <c r="AX7"/>
       <c r="AY7"/>
       <c r="AZ7"/>
       <c r="BA7"/>
-      <c r="BB7"/>
+      <c r="BB7" t="s">
+        <v>133</v>
+      </c>
       <c r="BC7"/>
-      <c r="BD7"/>
-      <c r="BE7"/>
+      <c r="BD7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>133</v>
+      </c>
       <c r="BF7"/>
       <c r="BG7"/>
       <c r="BH7"/>
       <c r="BI7"/>
       <c r="BJ7"/>
       <c r="BK7"/>
-      <c r="BL7"/>
+      <c r="BL7" t="s">
+        <v>133</v>
+      </c>
       <c r="BM7"/>
       <c r="BN7"/>
       <c r="BO7"/>
@@ -2098,21 +2147,23 @@
       <c r="BV7"/>
       <c r="BW7"/>
       <c r="BX7"/>
-      <c r="BY7" t="s">
-        <v>133</v>
-      </c>
+      <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
       <c r="CB7"/>
       <c r="CC7"/>
       <c r="CD7"/>
-      <c r="CE7"/>
+      <c r="CE7" t="s">
+        <v>133</v>
+      </c>
       <c r="CF7"/>
       <c r="CG7"/>
       <c r="CH7"/>
       <c r="CI7"/>
       <c r="CJ7"/>
-      <c r="CK7"/>
+      <c r="CK7" t="s">
+        <v>133</v>
+      </c>
       <c r="CL7"/>
       <c r="CM7"/>
       <c r="CN7"/>
@@ -2120,7 +2171,9 @@
       <c r="CP7"/>
       <c r="CQ7"/>
       <c r="CR7"/>
-      <c r="CS7"/>
+      <c r="CS7" t="s">
+        <v>133</v>
+      </c>
       <c r="CT7"/>
       <c r="CU7"/>
       <c r="CV7"/>
@@ -2129,7 +2182,9 @@
       <c r="CY7"/>
       <c r="CZ7"/>
       <c r="DA7"/>
-      <c r="DB7"/>
+      <c r="DB7" t="s">
+        <v>133</v>
+      </c>
       <c r="DC7"/>
       <c r="DD7"/>
       <c r="DE7"/>
@@ -2138,8 +2193,12 @@
       <c r="DH7"/>
       <c r="DI7"/>
       <c r="DJ7"/>
-      <c r="DK7"/>
-      <c r="DL7"/>
+      <c r="DK7" t="s">
+        <v>133</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>133</v>
+      </c>
       <c r="DM7"/>
       <c r="DN7"/>
       <c r="DO7"/>
@@ -2158,10 +2217,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -2225,9 +2284,7 @@
       <c r="BJ8"/>
       <c r="BK8"/>
       <c r="BL8"/>
-      <c r="BM8" t="s">
-        <v>133</v>
-      </c>
+      <c r="BM8"/>
       <c r="BN8"/>
       <c r="BO8"/>
       <c r="BP8"/>
@@ -2258,7 +2315,9 @@
       <c r="CO8"/>
       <c r="CP8"/>
       <c r="CQ8"/>
-      <c r="CR8"/>
+      <c r="CR8" t="s">
+        <v>133</v>
+      </c>
       <c r="CS8"/>
       <c r="CT8"/>
       <c r="CU8"/>
@@ -2271,9 +2330,7 @@
       <c r="DB8"/>
       <c r="DC8"/>
       <c r="DD8"/>
-      <c r="DE8" t="s">
-        <v>133</v>
-      </c>
+      <c r="DE8"/>
       <c r="DF8"/>
       <c r="DG8"/>
       <c r="DH8"/>
@@ -2299,10 +2356,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -2438,10 +2495,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -2533,11 +2590,11 @@
       <c r="CL10"/>
       <c r="CM10"/>
       <c r="CN10"/>
-      <c r="CO10" t="s">
-        <v>133</v>
-      </c>
+      <c r="CO10"/>
       <c r="CP10"/>
-      <c r="CQ10"/>
+      <c r="CQ10" t="s">
+        <v>133</v>
+      </c>
       <c r="CR10"/>
       <c r="CS10"/>
       <c r="CT10"/>
@@ -2577,20 +2634,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11"/>
-      <c r="D11" t="s">
-        <v>133</v>
-      </c>
+      <c r="D11"/>
       <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11" t="s">
-        <v>133</v>
-      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -2606,55 +2661,37 @@
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
-      <c r="W11" t="s">
-        <v>133</v>
-      </c>
-      <c r="X11" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>133</v>
-      </c>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
-      <c r="AF11" t="s">
-        <v>133</v>
-      </c>
+      <c r="AF11"/>
       <c r="AG11"/>
-      <c r="AH11"/>
+      <c r="AH11" t="s">
+        <v>133</v>
+      </c>
       <c r="AI11"/>
-      <c r="AJ11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>133</v>
-      </c>
+      <c r="AJ11"/>
+      <c r="AK11"/>
       <c r="AL11"/>
-      <c r="AM11"/>
+      <c r="AM11" t="s">
+        <v>133</v>
+      </c>
       <c r="AN11"/>
-      <c r="AO11" t="s">
-        <v>133</v>
-      </c>
+      <c r="AO11"/>
       <c r="AP11"/>
-      <c r="AQ11" t="s">
-        <v>133</v>
-      </c>
+      <c r="AQ11"/>
       <c r="AR11"/>
-      <c r="AS11" t="s">
-        <v>133</v>
-      </c>
+      <c r="AS11"/>
       <c r="AT11"/>
       <c r="AU11"/>
-      <c r="AV11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>133</v>
-      </c>
+      <c r="AV11"/>
+      <c r="AW11"/>
       <c r="AX11"/>
       <c r="AY11"/>
       <c r="AZ11"/>
@@ -2664,20 +2701,14 @@
       <c r="BD11"/>
       <c r="BE11"/>
       <c r="BF11"/>
-      <c r="BG11" t="s">
-        <v>133</v>
-      </c>
+      <c r="BG11"/>
       <c r="BH11"/>
       <c r="BI11"/>
       <c r="BJ11"/>
-      <c r="BK11" t="s">
-        <v>133</v>
-      </c>
+      <c r="BK11"/>
       <c r="BL11"/>
       <c r="BM11"/>
-      <c r="BN11" t="s">
-        <v>133</v>
-      </c>
+      <c r="BN11"/>
       <c r="BO11"/>
       <c r="BP11"/>
       <c r="BQ11"/>
@@ -2689,29 +2720,21 @@
       <c r="BW11"/>
       <c r="BX11"/>
       <c r="BY11"/>
-      <c r="BZ11"/>
+      <c r="BZ11" t="s">
+        <v>133</v>
+      </c>
       <c r="CA11"/>
-      <c r="CB11" t="s">
-        <v>133</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>133</v>
-      </c>
+      <c r="CB11"/>
+      <c r="CC11"/>
       <c r="CD11"/>
       <c r="CE11"/>
       <c r="CF11"/>
-      <c r="CG11" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>133</v>
-      </c>
+      <c r="CG11"/>
+      <c r="CH11"/>
       <c r="CI11"/>
       <c r="CJ11"/>
       <c r="CK11"/>
-      <c r="CL11" t="s">
-        <v>133</v>
-      </c>
+      <c r="CL11"/>
       <c r="CM11"/>
       <c r="CN11"/>
       <c r="CO11"/>
@@ -2720,35 +2743,25 @@
       <c r="CR11"/>
       <c r="CS11"/>
       <c r="CT11"/>
-      <c r="CU11" t="s">
-        <v>133</v>
-      </c>
+      <c r="CU11"/>
       <c r="CV11"/>
       <c r="CW11"/>
-      <c r="CX11" t="s">
-        <v>133</v>
-      </c>
+      <c r="CX11"/>
       <c r="CY11"/>
       <c r="CZ11"/>
-      <c r="DA11" t="s">
-        <v>133</v>
-      </c>
+      <c r="DA11"/>
       <c r="DB11"/>
       <c r="DC11"/>
       <c r="DD11"/>
       <c r="DE11"/>
       <c r="DF11"/>
-      <c r="DG11" t="s">
-        <v>133</v>
-      </c>
+      <c r="DG11"/>
       <c r="DH11"/>
       <c r="DI11"/>
       <c r="DJ11"/>
       <c r="DK11"/>
       <c r="DL11"/>
-      <c r="DM11" t="s">
-        <v>133</v>
-      </c>
+      <c r="DM11"/>
       <c r="DN11"/>
       <c r="DO11"/>
       <c r="DP11"/>
@@ -2759,19 +2772,17 @@
       <c r="DU11"/>
       <c r="DV11"/>
       <c r="DW11"/>
-      <c r="DX11" t="s">
-        <v>133</v>
-      </c>
+      <c r="DX11"/>
       <c r="DY11"/>
       <c r="DZ11"/>
       <c r="EA11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -2801,7 +2812,9 @@
       <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
-      <c r="AE12"/>
+      <c r="AE12" t="s">
+        <v>133</v>
+      </c>
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
@@ -2814,9 +2827,7 @@
       <c r="AO12"/>
       <c r="AP12"/>
       <c r="AQ12"/>
-      <c r="AR12" t="s">
-        <v>133</v>
-      </c>
+      <c r="AR12"/>
       <c r="AS12"/>
       <c r="AT12"/>
       <c r="AU12"/>
@@ -2847,9 +2858,7 @@
       <c r="BT12"/>
       <c r="BU12"/>
       <c r="BV12"/>
-      <c r="BW12" t="s">
-        <v>133</v>
-      </c>
+      <c r="BW12"/>
       <c r="BX12"/>
       <c r="BY12"/>
       <c r="BZ12"/>
@@ -2909,10 +2918,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -3048,10 +3057,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -3081,9 +3090,7 @@
       <c r="AB14"/>
       <c r="AC14"/>
       <c r="AD14"/>
-      <c r="AE14" t="s">
-        <v>133</v>
-      </c>
+      <c r="AE14"/>
       <c r="AF14"/>
       <c r="AG14"/>
       <c r="AH14"/>
@@ -3096,7 +3103,9 @@
       <c r="AO14"/>
       <c r="AP14"/>
       <c r="AQ14"/>
-      <c r="AR14"/>
+      <c r="AR14" t="s">
+        <v>133</v>
+      </c>
       <c r="AS14"/>
       <c r="AT14"/>
       <c r="AU14"/>
@@ -3127,7 +3136,9 @@
       <c r="BT14"/>
       <c r="BU14"/>
       <c r="BV14"/>
-      <c r="BW14"/>
+      <c r="BW14" t="s">
+        <v>133</v>
+      </c>
       <c r="BX14"/>
       <c r="BY14"/>
       <c r="BZ14"/>
@@ -3187,18 +3198,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C15"/>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
       <c r="E15"/>
-      <c r="F15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15"/>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -3214,37 +3227,55 @@
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
+      <c r="W15" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
       <c r="Z15"/>
       <c r="AA15"/>
       <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
-      <c r="AF15"/>
+      <c r="AF15" t="s">
+        <v>133</v>
+      </c>
       <c r="AG15"/>
-      <c r="AH15" t="s">
-        <v>133</v>
-      </c>
+      <c r="AH15"/>
       <c r="AI15"/>
-      <c r="AJ15"/>
-      <c r="AK15"/>
+      <c r="AJ15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>133</v>
+      </c>
       <c r="AL15"/>
-      <c r="AM15" t="s">
-        <v>133</v>
-      </c>
+      <c r="AM15"/>
       <c r="AN15"/>
-      <c r="AO15"/>
+      <c r="AO15" t="s">
+        <v>133</v>
+      </c>
       <c r="AP15"/>
-      <c r="AQ15"/>
+      <c r="AQ15" t="s">
+        <v>133</v>
+      </c>
       <c r="AR15"/>
-      <c r="AS15"/>
+      <c r="AS15" t="s">
+        <v>133</v>
+      </c>
       <c r="AT15"/>
       <c r="AU15"/>
-      <c r="AV15"/>
-      <c r="AW15"/>
+      <c r="AV15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>133</v>
+      </c>
       <c r="AX15"/>
       <c r="AY15"/>
       <c r="AZ15"/>
@@ -3254,14 +3285,20 @@
       <c r="BD15"/>
       <c r="BE15"/>
       <c r="BF15"/>
-      <c r="BG15"/>
+      <c r="BG15" t="s">
+        <v>133</v>
+      </c>
       <c r="BH15"/>
       <c r="BI15"/>
       <c r="BJ15"/>
-      <c r="BK15"/>
+      <c r="BK15" t="s">
+        <v>133</v>
+      </c>
       <c r="BL15"/>
       <c r="BM15"/>
-      <c r="BN15"/>
+      <c r="BN15" t="s">
+        <v>133</v>
+      </c>
       <c r="BO15"/>
       <c r="BP15"/>
       <c r="BQ15"/>
@@ -3273,21 +3310,29 @@
       <c r="BW15"/>
       <c r="BX15"/>
       <c r="BY15"/>
-      <c r="BZ15" t="s">
-        <v>133</v>
-      </c>
+      <c r="BZ15"/>
       <c r="CA15"/>
-      <c r="CB15"/>
-      <c r="CC15"/>
+      <c r="CB15" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>133</v>
+      </c>
       <c r="CD15"/>
       <c r="CE15"/>
       <c r="CF15"/>
-      <c r="CG15"/>
-      <c r="CH15"/>
+      <c r="CG15" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>133</v>
+      </c>
       <c r="CI15"/>
       <c r="CJ15"/>
       <c r="CK15"/>
-      <c r="CL15"/>
+      <c r="CL15" t="s">
+        <v>133</v>
+      </c>
       <c r="CM15"/>
       <c r="CN15"/>
       <c r="CO15"/>
@@ -3296,25 +3341,35 @@
       <c r="CR15"/>
       <c r="CS15"/>
       <c r="CT15"/>
-      <c r="CU15"/>
+      <c r="CU15" t="s">
+        <v>133</v>
+      </c>
       <c r="CV15"/>
       <c r="CW15"/>
-      <c r="CX15"/>
+      <c r="CX15" t="s">
+        <v>133</v>
+      </c>
       <c r="CY15"/>
       <c r="CZ15"/>
-      <c r="DA15"/>
+      <c r="DA15" t="s">
+        <v>133</v>
+      </c>
       <c r="DB15"/>
       <c r="DC15"/>
       <c r="DD15"/>
       <c r="DE15"/>
       <c r="DF15"/>
-      <c r="DG15"/>
+      <c r="DG15" t="s">
+        <v>133</v>
+      </c>
       <c r="DH15"/>
       <c r="DI15"/>
       <c r="DJ15"/>
       <c r="DK15"/>
       <c r="DL15"/>
-      <c r="DM15"/>
+      <c r="DM15" t="s">
+        <v>133</v>
+      </c>
       <c r="DN15"/>
       <c r="DO15"/>
       <c r="DP15"/>
@@ -3325,17 +3380,19 @@
       <c r="DU15"/>
       <c r="DV15"/>
       <c r="DW15"/>
-      <c r="DX15"/>
+      <c r="DX15" t="s">
+        <v>133</v>
+      </c>
       <c r="DY15"/>
       <c r="DZ15"/>
       <c r="EA15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -3427,11 +3484,11 @@
       <c r="CL16"/>
       <c r="CM16"/>
       <c r="CN16"/>
-      <c r="CO16"/>
+      <c r="CO16" t="s">
+        <v>133</v>
+      </c>
       <c r="CP16"/>
-      <c r="CQ16" t="s">
-        <v>133</v>
-      </c>
+      <c r="CQ16"/>
       <c r="CR16"/>
       <c r="CS16"/>
       <c r="CT16"/>
@@ -3471,10 +3528,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -3610,10 +3667,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -3625,19 +3682,13 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" t="s">
-        <v>133</v>
-      </c>
+      <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18" t="s">
-        <v>133</v>
-      </c>
+      <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
-      <c r="S18" t="s">
-        <v>133</v>
-      </c>
+      <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
@@ -3648,9 +3699,7 @@
       <c r="AA18"/>
       <c r="AB18"/>
       <c r="AC18"/>
-      <c r="AD18" t="s">
-        <v>133</v>
-      </c>
+      <c r="AD18"/>
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18"/>
@@ -3674,26 +3723,20 @@
       <c r="AY18"/>
       <c r="AZ18"/>
       <c r="BA18"/>
-      <c r="BB18" t="s">
-        <v>133</v>
-      </c>
+      <c r="BB18"/>
       <c r="BC18"/>
-      <c r="BD18" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>133</v>
-      </c>
+      <c r="BD18"/>
+      <c r="BE18"/>
       <c r="BF18"/>
       <c r="BG18"/>
       <c r="BH18"/>
       <c r="BI18"/>
       <c r="BJ18"/>
       <c r="BK18"/>
-      <c r="BL18" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM18"/>
+      <c r="BL18"/>
+      <c r="BM18" t="s">
+        <v>133</v>
+      </c>
       <c r="BN18"/>
       <c r="BO18"/>
       <c r="BP18"/>
@@ -3711,17 +3754,13 @@
       <c r="CB18"/>
       <c r="CC18"/>
       <c r="CD18"/>
-      <c r="CE18" t="s">
-        <v>133</v>
-      </c>
+      <c r="CE18"/>
       <c r="CF18"/>
       <c r="CG18"/>
       <c r="CH18"/>
       <c r="CI18"/>
       <c r="CJ18"/>
-      <c r="CK18" t="s">
-        <v>133</v>
-      </c>
+      <c r="CK18"/>
       <c r="CL18"/>
       <c r="CM18"/>
       <c r="CN18"/>
@@ -3729,9 +3768,7 @@
       <c r="CP18"/>
       <c r="CQ18"/>
       <c r="CR18"/>
-      <c r="CS18" t="s">
-        <v>133</v>
-      </c>
+      <c r="CS18"/>
       <c r="CT18"/>
       <c r="CU18"/>
       <c r="CV18"/>
@@ -3740,23 +3777,19 @@
       <c r="CY18"/>
       <c r="CZ18"/>
       <c r="DA18"/>
-      <c r="DB18" t="s">
-        <v>133</v>
-      </c>
+      <c r="DB18"/>
       <c r="DC18"/>
       <c r="DD18"/>
-      <c r="DE18"/>
+      <c r="DE18" t="s">
+        <v>133</v>
+      </c>
       <c r="DF18"/>
       <c r="DG18"/>
       <c r="DH18"/>
       <c r="DI18"/>
       <c r="DJ18"/>
-      <c r="DK18" t="s">
-        <v>133</v>
-      </c>
-      <c r="DL18" t="s">
-        <v>133</v>
-      </c>
+      <c r="DK18"/>
+      <c r="DL18"/>
       <c r="DM18"/>
       <c r="DN18"/>
       <c r="DO18"/>
@@ -3775,10 +3808,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -3788,7 +3821,9 @@
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
-      <c r="K19"/>
+      <c r="K19" t="s">
+        <v>133</v>
+      </c>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -3824,7 +3859,9 @@
       <c r="AR19"/>
       <c r="AS19"/>
       <c r="AT19"/>
-      <c r="AU19"/>
+      <c r="AU19" t="s">
+        <v>133</v>
+      </c>
       <c r="AV19"/>
       <c r="AW19"/>
       <c r="AX19"/>
@@ -3854,7 +3891,9 @@
       <c r="BV19"/>
       <c r="BW19"/>
       <c r="BX19"/>
-      <c r="BY19"/>
+      <c r="BY19" t="s">
+        <v>133</v>
+      </c>
       <c r="BZ19"/>
       <c r="CA19"/>
       <c r="CB19"/>
@@ -3873,9 +3912,7 @@
       <c r="CO19"/>
       <c r="CP19"/>
       <c r="CQ19"/>
-      <c r="CR19" t="s">
-        <v>133</v>
-      </c>
+      <c r="CR19"/>
       <c r="CS19"/>
       <c r="CT19"/>
       <c r="CU19"/>
@@ -3914,10 +3951,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -3925,12 +3962,8 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" t="s">
-        <v>133</v>
-      </c>
+      <c r="I20"/>
+      <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
@@ -3941,7 +3974,9 @@
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
-      <c r="U20"/>
+      <c r="U20" t="s">
+        <v>133</v>
+      </c>
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
@@ -4045,7 +4080,9 @@
       <c r="DR20"/>
       <c r="DS20"/>
       <c r="DT20"/>
-      <c r="DU20"/>
+      <c r="DU20" t="s">
+        <v>133</v>
+      </c>
       <c r="DV20"/>
       <c r="DW20"/>
       <c r="DX20"/>
@@ -4055,128 +4092,84 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21" t="s">
-        <v>133</v>
-      </c>
+      <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21" t="s">
-        <v>133</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" t="s">
-        <v>133</v>
-      </c>
-      <c r="R21" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q21"/>
+      <c r="R21"/>
       <c r="S21"/>
-      <c r="T21" t="s">
-        <v>133</v>
-      </c>
+      <c r="T21"/>
       <c r="U21"/>
-      <c r="V21" t="s">
-        <v>133</v>
-      </c>
+      <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
-      <c r="Z21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21" t="s">
+        <v>133</v>
+      </c>
       <c r="AD21"/>
       <c r="AE21"/>
       <c r="AF21"/>
-      <c r="AG21" t="s">
-        <v>133</v>
-      </c>
+      <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
       <c r="AK21"/>
-      <c r="AL21" t="s">
-        <v>133</v>
-      </c>
+      <c r="AL21"/>
       <c r="AM21"/>
-      <c r="AN21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>133</v>
-      </c>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
       <c r="AQ21"/>
       <c r="AR21"/>
       <c r="AS21"/>
-      <c r="AT21" t="s">
-        <v>133</v>
-      </c>
+      <c r="AT21"/>
       <c r="AU21"/>
       <c r="AV21"/>
       <c r="AW21"/>
       <c r="AX21"/>
       <c r="AY21"/>
-      <c r="AZ21" t="s">
-        <v>133</v>
-      </c>
+      <c r="AZ21"/>
       <c r="BA21"/>
       <c r="BB21"/>
       <c r="BC21"/>
       <c r="BD21"/>
       <c r="BE21"/>
-      <c r="BF21" t="s">
-        <v>133</v>
-      </c>
+      <c r="BF21"/>
       <c r="BG21"/>
-      <c r="BH21" t="s">
-        <v>133</v>
-      </c>
+      <c r="BH21"/>
       <c r="BI21"/>
-      <c r="BJ21" t="s">
-        <v>133</v>
-      </c>
+      <c r="BJ21"/>
       <c r="BK21"/>
       <c r="BL21"/>
       <c r="BM21"/>
       <c r="BN21"/>
       <c r="BO21"/>
       <c r="BP21"/>
-      <c r="BQ21" t="s">
-        <v>133</v>
-      </c>
+      <c r="BQ21"/>
       <c r="BR21"/>
       <c r="BS21"/>
-      <c r="BT21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>133</v>
-      </c>
+      <c r="BT21"/>
+      <c r="BU21"/>
       <c r="BV21"/>
       <c r="BW21"/>
       <c r="BX21"/>
@@ -4185,13 +4178,9 @@
       <c r="CA21"/>
       <c r="CB21"/>
       <c r="CC21"/>
-      <c r="CD21" t="s">
-        <v>133</v>
-      </c>
+      <c r="CD21"/>
       <c r="CE21"/>
-      <c r="CF21" t="s">
-        <v>133</v>
-      </c>
+      <c r="CF21"/>
       <c r="CG21"/>
       <c r="CH21"/>
       <c r="CI21"/>
@@ -4199,7 +4188,9 @@
       <c r="CK21"/>
       <c r="CL21"/>
       <c r="CM21"/>
-      <c r="CN21"/>
+      <c r="CN21" t="s">
+        <v>133</v>
+      </c>
       <c r="CO21"/>
       <c r="CP21"/>
       <c r="CQ21"/>
@@ -4214,48 +4205,30 @@
       <c r="CZ21"/>
       <c r="DA21"/>
       <c r="DB21"/>
-      <c r="DC21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DD21" t="s">
-        <v>133</v>
-      </c>
+      <c r="DC21"/>
+      <c r="DD21"/>
       <c r="DE21"/>
       <c r="DF21"/>
       <c r="DG21"/>
       <c r="DH21"/>
-      <c r="DI21" t="s">
-        <v>133</v>
-      </c>
+      <c r="DI21"/>
       <c r="DJ21"/>
       <c r="DK21"/>
       <c r="DL21"/>
       <c r="DM21"/>
       <c r="DN21"/>
-      <c r="DO21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DP21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DQ21" t="s">
-        <v>133</v>
-      </c>
+      <c r="DO21"/>
+      <c r="DP21"/>
+      <c r="DQ21"/>
       <c r="DR21"/>
       <c r="DS21"/>
       <c r="DT21"/>
       <c r="DU21"/>
       <c r="DV21"/>
-      <c r="DW21" t="s">
-        <v>133</v>
-      </c>
+      <c r="DW21"/>
       <c r="DX21"/>
-      <c r="DY21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DZ21" t="s">
-        <v>133</v>
-      </c>
+      <c r="DY21"/>
+      <c r="DZ21"/>
       <c r="EA21"/>
     </row>
   </sheetData>

--- a/summaries/variantSummary2.xlsx
+++ b/summaries/variantSummary2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -65,9 +65,6 @@
     <t xml:space="preserve">16260|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">16438|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">17010|orf1ab</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t xml:space="preserve">21625|S</t>
   </si>
   <si>
-    <t xml:space="preserve">21658|S</t>
-  </si>
-  <si>
     <t xml:space="preserve">21792|S</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t xml:space="preserve">7975|orf1ab</t>
   </si>
   <si>
-    <t xml:space="preserve">8247|orf1ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">8782|orf1ab</t>
   </si>
   <si>
@@ -366,18 +357,6 @@
   </si>
   <si>
     <t xml:space="preserve">235|NP-OP|20200424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237|NP-OP|20200427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237|NP|20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237|OP|20200429</t>
   </si>
   <si>
     <t xml:space="preserve">238</t>
@@ -1100,25 +1079,16 @@
       <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -1129,7 +1099,7 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
@@ -1138,13 +1108,13 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2"/>
+      <c r="T2" t="s">
+        <v>85</v>
+      </c>
       <c r="U2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
@@ -1160,42 +1130,42 @@
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
-      <c r="AL2"/>
+      <c r="AL2" t="s">
+        <v>85</v>
+      </c>
       <c r="AM2"/>
-      <c r="AN2" t="s">
-        <v>88</v>
-      </c>
+      <c r="AN2"/>
       <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
-      <c r="AR2"/>
+      <c r="AR2" t="s">
+        <v>85</v>
+      </c>
       <c r="AS2"/>
-      <c r="AT2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU2"/>
+      <c r="AT2"/>
+      <c r="AU2" t="s">
+        <v>85</v>
+      </c>
       <c r="AV2"/>
-      <c r="AW2" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW2"/>
       <c r="AX2"/>
       <c r="AY2"/>
       <c r="AZ2"/>
-      <c r="BA2"/>
+      <c r="BA2" t="s">
+        <v>85</v>
+      </c>
       <c r="BB2"/>
-      <c r="BC2" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC2"/>
       <c r="BD2"/>
       <c r="BE2"/>
       <c r="BF2"/>
       <c r="BG2"/>
       <c r="BH2"/>
-      <c r="BI2"/>
+      <c r="BI2" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ2"/>
-      <c r="BK2" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK2"/>
       <c r="BL2"/>
       <c r="BM2"/>
       <c r="BN2"/>
@@ -1203,11 +1173,11 @@
       <c r="BP2"/>
       <c r="BQ2"/>
       <c r="BR2"/>
-      <c r="BS2"/>
+      <c r="BS2" t="s">
+        <v>85</v>
+      </c>
       <c r="BT2"/>
-      <c r="BU2" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU2"/>
       <c r="BV2"/>
       <c r="BW2"/>
       <c r="BX2"/>
@@ -1216,23 +1186,20 @@
       <c r="CA2"/>
       <c r="CB2"/>
       <c r="CC2"/>
-      <c r="CD2"/>
+      <c r="CD2" t="s">
+        <v>85</v>
+      </c>
       <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1242,10 +1209,10 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -1254,13 +1221,13 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3"/>
+      <c r="T3" t="s">
+        <v>85</v>
+      </c>
       <c r="U3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V3" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
@@ -1276,42 +1243,42 @@
       <c r="AI3"/>
       <c r="AJ3"/>
       <c r="AK3"/>
-      <c r="AL3"/>
+      <c r="AL3" t="s">
+        <v>85</v>
+      </c>
       <c r="AM3"/>
-      <c r="AN3" t="s">
-        <v>88</v>
-      </c>
+      <c r="AN3"/>
       <c r="AO3"/>
       <c r="AP3"/>
       <c r="AQ3"/>
-      <c r="AR3"/>
+      <c r="AR3" t="s">
+        <v>85</v>
+      </c>
       <c r="AS3"/>
-      <c r="AT3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU3"/>
+      <c r="AT3"/>
+      <c r="AU3" t="s">
+        <v>85</v>
+      </c>
       <c r="AV3"/>
-      <c r="AW3" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW3"/>
       <c r="AX3"/>
       <c r="AY3"/>
       <c r="AZ3"/>
-      <c r="BA3"/>
+      <c r="BA3" t="s">
+        <v>85</v>
+      </c>
       <c r="BB3"/>
-      <c r="BC3" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC3"/>
       <c r="BD3"/>
       <c r="BE3"/>
       <c r="BF3"/>
       <c r="BG3"/>
       <c r="BH3"/>
-      <c r="BI3"/>
+      <c r="BI3" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ3"/>
-      <c r="BK3" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK3"/>
       <c r="BL3"/>
       <c r="BM3"/>
       <c r="BN3"/>
@@ -1319,11 +1286,11 @@
       <c r="BP3"/>
       <c r="BQ3"/>
       <c r="BR3"/>
-      <c r="BS3"/>
+      <c r="BS3" t="s">
+        <v>85</v>
+      </c>
       <c r="BT3"/>
-      <c r="BU3" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU3"/>
       <c r="BV3"/>
       <c r="BW3"/>
       <c r="BX3"/>
@@ -1332,23 +1299,20 @@
       <c r="CA3"/>
       <c r="CB3"/>
       <c r="CC3"/>
-      <c r="CD3"/>
+      <c r="CD3" t="s">
+        <v>85</v>
+      </c>
       <c r="CE3"/>
-      <c r="CF3"/>
-      <c r="CG3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -1359,7 +1323,7 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -1368,10 +1332,10 @@
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4" t="s">
-        <v>88</v>
-      </c>
+      <c r="T4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
@@ -1394,34 +1358,34 @@
       <c r="AO4"/>
       <c r="AP4"/>
       <c r="AQ4"/>
-      <c r="AR4"/>
+      <c r="AR4" t="s">
+        <v>85</v>
+      </c>
       <c r="AS4"/>
-      <c r="AT4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU4"/>
+      <c r="AT4"/>
+      <c r="AU4" t="s">
+        <v>85</v>
+      </c>
       <c r="AV4"/>
-      <c r="AW4" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW4"/>
       <c r="AX4"/>
       <c r="AY4"/>
       <c r="AZ4"/>
-      <c r="BA4"/>
+      <c r="BA4" t="s">
+        <v>85</v>
+      </c>
       <c r="BB4"/>
-      <c r="BC4" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC4"/>
       <c r="BD4"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
       <c r="BH4"/>
-      <c r="BI4"/>
+      <c r="BI4" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ4"/>
-      <c r="BK4" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK4"/>
       <c r="BL4"/>
       <c r="BM4"/>
       <c r="BN4"/>
@@ -1429,38 +1393,35 @@
       <c r="BP4"/>
       <c r="BQ4"/>
       <c r="BR4"/>
-      <c r="BS4"/>
+      <c r="BS4" t="s">
+        <v>85</v>
+      </c>
       <c r="BT4"/>
       <c r="BU4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BV4"/>
-      <c r="BW4" t="s">
-        <v>88</v>
-      </c>
+      <c r="BW4"/>
       <c r="BX4"/>
       <c r="BY4"/>
       <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
       <c r="CC4"/>
-      <c r="CD4"/>
+      <c r="CD4" t="s">
+        <v>85</v>
+      </c>
       <c r="CE4"/>
-      <c r="CF4"/>
-      <c r="CG4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1471,7 +1432,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -1480,13 +1441,13 @@
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-      <c r="T5"/>
+      <c r="T5" t="s">
+        <v>85</v>
+      </c>
       <c r="U5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V5" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
@@ -1496,64 +1457,64 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
       <c r="AK5"/>
-      <c r="AL5"/>
+      <c r="AL5" t="s">
+        <v>85</v>
+      </c>
       <c r="AM5"/>
-      <c r="AN5" t="s">
-        <v>88</v>
-      </c>
+      <c r="AN5"/>
       <c r="AO5"/>
       <c r="AP5"/>
       <c r="AQ5"/>
-      <c r="AR5"/>
+      <c r="AR5" t="s">
+        <v>85</v>
+      </c>
       <c r="AS5"/>
-      <c r="AT5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU5"/>
+      <c r="AT5"/>
+      <c r="AU5" t="s">
+        <v>85</v>
+      </c>
       <c r="AV5"/>
-      <c r="AW5" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW5"/>
       <c r="AX5"/>
       <c r="AY5"/>
       <c r="AZ5"/>
-      <c r="BA5"/>
+      <c r="BA5" t="s">
+        <v>85</v>
+      </c>
       <c r="BB5"/>
-      <c r="BC5" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC5"/>
       <c r="BD5"/>
       <c r="BE5"/>
       <c r="BF5"/>
       <c r="BG5"/>
       <c r="BH5"/>
-      <c r="BI5"/>
+      <c r="BI5" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ5"/>
-      <c r="BK5" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK5"/>
       <c r="BL5"/>
-      <c r="BM5"/>
+      <c r="BM5" t="s">
+        <v>85</v>
+      </c>
       <c r="BN5"/>
-      <c r="BO5" t="s">
-        <v>88</v>
-      </c>
+      <c r="BO5"/>
       <c r="BP5"/>
       <c r="BQ5"/>
       <c r="BR5"/>
-      <c r="BS5"/>
+      <c r="BS5" t="s">
+        <v>85</v>
+      </c>
       <c r="BT5"/>
-      <c r="BU5" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU5"/>
       <c r="BV5"/>
       <c r="BW5"/>
       <c r="BX5"/>
@@ -1562,27 +1523,24 @@
       <c r="CA5"/>
       <c r="CB5"/>
       <c r="CC5"/>
-      <c r="CD5"/>
+      <c r="CD5" t="s">
+        <v>85</v>
+      </c>
       <c r="CE5"/>
-      <c r="CF5"/>
-      <c r="CG5" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1591,7 +1549,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -1599,116 +1557,113 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
+      <c r="S6" t="s">
+        <v>85</v>
+      </c>
       <c r="T6" t="s">
-        <v>88</v>
-      </c>
-      <c r="U6" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6" t="s">
-        <v>88</v>
-      </c>
+      <c r="AA6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>88</v>
-      </c>
+      <c r="AI6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK6"/>
+      <c r="AL6"/>
       <c r="AM6"/>
       <c r="AN6"/>
       <c r="AO6"/>
       <c r="AP6"/>
       <c r="AQ6"/>
-      <c r="AR6"/>
+      <c r="AR6" t="s">
+        <v>85</v>
+      </c>
       <c r="AS6"/>
-      <c r="AT6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU6"/>
+      <c r="AT6"/>
+      <c r="AU6" t="s">
+        <v>85</v>
+      </c>
       <c r="AV6"/>
       <c r="AW6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AX6"/>
-      <c r="AY6" t="s">
-        <v>88</v>
-      </c>
+      <c r="AY6"/>
       <c r="AZ6"/>
-      <c r="BA6"/>
+      <c r="BA6" t="s">
+        <v>85</v>
+      </c>
       <c r="BB6"/>
-      <c r="BC6" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC6"/>
       <c r="BD6"/>
       <c r="BE6"/>
       <c r="BF6"/>
       <c r="BG6"/>
       <c r="BH6"/>
-      <c r="BI6"/>
+      <c r="BI6" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ6"/>
-      <c r="BK6" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK6"/>
       <c r="BL6"/>
       <c r="BM6"/>
       <c r="BN6"/>
       <c r="BO6"/>
-      <c r="BP6"/>
+      <c r="BP6" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ6"/>
-      <c r="BR6" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS6"/>
+      <c r="BR6"/>
+      <c r="BS6" t="s">
+        <v>85</v>
+      </c>
       <c r="BT6"/>
-      <c r="BU6" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU6"/>
       <c r="BV6"/>
-      <c r="BW6"/>
+      <c r="BW6" t="s">
+        <v>85</v>
+      </c>
       <c r="BX6"/>
-      <c r="BY6" t="s">
-        <v>88</v>
-      </c>
+      <c r="BY6"/>
       <c r="BZ6"/>
       <c r="CA6"/>
       <c r="CB6"/>
       <c r="CC6"/>
-      <c r="CD6"/>
+      <c r="CD6" t="s">
+        <v>85</v>
+      </c>
       <c r="CE6"/>
-      <c r="CF6"/>
-      <c r="CG6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1717,7 +1672,7 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -1726,19 +1681,19 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7" t="s">
-        <v>88</v>
-      </c>
+      <c r="T7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7" t="s">
-        <v>88</v>
-      </c>
+      <c r="AA7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
@@ -1754,81 +1709,78 @@
       <c r="AO7"/>
       <c r="AP7"/>
       <c r="AQ7"/>
-      <c r="AR7"/>
+      <c r="AR7" t="s">
+        <v>85</v>
+      </c>
       <c r="AS7"/>
-      <c r="AT7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU7"/>
+      <c r="AT7"/>
+      <c r="AU7" t="s">
+        <v>85</v>
+      </c>
       <c r="AV7"/>
       <c r="AW7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AX7"/>
-      <c r="AY7" t="s">
-        <v>88</v>
-      </c>
+      <c r="AY7"/>
       <c r="AZ7"/>
-      <c r="BA7"/>
+      <c r="BA7" t="s">
+        <v>85</v>
+      </c>
       <c r="BB7"/>
-      <c r="BC7" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC7"/>
       <c r="BD7"/>
       <c r="BE7"/>
       <c r="BF7"/>
       <c r="BG7"/>
       <c r="BH7"/>
-      <c r="BI7"/>
+      <c r="BI7" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ7"/>
-      <c r="BK7" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK7"/>
       <c r="BL7"/>
       <c r="BM7"/>
       <c r="BN7"/>
       <c r="BO7"/>
-      <c r="BP7"/>
+      <c r="BP7" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ7"/>
-      <c r="BR7" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS7"/>
+      <c r="BR7"/>
+      <c r="BS7" t="s">
+        <v>85</v>
+      </c>
       <c r="BT7"/>
-      <c r="BU7" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU7"/>
       <c r="BV7"/>
-      <c r="BW7"/>
+      <c r="BW7" t="s">
+        <v>85</v>
+      </c>
       <c r="BX7"/>
-      <c r="BY7" t="s">
-        <v>88</v>
-      </c>
+      <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
       <c r="CB7"/>
       <c r="CC7"/>
-      <c r="CD7"/>
+      <c r="CD7" t="s">
+        <v>85</v>
+      </c>
       <c r="CE7"/>
-      <c r="CF7"/>
-      <c r="CG7" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -1837,7 +1789,7 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -1846,19 +1798,19 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8" t="s">
-        <v>88</v>
-      </c>
+      <c r="T8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8" t="s">
-        <v>88</v>
-      </c>
+      <c r="AA8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -1874,81 +1826,78 @@
       <c r="AO8"/>
       <c r="AP8"/>
       <c r="AQ8"/>
-      <c r="AR8"/>
+      <c r="AR8" t="s">
+        <v>85</v>
+      </c>
       <c r="AS8"/>
-      <c r="AT8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU8"/>
+      <c r="AT8"/>
+      <c r="AU8" t="s">
+        <v>85</v>
+      </c>
       <c r="AV8"/>
       <c r="AW8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AX8"/>
-      <c r="AY8" t="s">
-        <v>88</v>
-      </c>
+      <c r="AY8"/>
       <c r="AZ8"/>
-      <c r="BA8"/>
+      <c r="BA8" t="s">
+        <v>85</v>
+      </c>
       <c r="BB8"/>
-      <c r="BC8" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC8"/>
       <c r="BD8"/>
       <c r="BE8"/>
       <c r="BF8"/>
       <c r="BG8"/>
       <c r="BH8"/>
-      <c r="BI8"/>
+      <c r="BI8" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ8"/>
-      <c r="BK8" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK8"/>
       <c r="BL8"/>
       <c r="BM8"/>
       <c r="BN8"/>
       <c r="BO8"/>
-      <c r="BP8"/>
+      <c r="BP8" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ8"/>
-      <c r="BR8" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS8"/>
+      <c r="BR8"/>
+      <c r="BS8" t="s">
+        <v>85</v>
+      </c>
       <c r="BT8"/>
-      <c r="BU8" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU8"/>
       <c r="BV8"/>
-      <c r="BW8"/>
+      <c r="BW8" t="s">
+        <v>85</v>
+      </c>
       <c r="BX8"/>
-      <c r="BY8" t="s">
-        <v>88</v>
-      </c>
+      <c r="BY8"/>
       <c r="BZ8"/>
       <c r="CA8"/>
       <c r="CB8"/>
       <c r="CC8"/>
-      <c r="CD8"/>
+      <c r="CD8" t="s">
+        <v>85</v>
+      </c>
       <c r="CE8"/>
-      <c r="CF8"/>
-      <c r="CG8" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -1957,7 +1906,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -1966,19 +1915,19 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9" t="s">
-        <v>88</v>
-      </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9" t="s">
-        <v>88</v>
-      </c>
+      <c r="AA9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
@@ -1994,81 +1943,78 @@
       <c r="AO9"/>
       <c r="AP9"/>
       <c r="AQ9"/>
-      <c r="AR9"/>
+      <c r="AR9" t="s">
+        <v>85</v>
+      </c>
       <c r="AS9"/>
-      <c r="AT9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU9"/>
+      <c r="AT9"/>
+      <c r="AU9" t="s">
+        <v>85</v>
+      </c>
       <c r="AV9"/>
       <c r="AW9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AX9"/>
-      <c r="AY9" t="s">
-        <v>88</v>
-      </c>
+      <c r="AY9"/>
       <c r="AZ9"/>
-      <c r="BA9"/>
+      <c r="BA9" t="s">
+        <v>85</v>
+      </c>
       <c r="BB9"/>
-      <c r="BC9" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC9"/>
       <c r="BD9"/>
       <c r="BE9"/>
       <c r="BF9"/>
       <c r="BG9"/>
       <c r="BH9"/>
-      <c r="BI9"/>
+      <c r="BI9" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ9"/>
-      <c r="BK9" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK9"/>
       <c r="BL9"/>
       <c r="BM9"/>
       <c r="BN9"/>
       <c r="BO9"/>
-      <c r="BP9"/>
+      <c r="BP9" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ9"/>
-      <c r="BR9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS9"/>
+      <c r="BR9"/>
+      <c r="BS9" t="s">
+        <v>85</v>
+      </c>
       <c r="BT9"/>
-      <c r="BU9" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU9"/>
       <c r="BV9"/>
-      <c r="BW9"/>
+      <c r="BW9" t="s">
+        <v>85</v>
+      </c>
       <c r="BX9"/>
-      <c r="BY9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ9"/>
+      <c r="BY9"/>
+      <c r="BZ9" t="s">
+        <v>85</v>
+      </c>
       <c r="CA9"/>
-      <c r="CB9" t="s">
-        <v>88</v>
-      </c>
+      <c r="CB9"/>
       <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
-      <c r="CG9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>88</v>
+      <c r="CD9" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -2079,21 +2025,21 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10" t="s">
-        <v>88</v>
-      </c>
+      <c r="T10" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
@@ -2116,48 +2062,48 @@
       <c r="AO10"/>
       <c r="AP10"/>
       <c r="AQ10"/>
-      <c r="AR10"/>
+      <c r="AR10" t="s">
+        <v>85</v>
+      </c>
       <c r="AS10"/>
-      <c r="AT10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU10"/>
+      <c r="AT10"/>
+      <c r="AU10" t="s">
+        <v>85</v>
+      </c>
       <c r="AV10"/>
-      <c r="AW10" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW10"/>
       <c r="AX10"/>
       <c r="AY10"/>
       <c r="AZ10"/>
-      <c r="BA10"/>
+      <c r="BA10" t="s">
+        <v>85</v>
+      </c>
       <c r="BB10"/>
-      <c r="BC10" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC10"/>
       <c r="BD10"/>
       <c r="BE10"/>
       <c r="BF10"/>
       <c r="BG10"/>
       <c r="BH10"/>
-      <c r="BI10"/>
+      <c r="BI10" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ10"/>
       <c r="BK10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BL10"/>
-      <c r="BM10" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM10"/>
       <c r="BN10"/>
       <c r="BO10"/>
       <c r="BP10"/>
       <c r="BQ10"/>
       <c r="BR10"/>
-      <c r="BS10"/>
+      <c r="BS10" t="s">
+        <v>85</v>
+      </c>
       <c r="BT10"/>
-      <c r="BU10" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU10"/>
       <c r="BV10"/>
       <c r="BW10"/>
       <c r="BX10"/>
@@ -2165,30 +2111,27 @@
       <c r="BZ10"/>
       <c r="CA10"/>
       <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CF10"/>
-      <c r="CG10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH10"/>
+      <c r="CC10" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -2197,7 +2140,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -2206,19 +2149,19 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11" t="s">
-        <v>88</v>
-      </c>
+      <c r="T11" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11" t="s">
-        <v>88</v>
-      </c>
+      <c r="AA11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
@@ -2234,48 +2177,48 @@
       <c r="AO11"/>
       <c r="AP11"/>
       <c r="AQ11"/>
-      <c r="AR11"/>
+      <c r="AR11" t="s">
+        <v>85</v>
+      </c>
       <c r="AS11"/>
-      <c r="AT11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU11"/>
+      <c r="AT11"/>
+      <c r="AU11" t="s">
+        <v>85</v>
+      </c>
       <c r="AV11"/>
-      <c r="AW11" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW11"/>
       <c r="AX11"/>
       <c r="AY11"/>
       <c r="AZ11"/>
-      <c r="BA11"/>
+      <c r="BA11" t="s">
+        <v>85</v>
+      </c>
       <c r="BB11"/>
-      <c r="BC11" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC11"/>
       <c r="BD11"/>
       <c r="BE11"/>
       <c r="BF11"/>
       <c r="BG11"/>
       <c r="BH11"/>
-      <c r="BI11"/>
+      <c r="BI11" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ11"/>
-      <c r="BK11" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK11"/>
       <c r="BL11"/>
       <c r="BM11"/>
       <c r="BN11"/>
       <c r="BO11"/>
-      <c r="BP11"/>
+      <c r="BP11" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ11"/>
-      <c r="BR11" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS11"/>
+      <c r="BR11"/>
+      <c r="BS11" t="s">
+        <v>85</v>
+      </c>
       <c r="BT11"/>
-      <c r="BU11" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU11"/>
       <c r="BV11"/>
       <c r="BW11"/>
       <c r="BX11"/>
@@ -2284,27 +2227,24 @@
       <c r="CA11"/>
       <c r="CB11"/>
       <c r="CC11"/>
-      <c r="CD11"/>
+      <c r="CD11" t="s">
+        <v>85</v>
+      </c>
       <c r="CE11"/>
-      <c r="CF11"/>
-      <c r="CG11" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -2313,7 +2253,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -2322,19 +2262,19 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12" t="s">
-        <v>88</v>
-      </c>
+      <c r="T12" t="s">
+        <v>85</v>
+      </c>
+      <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12" t="s">
-        <v>88</v>
-      </c>
+      <c r="AA12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -2350,48 +2290,48 @@
       <c r="AO12"/>
       <c r="AP12"/>
       <c r="AQ12"/>
-      <c r="AR12"/>
+      <c r="AR12" t="s">
+        <v>85</v>
+      </c>
       <c r="AS12"/>
-      <c r="AT12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU12"/>
+      <c r="AT12"/>
+      <c r="AU12" t="s">
+        <v>85</v>
+      </c>
       <c r="AV12"/>
-      <c r="AW12" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW12"/>
       <c r="AX12"/>
       <c r="AY12"/>
       <c r="AZ12"/>
-      <c r="BA12"/>
+      <c r="BA12" t="s">
+        <v>85</v>
+      </c>
       <c r="BB12"/>
-      <c r="BC12" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC12"/>
       <c r="BD12"/>
       <c r="BE12"/>
       <c r="BF12"/>
       <c r="BG12"/>
       <c r="BH12"/>
-      <c r="BI12"/>
+      <c r="BI12" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ12"/>
-      <c r="BK12" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK12"/>
       <c r="BL12"/>
       <c r="BM12"/>
       <c r="BN12"/>
       <c r="BO12"/>
-      <c r="BP12"/>
+      <c r="BP12" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ12"/>
-      <c r="BR12" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS12"/>
+      <c r="BR12"/>
+      <c r="BS12" t="s">
+        <v>85</v>
+      </c>
       <c r="BT12"/>
-      <c r="BU12" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU12"/>
       <c r="BV12"/>
       <c r="BW12"/>
       <c r="BX12"/>
@@ -2400,27 +2340,24 @@
       <c r="CA12"/>
       <c r="CB12"/>
       <c r="CC12"/>
-      <c r="CD12"/>
+      <c r="CD12" t="s">
+        <v>85</v>
+      </c>
       <c r="CE12"/>
-      <c r="CF12"/>
-      <c r="CG12" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -2429,7 +2366,7 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -2438,27 +2375,27 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13" t="s">
-        <v>88</v>
-      </c>
+      <c r="T13" t="s">
+        <v>85</v>
+      </c>
+      <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13" t="s">
-        <v>88</v>
-      </c>
+      <c r="AA13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB13"/>
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13" t="s">
-        <v>88</v>
-      </c>
+      <c r="AG13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH13"/>
       <c r="AI13"/>
       <c r="AJ13"/>
       <c r="AK13"/>
@@ -2468,48 +2405,48 @@
       <c r="AO13"/>
       <c r="AP13"/>
       <c r="AQ13"/>
-      <c r="AR13"/>
+      <c r="AR13" t="s">
+        <v>85</v>
+      </c>
       <c r="AS13"/>
-      <c r="AT13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU13"/>
+      <c r="AT13"/>
+      <c r="AU13" t="s">
+        <v>85</v>
+      </c>
       <c r="AV13"/>
-      <c r="AW13" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW13"/>
       <c r="AX13"/>
       <c r="AY13"/>
       <c r="AZ13"/>
-      <c r="BA13"/>
+      <c r="BA13" t="s">
+        <v>85</v>
+      </c>
       <c r="BB13"/>
-      <c r="BC13" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC13"/>
       <c r="BD13"/>
       <c r="BE13"/>
       <c r="BF13"/>
       <c r="BG13"/>
       <c r="BH13"/>
-      <c r="BI13"/>
+      <c r="BI13" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ13"/>
-      <c r="BK13" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK13"/>
       <c r="BL13"/>
       <c r="BM13"/>
       <c r="BN13"/>
       <c r="BO13"/>
-      <c r="BP13"/>
+      <c r="BP13" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ13"/>
-      <c r="BR13" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS13"/>
+      <c r="BR13"/>
+      <c r="BS13" t="s">
+        <v>85</v>
+      </c>
       <c r="BT13"/>
-      <c r="BU13" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU13"/>
       <c r="BV13"/>
       <c r="BW13"/>
       <c r="BX13"/>
@@ -2518,36 +2455,33 @@
       <c r="CA13"/>
       <c r="CB13"/>
       <c r="CC13"/>
-      <c r="CD13"/>
+      <c r="CD13" t="s">
+        <v>85</v>
+      </c>
       <c r="CE13"/>
-      <c r="CF13"/>
-      <c r="CG13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -2556,10 +2490,10 @@
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14" t="s">
-        <v>88</v>
-      </c>
+      <c r="T14" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
@@ -2575,49 +2509,49 @@
       <c r="AH14"/>
       <c r="AI14"/>
       <c r="AJ14"/>
-      <c r="AK14"/>
+      <c r="AK14" t="s">
+        <v>85</v>
+      </c>
       <c r="AL14"/>
-      <c r="AM14" t="s">
-        <v>88</v>
-      </c>
+      <c r="AM14"/>
       <c r="AN14"/>
       <c r="AO14"/>
       <c r="AP14"/>
       <c r="AQ14"/>
-      <c r="AR14"/>
+      <c r="AR14" t="s">
+        <v>85</v>
+      </c>
       <c r="AS14"/>
-      <c r="AT14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU14"/>
-      <c r="AV14"/>
-      <c r="AW14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY14"/>
+      <c r="AT14"/>
+      <c r="AU14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ14"/>
       <c r="BA14" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB14"/>
-      <c r="BC14" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC14"/>
+      <c r="BD14"/>
       <c r="BE14"/>
       <c r="BF14"/>
       <c r="BG14"/>
       <c r="BH14"/>
-      <c r="BI14"/>
+      <c r="BI14" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ14"/>
-      <c r="BK14" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK14"/>
       <c r="BL14"/>
       <c r="BM14"/>
       <c r="BN14"/>
@@ -2625,11 +2559,11 @@
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
-      <c r="BS14"/>
+      <c r="BS14" t="s">
+        <v>85</v>
+      </c>
       <c r="BT14"/>
-      <c r="BU14" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU14"/>
       <c r="BV14"/>
       <c r="BW14"/>
       <c r="BX14"/>
@@ -2638,23 +2572,20 @@
       <c r="CA14"/>
       <c r="CB14"/>
       <c r="CC14"/>
-      <c r="CD14"/>
+      <c r="CD14" t="s">
+        <v>85</v>
+      </c>
       <c r="CE14"/>
-      <c r="CF14"/>
-      <c r="CG14" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -2665,7 +2596,7 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
@@ -2674,10 +2605,10 @@
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15" t="s">
-        <v>88</v>
-      </c>
+      <c r="T15" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
@@ -2687,10 +2618,10 @@
       <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15" t="s">
-        <v>88</v>
-      </c>
+      <c r="AE15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF15"/>
       <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
@@ -2702,36 +2633,36 @@
       <c r="AO15"/>
       <c r="AP15"/>
       <c r="AQ15"/>
-      <c r="AR15"/>
+      <c r="AR15" t="s">
+        <v>85</v>
+      </c>
       <c r="AS15"/>
-      <c r="AT15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU15"/>
+      <c r="AT15"/>
+      <c r="AU15" t="s">
+        <v>85</v>
+      </c>
       <c r="AV15"/>
-      <c r="AW15" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW15"/>
       <c r="AX15"/>
       <c r="AY15"/>
       <c r="AZ15"/>
-      <c r="BA15"/>
+      <c r="BA15" t="s">
+        <v>85</v>
+      </c>
       <c r="BB15"/>
-      <c r="BC15" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC15"/>
       <c r="BD15"/>
       <c r="BE15"/>
       <c r="BF15"/>
       <c r="BG15"/>
-      <c r="BH15"/>
-      <c r="BI15"/>
-      <c r="BJ15" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>88</v>
-      </c>
+      <c r="BH15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ15"/>
+      <c r="BK15"/>
       <c r="BL15"/>
       <c r="BM15"/>
       <c r="BN15"/>
@@ -2739,11 +2670,11 @@
       <c r="BP15"/>
       <c r="BQ15"/>
       <c r="BR15"/>
-      <c r="BS15"/>
+      <c r="BS15" t="s">
+        <v>85</v>
+      </c>
       <c r="BT15"/>
-      <c r="BU15" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU15"/>
       <c r="BV15"/>
       <c r="BW15"/>
       <c r="BX15"/>
@@ -2752,23 +2683,20 @@
       <c r="CA15"/>
       <c r="CB15"/>
       <c r="CC15"/>
-      <c r="CD15"/>
+      <c r="CD15" t="s">
+        <v>85</v>
+      </c>
       <c r="CE15"/>
-      <c r="CF15"/>
-      <c r="CG15" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -2779,7 +2707,7 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -2788,13 +2716,13 @@
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
-      <c r="T16"/>
+      <c r="T16" t="s">
+        <v>85</v>
+      </c>
       <c r="U16" t="s">
-        <v>88</v>
-      </c>
-      <c r="V16" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
@@ -2810,44 +2738,44 @@
       <c r="AI16"/>
       <c r="AJ16"/>
       <c r="AK16"/>
-      <c r="AL16"/>
+      <c r="AL16" t="s">
+        <v>85</v>
+      </c>
       <c r="AM16"/>
-      <c r="AN16" t="s">
-        <v>88</v>
-      </c>
+      <c r="AN16"/>
       <c r="AO16"/>
       <c r="AP16"/>
       <c r="AQ16"/>
-      <c r="AR16"/>
+      <c r="AR16" t="s">
+        <v>85</v>
+      </c>
       <c r="AS16"/>
       <c r="AT16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU16"/>
-      <c r="AV16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV16"/>
+      <c r="AW16"/>
       <c r="AX16"/>
       <c r="AY16"/>
       <c r="AZ16"/>
-      <c r="BA16"/>
+      <c r="BA16" t="s">
+        <v>85</v>
+      </c>
       <c r="BB16"/>
-      <c r="BC16" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC16"/>
       <c r="BD16"/>
       <c r="BE16"/>
       <c r="BF16"/>
       <c r="BG16"/>
       <c r="BH16"/>
-      <c r="BI16"/>
+      <c r="BI16" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ16"/>
-      <c r="BK16" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK16"/>
       <c r="BL16"/>
       <c r="BM16"/>
       <c r="BN16"/>
@@ -2855,38 +2783,35 @@
       <c r="BP16"/>
       <c r="BQ16"/>
       <c r="BR16"/>
-      <c r="BS16"/>
+      <c r="BS16" t="s">
+        <v>85</v>
+      </c>
       <c r="BT16"/>
-      <c r="BU16" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU16"/>
       <c r="BV16"/>
       <c r="BW16"/>
       <c r="BX16"/>
       <c r="BY16"/>
       <c r="BZ16"/>
       <c r="CA16"/>
-      <c r="CB16"/>
+      <c r="CB16" t="s">
+        <v>85</v>
+      </c>
       <c r="CC16"/>
       <c r="CD16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="CE16"/>
-      <c r="CF16"/>
-      <c r="CG16" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -2897,7 +2822,7 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -2906,13 +2831,13 @@
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
-      <c r="T17"/>
+      <c r="T17" t="s">
+        <v>85</v>
+      </c>
       <c r="U17" t="s">
-        <v>88</v>
-      </c>
-      <c r="V17" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V17"/>
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
@@ -2928,44 +2853,44 @@
       <c r="AI17"/>
       <c r="AJ17"/>
       <c r="AK17"/>
-      <c r="AL17"/>
+      <c r="AL17" t="s">
+        <v>85</v>
+      </c>
       <c r="AM17"/>
-      <c r="AN17" t="s">
-        <v>88</v>
-      </c>
+      <c r="AN17"/>
       <c r="AO17"/>
       <c r="AP17"/>
       <c r="AQ17"/>
-      <c r="AR17"/>
+      <c r="AR17" t="s">
+        <v>85</v>
+      </c>
       <c r="AS17"/>
       <c r="AT17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU17"/>
-      <c r="AV17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV17"/>
+      <c r="AW17"/>
       <c r="AX17"/>
       <c r="AY17"/>
       <c r="AZ17"/>
-      <c r="BA17"/>
+      <c r="BA17" t="s">
+        <v>85</v>
+      </c>
       <c r="BB17"/>
-      <c r="BC17" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC17"/>
       <c r="BD17"/>
       <c r="BE17"/>
       <c r="BF17"/>
       <c r="BG17"/>
       <c r="BH17"/>
-      <c r="BI17"/>
+      <c r="BI17" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ17"/>
-      <c r="BK17" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK17"/>
       <c r="BL17"/>
       <c r="BM17"/>
       <c r="BN17"/>
@@ -2973,38 +2898,35 @@
       <c r="BP17"/>
       <c r="BQ17"/>
       <c r="BR17"/>
-      <c r="BS17"/>
+      <c r="BS17" t="s">
+        <v>85</v>
+      </c>
       <c r="BT17"/>
-      <c r="BU17" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU17"/>
       <c r="BV17"/>
       <c r="BW17"/>
       <c r="BX17"/>
       <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
-      <c r="CB17"/>
+      <c r="CB17" t="s">
+        <v>85</v>
+      </c>
       <c r="CC17"/>
       <c r="CD17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="CE17"/>
-      <c r="CF17"/>
-      <c r="CG17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -3015,7 +2937,7 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -3024,13 +2946,13 @@
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
-      <c r="T18"/>
+      <c r="T18" t="s">
+        <v>85</v>
+      </c>
       <c r="U18" t="s">
-        <v>88</v>
-      </c>
-      <c r="V18" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
@@ -3046,44 +2968,44 @@
       <c r="AI18"/>
       <c r="AJ18"/>
       <c r="AK18"/>
-      <c r="AL18"/>
+      <c r="AL18" t="s">
+        <v>85</v>
+      </c>
       <c r="AM18"/>
-      <c r="AN18" t="s">
-        <v>88</v>
-      </c>
+      <c r="AN18"/>
       <c r="AO18"/>
       <c r="AP18"/>
       <c r="AQ18"/>
-      <c r="AR18"/>
+      <c r="AR18" t="s">
+        <v>85</v>
+      </c>
       <c r="AS18"/>
       <c r="AT18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU18"/>
-      <c r="AV18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV18"/>
+      <c r="AW18"/>
       <c r="AX18"/>
       <c r="AY18"/>
       <c r="AZ18"/>
-      <c r="BA18"/>
+      <c r="BA18" t="s">
+        <v>85</v>
+      </c>
       <c r="BB18"/>
-      <c r="BC18" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC18"/>
       <c r="BD18"/>
       <c r="BE18"/>
       <c r="BF18"/>
       <c r="BG18"/>
       <c r="BH18"/>
-      <c r="BI18"/>
+      <c r="BI18" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ18"/>
-      <c r="BK18" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK18"/>
       <c r="BL18"/>
       <c r="BM18"/>
       <c r="BN18"/>
@@ -3091,38 +3013,35 @@
       <c r="BP18"/>
       <c r="BQ18"/>
       <c r="BR18"/>
-      <c r="BS18"/>
+      <c r="BS18" t="s">
+        <v>85</v>
+      </c>
       <c r="BT18"/>
-      <c r="BU18" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU18"/>
       <c r="BV18"/>
       <c r="BW18"/>
       <c r="BX18"/>
       <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
-      <c r="CB18"/>
+      <c r="CB18" t="s">
+        <v>85</v>
+      </c>
       <c r="CC18"/>
       <c r="CD18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="CE18"/>
-      <c r="CF18"/>
-      <c r="CG18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -3133,7 +3052,7 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M19"/>
       <c r="N19"/>
@@ -3142,13 +3061,13 @@
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
-      <c r="T19"/>
+      <c r="T19" t="s">
+        <v>85</v>
+      </c>
       <c r="U19" t="s">
-        <v>88</v>
-      </c>
-      <c r="V19" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V19"/>
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
@@ -3164,44 +3083,44 @@
       <c r="AI19"/>
       <c r="AJ19"/>
       <c r="AK19"/>
-      <c r="AL19"/>
+      <c r="AL19" t="s">
+        <v>85</v>
+      </c>
       <c r="AM19"/>
-      <c r="AN19" t="s">
-        <v>88</v>
-      </c>
+      <c r="AN19"/>
       <c r="AO19"/>
       <c r="AP19"/>
       <c r="AQ19"/>
-      <c r="AR19"/>
+      <c r="AR19" t="s">
+        <v>85</v>
+      </c>
       <c r="AS19"/>
       <c r="AT19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU19"/>
-      <c r="AV19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV19"/>
+      <c r="AW19"/>
       <c r="AX19"/>
       <c r="AY19"/>
       <c r="AZ19"/>
-      <c r="BA19"/>
+      <c r="BA19" t="s">
+        <v>85</v>
+      </c>
       <c r="BB19"/>
-      <c r="BC19" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC19"/>
       <c r="BD19"/>
       <c r="BE19"/>
       <c r="BF19"/>
       <c r="BG19"/>
       <c r="BH19"/>
-      <c r="BI19"/>
+      <c r="BI19" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ19"/>
-      <c r="BK19" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK19"/>
       <c r="BL19"/>
       <c r="BM19"/>
       <c r="BN19"/>
@@ -3209,38 +3128,35 @@
       <c r="BP19"/>
       <c r="BQ19"/>
       <c r="BR19"/>
-      <c r="BS19"/>
+      <c r="BS19" t="s">
+        <v>85</v>
+      </c>
       <c r="BT19"/>
-      <c r="BU19" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU19"/>
       <c r="BV19"/>
       <c r="BW19"/>
       <c r="BX19"/>
       <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
-      <c r="CB19"/>
+      <c r="CB19" t="s">
+        <v>85</v>
+      </c>
       <c r="CC19"/>
       <c r="CD19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="CE19"/>
-      <c r="CF19"/>
-      <c r="CG19" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -3251,7 +3167,7 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -3260,10 +3176,10 @@
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20" t="s">
-        <v>88</v>
-      </c>
+      <c r="T20" t="s">
+        <v>85</v>
+      </c>
+      <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
@@ -3286,36 +3202,36 @@
       <c r="AO20"/>
       <c r="AP20"/>
       <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20" t="s">
-        <v>88</v>
-      </c>
+      <c r="AR20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT20"/>
       <c r="AU20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AV20"/>
-      <c r="AW20" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW20"/>
       <c r="AX20"/>
       <c r="AY20"/>
       <c r="AZ20"/>
-      <c r="BA20"/>
+      <c r="BA20" t="s">
+        <v>85</v>
+      </c>
       <c r="BB20"/>
-      <c r="BC20" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC20"/>
       <c r="BD20"/>
       <c r="BE20"/>
       <c r="BF20"/>
       <c r="BG20"/>
       <c r="BH20"/>
-      <c r="BI20"/>
+      <c r="BI20" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ20"/>
-      <c r="BK20" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK20"/>
       <c r="BL20"/>
       <c r="BM20"/>
       <c r="BN20"/>
@@ -3323,11 +3239,11 @@
       <c r="BP20"/>
       <c r="BQ20"/>
       <c r="BR20"/>
-      <c r="BS20"/>
+      <c r="BS20" t="s">
+        <v>85</v>
+      </c>
       <c r="BT20"/>
-      <c r="BU20" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU20"/>
       <c r="BV20"/>
       <c r="BW20"/>
       <c r="BX20"/>
@@ -3336,23 +3252,20 @@
       <c r="CA20"/>
       <c r="CB20"/>
       <c r="CC20"/>
-      <c r="CD20"/>
+      <c r="CD20" t="s">
+        <v>85</v>
+      </c>
       <c r="CE20"/>
-      <c r="CF20"/>
-      <c r="CG20" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3363,23 +3276,23 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21" t="s">
-        <v>88</v>
-      </c>
+      <c r="T21" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
@@ -3402,48 +3315,48 @@
       <c r="AO21"/>
       <c r="AP21"/>
       <c r="AQ21"/>
-      <c r="AR21"/>
+      <c r="AR21" t="s">
+        <v>85</v>
+      </c>
       <c r="AS21"/>
-      <c r="AT21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU21"/>
+      <c r="AT21"/>
+      <c r="AU21" t="s">
+        <v>85</v>
+      </c>
       <c r="AV21"/>
-      <c r="AW21" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW21"/>
       <c r="AX21"/>
       <c r="AY21"/>
       <c r="AZ21"/>
-      <c r="BA21"/>
+      <c r="BA21" t="s">
+        <v>85</v>
+      </c>
       <c r="BB21"/>
-      <c r="BC21" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC21"/>
       <c r="BD21"/>
       <c r="BE21"/>
       <c r="BF21"/>
       <c r="BG21"/>
       <c r="BH21"/>
-      <c r="BI21"/>
+      <c r="BI21" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ21"/>
       <c r="BK21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BL21"/>
-      <c r="BM21" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM21"/>
       <c r="BN21"/>
       <c r="BO21"/>
       <c r="BP21"/>
       <c r="BQ21"/>
       <c r="BR21"/>
-      <c r="BS21"/>
+      <c r="BS21" t="s">
+        <v>85</v>
+      </c>
       <c r="BT21"/>
-      <c r="BU21" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU21"/>
       <c r="BV21"/>
       <c r="BW21"/>
       <c r="BX21"/>
@@ -3452,23 +3365,20 @@
       <c r="CA21"/>
       <c r="CB21"/>
       <c r="CC21"/>
-      <c r="CD21"/>
+      <c r="CD21" t="s">
+        <v>85</v>
+      </c>
       <c r="CE21"/>
-      <c r="CF21"/>
-      <c r="CG21" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
         <v>118</v>
       </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -3479,25 +3389,21 @@
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M22"/>
-      <c r="N22" t="s">
-        <v>88</v>
-      </c>
+      <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>88</v>
-      </c>
-      <c r="R22" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="R22"/>
       <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22" t="s">
-        <v>88</v>
-      </c>
+      <c r="T22" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
@@ -3512,9 +3418,7 @@
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
-      <c r="AJ22" t="s">
-        <v>88</v>
-      </c>
+      <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
@@ -3522,48 +3426,48 @@
       <c r="AO22"/>
       <c r="AP22"/>
       <c r="AQ22"/>
-      <c r="AR22"/>
+      <c r="AR22" t="s">
+        <v>85</v>
+      </c>
       <c r="AS22"/>
-      <c r="AT22" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU22"/>
+      <c r="AT22"/>
+      <c r="AU22" t="s">
+        <v>85</v>
+      </c>
       <c r="AV22"/>
-      <c r="AW22" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW22"/>
       <c r="AX22"/>
       <c r="AY22"/>
       <c r="AZ22"/>
-      <c r="BA22"/>
+      <c r="BA22" t="s">
+        <v>85</v>
+      </c>
       <c r="BB22"/>
-      <c r="BC22" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC22"/>
       <c r="BD22"/>
       <c r="BE22"/>
       <c r="BF22"/>
       <c r="BG22"/>
       <c r="BH22"/>
-      <c r="BI22"/>
+      <c r="BI22" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ22"/>
       <c r="BK22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BL22"/>
-      <c r="BM22" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM22"/>
       <c r="BN22"/>
       <c r="BO22"/>
       <c r="BP22"/>
       <c r="BQ22"/>
       <c r="BR22"/>
-      <c r="BS22"/>
+      <c r="BS22" t="s">
+        <v>85</v>
+      </c>
       <c r="BT22"/>
-      <c r="BU22" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU22"/>
       <c r="BV22"/>
       <c r="BW22"/>
       <c r="BX22"/>
@@ -3572,25 +3476,20 @@
       <c r="CA22"/>
       <c r="CB22"/>
       <c r="CC22"/>
-      <c r="CD22"/>
+      <c r="CD22" t="s">
+        <v>85</v>
+      </c>
       <c r="CE22"/>
-      <c r="CF22" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG22" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -3601,19 +3500,21 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23"/>
+      <c r="Q23" t="s">
+        <v>85</v>
+      </c>
       <c r="R23"/>
       <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23" t="s">
-        <v>88</v>
-      </c>
+      <c r="T23" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
       <c r="X23"/>
@@ -3636,33 +3537,35 @@
       <c r="AO23"/>
       <c r="AP23"/>
       <c r="AQ23"/>
-      <c r="AR23"/>
+      <c r="AR23" t="s">
+        <v>85</v>
+      </c>
       <c r="AS23"/>
-      <c r="AT23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU23"/>
+      <c r="AT23"/>
+      <c r="AU23" t="s">
+        <v>85</v>
+      </c>
       <c r="AV23"/>
-      <c r="AW23" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW23"/>
       <c r="AX23"/>
       <c r="AY23"/>
       <c r="AZ23"/>
-      <c r="BA23"/>
+      <c r="BA23" t="s">
+        <v>85</v>
+      </c>
       <c r="BB23"/>
-      <c r="BC23" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC23"/>
       <c r="BD23"/>
       <c r="BE23"/>
       <c r="BF23"/>
       <c r="BG23"/>
       <c r="BH23"/>
-      <c r="BI23"/>
+      <c r="BI23" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ23"/>
       <c r="BK23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BL23"/>
       <c r="BM23"/>
@@ -3671,11 +3574,11 @@
       <c r="BP23"/>
       <c r="BQ23"/>
       <c r="BR23"/>
-      <c r="BS23"/>
+      <c r="BS23" t="s">
+        <v>85</v>
+      </c>
       <c r="BT23"/>
-      <c r="BU23" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU23"/>
       <c r="BV23"/>
       <c r="BW23"/>
       <c r="BX23"/>
@@ -3684,23 +3587,20 @@
       <c r="CA23"/>
       <c r="CB23"/>
       <c r="CC23"/>
-      <c r="CD23"/>
+      <c r="CD23" t="s">
+        <v>85</v>
+      </c>
       <c r="CE23"/>
-      <c r="CF23"/>
-      <c r="CG23" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -3711,23 +3611,19 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M24"/>
-      <c r="N24" t="s">
-        <v>88</v>
-      </c>
+      <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24" t="s">
-        <v>88</v>
-      </c>
+      <c r="T24" t="s">
+        <v>85</v>
+      </c>
+      <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
       <c r="X24"/>
@@ -3750,48 +3646,46 @@
       <c r="AO24"/>
       <c r="AP24"/>
       <c r="AQ24"/>
-      <c r="AR24"/>
+      <c r="AR24" t="s">
+        <v>85</v>
+      </c>
       <c r="AS24"/>
-      <c r="AT24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU24"/>
+      <c r="AT24"/>
+      <c r="AU24" t="s">
+        <v>85</v>
+      </c>
       <c r="AV24"/>
-      <c r="AW24" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW24"/>
       <c r="AX24"/>
       <c r="AY24"/>
       <c r="AZ24"/>
-      <c r="BA24"/>
+      <c r="BA24" t="s">
+        <v>85</v>
+      </c>
       <c r="BB24"/>
-      <c r="BC24" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC24"/>
       <c r="BD24"/>
       <c r="BE24"/>
       <c r="BF24"/>
       <c r="BG24"/>
       <c r="BH24"/>
-      <c r="BI24"/>
+      <c r="BI24" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ24"/>
-      <c r="BK24" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK24"/>
       <c r="BL24"/>
-      <c r="BM24" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM24"/>
       <c r="BN24"/>
       <c r="BO24"/>
       <c r="BP24"/>
       <c r="BQ24"/>
       <c r="BR24"/>
-      <c r="BS24"/>
+      <c r="BS24" t="s">
+        <v>85</v>
+      </c>
       <c r="BT24"/>
-      <c r="BU24" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU24"/>
       <c r="BV24"/>
       <c r="BW24"/>
       <c r="BX24"/>
@@ -3800,24 +3694,19 @@
       <c r="CA24"/>
       <c r="CB24"/>
       <c r="CC24"/>
-      <c r="CD24"/>
+      <c r="CD24" t="s">
+        <v>85</v>
+      </c>
       <c r="CE24"/>
-      <c r="CF24"/>
-      <c r="CG24" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -3827,21 +3716,19 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
-      <c r="Q25" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25" t="s">
-        <v>88</v>
-      </c>
+      <c r="T25" t="s">
+        <v>85</v>
+      </c>
+      <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25"/>
@@ -3864,48 +3751,44 @@
       <c r="AO25"/>
       <c r="AP25"/>
       <c r="AQ25"/>
-      <c r="AR25"/>
+      <c r="AR25" t="s">
+        <v>85</v>
+      </c>
       <c r="AS25"/>
-      <c r="AT25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU25"/>
+      <c r="AT25"/>
+      <c r="AU25" t="s">
+        <v>85</v>
+      </c>
       <c r="AV25"/>
-      <c r="AW25" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW25"/>
       <c r="AX25"/>
       <c r="AY25"/>
       <c r="AZ25"/>
       <c r="BA25"/>
       <c r="BB25"/>
-      <c r="BC25" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC25"/>
       <c r="BD25"/>
       <c r="BE25"/>
       <c r="BF25"/>
       <c r="BG25"/>
       <c r="BH25"/>
-      <c r="BI25"/>
+      <c r="BI25" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ25"/>
-      <c r="BK25" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK25"/>
       <c r="BL25"/>
-      <c r="BM25" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM25"/>
       <c r="BN25"/>
       <c r="BO25"/>
       <c r="BP25"/>
       <c r="BQ25"/>
       <c r="BR25"/>
-      <c r="BS25"/>
+      <c r="BS25" t="s">
+        <v>85</v>
+      </c>
       <c r="BT25"/>
-      <c r="BU25" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU25"/>
       <c r="BV25"/>
       <c r="BW25"/>
       <c r="BX25"/>
@@ -3914,24 +3797,19 @@
       <c r="CA25"/>
       <c r="CB25"/>
       <c r="CC25"/>
-      <c r="CD25"/>
+      <c r="CD25" t="s">
+        <v>85</v>
+      </c>
       <c r="CE25"/>
-      <c r="CF25"/>
-      <c r="CG25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="B26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
+      <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -3941,21 +3819,19 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
-      <c r="Q26" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26" t="s">
-        <v>88</v>
-      </c>
+      <c r="T26" t="s">
+        <v>85</v>
+      </c>
+      <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
       <c r="X26"/>
@@ -3978,48 +3854,44 @@
       <c r="AO26"/>
       <c r="AP26"/>
       <c r="AQ26"/>
-      <c r="AR26"/>
+      <c r="AR26" t="s">
+        <v>85</v>
+      </c>
       <c r="AS26"/>
-      <c r="AT26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU26"/>
+      <c r="AT26"/>
+      <c r="AU26" t="s">
+        <v>85</v>
+      </c>
       <c r="AV26"/>
-      <c r="AW26" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW26"/>
       <c r="AX26"/>
       <c r="AY26"/>
       <c r="AZ26"/>
       <c r="BA26"/>
       <c r="BB26"/>
-      <c r="BC26" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC26"/>
       <c r="BD26"/>
       <c r="BE26"/>
       <c r="BF26"/>
       <c r="BG26"/>
       <c r="BH26"/>
-      <c r="BI26"/>
+      <c r="BI26" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ26"/>
-      <c r="BK26" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK26"/>
       <c r="BL26"/>
-      <c r="BM26" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM26"/>
       <c r="BN26"/>
       <c r="BO26"/>
       <c r="BP26"/>
       <c r="BQ26"/>
       <c r="BR26"/>
-      <c r="BS26"/>
+      <c r="BS26" t="s">
+        <v>85</v>
+      </c>
       <c r="BT26"/>
-      <c r="BU26" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU26"/>
       <c r="BV26"/>
       <c r="BW26"/>
       <c r="BX26"/>
@@ -4028,24 +3900,19 @@
       <c r="CA26"/>
       <c r="CB26"/>
       <c r="CC26"/>
-      <c r="CD26"/>
+      <c r="CD26" t="s">
+        <v>85</v>
+      </c>
       <c r="CE26"/>
-      <c r="CF26"/>
-      <c r="CG26" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -4055,7 +3922,7 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -4064,10 +3931,10 @@
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27" t="s">
-        <v>88</v>
-      </c>
+      <c r="T27" t="s">
+        <v>85</v>
+      </c>
+      <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
       <c r="X27"/>
@@ -4090,34 +3957,32 @@
       <c r="AO27"/>
       <c r="AP27"/>
       <c r="AQ27"/>
-      <c r="AR27"/>
+      <c r="AR27" t="s">
+        <v>85</v>
+      </c>
       <c r="AS27"/>
-      <c r="AT27" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU27"/>
+      <c r="AT27"/>
+      <c r="AU27" t="s">
+        <v>85</v>
+      </c>
       <c r="AV27"/>
-      <c r="AW27" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW27"/>
       <c r="AX27"/>
       <c r="AY27"/>
       <c r="AZ27"/>
       <c r="BA27"/>
       <c r="BB27"/>
-      <c r="BC27" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC27"/>
       <c r="BD27"/>
       <c r="BE27"/>
       <c r="BF27"/>
       <c r="BG27"/>
       <c r="BH27"/>
-      <c r="BI27"/>
+      <c r="BI27" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ27"/>
-      <c r="BK27" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK27"/>
       <c r="BL27"/>
       <c r="BM27"/>
       <c r="BN27"/>
@@ -4125,11 +3990,11 @@
       <c r="BP27"/>
       <c r="BQ27"/>
       <c r="BR27"/>
-      <c r="BS27"/>
+      <c r="BS27" t="s">
+        <v>85</v>
+      </c>
       <c r="BT27"/>
-      <c r="BU27" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU27"/>
       <c r="BV27"/>
       <c r="BW27"/>
       <c r="BX27"/>
@@ -4138,20 +4003,17 @@
       <c r="CA27"/>
       <c r="CB27"/>
       <c r="CC27"/>
-      <c r="CD27"/>
+      <c r="CD27" t="s">
+        <v>85</v>
+      </c>
       <c r="CE27"/>
-      <c r="CF27"/>
-      <c r="CG27" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -4163,7 +4025,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M28"/>
       <c r="N28"/>
@@ -4172,10 +4034,10 @@
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28" t="s">
-        <v>88</v>
-      </c>
+      <c r="T28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
       <c r="X28"/>
@@ -4198,16 +4060,16 @@
       <c r="AO28"/>
       <c r="AP28"/>
       <c r="AQ28"/>
-      <c r="AR28"/>
+      <c r="AR28" t="s">
+        <v>85</v>
+      </c>
       <c r="AS28"/>
-      <c r="AT28" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU28"/>
+      <c r="AT28"/>
+      <c r="AU28" t="s">
+        <v>85</v>
+      </c>
       <c r="AV28"/>
-      <c r="AW28" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW28"/>
       <c r="AX28"/>
       <c r="AY28"/>
       <c r="AZ28"/>
@@ -4219,11 +4081,11 @@
       <c r="BF28"/>
       <c r="BG28"/>
       <c r="BH28"/>
-      <c r="BI28"/>
+      <c r="BI28" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ28"/>
-      <c r="BK28" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK28"/>
       <c r="BL28"/>
       <c r="BM28"/>
       <c r="BN28"/>
@@ -4231,11 +4093,11 @@
       <c r="BP28"/>
       <c r="BQ28"/>
       <c r="BR28"/>
-      <c r="BS28"/>
+      <c r="BS28" t="s">
+        <v>85</v>
+      </c>
       <c r="BT28"/>
-      <c r="BU28" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU28"/>
       <c r="BV28"/>
       <c r="BW28"/>
       <c r="BX28"/>
@@ -4244,22 +4106,21 @@
       <c r="CA28"/>
       <c r="CB28"/>
       <c r="CC28"/>
-      <c r="CD28"/>
+      <c r="CD28" t="s">
+        <v>85</v>
+      </c>
       <c r="CE28"/>
-      <c r="CF28"/>
-      <c r="CG28" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29"/>
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -4269,7 +4130,7 @@
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
@@ -4278,15 +4139,17 @@
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29" t="s">
-        <v>88</v>
-      </c>
+      <c r="T29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U29"/>
       <c r="V29"/>
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
-      <c r="Z29"/>
+      <c r="Z29" t="s">
+        <v>85</v>
+      </c>
       <c r="AA29"/>
       <c r="AB29"/>
       <c r="AC29"/>
@@ -4304,32 +4167,38 @@
       <c r="AO29"/>
       <c r="AP29"/>
       <c r="AQ29"/>
-      <c r="AR29"/>
+      <c r="AR29" t="s">
+        <v>85</v>
+      </c>
       <c r="AS29"/>
-      <c r="AT29" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU29"/>
+      <c r="AT29"/>
+      <c r="AU29" t="s">
+        <v>85</v>
+      </c>
       <c r="AV29"/>
-      <c r="AW29" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW29"/>
       <c r="AX29"/>
       <c r="AY29"/>
       <c r="AZ29"/>
-      <c r="BA29"/>
+      <c r="BA29" t="s">
+        <v>85</v>
+      </c>
       <c r="BB29"/>
       <c r="BC29"/>
-      <c r="BD29"/>
-      <c r="BE29"/>
+      <c r="BD29" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>85</v>
+      </c>
       <c r="BF29"/>
       <c r="BG29"/>
       <c r="BH29"/>
-      <c r="BI29"/>
+      <c r="BI29" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ29"/>
-      <c r="BK29" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK29"/>
       <c r="BL29"/>
       <c r="BM29"/>
       <c r="BN29"/>
@@ -4337,11 +4206,11 @@
       <c r="BP29"/>
       <c r="BQ29"/>
       <c r="BR29"/>
-      <c r="BS29"/>
+      <c r="BS29" t="s">
+        <v>85</v>
+      </c>
       <c r="BT29"/>
-      <c r="BU29" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU29"/>
       <c r="BV29"/>
       <c r="BW29"/>
       <c r="BX29"/>
@@ -4350,20 +4219,17 @@
       <c r="CA29"/>
       <c r="CB29"/>
       <c r="CC29"/>
-      <c r="CD29"/>
+      <c r="CD29" t="s">
+        <v>85</v>
+      </c>
       <c r="CE29"/>
-      <c r="CF29"/>
-      <c r="CG29" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -4375,7 +4241,7 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -4384,17 +4250,21 @@
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30" t="s">
-        <v>88</v>
-      </c>
+      <c r="T30" t="s">
+        <v>85</v>
+      </c>
+      <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
       <c r="X30"/>
-      <c r="Y30"/>
+      <c r="Y30" t="s">
+        <v>85</v>
+      </c>
       <c r="Z30"/>
       <c r="AA30"/>
-      <c r="AB30"/>
+      <c r="AB30" t="s">
+        <v>85</v>
+      </c>
       <c r="AC30"/>
       <c r="AD30"/>
       <c r="AE30"/>
@@ -4409,33 +4279,39 @@
       <c r="AN30"/>
       <c r="AO30"/>
       <c r="AP30"/>
-      <c r="AQ30"/>
-      <c r="AR30"/>
+      <c r="AQ30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>85</v>
+      </c>
       <c r="AS30"/>
-      <c r="AT30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU30"/>
+      <c r="AT30"/>
+      <c r="AU30" t="s">
+        <v>85</v>
+      </c>
       <c r="AV30"/>
-      <c r="AW30" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW30"/>
       <c r="AX30"/>
       <c r="AY30"/>
       <c r="AZ30"/>
-      <c r="BA30"/>
+      <c r="BA30" t="s">
+        <v>85</v>
+      </c>
       <c r="BB30"/>
-      <c r="BC30"/>
+      <c r="BC30" t="s">
+        <v>85</v>
+      </c>
       <c r="BD30"/>
       <c r="BE30"/>
       <c r="BF30"/>
       <c r="BG30"/>
       <c r="BH30"/>
-      <c r="BI30"/>
+      <c r="BI30" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ30"/>
-      <c r="BK30" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK30"/>
       <c r="BL30"/>
       <c r="BM30"/>
       <c r="BN30"/>
@@ -4443,11 +4319,11 @@
       <c r="BP30"/>
       <c r="BQ30"/>
       <c r="BR30"/>
-      <c r="BS30"/>
+      <c r="BS30" t="s">
+        <v>85</v>
+      </c>
       <c r="BT30"/>
-      <c r="BU30" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU30"/>
       <c r="BV30"/>
       <c r="BW30"/>
       <c r="BX30"/>
@@ -4456,20 +4332,17 @@
       <c r="CA30"/>
       <c r="CB30"/>
       <c r="CC30"/>
-      <c r="CD30"/>
+      <c r="CD30" t="s">
+        <v>85</v>
+      </c>
       <c r="CE30"/>
-      <c r="CF30"/>
-      <c r="CG30" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -4481,7 +4354,7 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M31"/>
       <c r="N31"/>
@@ -4490,17 +4363,21 @@
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31" t="s">
-        <v>88</v>
-      </c>
+      <c r="T31" t="s">
+        <v>85</v>
+      </c>
+      <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
       <c r="X31"/>
-      <c r="Y31"/>
+      <c r="Y31" t="s">
+        <v>85</v>
+      </c>
       <c r="Z31"/>
       <c r="AA31"/>
-      <c r="AB31"/>
+      <c r="AB31" t="s">
+        <v>85</v>
+      </c>
       <c r="AC31"/>
       <c r="AD31"/>
       <c r="AE31"/>
@@ -4515,21 +4392,25 @@
       <c r="AN31"/>
       <c r="AO31"/>
       <c r="AP31"/>
-      <c r="AQ31"/>
-      <c r="AR31"/>
+      <c r="AQ31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>85</v>
+      </c>
       <c r="AS31"/>
-      <c r="AT31" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU31"/>
+      <c r="AT31"/>
+      <c r="AU31" t="s">
+        <v>85</v>
+      </c>
       <c r="AV31"/>
-      <c r="AW31" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW31"/>
       <c r="AX31"/>
       <c r="AY31"/>
       <c r="AZ31"/>
-      <c r="BA31"/>
+      <c r="BA31" t="s">
+        <v>85</v>
+      </c>
       <c r="BB31"/>
       <c r="BC31"/>
       <c r="BD31"/>
@@ -4537,11 +4418,11 @@
       <c r="BF31"/>
       <c r="BG31"/>
       <c r="BH31"/>
-      <c r="BI31"/>
+      <c r="BI31" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ31"/>
-      <c r="BK31" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK31"/>
       <c r="BL31"/>
       <c r="BM31"/>
       <c r="BN31"/>
@@ -4549,11 +4430,11 @@
       <c r="BP31"/>
       <c r="BQ31"/>
       <c r="BR31"/>
-      <c r="BS31"/>
+      <c r="BS31" t="s">
+        <v>85</v>
+      </c>
       <c r="BT31"/>
-      <c r="BU31" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU31"/>
       <c r="BV31"/>
       <c r="BW31"/>
       <c r="BX31"/>
@@ -4562,24 +4443,19 @@
       <c r="CA31"/>
       <c r="CB31"/>
       <c r="CC31"/>
-      <c r="CD31"/>
+      <c r="CD31" t="s">
+        <v>85</v>
+      </c>
       <c r="CE31"/>
-      <c r="CF31"/>
-      <c r="CG31" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -4589,7 +4465,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
@@ -4598,25 +4474,29 @@
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32" t="s">
-        <v>88</v>
-      </c>
+      <c r="T32" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
-      <c r="Y32"/>
+      <c r="Y32" t="s">
+        <v>85</v>
+      </c>
       <c r="Z32"/>
-      <c r="AA32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB32"/>
+      <c r="AA32"/>
+      <c r="AB32" t="s">
+        <v>85</v>
+      </c>
       <c r="AC32"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
-      <c r="AH32"/>
+      <c r="AH32" t="s">
+        <v>85</v>
+      </c>
       <c r="AI32"/>
       <c r="AJ32"/>
       <c r="AK32"/>
@@ -4625,39 +4505,37 @@
       <c r="AN32"/>
       <c r="AO32"/>
       <c r="AP32"/>
-      <c r="AQ32"/>
-      <c r="AR32"/>
+      <c r="AQ32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>85</v>
+      </c>
       <c r="AS32"/>
-      <c r="AT32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU32"/>
+      <c r="AT32"/>
+      <c r="AU32" t="s">
+        <v>85</v>
+      </c>
       <c r="AV32"/>
-      <c r="AW32" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW32"/>
       <c r="AX32"/>
       <c r="AY32"/>
       <c r="AZ32"/>
-      <c r="BA32"/>
+      <c r="BA32" t="s">
+        <v>85</v>
+      </c>
       <c r="BB32"/>
-      <c r="BC32" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC32"/>
       <c r="BD32"/>
       <c r="BE32"/>
-      <c r="BF32" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>88</v>
-      </c>
+      <c r="BF32"/>
+      <c r="BG32"/>
       <c r="BH32"/>
-      <c r="BI32"/>
+      <c r="BI32" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ32"/>
-      <c r="BK32" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK32"/>
       <c r="BL32"/>
       <c r="BM32"/>
       <c r="BN32"/>
@@ -4665,11 +4543,11 @@
       <c r="BP32"/>
       <c r="BQ32"/>
       <c r="BR32"/>
-      <c r="BS32"/>
+      <c r="BS32" t="s">
+        <v>85</v>
+      </c>
       <c r="BT32"/>
-      <c r="BU32" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU32"/>
       <c r="BV32"/>
       <c r="BW32"/>
       <c r="BX32"/>
@@ -4678,22 +4556,21 @@
       <c r="CA32"/>
       <c r="CB32"/>
       <c r="CC32"/>
-      <c r="CD32"/>
+      <c r="CD32" t="s">
+        <v>85</v>
+      </c>
       <c r="CE32"/>
-      <c r="CF32"/>
-      <c r="CG32" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33"/>
+        <v>134</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -4703,7 +4580,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -4712,24 +4589,22 @@
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33" t="s">
-        <v>88</v>
-      </c>
+      <c r="T33" t="s">
+        <v>85</v>
+      </c>
+      <c r="U33"/>
       <c r="V33"/>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
-      <c r="Z33" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33"/>
-      <c r="AC33" t="s">
-        <v>88</v>
-      </c>
+      <c r="AC33"/>
       <c r="AD33"/>
-      <c r="AE33"/>
+      <c r="AE33" t="s">
+        <v>85</v>
+      </c>
       <c r="AF33"/>
       <c r="AG33"/>
       <c r="AH33"/>
@@ -4742,38 +4617,36 @@
       <c r="AO33"/>
       <c r="AP33"/>
       <c r="AQ33"/>
-      <c r="AR33"/>
-      <c r="AS33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU33"/>
+      <c r="AR33" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33" t="s">
+        <v>85</v>
+      </c>
       <c r="AV33"/>
-      <c r="AW33" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW33"/>
       <c r="AX33"/>
       <c r="AY33"/>
       <c r="AZ33"/>
-      <c r="BA33"/>
+      <c r="BA33" t="s">
+        <v>85</v>
+      </c>
       <c r="BB33"/>
-      <c r="BC33" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC33"/>
       <c r="BD33"/>
-      <c r="BE33" t="s">
-        <v>88</v>
-      </c>
+      <c r="BE33"/>
       <c r="BF33"/>
       <c r="BG33"/>
-      <c r="BH33"/>
-      <c r="BI33"/>
+      <c r="BH33" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ33"/>
-      <c r="BK33" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK33"/>
       <c r="BL33"/>
       <c r="BM33"/>
       <c r="BN33"/>
@@ -4781,11 +4654,11 @@
       <c r="BP33"/>
       <c r="BQ33"/>
       <c r="BR33"/>
-      <c r="BS33"/>
+      <c r="BS33" t="s">
+        <v>85</v>
+      </c>
       <c r="BT33"/>
-      <c r="BU33" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU33"/>
       <c r="BV33"/>
       <c r="BW33"/>
       <c r="BX33"/>
@@ -4794,22 +4667,21 @@
       <c r="CA33"/>
       <c r="CB33"/>
       <c r="CC33"/>
-      <c r="CD33"/>
+      <c r="CD33" t="s">
+        <v>85</v>
+      </c>
       <c r="CE33"/>
-      <c r="CF33"/>
-      <c r="CG33" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34"/>
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -4819,7 +4691,7 @@
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M34"/>
       <c r="N34"/>
@@ -4828,24 +4700,22 @@
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34" t="s">
-        <v>88</v>
-      </c>
+      <c r="T34" t="s">
+        <v>85</v>
+      </c>
+      <c r="U34"/>
       <c r="V34"/>
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34"/>
-      <c r="Z34" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z34"/>
       <c r="AA34"/>
       <c r="AB34"/>
-      <c r="AC34" t="s">
-        <v>88</v>
-      </c>
+      <c r="AC34"/>
       <c r="AD34"/>
-      <c r="AE34"/>
+      <c r="AE34" t="s">
+        <v>85</v>
+      </c>
       <c r="AF34"/>
       <c r="AG34"/>
       <c r="AH34"/>
@@ -4858,36 +4728,36 @@
       <c r="AO34"/>
       <c r="AP34"/>
       <c r="AQ34"/>
-      <c r="AR34"/>
-      <c r="AS34" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU34"/>
+      <c r="AR34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34" t="s">
+        <v>85</v>
+      </c>
       <c r="AV34"/>
-      <c r="AW34" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW34"/>
       <c r="AX34"/>
       <c r="AY34"/>
       <c r="AZ34"/>
-      <c r="BA34"/>
+      <c r="BA34" t="s">
+        <v>85</v>
+      </c>
       <c r="BB34"/>
-      <c r="BC34" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC34"/>
       <c r="BD34"/>
       <c r="BE34"/>
       <c r="BF34"/>
       <c r="BG34"/>
-      <c r="BH34"/>
-      <c r="BI34"/>
+      <c r="BH34" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ34"/>
-      <c r="BK34" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK34"/>
       <c r="BL34"/>
       <c r="BM34"/>
       <c r="BN34"/>
@@ -4895,11 +4765,11 @@
       <c r="BP34"/>
       <c r="BQ34"/>
       <c r="BR34"/>
-      <c r="BS34"/>
+      <c r="BS34" t="s">
+        <v>85</v>
+      </c>
       <c r="BT34"/>
-      <c r="BU34" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU34"/>
       <c r="BV34"/>
       <c r="BW34"/>
       <c r="BX34"/>
@@ -4908,22 +4778,21 @@
       <c r="CA34"/>
       <c r="CB34"/>
       <c r="CC34"/>
-      <c r="CD34"/>
+      <c r="CD34" t="s">
+        <v>85</v>
+      </c>
       <c r="CE34"/>
-      <c r="CF34"/>
-      <c r="CG34" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
         <v>136</v>
       </c>
-      <c r="B35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35"/>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -4933,7 +4802,7 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M35"/>
       <c r="N35"/>
@@ -4942,30 +4811,26 @@
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35" t="s">
-        <v>88</v>
-      </c>
+      <c r="T35" t="s">
+        <v>85</v>
+      </c>
+      <c r="U35"/>
       <c r="V35"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
-      <c r="Z35" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z35"/>
       <c r="AA35"/>
       <c r="AB35"/>
-      <c r="AC35" t="s">
-        <v>88</v>
-      </c>
+      <c r="AC35"/>
       <c r="AD35"/>
-      <c r="AE35"/>
+      <c r="AE35" t="s">
+        <v>85</v>
+      </c>
       <c r="AF35"/>
       <c r="AG35"/>
       <c r="AH35"/>
-      <c r="AI35" t="s">
-        <v>88</v>
-      </c>
+      <c r="AI35"/>
       <c r="AJ35"/>
       <c r="AK35"/>
       <c r="AL35"/>
@@ -4974,36 +4839,36 @@
       <c r="AO35"/>
       <c r="AP35"/>
       <c r="AQ35"/>
-      <c r="AR35"/>
-      <c r="AS35" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU35"/>
+      <c r="AR35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35" t="s">
+        <v>85</v>
+      </c>
       <c r="AV35"/>
-      <c r="AW35" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW35"/>
       <c r="AX35"/>
       <c r="AY35"/>
       <c r="AZ35"/>
-      <c r="BA35"/>
+      <c r="BA35" t="s">
+        <v>85</v>
+      </c>
       <c r="BB35"/>
-      <c r="BC35" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC35"/>
       <c r="BD35"/>
       <c r="BE35"/>
       <c r="BF35"/>
       <c r="BG35"/>
-      <c r="BH35"/>
-      <c r="BI35"/>
+      <c r="BH35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ35"/>
-      <c r="BK35" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK35"/>
       <c r="BL35"/>
       <c r="BM35"/>
       <c r="BN35"/>
@@ -5011,11 +4876,11 @@
       <c r="BP35"/>
       <c r="BQ35"/>
       <c r="BR35"/>
-      <c r="BS35"/>
+      <c r="BS35" t="s">
+        <v>85</v>
+      </c>
       <c r="BT35"/>
-      <c r="BU35" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU35"/>
       <c r="BV35"/>
       <c r="BW35"/>
       <c r="BX35"/>
@@ -5024,25 +4889,24 @@
       <c r="CA35"/>
       <c r="CB35"/>
       <c r="CC35"/>
-      <c r="CD35"/>
+      <c r="CD35" t="s">
+        <v>85</v>
+      </c>
       <c r="CE35"/>
-      <c r="CF35"/>
-      <c r="CG35" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36"/>
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -5051,7 +4915,7 @@
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -5060,10 +4924,10 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36" t="s">
-        <v>88</v>
-      </c>
+      <c r="T36" t="s">
+        <v>85</v>
+      </c>
+      <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
       <c r="X36"/>
@@ -5074,9 +4938,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
       <c r="AE36"/>
-      <c r="AF36" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF36"/>
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
@@ -5088,36 +4950,34 @@
       <c r="AO36"/>
       <c r="AP36"/>
       <c r="AQ36"/>
-      <c r="AR36"/>
+      <c r="AR36" t="s">
+        <v>85</v>
+      </c>
       <c r="AS36"/>
-      <c r="AT36" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU36"/>
+      <c r="AT36"/>
+      <c r="AU36" t="s">
+        <v>85</v>
+      </c>
       <c r="AV36"/>
-      <c r="AW36" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW36"/>
       <c r="AX36"/>
       <c r="AY36"/>
       <c r="AZ36"/>
-      <c r="BA36"/>
+      <c r="BA36" t="s">
+        <v>85</v>
+      </c>
       <c r="BB36"/>
-      <c r="BC36" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC36"/>
       <c r="BD36"/>
       <c r="BE36"/>
       <c r="BF36"/>
       <c r="BG36"/>
       <c r="BH36"/>
-      <c r="BI36"/>
-      <c r="BJ36" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>88</v>
-      </c>
+      <c r="BI36" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ36"/>
+      <c r="BK36"/>
       <c r="BL36"/>
       <c r="BM36"/>
       <c r="BN36"/>
@@ -5125,11 +4985,11 @@
       <c r="BP36"/>
       <c r="BQ36"/>
       <c r="BR36"/>
-      <c r="BS36"/>
+      <c r="BS36" t="s">
+        <v>85</v>
+      </c>
       <c r="BT36"/>
-      <c r="BU36" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU36"/>
       <c r="BV36"/>
       <c r="BW36"/>
       <c r="BX36"/>
@@ -5138,23 +4998,20 @@
       <c r="CA36"/>
       <c r="CB36"/>
       <c r="CC36"/>
-      <c r="CD36"/>
+      <c r="CD36" t="s">
+        <v>85</v>
+      </c>
       <c r="CE36"/>
-      <c r="CF36"/>
-      <c r="CG36" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
         <v>140</v>
       </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -5165,19 +5022,21 @@
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
-      <c r="Q37"/>
+      <c r="Q37" t="s">
+        <v>85</v>
+      </c>
       <c r="R37"/>
       <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37" t="s">
-        <v>88</v>
-      </c>
+      <c r="T37" t="s">
+        <v>85</v>
+      </c>
+      <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
       <c r="X37"/>
@@ -5188,9 +5047,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
-      <c r="AF37" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF37"/>
       <c r="AG37"/>
       <c r="AH37"/>
       <c r="AI37"/>
@@ -5202,35 +5059,37 @@
       <c r="AO37"/>
       <c r="AP37"/>
       <c r="AQ37"/>
-      <c r="AR37"/>
+      <c r="AR37" t="s">
+        <v>85</v>
+      </c>
       <c r="AS37"/>
-      <c r="AT37" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU37"/>
+      <c r="AT37"/>
+      <c r="AU37" t="s">
+        <v>85</v>
+      </c>
       <c r="AV37"/>
-      <c r="AW37" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW37"/>
       <c r="AX37"/>
       <c r="AY37"/>
       <c r="AZ37"/>
-      <c r="BA37"/>
+      <c r="BA37" t="s">
+        <v>85</v>
+      </c>
       <c r="BB37"/>
-      <c r="BC37" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC37"/>
       <c r="BD37"/>
       <c r="BE37"/>
-      <c r="BF37"/>
+      <c r="BF37" t="s">
+        <v>85</v>
+      </c>
       <c r="BG37"/>
       <c r="BH37"/>
-      <c r="BI37"/>
-      <c r="BJ37" t="s">
-        <v>88</v>
-      </c>
+      <c r="BI37" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ37"/>
       <c r="BK37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BL37"/>
       <c r="BM37"/>
@@ -5239,11 +5098,11 @@
       <c r="BP37"/>
       <c r="BQ37"/>
       <c r="BR37"/>
-      <c r="BS37"/>
+      <c r="BS37" t="s">
+        <v>85</v>
+      </c>
       <c r="BT37"/>
-      <c r="BU37" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU37"/>
       <c r="BV37"/>
       <c r="BW37"/>
       <c r="BX37"/>
@@ -5252,23 +5111,20 @@
       <c r="CA37"/>
       <c r="CB37"/>
       <c r="CC37"/>
-      <c r="CD37"/>
+      <c r="CD37" t="s">
+        <v>85</v>
+      </c>
       <c r="CE37"/>
-      <c r="CF37"/>
-      <c r="CG37" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -5279,19 +5135,21 @@
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
-      <c r="Q38"/>
+      <c r="Q38" t="s">
+        <v>85</v>
+      </c>
       <c r="R38"/>
       <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38" t="s">
-        <v>88</v>
-      </c>
+      <c r="T38" t="s">
+        <v>85</v>
+      </c>
+      <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
       <c r="X38"/>
@@ -5302,9 +5160,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
       <c r="AE38"/>
-      <c r="AF38" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF38"/>
       <c r="AG38"/>
       <c r="AH38"/>
       <c r="AI38"/>
@@ -5316,48 +5172,50 @@
       <c r="AO38"/>
       <c r="AP38"/>
       <c r="AQ38"/>
-      <c r="AR38"/>
+      <c r="AR38" t="s">
+        <v>85</v>
+      </c>
       <c r="AS38"/>
-      <c r="AT38" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU38"/>
+      <c r="AT38"/>
+      <c r="AU38" t="s">
+        <v>85</v>
+      </c>
       <c r="AV38"/>
-      <c r="AW38" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW38"/>
       <c r="AX38"/>
       <c r="AY38"/>
       <c r="AZ38"/>
-      <c r="BA38"/>
+      <c r="BA38" t="s">
+        <v>85</v>
+      </c>
       <c r="BB38"/>
-      <c r="BC38" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC38"/>
       <c r="BD38"/>
       <c r="BE38"/>
       <c r="BF38"/>
       <c r="BG38"/>
       <c r="BH38"/>
-      <c r="BI38"/>
-      <c r="BJ38" t="s">
-        <v>88</v>
-      </c>
+      <c r="BI38" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ38"/>
       <c r="BK38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BL38"/>
       <c r="BM38"/>
       <c r="BN38"/>
-      <c r="BO38"/>
+      <c r="BO38" t="s">
+        <v>85</v>
+      </c>
       <c r="BP38"/>
       <c r="BQ38"/>
       <c r="BR38"/>
-      <c r="BS38"/>
+      <c r="BS38" t="s">
+        <v>85</v>
+      </c>
       <c r="BT38"/>
-      <c r="BU38" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU38"/>
       <c r="BV38"/>
       <c r="BW38"/>
       <c r="BX38"/>
@@ -5366,47 +5224,50 @@
       <c r="CA38"/>
       <c r="CB38"/>
       <c r="CC38"/>
-      <c r="CD38"/>
+      <c r="CD38" t="s">
+        <v>85</v>
+      </c>
       <c r="CE38"/>
-      <c r="CF38"/>
-      <c r="CG38" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
         <v>144</v>
       </c>
-      <c r="B39" t="s">
-        <v>145</v>
-      </c>
       <c r="C39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39"/>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="O39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P39" t="s">
+        <v>85</v>
+      </c>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
-      <c r="T39"/>
+      <c r="T39" t="s">
+        <v>85</v>
+      </c>
       <c r="U39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V39"/>
       <c r="W39"/>
@@ -5424,53 +5285,63 @@
       <c r="AI39"/>
       <c r="AJ39"/>
       <c r="AK39"/>
-      <c r="AL39"/>
+      <c r="AL39" t="s">
+        <v>85</v>
+      </c>
       <c r="AM39"/>
       <c r="AN39"/>
-      <c r="AO39"/>
+      <c r="AO39" t="s">
+        <v>85</v>
+      </c>
       <c r="AP39"/>
       <c r="AQ39"/>
-      <c r="AR39"/>
+      <c r="AR39" t="s">
+        <v>85</v>
+      </c>
       <c r="AS39"/>
-      <c r="AT39" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU39"/>
+      <c r="AT39"/>
+      <c r="AU39" t="s">
+        <v>85</v>
+      </c>
       <c r="AV39"/>
-      <c r="AW39" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX39"/>
+      <c r="AW39"/>
+      <c r="AX39" t="s">
+        <v>85</v>
+      </c>
       <c r="AY39"/>
       <c r="AZ39"/>
-      <c r="BA39"/>
+      <c r="BA39" t="s">
+        <v>85</v>
+      </c>
       <c r="BB39"/>
-      <c r="BC39" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC39"/>
       <c r="BD39"/>
       <c r="BE39"/>
       <c r="BF39"/>
       <c r="BG39"/>
       <c r="BH39"/>
-      <c r="BI39"/>
+      <c r="BI39" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ39"/>
-      <c r="BK39" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK39"/>
       <c r="BL39"/>
       <c r="BM39"/>
       <c r="BN39"/>
       <c r="BO39"/>
       <c r="BP39"/>
-      <c r="BQ39"/>
+      <c r="BQ39" t="s">
+        <v>85</v>
+      </c>
       <c r="BR39"/>
-      <c r="BS39"/>
+      <c r="BS39" t="s">
+        <v>85</v>
+      </c>
       <c r="BT39"/>
-      <c r="BU39" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV39"/>
+      <c r="BU39"/>
+      <c r="BV39" t="s">
+        <v>85</v>
+      </c>
       <c r="BW39"/>
       <c r="BX39"/>
       <c r="BY39"/>
@@ -5478,47 +5349,50 @@
       <c r="CA39"/>
       <c r="CB39"/>
       <c r="CC39"/>
-      <c r="CD39"/>
+      <c r="CD39" t="s">
+        <v>85</v>
+      </c>
       <c r="CE39"/>
-      <c r="CF39"/>
-      <c r="CG39" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40"/>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M40"/>
       <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40" t="s">
-        <v>88</v>
-      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
-      <c r="T40"/>
+      <c r="T40" t="s">
+        <v>85</v>
+      </c>
       <c r="U40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V40"/>
       <c r="W40"/>
@@ -5527,7 +5401,9 @@
       <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40"/>
-      <c r="AC40"/>
+      <c r="AC40" t="s">
+        <v>85</v>
+      </c>
       <c r="AD40"/>
       <c r="AE40"/>
       <c r="AF40"/>
@@ -5536,57 +5412,65 @@
       <c r="AI40"/>
       <c r="AJ40"/>
       <c r="AK40"/>
-      <c r="AL40"/>
+      <c r="AL40" t="s">
+        <v>85</v>
+      </c>
       <c r="AM40"/>
       <c r="AN40"/>
-      <c r="AO40"/>
+      <c r="AO40" t="s">
+        <v>85</v>
+      </c>
       <c r="AP40"/>
       <c r="AQ40"/>
-      <c r="AR40"/>
+      <c r="AR40" t="s">
+        <v>85</v>
+      </c>
       <c r="AS40"/>
-      <c r="AT40" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU40"/>
+      <c r="AT40"/>
+      <c r="AU40" t="s">
+        <v>85</v>
+      </c>
       <c r="AV40"/>
-      <c r="AW40" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX40"/>
+      <c r="AW40"/>
+      <c r="AX40" t="s">
+        <v>85</v>
+      </c>
       <c r="AY40"/>
       <c r="AZ40"/>
-      <c r="BA40"/>
+      <c r="BA40" t="s">
+        <v>85</v>
+      </c>
       <c r="BB40"/>
-      <c r="BC40" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC40"/>
       <c r="BD40"/>
       <c r="BE40"/>
       <c r="BF40"/>
       <c r="BG40"/>
-      <c r="BH40" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI40"/>
+      <c r="BH40"/>
+      <c r="BI40" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ40"/>
-      <c r="BK40" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK40"/>
       <c r="BL40"/>
-      <c r="BM40" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM40"/>
       <c r="BN40"/>
       <c r="BO40"/>
       <c r="BP40"/>
-      <c r="BQ40"/>
-      <c r="BR40"/>
-      <c r="BS40"/>
+      <c r="BQ40" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>85</v>
+      </c>
       <c r="BT40"/>
-      <c r="BU40" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV40"/>
+      <c r="BU40"/>
+      <c r="BV40" t="s">
+        <v>85</v>
+      </c>
       <c r="BW40"/>
       <c r="BX40"/>
       <c r="BY40"/>
@@ -5594,52 +5478,55 @@
       <c r="CA40"/>
       <c r="CB40"/>
       <c r="CC40"/>
-      <c r="CD40"/>
+      <c r="CD40" t="s">
+        <v>85</v>
+      </c>
       <c r="CE40"/>
-      <c r="CF40"/>
-      <c r="CG40" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41"/>
+        <v>147</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
-      <c r="I41"/>
+      <c r="I41" t="s">
+        <v>85</v>
+      </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="s">
-        <v>88</v>
-      </c>
-      <c r="M41"/>
+        <v>85</v>
+      </c>
+      <c r="M41" t="s">
+        <v>85</v>
+      </c>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41" t="s">
-        <v>88</v>
-      </c>
+      <c r="T41" t="s">
+        <v>85</v>
+      </c>
+      <c r="U41"/>
       <c r="V41"/>
-      <c r="W41"/>
+      <c r="W41" t="s">
+        <v>85</v>
+      </c>
       <c r="X41"/>
-      <c r="Y41"/>
+      <c r="Y41" t="s">
+        <v>85</v>
+      </c>
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
@@ -5658,50 +5545,48 @@
       <c r="AO41"/>
       <c r="AP41"/>
       <c r="AQ41"/>
-      <c r="AR41"/>
+      <c r="AR41" t="s">
+        <v>85</v>
+      </c>
       <c r="AS41"/>
-      <c r="AT41" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU41"/>
+      <c r="AT41"/>
+      <c r="AU41" t="s">
+        <v>85</v>
+      </c>
       <c r="AV41"/>
-      <c r="AW41" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW41"/>
       <c r="AX41"/>
       <c r="AY41"/>
       <c r="AZ41"/>
-      <c r="BA41"/>
+      <c r="BA41" t="s">
+        <v>85</v>
+      </c>
       <c r="BB41"/>
-      <c r="BC41" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC41"/>
       <c r="BD41"/>
       <c r="BE41"/>
       <c r="BF41"/>
       <c r="BG41"/>
       <c r="BH41"/>
-      <c r="BI41"/>
+      <c r="BI41" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ41"/>
-      <c r="BK41" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK41"/>
       <c r="BL41"/>
-      <c r="BM41" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM41"/>
       <c r="BN41"/>
       <c r="BO41"/>
       <c r="BP41"/>
-      <c r="BQ41" t="s">
-        <v>88</v>
-      </c>
+      <c r="BQ41"/>
       <c r="BR41"/>
-      <c r="BS41"/>
-      <c r="BT41"/>
-      <c r="BU41" t="s">
-        <v>88</v>
-      </c>
+      <c r="BS41" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU41"/>
       <c r="BV41"/>
       <c r="BW41"/>
       <c r="BX41"/>
@@ -5710,58 +5595,53 @@
       <c r="CA41"/>
       <c r="CB41"/>
       <c r="CC41"/>
-      <c r="CD41"/>
+      <c r="CD41" t="s">
+        <v>85</v>
+      </c>
       <c r="CE41"/>
-      <c r="CF41"/>
-      <c r="CG41" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42"/>
+        <v>148</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42" t="s">
-        <v>88</v>
-      </c>
+      <c r="G42"/>
       <c r="H42"/>
-      <c r="I42"/>
+      <c r="I42" t="s">
+        <v>85</v>
+      </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42"/>
+        <v>85</v>
+      </c>
+      <c r="M42" t="s">
+        <v>85</v>
+      </c>
       <c r="N42"/>
-      <c r="O42" t="s">
-        <v>88</v>
-      </c>
-      <c r="P42" t="s">
-        <v>88</v>
-      </c>
+      <c r="O42"/>
+      <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42" t="s">
-        <v>88</v>
-      </c>
-      <c r="V42" t="s">
-        <v>88</v>
-      </c>
+      <c r="T42" t="s">
+        <v>85</v>
+      </c>
+      <c r="U42"/>
+      <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
-      <c r="Y42"/>
+      <c r="Y42" t="s">
+        <v>85</v>
+      </c>
       <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42"/>
@@ -5776,44 +5656,38 @@
       <c r="AK42"/>
       <c r="AL42"/>
       <c r="AM42"/>
-      <c r="AN42" t="s">
-        <v>88</v>
-      </c>
+      <c r="AN42"/>
       <c r="AO42"/>
       <c r="AP42"/>
-      <c r="AQ42" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR42"/>
+      <c r="AQ42"/>
+      <c r="AR42" t="s">
+        <v>85</v>
+      </c>
       <c r="AS42"/>
-      <c r="AT42" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU42"/>
+      <c r="AT42"/>
+      <c r="AU42" t="s">
+        <v>85</v>
+      </c>
       <c r="AV42"/>
-      <c r="AW42" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW42"/>
       <c r="AX42"/>
       <c r="AY42"/>
-      <c r="AZ42" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA42"/>
+      <c r="AZ42"/>
+      <c r="BA42" t="s">
+        <v>85</v>
+      </c>
       <c r="BB42"/>
-      <c r="BC42" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC42"/>
       <c r="BD42"/>
       <c r="BE42"/>
       <c r="BF42"/>
       <c r="BG42"/>
       <c r="BH42"/>
-      <c r="BI42"/>
+      <c r="BI42" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ42"/>
-      <c r="BK42" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK42"/>
       <c r="BL42"/>
       <c r="BM42"/>
       <c r="BN42"/>
@@ -5822,71 +5696,62 @@
       <c r="BQ42"/>
       <c r="BR42"/>
       <c r="BS42" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT42"/>
-      <c r="BU42" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU42"/>
       <c r="BV42"/>
       <c r="BW42"/>
       <c r="BX42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BY42"/>
       <c r="BZ42"/>
       <c r="CA42"/>
       <c r="CB42"/>
       <c r="CC42"/>
-      <c r="CD42"/>
+      <c r="CD42" t="s">
+        <v>85</v>
+      </c>
       <c r="CE42"/>
-      <c r="CF42"/>
-      <c r="CG42" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
         <v>150</v>
       </c>
-      <c r="B43" t="s">
-        <v>152</v>
-      </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43" t="s">
-        <v>88</v>
-      </c>
+      <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M43"/>
       <c r="N43"/>
-      <c r="O43" t="s">
-        <v>88</v>
-      </c>
-      <c r="P43" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43" t="s">
+        <v>85</v>
+      </c>
       <c r="R43"/>
       <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43" t="s">
-        <v>88</v>
-      </c>
-      <c r="V43" t="s">
-        <v>88</v>
-      </c>
+      <c r="T43" t="s">
+        <v>85</v>
+      </c>
+      <c r="U43"/>
+      <c r="V43"/>
       <c r="W43"/>
       <c r="X43"/>
       <c r="Y43"/>
@@ -5894,9 +5759,7 @@
       <c r="AA43"/>
       <c r="AB43"/>
       <c r="AC43"/>
-      <c r="AD43" t="s">
-        <v>88</v>
-      </c>
+      <c r="AD43"/>
       <c r="AE43"/>
       <c r="AF43"/>
       <c r="AG43"/>
@@ -5906,123 +5769,108 @@
       <c r="AK43"/>
       <c r="AL43"/>
       <c r="AM43"/>
-      <c r="AN43" t="s">
-        <v>88</v>
-      </c>
+      <c r="AN43"/>
       <c r="AO43"/>
       <c r="AP43"/>
-      <c r="AQ43" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR43"/>
+      <c r="AQ43"/>
+      <c r="AR43" t="s">
+        <v>85</v>
+      </c>
       <c r="AS43"/>
-      <c r="AT43" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU43"/>
+      <c r="AT43"/>
+      <c r="AU43" t="s">
+        <v>85</v>
+      </c>
       <c r="AV43"/>
-      <c r="AW43" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW43"/>
       <c r="AX43"/>
       <c r="AY43"/>
-      <c r="AZ43" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA43"/>
+      <c r="AZ43"/>
+      <c r="BA43" t="s">
+        <v>85</v>
+      </c>
       <c r="BB43"/>
-      <c r="BC43" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC43"/>
       <c r="BD43"/>
       <c r="BE43"/>
       <c r="BF43"/>
       <c r="BG43"/>
       <c r="BH43"/>
-      <c r="BI43"/>
+      <c r="BI43" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ43"/>
       <c r="BK43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BL43"/>
       <c r="BM43"/>
-      <c r="BN43"/>
-      <c r="BO43"/>
+      <c r="BN43" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO43" t="s">
+        <v>85</v>
+      </c>
       <c r="BP43"/>
       <c r="BQ43"/>
       <c r="BR43"/>
       <c r="BS43" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT43" t="s">
-        <v>88</v>
-      </c>
-      <c r="BU43" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="BT43"/>
+      <c r="BU43"/>
       <c r="BV43"/>
       <c r="BW43"/>
-      <c r="BX43" t="s">
-        <v>88</v>
-      </c>
+      <c r="BX43"/>
       <c r="BY43"/>
       <c r="BZ43"/>
       <c r="CA43"/>
       <c r="CB43"/>
       <c r="CC43"/>
-      <c r="CD43"/>
+      <c r="CD43" t="s">
+        <v>85</v>
+      </c>
       <c r="CE43"/>
-      <c r="CF43"/>
-      <c r="CG43" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="I44" t="s">
-        <v>88</v>
-      </c>
+      <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44"/>
+      <c r="Q44" t="s">
+        <v>85</v>
+      </c>
       <c r="R44"/>
       <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44" t="s">
-        <v>88</v>
-      </c>
+      <c r="T44" t="s">
+        <v>85</v>
+      </c>
+      <c r="U44"/>
       <c r="V44"/>
       <c r="W44"/>
-      <c r="X44" t="s">
-        <v>88</v>
-      </c>
+      <c r="X44"/>
       <c r="Y44"/>
-      <c r="Z44" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44"/>
       <c r="AC44"/>
@@ -6040,49 +5888,53 @@
       <c r="AO44"/>
       <c r="AP44"/>
       <c r="AQ44"/>
-      <c r="AR44"/>
+      <c r="AR44" t="s">
+        <v>85</v>
+      </c>
       <c r="AS44"/>
-      <c r="AT44" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU44"/>
+      <c r="AT44"/>
+      <c r="AU44" t="s">
+        <v>85</v>
+      </c>
       <c r="AV44"/>
-      <c r="AW44" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW44"/>
       <c r="AX44"/>
       <c r="AY44"/>
       <c r="AZ44"/>
-      <c r="BA44"/>
+      <c r="BA44" t="s">
+        <v>85</v>
+      </c>
       <c r="BB44"/>
-      <c r="BC44" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC44"/>
       <c r="BD44"/>
       <c r="BE44"/>
       <c r="BF44"/>
       <c r="BG44"/>
       <c r="BH44"/>
-      <c r="BI44"/>
+      <c r="BI44" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ44"/>
       <c r="BK44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BL44"/>
       <c r="BM44"/>
-      <c r="BN44"/>
-      <c r="BO44"/>
+      <c r="BN44" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>85</v>
+      </c>
       <c r="BP44"/>
       <c r="BQ44"/>
       <c r="BR44"/>
-      <c r="BS44"/>
+      <c r="BS44" t="s">
+        <v>85</v>
+      </c>
       <c r="BT44"/>
-      <c r="BU44" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV44" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU44"/>
+      <c r="BV44"/>
       <c r="BW44"/>
       <c r="BX44"/>
       <c r="BY44"/>
@@ -6090,57 +5942,50 @@
       <c r="CA44"/>
       <c r="CB44"/>
       <c r="CC44"/>
-      <c r="CD44"/>
+      <c r="CD44" t="s">
+        <v>85</v>
+      </c>
       <c r="CE44"/>
-      <c r="CF44"/>
-      <c r="CG44" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45"/>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45" t="s">
-        <v>88</v>
-      </c>
+      <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>88</v>
-      </c>
-      <c r="M45" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
-      <c r="Q45"/>
+      <c r="Q45" t="s">
+        <v>85</v>
+      </c>
       <c r="R45"/>
       <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45" t="s">
-        <v>88</v>
-      </c>
+      <c r="T45" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45"/>
       <c r="V45"/>
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45"/>
-      <c r="Z45" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
       <c r="AC45"/>
@@ -6158,76 +6003,73 @@
       <c r="AO45"/>
       <c r="AP45"/>
       <c r="AQ45"/>
-      <c r="AR45"/>
+      <c r="AR45" t="s">
+        <v>85</v>
+      </c>
       <c r="AS45"/>
-      <c r="AT45" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU45"/>
+      <c r="AT45"/>
+      <c r="AU45" t="s">
+        <v>85</v>
+      </c>
       <c r="AV45"/>
-      <c r="AW45" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW45"/>
       <c r="AX45"/>
       <c r="AY45"/>
       <c r="AZ45"/>
-      <c r="BA45"/>
+      <c r="BA45" t="s">
+        <v>85</v>
+      </c>
       <c r="BB45"/>
-      <c r="BC45" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC45"/>
       <c r="BD45"/>
       <c r="BE45"/>
       <c r="BF45"/>
       <c r="BG45"/>
       <c r="BH45"/>
-      <c r="BI45"/>
+      <c r="BI45" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ45"/>
       <c r="BK45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BL45"/>
       <c r="BM45"/>
-      <c r="BN45"/>
-      <c r="BO45"/>
+      <c r="BN45" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>85</v>
+      </c>
       <c r="BP45"/>
       <c r="BQ45"/>
       <c r="BR45"/>
-      <c r="BS45"/>
+      <c r="BS45" t="s">
+        <v>85</v>
+      </c>
       <c r="BT45"/>
-      <c r="BU45" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV45" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU45"/>
+      <c r="BV45"/>
       <c r="BW45"/>
       <c r="BX45"/>
       <c r="BY45"/>
-      <c r="BZ45" t="s">
-        <v>88</v>
-      </c>
+      <c r="BZ45"/>
       <c r="CA45"/>
       <c r="CB45"/>
       <c r="CC45"/>
-      <c r="CD45"/>
+      <c r="CD45" t="s">
+        <v>85</v>
+      </c>
       <c r="CE45"/>
-      <c r="CF45"/>
-      <c r="CG45" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -6237,28 +6079,30 @@
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46" t="s">
-        <v>88</v>
-      </c>
+      <c r="T46" t="s">
+        <v>85</v>
+      </c>
+      <c r="U46"/>
       <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
-      <c r="Y46"/>
+      <c r="Y46" t="s">
+        <v>85</v>
+      </c>
       <c r="Z46"/>
       <c r="AA46"/>
-      <c r="AB46"/>
+      <c r="AB46" t="s">
+        <v>85</v>
+      </c>
       <c r="AC46"/>
       <c r="AD46"/>
       <c r="AE46"/>
@@ -6273,79 +6117,74 @@
       <c r="AN46"/>
       <c r="AO46"/>
       <c r="AP46"/>
-      <c r="AQ46"/>
-      <c r="AR46"/>
+      <c r="AQ46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>85</v>
+      </c>
       <c r="AS46"/>
-      <c r="AT46" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU46"/>
+      <c r="AT46"/>
+      <c r="AU46" t="s">
+        <v>85</v>
+      </c>
       <c r="AV46"/>
-      <c r="AW46" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW46"/>
       <c r="AX46"/>
       <c r="AY46"/>
       <c r="AZ46"/>
-      <c r="BA46"/>
+      <c r="BA46" t="s">
+        <v>85</v>
+      </c>
       <c r="BB46"/>
-      <c r="BC46" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC46"/>
       <c r="BD46"/>
       <c r="BE46"/>
       <c r="BF46"/>
       <c r="BG46"/>
       <c r="BH46"/>
-      <c r="BI46"/>
-      <c r="BJ46"/>
-      <c r="BK46" t="s">
-        <v>88</v>
-      </c>
+      <c r="BI46" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK46"/>
       <c r="BL46"/>
-      <c r="BM46" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM46"/>
       <c r="BN46"/>
       <c r="BO46"/>
-      <c r="BP46" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ46" t="s">
-        <v>88</v>
-      </c>
+      <c r="BP46"/>
+      <c r="BQ46"/>
       <c r="BR46"/>
-      <c r="BS46"/>
+      <c r="BS46" t="s">
+        <v>85</v>
+      </c>
       <c r="BT46"/>
-      <c r="BU46" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU46"/>
       <c r="BV46"/>
       <c r="BW46"/>
       <c r="BX46"/>
       <c r="BY46"/>
       <c r="BZ46"/>
-      <c r="CA46"/>
+      <c r="CA46" t="s">
+        <v>85</v>
+      </c>
       <c r="CB46"/>
       <c r="CC46"/>
-      <c r="CD46"/>
+      <c r="CD46" t="s">
+        <v>85</v>
+      </c>
       <c r="CE46"/>
-      <c r="CF46"/>
-      <c r="CG46" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -6355,28 +6194,30 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
-      <c r="Q47" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47" t="s">
-        <v>88</v>
-      </c>
+      <c r="T47" t="s">
+        <v>85</v>
+      </c>
+      <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
       <c r="X47"/>
-      <c r="Y47"/>
+      <c r="Y47" t="s">
+        <v>85</v>
+      </c>
       <c r="Z47"/>
       <c r="AA47"/>
-      <c r="AB47"/>
+      <c r="AB47" t="s">
+        <v>85</v>
+      </c>
       <c r="AC47"/>
       <c r="AD47"/>
       <c r="AE47"/>
@@ -6391,79 +6232,74 @@
       <c r="AN47"/>
       <c r="AO47"/>
       <c r="AP47"/>
-      <c r="AQ47"/>
-      <c r="AR47"/>
+      <c r="AQ47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>85</v>
+      </c>
       <c r="AS47"/>
-      <c r="AT47" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU47"/>
+      <c r="AT47"/>
+      <c r="AU47" t="s">
+        <v>85</v>
+      </c>
       <c r="AV47"/>
-      <c r="AW47" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW47"/>
       <c r="AX47"/>
       <c r="AY47"/>
       <c r="AZ47"/>
-      <c r="BA47"/>
+      <c r="BA47" t="s">
+        <v>85</v>
+      </c>
       <c r="BB47"/>
-      <c r="BC47" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC47"/>
       <c r="BD47"/>
       <c r="BE47"/>
       <c r="BF47"/>
       <c r="BG47"/>
       <c r="BH47"/>
-      <c r="BI47"/>
-      <c r="BJ47"/>
-      <c r="BK47" t="s">
-        <v>88</v>
-      </c>
+      <c r="BI47" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK47"/>
       <c r="BL47"/>
-      <c r="BM47" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM47"/>
       <c r="BN47"/>
       <c r="BO47"/>
-      <c r="BP47" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ47" t="s">
-        <v>88</v>
-      </c>
+      <c r="BP47"/>
+      <c r="BQ47"/>
       <c r="BR47"/>
-      <c r="BS47"/>
+      <c r="BS47" t="s">
+        <v>85</v>
+      </c>
       <c r="BT47"/>
-      <c r="BU47" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU47"/>
       <c r="BV47"/>
       <c r="BW47"/>
       <c r="BX47"/>
       <c r="BY47"/>
       <c r="BZ47"/>
-      <c r="CA47"/>
+      <c r="CA47" t="s">
+        <v>85</v>
+      </c>
       <c r="CB47"/>
       <c r="CC47"/>
-      <c r="CD47"/>
+      <c r="CD47" t="s">
+        <v>85</v>
+      </c>
       <c r="CE47"/>
-      <c r="CF47"/>
-      <c r="CG47" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
         <v>156</v>
       </c>
-      <c r="B48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
+      <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
@@ -6473,28 +6309,30 @@
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48" t="s">
-        <v>88</v>
-      </c>
+      <c r="T48" t="s">
+        <v>85</v>
+      </c>
+      <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
-      <c r="Y48"/>
+      <c r="Y48" t="s">
+        <v>85</v>
+      </c>
       <c r="Z48"/>
       <c r="AA48"/>
-      <c r="AB48"/>
+      <c r="AB48" t="s">
+        <v>85</v>
+      </c>
       <c r="AC48"/>
       <c r="AD48"/>
       <c r="AE48"/>
@@ -6509,111 +6347,114 @@
       <c r="AN48"/>
       <c r="AO48"/>
       <c r="AP48"/>
-      <c r="AQ48"/>
-      <c r="AR48"/>
+      <c r="AQ48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>85</v>
+      </c>
       <c r="AS48"/>
-      <c r="AT48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU48"/>
+      <c r="AT48"/>
+      <c r="AU48" t="s">
+        <v>85</v>
+      </c>
       <c r="AV48"/>
-      <c r="AW48" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW48"/>
       <c r="AX48"/>
       <c r="AY48"/>
       <c r="AZ48"/>
-      <c r="BA48"/>
+      <c r="BA48" t="s">
+        <v>85</v>
+      </c>
       <c r="BB48"/>
-      <c r="BC48" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC48"/>
       <c r="BD48"/>
       <c r="BE48"/>
       <c r="BF48"/>
       <c r="BG48"/>
       <c r="BH48"/>
-      <c r="BI48"/>
-      <c r="BJ48"/>
-      <c r="BK48" t="s">
-        <v>88</v>
-      </c>
+      <c r="BI48" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ48" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK48"/>
       <c r="BL48"/>
-      <c r="BM48" t="s">
-        <v>88</v>
-      </c>
+      <c r="BM48"/>
       <c r="BN48"/>
       <c r="BO48"/>
-      <c r="BP48" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ48" t="s">
-        <v>88</v>
-      </c>
+      <c r="BP48"/>
+      <c r="BQ48"/>
       <c r="BR48"/>
-      <c r="BS48"/>
+      <c r="BS48" t="s">
+        <v>85</v>
+      </c>
       <c r="BT48"/>
-      <c r="BU48" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU48"/>
       <c r="BV48"/>
       <c r="BW48"/>
       <c r="BX48"/>
       <c r="BY48"/>
       <c r="BZ48"/>
-      <c r="CA48"/>
+      <c r="CA48" t="s">
+        <v>85</v>
+      </c>
       <c r="CB48"/>
       <c r="CC48"/>
-      <c r="CD48"/>
+      <c r="CD48" t="s">
+        <v>85</v>
+      </c>
       <c r="CE48"/>
-      <c r="CF48"/>
-      <c r="CG48" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49"/>
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
       <c r="D49"/>
-      <c r="E49"/>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49"/>
+      <c r="J49" t="s">
+        <v>85</v>
+      </c>
       <c r="K49"/>
       <c r="L49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
+      <c r="R49" t="s">
+        <v>85</v>
+      </c>
       <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49" t="s">
-        <v>88</v>
-      </c>
+      <c r="T49" t="s">
+        <v>85</v>
+      </c>
+      <c r="U49"/>
       <c r="V49"/>
       <c r="W49"/>
-      <c r="X49"/>
+      <c r="X49" t="s">
+        <v>85</v>
+      </c>
       <c r="Y49"/>
-      <c r="Z49" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
-      <c r="AC49" t="s">
-        <v>88</v>
-      </c>
+      <c r="AC49"/>
       <c r="AD49"/>
       <c r="AE49"/>
       <c r="AF49"/>
@@ -6624,114 +6465,119 @@
       <c r="AK49"/>
       <c r="AL49"/>
       <c r="AM49"/>
-      <c r="AN49"/>
+      <c r="AN49" t="s">
+        <v>85</v>
+      </c>
       <c r="AO49"/>
-      <c r="AP49"/>
+      <c r="AP49" t="s">
+        <v>85</v>
+      </c>
       <c r="AQ49"/>
-      <c r="AR49"/>
-      <c r="AS49" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT49" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU49"/>
+      <c r="AR49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS49"/>
+      <c r="AT49"/>
+      <c r="AU49" t="s">
+        <v>85</v>
+      </c>
       <c r="AV49"/>
-      <c r="AW49" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW49"/>
       <c r="AX49"/>
       <c r="AY49"/>
       <c r="AZ49"/>
-      <c r="BA49"/>
+      <c r="BA49" t="s">
+        <v>85</v>
+      </c>
       <c r="BB49"/>
-      <c r="BC49" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC49"/>
       <c r="BD49"/>
       <c r="BE49"/>
       <c r="BF49"/>
-      <c r="BG49"/>
+      <c r="BG49" t="s">
+        <v>85</v>
+      </c>
       <c r="BH49"/>
-      <c r="BI49"/>
+      <c r="BI49" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ49"/>
-      <c r="BK49" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL49" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK49"/>
+      <c r="BL49"/>
       <c r="BM49"/>
       <c r="BN49"/>
       <c r="BO49"/>
       <c r="BP49"/>
       <c r="BQ49"/>
       <c r="BR49"/>
-      <c r="BS49"/>
+      <c r="BS49" t="s">
+        <v>85</v>
+      </c>
       <c r="BT49"/>
-      <c r="BU49" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU49"/>
       <c r="BV49"/>
       <c r="BW49"/>
       <c r="BX49"/>
-      <c r="BY49"/>
+      <c r="BY49" t="s">
+        <v>85</v>
+      </c>
       <c r="BZ49"/>
       <c r="CA49"/>
       <c r="CB49"/>
-      <c r="CC49" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD49"/>
+      <c r="CC49"/>
+      <c r="CD49" t="s">
+        <v>85</v>
+      </c>
       <c r="CE49"/>
-      <c r="CF49"/>
-      <c r="CG49" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50"/>
+        <v>159</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
       <c r="D50"/>
-      <c r="E50"/>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
       <c r="K50"/>
       <c r="L50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
+      <c r="R50" t="s">
+        <v>85</v>
+      </c>
       <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50" t="s">
-        <v>88</v>
-      </c>
+      <c r="T50" t="s">
+        <v>85</v>
+      </c>
+      <c r="U50"/>
       <c r="V50"/>
       <c r="W50"/>
-      <c r="X50"/>
+      <c r="X50" t="s">
+        <v>85</v>
+      </c>
       <c r="Y50"/>
-      <c r="Z50" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
-      <c r="AC50" t="s">
-        <v>88</v>
-      </c>
+      <c r="AC50"/>
       <c r="AD50"/>
       <c r="AE50"/>
       <c r="AF50"/>
@@ -6742,54 +6588,54 @@
       <c r="AK50"/>
       <c r="AL50"/>
       <c r="AM50"/>
-      <c r="AN50"/>
+      <c r="AN50" t="s">
+        <v>85</v>
+      </c>
       <c r="AO50"/>
       <c r="AP50"/>
       <c r="AQ50"/>
-      <c r="AR50"/>
-      <c r="AS50" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU50"/>
+      <c r="AR50" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50" t="s">
+        <v>85</v>
+      </c>
       <c r="AV50"/>
-      <c r="AW50" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW50"/>
       <c r="AX50"/>
       <c r="AY50"/>
       <c r="AZ50"/>
-      <c r="BA50"/>
+      <c r="BA50" t="s">
+        <v>85</v>
+      </c>
       <c r="BB50"/>
-      <c r="BC50" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC50"/>
       <c r="BD50"/>
       <c r="BE50"/>
       <c r="BF50"/>
-      <c r="BG50"/>
+      <c r="BG50" t="s">
+        <v>85</v>
+      </c>
       <c r="BH50"/>
-      <c r="BI50"/>
+      <c r="BI50" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ50"/>
-      <c r="BK50" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL50" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK50"/>
+      <c r="BL50"/>
       <c r="BM50"/>
       <c r="BN50"/>
       <c r="BO50"/>
       <c r="BP50"/>
       <c r="BQ50"/>
       <c r="BR50"/>
-      <c r="BS50"/>
+      <c r="BS50" t="s">
+        <v>85</v>
+      </c>
       <c r="BT50"/>
-      <c r="BU50" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU50"/>
       <c r="BV50"/>
       <c r="BW50"/>
       <c r="BX50"/>
@@ -6797,23 +6643,18 @@
       <c r="BZ50"/>
       <c r="CA50"/>
       <c r="CB50"/>
-      <c r="CC50" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD50"/>
+      <c r="CC50"/>
+      <c r="CD50" t="s">
+        <v>85</v>
+      </c>
       <c r="CE50"/>
-      <c r="CF50"/>
-      <c r="CG50" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -6825,7 +6666,7 @@
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M51"/>
       <c r="N51"/>
@@ -6834,23 +6675,23 @@
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51" t="s">
-        <v>88</v>
-      </c>
-      <c r="V51"/>
+      <c r="T51" t="s">
+        <v>85</v>
+      </c>
+      <c r="U51"/>
+      <c r="V51" t="s">
+        <v>85</v>
+      </c>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
-      <c r="Z51" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z51"/>
       <c r="AA51"/>
       <c r="AB51"/>
-      <c r="AC51" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD51"/>
+      <c r="AC51"/>
+      <c r="AD51" t="s">
+        <v>85</v>
+      </c>
       <c r="AE51"/>
       <c r="AF51"/>
       <c r="AG51"/>
@@ -6859,43 +6700,43 @@
       <c r="AJ51"/>
       <c r="AK51"/>
       <c r="AL51"/>
-      <c r="AM51"/>
+      <c r="AM51" t="s">
+        <v>85</v>
+      </c>
       <c r="AN51"/>
       <c r="AO51"/>
       <c r="AP51"/>
       <c r="AQ51"/>
-      <c r="AR51"/>
-      <c r="AS51" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT51" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU51"/>
+      <c r="AR51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51" t="s">
+        <v>85</v>
+      </c>
       <c r="AV51"/>
-      <c r="AW51" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW51"/>
       <c r="AX51"/>
       <c r="AY51"/>
-      <c r="AZ51"/>
+      <c r="AZ51" t="s">
+        <v>85</v>
+      </c>
       <c r="BA51"/>
       <c r="BB51"/>
-      <c r="BC51" t="s">
-        <v>88</v>
-      </c>
+      <c r="BC51"/>
       <c r="BD51"/>
       <c r="BE51"/>
       <c r="BF51"/>
       <c r="BG51"/>
       <c r="BH51"/>
-      <c r="BI51"/>
+      <c r="BI51" t="s">
+        <v>85</v>
+      </c>
       <c r="BJ51"/>
-      <c r="BK51" t="s">
-        <v>88</v>
-      </c>
+      <c r="BK51"/>
       <c r="BL51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BM51"/>
       <c r="BN51"/>
@@ -6903,11 +6744,11 @@
       <c r="BP51"/>
       <c r="BQ51"/>
       <c r="BR51"/>
-      <c r="BS51"/>
+      <c r="BS51" t="s">
+        <v>85</v>
+      </c>
       <c r="BT51"/>
-      <c r="BU51" t="s">
-        <v>88</v>
-      </c>
+      <c r="BU51"/>
       <c r="BV51"/>
       <c r="BW51"/>
       <c r="BX51"/>
@@ -6915,380 +6756,11 @@
       <c r="BZ51"/>
       <c r="CA51"/>
       <c r="CB51"/>
-      <c r="CC51" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD51"/>
+      <c r="CC51"/>
+      <c r="CD51" t="s">
+        <v>85</v>
+      </c>
       <c r="CE51"/>
-      <c r="CF51"/>
-      <c r="CG51" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH51"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52" t="s">
-        <v>88</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52" t="s">
-        <v>88</v>
-      </c>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52" t="s">
-        <v>88</v>
-      </c>
-      <c r="T52"/>
-      <c r="U52" t="s">
-        <v>88</v>
-      </c>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
-      <c r="AL52"/>
-      <c r="AM52"/>
-      <c r="AN52"/>
-      <c r="AO52"/>
-      <c r="AP52" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ52"/>
-      <c r="AR52" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS52"/>
-      <c r="AT52" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU52"/>
-      <c r="AV52"/>
-      <c r="AW52" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX52"/>
-      <c r="AY52"/>
-      <c r="AZ52"/>
-      <c r="BA52"/>
-      <c r="BB52"/>
-      <c r="BC52" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD52"/>
-      <c r="BE52"/>
-      <c r="BF52"/>
-      <c r="BG52"/>
-      <c r="BH52"/>
-      <c r="BI52" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ52"/>
-      <c r="BK52" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL52"/>
-      <c r="BM52"/>
-      <c r="BN52"/>
-      <c r="BO52"/>
-      <c r="BP52"/>
-      <c r="BQ52"/>
-      <c r="BR52"/>
-      <c r="BS52"/>
-      <c r="BT52"/>
-      <c r="BU52" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV52"/>
-      <c r="BW52"/>
-      <c r="BX52"/>
-      <c r="BY52"/>
-      <c r="BZ52"/>
-      <c r="CA52" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB52"/>
-      <c r="CC52"/>
-      <c r="CD52"/>
-      <c r="CE52"/>
-      <c r="CF52"/>
-      <c r="CG52" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>164</v>
-      </c>
-      <c r="B53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53" t="s">
-        <v>88</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53" t="s">
-        <v>88</v>
-      </c>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53" t="s">
-        <v>88</v>
-      </c>
-      <c r="T53"/>
-      <c r="U53" t="s">
-        <v>88</v>
-      </c>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z53"/>
-      <c r="AA53"/>
-      <c r="AB53"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
-      <c r="AE53"/>
-      <c r="AF53"/>
-      <c r="AG53"/>
-      <c r="AH53"/>
-      <c r="AI53"/>
-      <c r="AJ53"/>
-      <c r="AK53"/>
-      <c r="AL53"/>
-      <c r="AM53"/>
-      <c r="AN53"/>
-      <c r="AO53"/>
-      <c r="AP53" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ53"/>
-      <c r="AR53"/>
-      <c r="AS53"/>
-      <c r="AT53" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU53"/>
-      <c r="AV53"/>
-      <c r="AW53" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX53"/>
-      <c r="AY53"/>
-      <c r="AZ53"/>
-      <c r="BA53"/>
-      <c r="BB53"/>
-      <c r="BC53" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD53"/>
-      <c r="BE53"/>
-      <c r="BF53"/>
-      <c r="BG53"/>
-      <c r="BH53"/>
-      <c r="BI53" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ53"/>
-      <c r="BK53" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL53"/>
-      <c r="BM53"/>
-      <c r="BN53"/>
-      <c r="BO53"/>
-      <c r="BP53"/>
-      <c r="BQ53"/>
-      <c r="BR53"/>
-      <c r="BS53"/>
-      <c r="BT53"/>
-      <c r="BU53" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV53"/>
-      <c r="BW53"/>
-      <c r="BX53"/>
-      <c r="BY53"/>
-      <c r="BZ53"/>
-      <c r="CA53"/>
-      <c r="CB53"/>
-      <c r="CC53"/>
-      <c r="CD53"/>
-      <c r="CE53"/>
-      <c r="CF53"/>
-      <c r="CG53" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54" t="s">
-        <v>88</v>
-      </c>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54" t="s">
-        <v>88</v>
-      </c>
-      <c r="V54"/>
-      <c r="W54" t="s">
-        <v>88</v>
-      </c>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AC54"/>
-      <c r="AD54"/>
-      <c r="AE54" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF54"/>
-      <c r="AG54"/>
-      <c r="AH54"/>
-      <c r="AI54"/>
-      <c r="AJ54"/>
-      <c r="AK54"/>
-      <c r="AL54"/>
-      <c r="AM54"/>
-      <c r="AN54"/>
-      <c r="AO54" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP54"/>
-      <c r="AQ54"/>
-      <c r="AR54"/>
-      <c r="AS54"/>
-      <c r="AT54" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU54"/>
-      <c r="AV54"/>
-      <c r="AW54" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX54"/>
-      <c r="AY54"/>
-      <c r="AZ54"/>
-      <c r="BA54"/>
-      <c r="BB54" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC54"/>
-      <c r="BD54"/>
-      <c r="BE54"/>
-      <c r="BF54"/>
-      <c r="BG54"/>
-      <c r="BH54"/>
-      <c r="BI54"/>
-      <c r="BJ54"/>
-      <c r="BK54" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL54"/>
-      <c r="BM54"/>
-      <c r="BN54" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO54"/>
-      <c r="BP54"/>
-      <c r="BQ54"/>
-      <c r="BR54"/>
-      <c r="BS54"/>
-      <c r="BT54"/>
-      <c r="BU54" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV54"/>
-      <c r="BW54"/>
-      <c r="BX54"/>
-      <c r="BY54"/>
-      <c r="BZ54"/>
-      <c r="CA54"/>
-      <c r="CB54"/>
-      <c r="CC54"/>
-      <c r="CD54"/>
-      <c r="CE54"/>
-      <c r="CF54"/>
-      <c r="CG54" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
